--- a/气象/北境强冷站每日气温记录.xlsx
+++ b/气象/北境强冷站每日气温记录.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{192770D9-B99B-4676-B412-74C2C7AFEC33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B11E574-A042-4F2F-B145-826EE7876255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{21DDB67E-D335-466F-8652-CD2F68303142}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="103">
   <si>
     <t>漠河</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -511,7 +511,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11月15日</t>
+    <t>巴音郭楞乡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>尧勒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三河马场五队</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三道海子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>蒙古国5个非国家站，早上8点看昨天夜里低温情况，顺带也记录昨夜高温情况。晚上8点看今天白天高温情况，低温可能出现在早8以后，所以晚上8点要再检查高低温一次。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>同时还要考虑高低温不要和上一个24小时重复</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11月17日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -522,7 +564,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -669,8 +711,41 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -713,8 +788,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8EA604"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -829,13 +910,59 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -920,32 +1047,56 @@
     <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="8"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="176" fontId="19" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -955,10 +1106,10 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF8EA604"/>
       <color rgb="FF4CC9F0"/>
       <color rgb="FF480CA8"/>
       <color rgb="FFBF3100"/>
-      <color rgb="FF8EA604"/>
       <color rgb="FFEC9F05"/>
       <color rgb="FF3A0CA3"/>
       <color rgb="FFF72585"/>
@@ -1275,15 +1426,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E72AAA-3912-4684-8CF1-D56A9EC12E76}">
-  <dimension ref="A1:AE25"/>
+  <dimension ref="A1:AE30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.59765625" style="36" customWidth="1"/>
+    <col min="1" max="1" width="20.59765625" style="31" customWidth="1"/>
     <col min="2" max="3" width="12.59765625" style="6" customWidth="1"/>
     <col min="4" max="6" width="8.59765625" style="6" customWidth="1"/>
     <col min="7" max="7" width="32.59765625" style="6" customWidth="1"/>
@@ -1291,290 +1442,260 @@
     <col min="9" max="16384" width="9.06640625" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" s="10" customFormat="1" ht="72" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:31" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="43" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="42"/>
+    </row>
+    <row r="2" spans="1:31" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C1" s="9" t="s">
+      <c r="C2" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D2" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E2" s="23" t="s">
         <v>90</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F2" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="19" t="s">
+      <c r="H2" s="19" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B2" s="20">
-        <v>-27.5</v>
-      </c>
-      <c r="C2" s="20">
-        <v>-11.9</v>
-      </c>
-      <c r="D2" s="24"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="H2" s="7" cm="1">
-        <f t="array" ref="H2:AE2">TRANSPOSE(B2:B25)</f>
-        <v>-27.5</v>
-      </c>
-      <c r="I2" s="7">
-        <v>-22.8</v>
-      </c>
-      <c r="J2" s="7">
-        <v>-26</v>
-      </c>
-      <c r="K2" s="7">
-        <v>6.7</v>
-      </c>
-      <c r="L2" s="7">
-        <v>-17.2</v>
-      </c>
-      <c r="M2" s="7">
-        <v>-14.3</v>
-      </c>
-      <c r="N2" s="7">
-        <v>-16</v>
-      </c>
-      <c r="O2" s="7">
-        <v>-13.2</v>
-      </c>
-      <c r="P2" s="7">
-        <v>-25.6</v>
-      </c>
-      <c r="Q2" s="7">
-        <v>-21.7</v>
-      </c>
-      <c r="R2" s="7">
-        <v>-19.2</v>
-      </c>
-      <c r="S2" s="7">
-        <v>-9.5</v>
-      </c>
-      <c r="T2" s="7">
-        <v>-9.6</v>
-      </c>
-      <c r="U2" s="7">
-        <v>-26.9</v>
-      </c>
-      <c r="V2" s="7">
-        <v>-11.7</v>
-      </c>
-      <c r="W2" s="7">
-        <v>-16.899999999999999</v>
-      </c>
-      <c r="X2" s="7">
-        <v>-12.7</v>
-      </c>
-      <c r="Y2" s="7">
-        <v>-15.5</v>
-      </c>
-      <c r="Z2" s="7">
-        <v>-18</v>
-      </c>
-      <c r="AA2" s="7">
-        <v>-20</v>
-      </c>
-      <c r="AB2" s="7">
-        <v>-23.5</v>
-      </c>
-      <c r="AC2" s="7">
-        <v>-25.5</v>
-      </c>
-      <c r="AD2" s="7">
-        <v>-14.4</v>
-      </c>
-      <c r="AE2" s="7">
-        <v>-24.1</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="20">
-        <v>-22.8</v>
-      </c>
-      <c r="C3" s="20">
-        <v>-5.6</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
       <c r="D3" s="24"/>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
       <c r="G3" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H3" s="7" cm="1">
-        <f t="array" ref="H3:AE3">TRANSPOSE(C2:C25)</f>
-        <v>-11.9</v>
+        <f t="array" ref="H3:AE3">TRANSPOSE(B3:B26)</f>
+        <v>0</v>
       </c>
       <c r="I3" s="7">
-        <v>-5.6</v>
+        <v>0</v>
       </c>
       <c r="J3" s="7">
+        <v>0</v>
+      </c>
+      <c r="K3" s="7">
+        <v>0</v>
+      </c>
+      <c r="L3" s="7">
+        <v>0</v>
+      </c>
+      <c r="M3" s="7">
+        <v>0</v>
+      </c>
+      <c r="N3" s="7">
+        <v>0</v>
+      </c>
+      <c r="O3" s="7">
+        <v>0</v>
+      </c>
+      <c r="P3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>0</v>
+      </c>
+      <c r="R3" s="7">
+        <v>0</v>
+      </c>
+      <c r="S3" s="7">
+        <v>0</v>
+      </c>
+      <c r="T3" s="7">
+        <v>0</v>
+      </c>
+      <c r="U3" s="7">
+        <v>0</v>
+      </c>
+      <c r="V3" s="7">
+        <v>0</v>
+      </c>
+      <c r="W3" s="7">
+        <v>0</v>
+      </c>
+      <c r="X3" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="7">
         <v>-15.4</v>
       </c>
-      <c r="K3" s="7">
-        <v>14.6</v>
-      </c>
-      <c r="L3" s="7">
-        <v>-9.9</v>
-      </c>
-      <c r="M3" s="7">
-        <v>-7.1</v>
-      </c>
-      <c r="N3" s="7">
-        <v>-3.9</v>
-      </c>
-      <c r="O3" s="7">
-        <v>-6.3</v>
-      </c>
-      <c r="P3" s="7">
-        <v>-13.9</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>-9.3000000000000007</v>
-      </c>
-      <c r="R3" s="7">
-        <v>-9.8000000000000007</v>
-      </c>
-      <c r="S3" s="7">
-        <v>-3.3</v>
-      </c>
-      <c r="T3" s="7">
-        <v>-2</v>
-      </c>
-      <c r="U3" s="7">
-        <v>-10.7</v>
-      </c>
-      <c r="V3" s="7">
-        <v>-2.7</v>
-      </c>
-      <c r="W3" s="7">
-        <v>-7.8</v>
-      </c>
-      <c r="X3" s="7">
-        <v>3.3</v>
-      </c>
-      <c r="Y3" s="7">
-        <v>-4.5</v>
-      </c>
       <c r="Z3" s="7">
-        <v>-8.1</v>
+        <v>-18.8</v>
       </c>
       <c r="AA3" s="7">
-        <v>-15.8</v>
+        <v>-21.5</v>
       </c>
       <c r="AB3" s="7">
-        <v>-5.6</v>
+        <v>-26.1</v>
       </c>
       <c r="AC3" s="7">
-        <v>-11.7</v>
+        <v>-29.2</v>
       </c>
       <c r="AD3" s="7">
-        <v>-2.7</v>
+        <v>-17.7</v>
       </c>
       <c r="AE3" s="7">
-        <v>-16</v>
+        <v>-16.3</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" s="20">
-        <v>-26</v>
-      </c>
-      <c r="C4" s="20">
-        <v>-15.4</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="B4" s="20"/>
+      <c r="C4" s="20"/>
       <c r="D4" s="24"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
       <c r="G4" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
+      </c>
+      <c r="H4" s="7" cm="1">
+        <f t="array" ref="H4:AE4">TRANSPOSE(C3:C26)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="7">
+        <v>0</v>
+      </c>
+      <c r="J4" s="7">
+        <v>0</v>
+      </c>
+      <c r="K4" s="7">
+        <v>0</v>
+      </c>
+      <c r="L4" s="7">
+        <v>0</v>
+      </c>
+      <c r="M4" s="7">
+        <v>0</v>
+      </c>
+      <c r="N4" s="7">
+        <v>0</v>
+      </c>
+      <c r="O4" s="7">
+        <v>0</v>
+      </c>
+      <c r="P4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>0</v>
+      </c>
+      <c r="R4" s="7">
+        <v>0</v>
+      </c>
+      <c r="S4" s="7">
+        <v>0</v>
+      </c>
+      <c r="T4" s="7">
+        <v>0</v>
+      </c>
+      <c r="U4" s="7">
+        <v>0</v>
+      </c>
+      <c r="V4" s="7">
+        <v>0</v>
+      </c>
+      <c r="W4" s="7">
+        <v>0</v>
+      </c>
+      <c r="X4" s="7">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>-6</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>-11</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>-13</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>-19.2</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>-24.6</v>
+      </c>
+      <c r="AD4" s="7">
+        <v>-6.9</v>
+      </c>
+      <c r="AE4" s="7">
+        <v>-11.3</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="20">
-        <v>6.7</v>
-      </c>
-      <c r="C5" s="20">
-        <v>14.6</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
       <c r="D5" s="24"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="20">
-        <v>-17.2</v>
-      </c>
-      <c r="C6" s="20">
-        <v>-9.9</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
       <c r="D6" s="24"/>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
       <c r="G6" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="20">
-        <v>-14.3</v>
-      </c>
-      <c r="C7" s="20">
-        <v>-7.1</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="B7" s="20"/>
+      <c r="C7" s="20"/>
       <c r="D7" s="24"/>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
       <c r="G7" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B8" s="20">
-        <v>-16</v>
-      </c>
-      <c r="C8" s="20">
-        <v>-3.9</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B8" s="20"/>
+      <c r="C8" s="20"/>
       <c r="D8" s="24"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
@@ -1584,364 +1705,367 @@
     </row>
     <row r="9" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B9" s="20">
-        <v>-13.2</v>
-      </c>
-      <c r="C9" s="20">
-        <v>-6.3</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
       <c r="D9" s="24"/>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B10" s="20">
-        <v>-25.6</v>
-      </c>
-      <c r="C10" s="20">
-        <v>-13.9</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
       <c r="D10" s="24"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="27" t="s">
-        <v>49</v>
-      </c>
-      <c r="B11" s="20">
-        <v>-21.7</v>
-      </c>
-      <c r="C11" s="20">
-        <v>-9.3000000000000007</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
       <c r="D11" s="24"/>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
       <c r="G11" s="21" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="20">
-        <v>-19.2</v>
-      </c>
-      <c r="C12" s="20">
-        <v>-9.8000000000000007</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="B12" s="20"/>
+      <c r="C12" s="20"/>
       <c r="D12" s="24"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="21" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="B13" s="20">
-        <v>-9.5</v>
-      </c>
-      <c r="C13" s="20">
-        <v>-3.3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
       <c r="D13" s="24"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="21" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B14" s="20">
-        <v>-9.6</v>
-      </c>
-      <c r="C14" s="20">
-        <v>-2</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
       <c r="D14" s="24"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="21" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B15" s="20">
-        <v>-26.9</v>
-      </c>
-      <c r="C15" s="20">
-        <v>-10.7</v>
-      </c>
-      <c r="D15" s="24">
-        <v>1</v>
-      </c>
-      <c r="E15" s="25">
-        <v>7</v>
-      </c>
-      <c r="F15" s="25">
-        <v>203</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
       <c r="G15" s="21" t="s">
-        <v>75</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B16" s="20">
-        <v>-11.7</v>
-      </c>
-      <c r="C16" s="20">
-        <v>-2.7</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
       <c r="D16" s="24">
         <v>1</v>
       </c>
       <c r="E16" s="25">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="F16" s="25">
-        <v>212</v>
-      </c>
-      <c r="G16" s="22" t="s">
-        <v>67</v>
+        <v>203</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="27" t="s">
-        <v>45</v>
-      </c>
-      <c r="B17" s="20">
-        <v>-16.899999999999999</v>
-      </c>
-      <c r="C17" s="20">
-        <v>-7.8</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
       <c r="D17" s="24">
         <v>1</v>
       </c>
       <c r="E17" s="25">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="F17" s="25">
-        <v>225</v>
+        <v>212</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="27" t="s">
-        <v>42</v>
-      </c>
-      <c r="B18" s="20">
-        <v>-12.7</v>
-      </c>
-      <c r="C18" s="20">
-        <v>3.3</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
       <c r="D18" s="24">
         <v>1</v>
       </c>
       <c r="E18" s="25">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="F18" s="25">
-        <v>292</v>
-      </c>
-      <c r="G18" s="21" t="s">
-        <v>88</v>
+        <v>225</v>
+      </c>
+      <c r="G18" s="22" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="27" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="20">
-        <v>-15.5</v>
-      </c>
-      <c r="C19" s="20">
-        <v>-4.5</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20"/>
       <c r="D19" s="24">
         <v>1</v>
       </c>
       <c r="E19" s="25">
-        <v>15</v>
+        <v>87</v>
       </c>
       <c r="F19" s="25">
-        <v>211</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>67</v>
+        <v>292</v>
+      </c>
+      <c r="G19" s="21" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="27" t="s">
-        <v>68</v>
+      <c r="A20" s="40" t="s">
+        <v>47</v>
       </c>
       <c r="B20" s="20">
-        <v>-18</v>
+        <v>-15.4</v>
       </c>
       <c r="C20" s="20">
-        <v>-8.1</v>
+        <v>-6</v>
       </c>
       <c r="D20" s="24">
         <v>1</v>
       </c>
       <c r="E20" s="25">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="F20" s="25">
-        <v>221</v>
+        <v>211</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="27" t="s">
-        <v>71</v>
+      <c r="A21" s="40" t="s">
+        <v>68</v>
       </c>
       <c r="B21" s="20">
-        <v>-20</v>
+        <v>-18.8</v>
       </c>
       <c r="C21" s="20">
-        <v>-15.8</v>
+        <v>-11</v>
       </c>
       <c r="D21" s="24">
         <v>1</v>
       </c>
       <c r="E21" s="25">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F21" s="25">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G21" s="22" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="27" t="s">
-        <v>76</v>
+      <c r="A22" s="40" t="s">
+        <v>71</v>
       </c>
       <c r="B22" s="20">
-        <v>-23.5</v>
-      </c>
-      <c r="C22" s="20">
-        <v>-5.6</v>
+        <v>-21.5</v>
+      </c>
+      <c r="C22" s="44">
+        <v>-13</v>
       </c>
       <c r="D22" s="24">
         <v>1</v>
       </c>
       <c r="E22" s="25">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="F22" s="25">
-        <v>243</v>
+        <v>224</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="B23" s="20">
-        <v>-25.5</v>
+      <c r="A23" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B23" s="44">
+        <v>-26.1</v>
       </c>
       <c r="C23" s="20">
-        <v>-11.7</v>
+        <v>-19.2</v>
       </c>
       <c r="D23" s="24">
         <v>1</v>
       </c>
       <c r="E23" s="25">
+        <v>45</v>
+      </c>
+      <c r="F23" s="25">
+        <v>243</v>
+      </c>
+      <c r="G23" s="22" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24" s="20">
+        <v>-29.2</v>
+      </c>
+      <c r="C24" s="44">
+        <v>-24.6</v>
+      </c>
+      <c r="D24" s="24">
+        <v>1</v>
+      </c>
+      <c r="E24" s="25">
         <v>72</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F24" s="25">
         <v>274</v>
       </c>
-      <c r="G23" s="22" t="s">
+      <c r="G24" s="22" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="27" t="s">
+    <row r="25" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="40" t="s">
         <v>65</v>
       </c>
-      <c r="B24" s="20">
-        <v>-14.4</v>
-      </c>
-      <c r="C24" s="20">
-        <v>-2.7</v>
-      </c>
-      <c r="D24" s="24">
+      <c r="B25" s="20">
+        <v>-17.7</v>
+      </c>
+      <c r="C25" s="20">
+        <v>-6.9</v>
+      </c>
+      <c r="D25" s="24">
         <v>3</v>
       </c>
-      <c r="E24" s="25">
+      <c r="E25" s="25">
         <v>77</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F25" s="25">
         <v>828</v>
       </c>
-      <c r="G24" s="22" t="s">
+      <c r="G25" s="22" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="27" t="s">
+    <row r="26" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="40" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="20">
-        <v>-24.1</v>
-      </c>
-      <c r="C25" s="20">
-        <v>-16</v>
-      </c>
-      <c r="D25" s="24">
+      <c r="B26" s="20">
+        <v>-16.3</v>
+      </c>
+      <c r="C26" s="20">
+        <v>-11.3</v>
+      </c>
+      <c r="D26" s="24">
         <v>4</v>
       </c>
-      <c r="E25" s="25">
+      <c r="E26" s="25">
         <v>3</v>
       </c>
-      <c r="F25" s="25">
+      <c r="F26" s="25">
         <v>893</v>
       </c>
-      <c r="G25" s="22" t="s">
+      <c r="G26" s="22" t="s">
         <v>75</v>
       </c>
     </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A28" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="B28" s="34">
+        <v>-33</v>
+      </c>
+      <c r="C28" s="33"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A29" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="B29" s="34">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="C29" s="33"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="A30" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="B30" s="34">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="C30" s="33"/>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A19:G25">
-    <sortCondition ref="D19:D25"/>
-    <sortCondition ref="E19:E25"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A20:G26">
+    <sortCondition ref="D20:D26"/>
+    <sortCondition ref="E20:E26"/>
   </sortState>
+  <mergeCells count="1">
+    <mergeCell ref="A1:G1"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1951,8 +2075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF0FA41-85CC-443B-8D70-8487574C7D86}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -1966,27 +2090,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="28"/>
+      <c r="A1" s="39"/>
       <c r="B1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="36"/>
     </row>
     <row r="2" spans="1:5" ht="43.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="28"/>
+      <c r="A2" s="39"/>
       <c r="B2" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="33"/>
+        <v>102</v>
+      </c>
+      <c r="C2" s="37"/>
+      <c r="D2" s="37"/>
+      <c r="E2" s="38"/>
     </row>
     <row r="3" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="29" t="s">
         <v>96</v>
       </c>
       <c r="B3" s="12" t="s">
@@ -2009,31 +2133,23 @@
       <c r="B4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="35">
-        <v>-27.5</v>
-      </c>
-      <c r="D4" s="35">
-        <v>-11.9</v>
-      </c>
-      <c r="E4" s="29" t="s">
+      <c r="C4" s="30"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="28" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="15">
-        <v>14</v>
-      </c>
-      <c r="B5" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="35">
-        <v>-26.9</v>
-      </c>
-      <c r="D5" s="35">
-        <v>-10.7</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>26</v>
+      <c r="B5" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C5" s="30"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="28" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -2043,133 +2159,101 @@
       <c r="B6" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="35">
-        <v>-26</v>
-      </c>
-      <c r="D6" s="35">
-        <v>-15.4</v>
-      </c>
-      <c r="E6" s="29" t="s">
+      <c r="C6" s="30"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="28" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="15">
-        <v>9</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="35">
-        <v>-25.6</v>
-      </c>
-      <c r="D7" s="35">
-        <v>-13.9</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>24</v>
+        <v>4</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="30"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="28" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="15">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="35">
-        <v>-25.5</v>
-      </c>
-      <c r="D8" s="35">
-        <v>-11.7</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>28</v>
+        <v>5</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="28" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="15">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="35">
-        <v>-24.1</v>
-      </c>
-      <c r="D9" s="35">
-        <v>-16</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>26</v>
+        <v>6</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="28" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="15">
+        <v>7</v>
+      </c>
+      <c r="B10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="28" t="s">
         <v>21</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C10" s="35">
-        <v>-23.5</v>
-      </c>
-      <c r="D10" s="35">
-        <v>-5.6</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="15">
-        <v>2</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C11" s="35">
-        <v>-22.8</v>
-      </c>
-      <c r="D11" s="35">
-        <v>-5.6</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="B11" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="28" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="15">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="35">
-        <v>-21.7</v>
-      </c>
-      <c r="D12" s="35">
-        <v>-9.3000000000000007</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>52</v>
+        <v>11</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="28" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="15">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="35">
-        <v>-20</v>
-      </c>
-      <c r="D13" s="35">
-        <v>-15.8</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>28</v>
+        <v>50</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="28" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -2179,235 +2263,179 @@
       <c r="B14" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="C14" s="35">
-        <v>-19.2</v>
-      </c>
-      <c r="D14" s="35">
-        <v>-9.8000000000000007</v>
-      </c>
-      <c r="E14" s="29" t="s">
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="28" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="15">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="35">
-        <v>-18</v>
-      </c>
-      <c r="D15" s="35">
-        <v>-8.1</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>28</v>
+        <v>58</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="28" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="15">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="35">
-        <v>-17.2</v>
-      </c>
-      <c r="D16" s="35">
-        <v>-9.9</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>23</v>
+        <v>62</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="28" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="15">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C17" s="35">
-        <v>-16.899999999999999</v>
-      </c>
-      <c r="D17" s="35">
-        <v>-7.8</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>28</v>
+        <v>2</v>
+      </c>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="28" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="15">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="35">
-        <v>-16</v>
-      </c>
-      <c r="D18" s="35">
-        <v>-3.9</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>21</v>
+        <v>3</v>
+      </c>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="28" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="15">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="35">
-        <v>-15.5</v>
-      </c>
-      <c r="D19" s="35">
-        <v>-4.5</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>27</v>
+        <v>4</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="28" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="15">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C20" s="35">
-        <v>-14.4</v>
-      </c>
-      <c r="D20" s="35">
-        <v>-2.7</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="28" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="15">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="B21" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C21" s="35">
-        <v>-14.3</v>
-      </c>
-      <c r="D21" s="35">
-        <v>-7.1</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>21</v>
+        <v>10</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="28" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="15">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C22" s="35">
-        <v>-13.2</v>
-      </c>
-      <c r="D22" s="35">
-        <v>-6.3</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>22</v>
+        <v>69</v>
+      </c>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="28" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="15">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C23" s="35">
-        <v>-12.7</v>
-      </c>
-      <c r="D23" s="35">
-        <v>3.3</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>25</v>
+        <v>72</v>
+      </c>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="28" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="15">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C24" s="35">
-        <v>-11.7</v>
-      </c>
-      <c r="D24" s="35">
-        <v>-2.7</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>27</v>
+        <v>77</v>
+      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="28" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="15">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="35">
-        <v>-9.6</v>
-      </c>
-      <c r="D25" s="35">
-        <v>-2</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>64</v>
+        <v>9</v>
+      </c>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="28" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="15">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" s="35">
-        <v>-9.5</v>
-      </c>
-      <c r="D26" s="35">
-        <v>-3.3</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>60</v>
+        <v>66</v>
+      </c>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="28" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="15">
-        <v>4</v>
-      </c>
-      <c r="B27" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27" s="35">
-        <v>6.7</v>
-      </c>
-      <c r="D27" s="35">
-        <v>14.6</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>20</v>
+        <v>24</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>74</v>
+      </c>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="28" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
@@ -2439,7 +2467,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:E27">
-    <sortCondition ref="C4:C27"/>
+    <sortCondition ref="A4:A27"/>
     <sortCondition ref="D4:D27"/>
   </sortState>
   <mergeCells count="2">
@@ -2530,7 +2558,7 @@
   <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2772,6 +2800,78 @@
     <row r="4" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A4" s="17">
         <v>45612</v>
+      </c>
+      <c r="B4">
+        <v>-15.4</v>
+      </c>
+      <c r="C4">
+        <v>-18.5</v>
+      </c>
+      <c r="D4">
+        <v>-27.3</v>
+      </c>
+      <c r="E4">
+        <v>4.7</v>
+      </c>
+      <c r="F4">
+        <v>-21.1</v>
+      </c>
+      <c r="G4">
+        <v>-11.9</v>
+      </c>
+      <c r="H4">
+        <v>-10.9</v>
+      </c>
+      <c r="I4">
+        <v>-16.3</v>
+      </c>
+      <c r="J4">
+        <v>-16.5</v>
+      </c>
+      <c r="K4">
+        <v>-23.4</v>
+      </c>
+      <c r="L4">
+        <v>-15.6</v>
+      </c>
+      <c r="M4">
+        <v>-10.4</v>
+      </c>
+      <c r="N4">
+        <v>-8.6</v>
+      </c>
+      <c r="O4">
+        <v>-19.5</v>
+      </c>
+      <c r="P4">
+        <v>-12.4</v>
+      </c>
+      <c r="Q4">
+        <v>-22</v>
+      </c>
+      <c r="R4">
+        <v>-15.9</v>
+      </c>
+      <c r="S4">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="T4">
+        <v>-17.2</v>
+      </c>
+      <c r="U4">
+        <v>-22.6</v>
+      </c>
+      <c r="V4">
+        <v>-28.4</v>
+      </c>
+      <c r="W4">
+        <v>-27.9</v>
+      </c>
+      <c r="X4">
+        <v>-13.6</v>
+      </c>
+      <c r="Y4">
+        <v>-19</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.4">
@@ -2855,7 +2955,7 @@
   <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2928,7 +3028,7 @@
         <v>71</v>
       </c>
       <c r="V1" s="16" t="s">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="W1" s="16" t="s">
         <v>46</v>
@@ -3097,6 +3197,78 @@
     <row r="4" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A4" s="17">
         <v>45612</v>
+      </c>
+      <c r="B4">
+        <v>-10.1</v>
+      </c>
+      <c r="C4">
+        <v>-7.8</v>
+      </c>
+      <c r="D4">
+        <v>-19</v>
+      </c>
+      <c r="E4">
+        <v>14.9</v>
+      </c>
+      <c r="F4">
+        <v>-8.6</v>
+      </c>
+      <c r="G4">
+        <v>-3.5</v>
+      </c>
+      <c r="H4">
+        <v>-2.4</v>
+      </c>
+      <c r="I4">
+        <v>-7.9</v>
+      </c>
+      <c r="J4">
+        <v>-11.7</v>
+      </c>
+      <c r="K4">
+        <v>-10.9</v>
+      </c>
+      <c r="L4">
+        <v>-8.1</v>
+      </c>
+      <c r="M4">
+        <v>-1.6</v>
+      </c>
+      <c r="N4">
+        <v>-1.8</v>
+      </c>
+      <c r="O4">
+        <v>-8.4</v>
+      </c>
+      <c r="P4">
+        <v>-0.7</v>
+      </c>
+      <c r="Q4">
+        <v>-6.4</v>
+      </c>
+      <c r="R4">
+        <v>-5.4</v>
+      </c>
+      <c r="S4">
+        <v>-1.2</v>
+      </c>
+      <c r="T4">
+        <v>-7</v>
+      </c>
+      <c r="U4">
+        <v>-6.4</v>
+      </c>
+      <c r="V4">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="W4">
+        <v>-14.5</v>
+      </c>
+      <c r="X4">
+        <v>-0.8</v>
+      </c>
+      <c r="Y4">
+        <v>-7.1</v>
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.4">

--- a/气象/北境强冷站每日气温记录.xlsx
+++ b/气象/北境强冷站每日气温记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B11E574-A042-4F2F-B145-826EE7876255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F47838-83AC-4542-BDB2-D89E4EE6468D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{21DDB67E-D335-466F-8652-CD2F68303142}"/>
   </bookViews>
@@ -553,7 +553,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11月17日</t>
+    <t>11月23日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1068,6 +1068,21 @@
     <xf numFmtId="176" fontId="9" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="19" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1082,21 +1097,6 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1428,8 +1428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E72AAA-3912-4684-8CF1-D56A9EC12E76}">
   <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.4"/>
@@ -1443,15 +1443,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:31" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="26" t="s">
@@ -1483,8 +1483,12 @@
       <c r="A3" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
+      <c r="B3" s="20">
+        <v>-25.4</v>
+      </c>
+      <c r="C3" s="20">
+        <v>-7.7</v>
+      </c>
       <c r="D3" s="24"/>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
@@ -1493,84 +1497,88 @@
       </c>
       <c r="H3" s="7" cm="1">
         <f t="array" ref="H3:AE3">TRANSPOSE(B3:B26)</f>
-        <v>0</v>
+        <v>-25.4</v>
       </c>
       <c r="I3" s="7">
-        <v>0</v>
+        <v>-24.1</v>
       </c>
       <c r="J3" s="7">
-        <v>0</v>
+        <v>-18.3</v>
       </c>
       <c r="K3" s="7">
-        <v>0</v>
+        <v>4.5</v>
       </c>
       <c r="L3" s="7">
-        <v>0</v>
+        <v>-19.5</v>
       </c>
       <c r="M3" s="7">
-        <v>0</v>
+        <v>-11.3</v>
       </c>
       <c r="N3" s="7">
-        <v>0</v>
+        <v>-13.3</v>
       </c>
       <c r="O3" s="7">
-        <v>0</v>
+        <v>-29.2</v>
       </c>
       <c r="P3" s="7">
-        <v>0</v>
+        <v>-14.2</v>
       </c>
       <c r="Q3" s="7">
-        <v>0</v>
+        <v>-11.3</v>
       </c>
       <c r="R3" s="7">
-        <v>0</v>
+        <v>-14.6</v>
       </c>
       <c r="S3" s="7">
-        <v>0</v>
+        <v>-19.8</v>
       </c>
       <c r="T3" s="7">
-        <v>0</v>
+        <v>-23.7</v>
       </c>
       <c r="U3" s="7">
-        <v>0</v>
+        <v>-23.8</v>
       </c>
       <c r="V3" s="7">
-        <v>0</v>
+        <v>-10.1</v>
       </c>
       <c r="W3" s="7">
-        <v>0</v>
+        <v>-22</v>
       </c>
       <c r="X3" s="7">
-        <v>0</v>
+        <v>-11.8</v>
       </c>
       <c r="Y3" s="7">
-        <v>-15.4</v>
+        <v>-13.4</v>
       </c>
       <c r="Z3" s="7">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="AA3" s="7">
         <v>-18.8</v>
       </c>
-      <c r="AA3" s="7">
-        <v>-21.5</v>
-      </c>
       <c r="AB3" s="7">
-        <v>-26.1</v>
+        <v>-18.600000000000001</v>
       </c>
       <c r="AC3" s="7">
-        <v>-29.2</v>
+        <v>-31.8</v>
       </c>
       <c r="AD3" s="7">
         <v>-17.7</v>
       </c>
       <c r="AE3" s="7">
-        <v>-16.3</v>
+        <v>-21</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="20"/>
-      <c r="C4" s="20"/>
+      <c r="B4" s="20">
+        <v>-24.1</v>
+      </c>
+      <c r="C4" s="20">
+        <v>-2.6</v>
+      </c>
       <c r="D4" s="24"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
@@ -1579,84 +1587,88 @@
       </c>
       <c r="H4" s="7" cm="1">
         <f t="array" ref="H4:AE4">TRANSPOSE(C3:C26)</f>
-        <v>0</v>
+        <v>-7.7</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>-2.6</v>
       </c>
       <c r="J4" s="7">
-        <v>0</v>
+        <v>-3.5</v>
       </c>
       <c r="K4" s="7">
-        <v>0</v>
+        <v>10.9</v>
       </c>
       <c r="L4" s="7">
-        <v>0</v>
+        <v>-10.4</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>-3.5</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>-5.7</v>
       </c>
       <c r="O4" s="7">
-        <v>0</v>
+        <v>-16.7</v>
       </c>
       <c r="P4" s="7">
-        <v>0</v>
+        <v>-9.5</v>
       </c>
       <c r="Q4" s="7">
-        <v>0</v>
+        <v>-5.5</v>
       </c>
       <c r="R4" s="7">
-        <v>0</v>
+        <v>-6.4</v>
       </c>
       <c r="S4" s="7">
-        <v>0</v>
+        <v>-6.7</v>
       </c>
       <c r="T4" s="7">
-        <v>0</v>
+        <v>-14.4</v>
       </c>
       <c r="U4" s="7">
-        <v>0</v>
+        <v>-13</v>
       </c>
       <c r="V4" s="7">
-        <v>0</v>
+        <v>-2.1</v>
       </c>
       <c r="W4" s="7">
-        <v>0</v>
+        <v>-9.6</v>
       </c>
       <c r="X4" s="7">
         <v>0</v>
       </c>
       <c r="Y4" s="7">
-        <v>-6</v>
+        <v>-1.9</v>
       </c>
       <c r="Z4" s="7">
+        <v>-7.5</v>
+      </c>
+      <c r="AA4" s="7">
         <v>-11</v>
       </c>
-      <c r="AA4" s="7">
-        <v>-13</v>
-      </c>
       <c r="AB4" s="7">
-        <v>-19.2</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="AC4" s="7">
-        <v>-24.6</v>
+        <v>-13.1</v>
       </c>
       <c r="AD4" s="7">
-        <v>-6.9</v>
+        <v>-5.2</v>
       </c>
       <c r="AE4" s="7">
-        <v>-11.3</v>
+        <v>-12.2</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
+      <c r="B5" s="20">
+        <v>-18.3</v>
+      </c>
+      <c r="C5" s="20">
+        <v>-3.5</v>
+      </c>
       <c r="D5" s="24"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
@@ -1668,8 +1680,12 @@
       <c r="A6" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
+      <c r="B6" s="20">
+        <v>4.5</v>
+      </c>
+      <c r="C6" s="20">
+        <v>10.9</v>
+      </c>
       <c r="D6" s="24"/>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
@@ -1681,8 +1697,12 @@
       <c r="A7" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
+      <c r="B7" s="20">
+        <v>-19.5</v>
+      </c>
+      <c r="C7" s="20">
+        <v>-10.4</v>
+      </c>
       <c r="D7" s="24"/>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
@@ -1694,8 +1714,12 @@
       <c r="A8" s="27" t="s">
         <v>38</v>
       </c>
-      <c r="B8" s="20"/>
-      <c r="C8" s="20"/>
+      <c r="B8" s="20">
+        <v>-11.3</v>
+      </c>
+      <c r="C8" s="20">
+        <v>-3.5</v>
+      </c>
       <c r="D8" s="24"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
@@ -1707,8 +1731,12 @@
       <c r="A9" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="B9" s="20"/>
-      <c r="C9" s="20"/>
+      <c r="B9" s="20">
+        <v>-13.3</v>
+      </c>
+      <c r="C9" s="20">
+        <v>-5.7</v>
+      </c>
       <c r="D9" s="24"/>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
@@ -1720,8 +1748,12 @@
       <c r="A10" s="27" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="20"/>
-      <c r="C10" s="20"/>
+      <c r="B10" s="20">
+        <v>-29.2</v>
+      </c>
+      <c r="C10" s="20">
+        <v>-16.7</v>
+      </c>
       <c r="D10" s="24"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
@@ -1733,8 +1765,12 @@
       <c r="A11" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="B11" s="20"/>
-      <c r="C11" s="20"/>
+      <c r="B11" s="20">
+        <v>-14.2</v>
+      </c>
+      <c r="C11" s="20">
+        <v>-9.5</v>
+      </c>
       <c r="D11" s="24"/>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
@@ -1746,8 +1782,12 @@
       <c r="A12" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B12" s="20"/>
-      <c r="C12" s="20"/>
+      <c r="B12" s="20">
+        <v>-11.3</v>
+      </c>
+      <c r="C12" s="20">
+        <v>-5.5</v>
+      </c>
       <c r="D12" s="24"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
@@ -1759,8 +1799,12 @@
       <c r="A13" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="B13" s="20"/>
-      <c r="C13" s="20"/>
+      <c r="B13" s="20">
+        <v>-14.6</v>
+      </c>
+      <c r="C13" s="20">
+        <v>-6.4</v>
+      </c>
       <c r="D13" s="24"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
@@ -1772,8 +1816,12 @@
       <c r="A14" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="B14" s="20"/>
-      <c r="C14" s="20"/>
+      <c r="B14" s="20">
+        <v>-19.8</v>
+      </c>
+      <c r="C14" s="20">
+        <v>-6.7</v>
+      </c>
       <c r="D14" s="24"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
@@ -1785,8 +1833,12 @@
       <c r="A15" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B15" s="20"/>
-      <c r="C15" s="20"/>
+      <c r="B15" s="20">
+        <v>-23.7</v>
+      </c>
+      <c r="C15" s="20">
+        <v>-14.4</v>
+      </c>
       <c r="D15" s="24"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
@@ -1798,8 +1850,12 @@
       <c r="A16" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
+      <c r="B16" s="20">
+        <v>-23.8</v>
+      </c>
+      <c r="C16" s="20">
+        <v>-13</v>
+      </c>
       <c r="D16" s="24">
         <v>1</v>
       </c>
@@ -1817,8 +1873,12 @@
       <c r="A17" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="B17" s="20"/>
-      <c r="C17" s="20"/>
+      <c r="B17" s="20">
+        <v>-10.1</v>
+      </c>
+      <c r="C17" s="20">
+        <v>-2.1</v>
+      </c>
       <c r="D17" s="24">
         <v>1</v>
       </c>
@@ -1836,8 +1896,12 @@
       <c r="A18" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="B18" s="20"/>
-      <c r="C18" s="20"/>
+      <c r="B18" s="20">
+        <v>-22</v>
+      </c>
+      <c r="C18" s="20">
+        <v>-9.6</v>
+      </c>
       <c r="D18" s="24">
         <v>1</v>
       </c>
@@ -1855,8 +1919,12 @@
       <c r="A19" s="27" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="20"/>
-      <c r="C19" s="20"/>
+      <c r="B19" s="20">
+        <v>-11.8</v>
+      </c>
+      <c r="C19" s="20">
+        <v>0</v>
+      </c>
       <c r="D19" s="24">
         <v>1</v>
       </c>
@@ -1871,14 +1939,14 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="40" t="s">
+      <c r="A20" s="35" t="s">
         <v>47</v>
       </c>
       <c r="B20" s="20">
-        <v>-15.4</v>
+        <v>-13.4</v>
       </c>
       <c r="C20" s="20">
-        <v>-6</v>
+        <v>-1.9</v>
       </c>
       <c r="D20" s="24">
         <v>1</v>
@@ -1894,14 +1962,14 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="40" t="s">
+      <c r="A21" s="35" t="s">
         <v>68</v>
       </c>
       <c r="B21" s="20">
-        <v>-18.8</v>
+        <v>-16.600000000000001</v>
       </c>
       <c r="C21" s="20">
-        <v>-11</v>
+        <v>-7.5</v>
       </c>
       <c r="D21" s="24">
         <v>1</v>
@@ -1917,14 +1985,14 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="40" t="s">
+      <c r="A22" s="35" t="s">
         <v>71</v>
       </c>
       <c r="B22" s="20">
-        <v>-21.5</v>
-      </c>
-      <c r="C22" s="44">
-        <v>-13</v>
+        <v>-18.8</v>
+      </c>
+      <c r="C22" s="36">
+        <v>-11</v>
       </c>
       <c r="D22" s="24">
         <v>1</v>
@@ -1940,14 +2008,14 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="40" t="s">
+      <c r="A23" s="35" t="s">
         <v>76</v>
       </c>
-      <c r="B23" s="44">
-        <v>-26.1</v>
+      <c r="B23" s="36">
+        <v>-18.600000000000001</v>
       </c>
       <c r="C23" s="20">
-        <v>-19.2</v>
+        <v>-4.0999999999999996</v>
       </c>
       <c r="D23" s="24">
         <v>1</v>
@@ -1963,14 +2031,14 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="35" t="s">
         <v>46</v>
       </c>
       <c r="B24" s="20">
-        <v>-29.2</v>
-      </c>
-      <c r="C24" s="44">
-        <v>-24.6</v>
+        <v>-31.8</v>
+      </c>
+      <c r="C24" s="36">
+        <v>-13.1</v>
       </c>
       <c r="D24" s="24">
         <v>1</v>
@@ -1986,14 +2054,14 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="40" t="s">
+      <c r="A25" s="35" t="s">
         <v>65</v>
       </c>
       <c r="B25" s="20">
         <v>-17.7</v>
       </c>
       <c r="C25" s="20">
-        <v>-6.9</v>
+        <v>-5.2</v>
       </c>
       <c r="D25" s="24">
         <v>3</v>
@@ -2009,14 +2077,14 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="40" t="s">
+      <c r="A26" s="35" t="s">
         <v>73</v>
       </c>
       <c r="B26" s="20">
-        <v>-16.3</v>
+        <v>-21</v>
       </c>
       <c r="C26" s="20">
-        <v>-11.3</v>
+        <v>-12.2</v>
       </c>
       <c r="D26" s="24">
         <v>4</v>
@@ -2035,27 +2103,21 @@
       <c r="A28" s="32" t="s">
         <v>97</v>
       </c>
-      <c r="B28" s="34">
-        <v>-33</v>
-      </c>
+      <c r="B28" s="34"/>
       <c r="C28" s="33"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="B29" s="34">
-        <v>-35.700000000000003</v>
-      </c>
+      <c r="B29" s="34"/>
       <c r="C29" s="33"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="B30" s="34">
-        <v>-35.700000000000003</v>
-      </c>
+      <c r="B30" s="34"/>
       <c r="C30" s="33"/>
     </row>
   </sheetData>
@@ -2075,8 +2137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF0FA41-85CC-443B-8D70-8487574C7D86}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2090,24 +2152,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="39"/>
+      <c r="A1" s="44"/>
       <c r="B1" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="D1" s="35"/>
-      <c r="E1" s="36"/>
+      <c r="D1" s="40"/>
+      <c r="E1" s="41"/>
     </row>
     <row r="2" spans="1:5" ht="43.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="39"/>
+      <c r="A2" s="44"/>
       <c r="B2" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="37"/>
-      <c r="D2" s="37"/>
-      <c r="E2" s="38"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="43"/>
     </row>
     <row r="3" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="29" t="s">
@@ -2128,223 +2190,291 @@
     </row>
     <row r="4" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="15">
-        <v>1</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="30"/>
-      <c r="D4" s="30"/>
+        <v>22</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="30">
+        <v>-31.8</v>
+      </c>
+      <c r="D4" s="30">
+        <v>-13.1</v>
+      </c>
       <c r="E4" s="28" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="15">
-        <v>2</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="30"/>
-      <c r="D5" s="30"/>
+        <v>8</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="30">
+        <v>-29.2</v>
+      </c>
+      <c r="D5" s="30">
+        <v>-16.7</v>
+      </c>
       <c r="E5" s="28" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="30"/>
-      <c r="D6" s="30"/>
+        <v>0</v>
+      </c>
+      <c r="C6" s="30">
+        <v>-25.4</v>
+      </c>
+      <c r="D6" s="30">
+        <v>-7.7</v>
+      </c>
       <c r="E6" s="28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="15">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="30"/>
-      <c r="D7" s="30"/>
+        <v>1</v>
+      </c>
+      <c r="C7" s="30">
+        <v>-24.1</v>
+      </c>
+      <c r="D7" s="30">
+        <v>-2.6</v>
+      </c>
       <c r="E7" s="28" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="15">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
+        <v>2</v>
+      </c>
+      <c r="C8" s="30">
+        <v>-23.8</v>
+      </c>
+      <c r="D8" s="30">
+        <v>-13</v>
+      </c>
       <c r="E8" s="28" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="15">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
+        <v>62</v>
+      </c>
+      <c r="C9" s="30">
+        <v>-23.7</v>
+      </c>
+      <c r="D9" s="30">
+        <v>-14.4</v>
+      </c>
       <c r="E9" s="28" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="15">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="30"/>
-      <c r="D10" s="30"/>
+        <v>4</v>
+      </c>
+      <c r="C10" s="30">
+        <v>-22</v>
+      </c>
+      <c r="D10" s="30">
+        <v>-9.6</v>
+      </c>
       <c r="E10" s="28" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="15">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
+        <v>74</v>
+      </c>
+      <c r="C11" s="30">
+        <v>-21</v>
+      </c>
+      <c r="D11" s="30">
+        <v>-12.2</v>
+      </c>
       <c r="E11" s="28" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="15">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
+        <v>58</v>
+      </c>
+      <c r="C12" s="30">
+        <v>-19.8</v>
+      </c>
+      <c r="D12" s="30">
+        <v>-6.7</v>
+      </c>
       <c r="E12" s="28" t="s">
-        <v>24</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="15">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
+        <v>5</v>
+      </c>
+      <c r="C13" s="30">
+        <v>-19.5</v>
+      </c>
+      <c r="D13" s="30">
+        <v>-10.4</v>
+      </c>
       <c r="E13" s="28" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="15">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
+        <v>72</v>
+      </c>
+      <c r="C14" s="30">
+        <v>-18.8</v>
+      </c>
+      <c r="D14" s="30">
+        <v>-11</v>
+      </c>
       <c r="E14" s="28" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="15">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
+        <v>77</v>
+      </c>
+      <c r="C15" s="30">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="D15" s="30">
+        <v>-4.0999999999999996</v>
+      </c>
       <c r="E15" s="28" t="s">
-        <v>60</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="15">
-        <v>13</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
+        <v>3</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="30">
+        <v>-18.3</v>
+      </c>
+      <c r="D16" s="30">
+        <v>-3.5</v>
+      </c>
       <c r="E16" s="28" t="s">
-        <v>64</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="15">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
+        <v>66</v>
+      </c>
+      <c r="C17" s="30">
+        <v>-17.7</v>
+      </c>
+      <c r="D17" s="30">
+        <v>-5.2</v>
+      </c>
       <c r="E17" s="28" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="15">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
+        <v>69</v>
+      </c>
+      <c r="C18" s="30">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="D18" s="30">
+        <v>-7.5</v>
+      </c>
       <c r="E18" s="28" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="15">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
+        <v>54</v>
+      </c>
+      <c r="C19" s="30">
+        <v>-14.6</v>
+      </c>
+      <c r="D19" s="30">
+        <v>-6.4</v>
+      </c>
       <c r="E19" s="28" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="15">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
+        <v>11</v>
+      </c>
+      <c r="C20" s="30">
+        <v>-14.2</v>
+      </c>
+      <c r="D20" s="30">
+        <v>-9.5</v>
+      </c>
       <c r="E20" s="28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -2354,88 +2484,116 @@
       <c r="B21" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
+      <c r="C21" s="30">
+        <v>-13.4</v>
+      </c>
+      <c r="D21" s="30">
+        <v>-1.9</v>
+      </c>
       <c r="E21" s="28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="15">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>69</v>
-      </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
+        <v>7</v>
+      </c>
+      <c r="C22" s="30">
+        <v>-13.3</v>
+      </c>
+      <c r="D22" s="30">
+        <v>-5.7</v>
+      </c>
       <c r="E22" s="28" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="15">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
+        <v>14</v>
+      </c>
+      <c r="C23" s="30">
+        <v>-11.8</v>
+      </c>
+      <c r="D23" s="30">
+        <v>0</v>
+      </c>
       <c r="E23" s="28" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="15">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
+        <v>50</v>
+      </c>
+      <c r="C24" s="30">
+        <v>-11.3</v>
+      </c>
+      <c r="D24" s="30">
+        <v>-5.5</v>
+      </c>
       <c r="E24" s="28" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="15">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
+        <v>6</v>
+      </c>
+      <c r="C25" s="30">
+        <v>-11.3</v>
+      </c>
+      <c r="D25" s="30">
+        <v>-3.5</v>
+      </c>
       <c r="E25" s="28" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="15">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="B26" s="13" t="s">
-        <v>66</v>
-      </c>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
+        <v>3</v>
+      </c>
+      <c r="C26" s="30">
+        <v>-10.1</v>
+      </c>
+      <c r="D26" s="30">
+        <v>-2.1</v>
+      </c>
       <c r="E26" s="28" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="15">
-        <v>24</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
+        <v>4</v>
+      </c>
+      <c r="B27" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27" s="30">
+        <v>4.5</v>
+      </c>
+      <c r="D27" s="30">
+        <v>10.9</v>
+      </c>
       <c r="E27" s="28" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
@@ -2467,7 +2625,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:E27">
-    <sortCondition ref="A4:A27"/>
+    <sortCondition ref="C4:C27"/>
     <sortCondition ref="D4:D27"/>
   </sortState>
   <mergeCells count="2">
@@ -2558,7 +2716,7 @@
   <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N12" sqref="N12"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2878,35 +3036,539 @@
       <c r="A5" s="17">
         <v>45613</v>
       </c>
+      <c r="B5">
+        <v>-24.7</v>
+      </c>
+      <c r="C5">
+        <v>-25.7</v>
+      </c>
+      <c r="D5">
+        <v>-29</v>
+      </c>
+      <c r="E5">
+        <v>3.4</v>
+      </c>
+      <c r="F5">
+        <v>-24.2</v>
+      </c>
+      <c r="G5">
+        <v>-12.5</v>
+      </c>
+      <c r="H5">
+        <v>-14.9</v>
+      </c>
+      <c r="I5">
+        <v>-21.7</v>
+      </c>
+      <c r="J5">
+        <v>-22.4</v>
+      </c>
+      <c r="K5">
+        <v>-17.5</v>
+      </c>
+      <c r="L5">
+        <v>-20.2</v>
+      </c>
+      <c r="M5">
+        <v>-15.8</v>
+      </c>
+      <c r="N5">
+        <v>-12.5</v>
+      </c>
+      <c r="O5">
+        <v>-20.3</v>
+      </c>
+      <c r="P5">
+        <v>-13.3</v>
+      </c>
+      <c r="Q5">
+        <v>-21.9</v>
+      </c>
+      <c r="R5">
+        <v>-15.1</v>
+      </c>
+      <c r="S5">
+        <v>-15.4</v>
+      </c>
+      <c r="T5">
+        <v>-18.8</v>
+      </c>
+      <c r="U5">
+        <v>-21.5</v>
+      </c>
+      <c r="V5">
+        <v>-26.1</v>
+      </c>
+      <c r="W5">
+        <v>-29.2</v>
+      </c>
+      <c r="X5">
+        <v>-17.7</v>
+      </c>
+      <c r="Y5">
+        <v>-18</v>
+      </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A6" s="17">
         <v>45614</v>
       </c>
+      <c r="B6">
+        <v>-34.6</v>
+      </c>
+      <c r="C6">
+        <v>-34.4</v>
+      </c>
+      <c r="D6">
+        <v>-30</v>
+      </c>
+      <c r="E6">
+        <v>-1.6</v>
+      </c>
+      <c r="F6">
+        <v>-24.1</v>
+      </c>
+      <c r="G6">
+        <v>-15.1</v>
+      </c>
+      <c r="H6">
+        <v>-16.7</v>
+      </c>
+      <c r="I6">
+        <v>-32.4</v>
+      </c>
+      <c r="J6">
+        <v>-30.8</v>
+      </c>
+      <c r="K6">
+        <v>-16.2</v>
+      </c>
+      <c r="L6">
+        <v>-20.5</v>
+      </c>
+      <c r="M6">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="N6">
+        <v>-16.5</v>
+      </c>
+      <c r="O6">
+        <v>-23.5</v>
+      </c>
+      <c r="P6">
+        <v>-14.3</v>
+      </c>
+      <c r="Q6">
+        <v>-23.4</v>
+      </c>
+      <c r="R6">
+        <v>-10.4</v>
+      </c>
+      <c r="S6">
+        <v>-15</v>
+      </c>
+      <c r="T6">
+        <v>-20.9</v>
+      </c>
+      <c r="U6">
+        <v>-19.7</v>
+      </c>
+      <c r="V6">
+        <v>-20.3</v>
+      </c>
+      <c r="W6">
+        <v>-32.4</v>
+      </c>
+      <c r="X6">
+        <v>-17.3</v>
+      </c>
+      <c r="Y6">
+        <v>-22</v>
+      </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A7" s="17">
         <v>45615</v>
       </c>
+      <c r="B7">
+        <v>-25.3</v>
+      </c>
+      <c r="C7">
+        <v>-24.7</v>
+      </c>
+      <c r="D7">
+        <v>-30.5</v>
+      </c>
+      <c r="E7">
+        <v>-0.6</v>
+      </c>
+      <c r="F7">
+        <v>-23.7</v>
+      </c>
+      <c r="G7">
+        <v>-14.8</v>
+      </c>
+      <c r="H7">
+        <v>-17.3</v>
+      </c>
+      <c r="I7">
+        <v>-28.5</v>
+      </c>
+      <c r="J7">
+        <v>-23.5</v>
+      </c>
+      <c r="K7">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="L7">
+        <v>-17.3</v>
+      </c>
+      <c r="M7">
+        <v>-21.4</v>
+      </c>
+      <c r="N7">
+        <v>-22.4</v>
+      </c>
+      <c r="O7">
+        <v>-24</v>
+      </c>
+      <c r="P7">
+        <v>-11.8</v>
+      </c>
+      <c r="Q7">
+        <v>-23.5</v>
+      </c>
+      <c r="R7">
+        <v>-13.1</v>
+      </c>
+      <c r="S7">
+        <v>-12.2</v>
+      </c>
+      <c r="T7">
+        <v>-21.7</v>
+      </c>
+      <c r="U7">
+        <v>-22.5</v>
+      </c>
+      <c r="V7">
+        <v>-22.6</v>
+      </c>
+      <c r="W7">
+        <v>-32.9</v>
+      </c>
+      <c r="X7">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="Y7">
+        <v>-21.9</v>
+      </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A8" s="17">
         <v>45616</v>
       </c>
+      <c r="B8">
+        <v>-18.2</v>
+      </c>
+      <c r="C8">
+        <v>-23.3</v>
+      </c>
+      <c r="D8">
+        <v>-29.7</v>
+      </c>
+      <c r="E8">
+        <v>-0.8</v>
+      </c>
+      <c r="F8">
+        <v>-24.9</v>
+      </c>
+      <c r="G8">
+        <v>-14.3</v>
+      </c>
+      <c r="H8">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="I8">
+        <v>-17.2</v>
+      </c>
+      <c r="J8">
+        <v>-19</v>
+      </c>
+      <c r="K8">
+        <v>-5.7</v>
+      </c>
+      <c r="L8">
+        <v>-0.3</v>
+      </c>
+      <c r="M8">
+        <v>-16.8</v>
+      </c>
+      <c r="N8">
+        <v>-22.1</v>
+      </c>
+      <c r="O8">
+        <v>-16.2</v>
+      </c>
+      <c r="P8">
+        <v>-6.5</v>
+      </c>
+      <c r="Q8">
+        <v>-21.2</v>
+      </c>
+      <c r="R8">
+        <v>-13.1</v>
+      </c>
+      <c r="S8">
+        <v>-10.5</v>
+      </c>
+      <c r="T8">
+        <v>-20.7</v>
+      </c>
+      <c r="U8">
+        <v>-21.6</v>
+      </c>
+      <c r="V8">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="W8">
+        <v>-32.1</v>
+      </c>
+      <c r="X8">
+        <v>-17.3</v>
+      </c>
+      <c r="Y8">
+        <v>-14.5</v>
+      </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A9" s="17">
         <v>45617</v>
       </c>
+      <c r="B9">
+        <v>-24.7</v>
+      </c>
+      <c r="C9">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="D9">
+        <v>-26.7</v>
+      </c>
+      <c r="E9">
+        <v>0.7</v>
+      </c>
+      <c r="F9">
+        <v>-23.9</v>
+      </c>
+      <c r="G9">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="H9">
+        <v>-17.8</v>
+      </c>
+      <c r="I9">
+        <v>-20.2</v>
+      </c>
+      <c r="J9">
+        <v>-22.5</v>
+      </c>
+      <c r="K9">
+        <v>-7.4</v>
+      </c>
+      <c r="L9">
+        <v>-4.5</v>
+      </c>
+      <c r="M9">
+        <v>-14.4</v>
+      </c>
+      <c r="N9">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="O9">
+        <v>-21.1</v>
+      </c>
+      <c r="P9">
+        <v>-9.5</v>
+      </c>
+      <c r="Q9">
+        <v>-22.9</v>
+      </c>
+      <c r="R9">
+        <v>-9.6</v>
+      </c>
+      <c r="S9">
+        <v>-16.399999999999999</v>
+      </c>
+      <c r="T9">
+        <v>-19</v>
+      </c>
+      <c r="U9">
+        <v>-21.7</v>
+      </c>
+      <c r="V9">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="W9">
+        <v>-31.5</v>
+      </c>
+      <c r="X9">
+        <v>-18.3</v>
+      </c>
+      <c r="Y9">
+        <v>-20</v>
+      </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A10" s="17">
         <v>45618</v>
       </c>
+      <c r="B10">
+        <v>-28.8</v>
+      </c>
+      <c r="C10">
+        <v>-28.6</v>
+      </c>
+      <c r="D10">
+        <v>-27</v>
+      </c>
+      <c r="E10">
+        <v>-0.7</v>
+      </c>
+      <c r="F10">
+        <v>-22.6</v>
+      </c>
+      <c r="G10">
+        <v>-17.2</v>
+      </c>
+      <c r="H10">
+        <v>-18.3</v>
+      </c>
+      <c r="I10">
+        <v>-25.7</v>
+      </c>
+      <c r="J10">
+        <v>-23.9</v>
+      </c>
+      <c r="K10">
+        <v>-11.9</v>
+      </c>
+      <c r="L10">
+        <v>-11.4</v>
+      </c>
+      <c r="M10">
+        <v>-15.7</v>
+      </c>
+      <c r="N10">
+        <v>-22.1</v>
+      </c>
+      <c r="O10">
+        <v>-21.9</v>
+      </c>
+      <c r="P10">
+        <v>-12.8</v>
+      </c>
+      <c r="Q10">
+        <v>-23.7</v>
+      </c>
+      <c r="R10">
+        <v>-6.9</v>
+      </c>
+      <c r="S10">
+        <v>-14.3</v>
+      </c>
+      <c r="T10">
+        <v>-21.1</v>
+      </c>
+      <c r="U10">
+        <v>-19.7</v>
+      </c>
+      <c r="V10">
+        <v>-16</v>
+      </c>
+      <c r="W10">
+        <v>-32.5</v>
+      </c>
+      <c r="X10">
+        <v>-17.7</v>
+      </c>
+      <c r="Y10">
+        <v>-19.399999999999999</v>
+      </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A11" s="17">
         <v>45619</v>
+      </c>
+      <c r="B11">
+        <v>-25.4</v>
+      </c>
+      <c r="C11">
+        <v>-24.1</v>
+      </c>
+      <c r="D11">
+        <v>-18.3</v>
+      </c>
+      <c r="E11">
+        <v>4.5</v>
+      </c>
+      <c r="F11">
+        <v>-19.5</v>
+      </c>
+      <c r="G11">
+        <v>-11.3</v>
+      </c>
+      <c r="H11">
+        <v>-13.3</v>
+      </c>
+      <c r="I11">
+        <v>-29.2</v>
+      </c>
+      <c r="J11">
+        <v>-14.2</v>
+      </c>
+      <c r="K11">
+        <v>-11.3</v>
+      </c>
+      <c r="L11">
+        <v>-14.6</v>
+      </c>
+      <c r="M11">
+        <v>-19.8</v>
+      </c>
+      <c r="N11">
+        <v>-23.7</v>
+      </c>
+      <c r="O11">
+        <v>-23.8</v>
+      </c>
+      <c r="P11">
+        <v>-10.1</v>
+      </c>
+      <c r="Q11">
+        <v>-22</v>
+      </c>
+      <c r="R11">
+        <v>-11.8</v>
+      </c>
+      <c r="S11">
+        <v>-13.4</v>
+      </c>
+      <c r="T11">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="U11">
+        <v>-18.8</v>
+      </c>
+      <c r="V11">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="W11">
+        <v>-31.8</v>
+      </c>
+      <c r="X11">
+        <v>-17.7</v>
+      </c>
+      <c r="Y11">
+        <v>-21</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.4">
@@ -2955,7 +3617,7 @@
   <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3275,35 +3937,539 @@
       <c r="A5" s="17">
         <v>45613</v>
       </c>
+      <c r="B5">
+        <v>-12</v>
+      </c>
+      <c r="C5">
+        <v>-11.6</v>
+      </c>
+      <c r="D5">
+        <v>-20.5</v>
+      </c>
+      <c r="E5">
+        <v>11.7</v>
+      </c>
+      <c r="F5">
+        <v>-12.1</v>
+      </c>
+      <c r="G5">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="H5">
+        <v>-0.5</v>
+      </c>
+      <c r="I5">
+        <v>-13.6</v>
+      </c>
+      <c r="J5">
+        <v>-11.1</v>
+      </c>
+      <c r="K5">
+        <v>-10.7</v>
+      </c>
+      <c r="L5">
+        <v>-11.2</v>
+      </c>
+      <c r="M5">
+        <v>-8.1</v>
+      </c>
+      <c r="N5">
+        <v>-7.1</v>
+      </c>
+      <c r="O5">
+        <v>-9.5</v>
+      </c>
+      <c r="P5">
+        <v>-1.2</v>
+      </c>
+      <c r="Q5">
+        <v>-8</v>
+      </c>
+      <c r="R5">
+        <v>-2.9</v>
+      </c>
+      <c r="S5">
+        <v>-2.5</v>
+      </c>
+      <c r="T5">
+        <v>-5.8</v>
+      </c>
+      <c r="U5">
+        <v>-3.7</v>
+      </c>
+      <c r="V5">
+        <v>-13.2</v>
+      </c>
+      <c r="W5">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="X5">
+        <v>-3</v>
+      </c>
+      <c r="Y5">
+        <v>-11.3</v>
+      </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A6" s="17">
         <v>45614</v>
       </c>
+      <c r="B6">
+        <v>-10.3</v>
+      </c>
+      <c r="C6">
+        <v>-12.8</v>
+      </c>
+      <c r="D6">
+        <v>-19.3</v>
+      </c>
+      <c r="E6">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="F6">
+        <v>-11.1</v>
+      </c>
+      <c r="G6">
+        <v>-4.7</v>
+      </c>
+      <c r="H6">
+        <v>-2.6</v>
+      </c>
+      <c r="I6">
+        <v>-17.7</v>
+      </c>
+      <c r="J6">
+        <v>-15</v>
+      </c>
+      <c r="K6">
+        <v>-6.9</v>
+      </c>
+      <c r="L6">
+        <v>-10.1</v>
+      </c>
+      <c r="M6">
+        <v>-12.8</v>
+      </c>
+      <c r="N6">
+        <v>-11</v>
+      </c>
+      <c r="O6">
+        <v>-13.3</v>
+      </c>
+      <c r="P6">
+        <v>-1.6</v>
+      </c>
+      <c r="Q6">
+        <v>-10.8</v>
+      </c>
+      <c r="R6">
+        <v>-1.4</v>
+      </c>
+      <c r="S6">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="T6">
+        <v>-6.2</v>
+      </c>
+      <c r="U6">
+        <v>-1.7</v>
+      </c>
+      <c r="V6">
+        <v>-8</v>
+      </c>
+      <c r="W6">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="X6">
+        <v>-1.6</v>
+      </c>
+      <c r="Y6">
+        <v>-13.6</v>
+      </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A7" s="17">
         <v>45615</v>
       </c>
+      <c r="B7">
+        <v>-3.1</v>
+      </c>
+      <c r="C7">
+        <v>-6.1</v>
+      </c>
+      <c r="D7">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="E7">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F7">
+        <v>-10.9</v>
+      </c>
+      <c r="G7">
+        <v>-6.2</v>
+      </c>
+      <c r="H7">
+        <v>-2.5</v>
+      </c>
+      <c r="I7">
+        <v>-14.4</v>
+      </c>
+      <c r="J7">
+        <v>-11.2</v>
+      </c>
+      <c r="K7">
+        <v>-5.7</v>
+      </c>
+      <c r="L7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M7">
+        <v>-4.5</v>
+      </c>
+      <c r="N7">
+        <v>-13.5</v>
+      </c>
+      <c r="O7">
+        <v>-13.7</v>
+      </c>
+      <c r="P7">
+        <v>-2.4</v>
+      </c>
+      <c r="Q7">
+        <v>-8.9</v>
+      </c>
+      <c r="R7">
+        <v>-0.1</v>
+      </c>
+      <c r="S7">
+        <v>-4.5</v>
+      </c>
+      <c r="T7">
+        <v>-6.7</v>
+      </c>
+      <c r="U7">
+        <v>-3.9</v>
+      </c>
+      <c r="V7">
+        <v>-9.9</v>
+      </c>
+      <c r="W7">
+        <v>-18.7</v>
+      </c>
+      <c r="X7">
+        <v>-3.5</v>
+      </c>
+      <c r="Y7">
+        <v>-12.7</v>
+      </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A8" s="17">
         <v>45616</v>
       </c>
+      <c r="B8">
+        <v>-2.8</v>
+      </c>
+      <c r="C8">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="D8">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="E8">
+        <v>15.5</v>
+      </c>
+      <c r="F8">
+        <v>-11.1</v>
+      </c>
+      <c r="G8">
+        <v>-2.6</v>
+      </c>
+      <c r="H8">
+        <v>-3.3</v>
+      </c>
+      <c r="I8">
+        <v>-10.7</v>
+      </c>
+      <c r="J8">
+        <v>-8.6</v>
+      </c>
+      <c r="K8">
+        <v>1.2</v>
+      </c>
+      <c r="L8">
+        <v>1.9</v>
+      </c>
+      <c r="M8">
+        <v>-1.7</v>
+      </c>
+      <c r="N8">
+        <v>-13.4</v>
+      </c>
+      <c r="O8">
+        <v>-6.9</v>
+      </c>
+      <c r="P8">
+        <v>-2.4</v>
+      </c>
+      <c r="Q8">
+        <v>-7.5</v>
+      </c>
+      <c r="R8">
+        <v>1.3</v>
+      </c>
+      <c r="S8">
+        <v>-2.4</v>
+      </c>
+      <c r="T8">
+        <v>-3.8</v>
+      </c>
+      <c r="U8">
+        <v>-4.9000000000000004</v>
+      </c>
+      <c r="V8">
+        <v>-6.9</v>
+      </c>
+      <c r="W8">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="X8">
+        <v>-4.3</v>
+      </c>
+      <c r="Y8">
+        <v>-7.3</v>
+      </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A9" s="17">
         <v>45617</v>
       </c>
+      <c r="B9">
+        <v>-7.6</v>
+      </c>
+      <c r="C9">
+        <v>-4.5</v>
+      </c>
+      <c r="D9">
+        <v>-15.9</v>
+      </c>
+      <c r="E9">
+        <v>16.3</v>
+      </c>
+      <c r="F9">
+        <v>-11.4</v>
+      </c>
+      <c r="G9">
+        <v>-6.8</v>
+      </c>
+      <c r="H9">
+        <v>-2.5</v>
+      </c>
+      <c r="I9">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="J9">
+        <v>-4.3</v>
+      </c>
+      <c r="K9">
+        <v>2.6</v>
+      </c>
+      <c r="L9">
+        <v>0.3</v>
+      </c>
+      <c r="M9">
+        <v>-5.2</v>
+      </c>
+      <c r="N9">
+        <v>-10.6</v>
+      </c>
+      <c r="O9">
+        <v>-10.3</v>
+      </c>
+      <c r="P9">
+        <v>-3.2</v>
+      </c>
+      <c r="Q9">
+        <v>-10.5</v>
+      </c>
+      <c r="R9">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="S9">
+        <v>-3.5</v>
+      </c>
+      <c r="T9">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="U9">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="V9">
+        <v>-1.3</v>
+      </c>
+      <c r="W9">
+        <v>-16.5</v>
+      </c>
+      <c r="X9">
+        <v>-2</v>
+      </c>
+      <c r="Y9">
+        <v>-11.2</v>
+      </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A10" s="17">
         <v>45618</v>
       </c>
+      <c r="B10">
+        <v>-10.5</v>
+      </c>
+      <c r="C10">
+        <v>-7.4</v>
+      </c>
+      <c r="D10">
+        <v>-15.4</v>
+      </c>
+      <c r="E10">
+        <v>14.2</v>
+      </c>
+      <c r="F10">
+        <v>-7.3</v>
+      </c>
+      <c r="G10">
+        <v>-7.2</v>
+      </c>
+      <c r="H10">
+        <v>-3.6</v>
+      </c>
+      <c r="I10">
+        <v>-14.7</v>
+      </c>
+      <c r="J10">
+        <v>-9.5</v>
+      </c>
+      <c r="K10">
+        <v>-6.8</v>
+      </c>
+      <c r="L10">
+        <v>-4.2</v>
+      </c>
+      <c r="M10">
+        <v>-9.5</v>
+      </c>
+      <c r="N10">
+        <v>-10.6</v>
+      </c>
+      <c r="O10">
+        <v>-13.1</v>
+      </c>
+      <c r="P10">
+        <v>-3.8</v>
+      </c>
+      <c r="Q10">
+        <v>-9.6</v>
+      </c>
+      <c r="R10">
+        <v>4.8</v>
+      </c>
+      <c r="S10">
+        <v>-5.7</v>
+      </c>
+      <c r="T10">
+        <v>-5.8</v>
+      </c>
+      <c r="U10">
+        <v>-1.6</v>
+      </c>
+      <c r="V10">
+        <v>-3.3</v>
+      </c>
+      <c r="W10">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="X10">
+        <v>-3.4</v>
+      </c>
+      <c r="Y10">
+        <v>-13.2</v>
+      </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A11" s="17">
         <v>45619</v>
+      </c>
+      <c r="B11">
+        <v>-7.7</v>
+      </c>
+      <c r="C11">
+        <v>-2.6</v>
+      </c>
+      <c r="D11">
+        <v>-3.5</v>
+      </c>
+      <c r="E11">
+        <v>10.9</v>
+      </c>
+      <c r="F11">
+        <v>-10.4</v>
+      </c>
+      <c r="G11">
+        <v>-3.5</v>
+      </c>
+      <c r="H11">
+        <v>-5.7</v>
+      </c>
+      <c r="I11">
+        <v>-16.7</v>
+      </c>
+      <c r="J11">
+        <v>-9.5</v>
+      </c>
+      <c r="K11">
+        <v>-5.5</v>
+      </c>
+      <c r="L11">
+        <v>-6.4</v>
+      </c>
+      <c r="M11">
+        <v>-6.7</v>
+      </c>
+      <c r="N11">
+        <v>-14.4</v>
+      </c>
+      <c r="O11">
+        <v>-13</v>
+      </c>
+      <c r="P11">
+        <v>-2.1</v>
+      </c>
+      <c r="Q11">
+        <v>-9.6</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>-1.9</v>
+      </c>
+      <c r="T11">
+        <v>-7.5</v>
+      </c>
+      <c r="U11">
+        <v>-11</v>
+      </c>
+      <c r="V11">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="W11">
+        <v>-13.1</v>
+      </c>
+      <c r="X11">
+        <v>-5.2</v>
+      </c>
+      <c r="Y11">
+        <v>-12.2</v>
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.4">

--- a/气象/北境强冷站每日气温记录.xlsx
+++ b/气象/北境强冷站每日气温记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F47838-83AC-4542-BDB2-D89E4EE6468D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDB7948-05C8-47A0-B68D-6B8040D236A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{21DDB67E-D335-466F-8652-CD2F68303142}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{21DDB67E-D335-466F-8652-CD2F68303142}"/>
   </bookViews>
   <sheets>
     <sheet name="无格式草稿" sheetId="2" r:id="rId1"/>
@@ -177,10 +177,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>北方冷极大PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>2024年</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -553,7 +549,34 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11月23日</t>
+    <t>11月27日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="48"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>北方冷极</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="48"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>每日PK</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -564,7 +587,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -739,6 +762,24 @@
     <font>
       <b/>
       <sz val="16"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1428,8 +1469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E72AAA-3912-4684-8CF1-D56A9EC12E76}">
   <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.4"/>
@@ -1444,7 +1485,7 @@
   <sheetData>
     <row r="1" spans="1:31" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="37" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" s="38"/>
       <c r="C1" s="38"/>
@@ -1458,403 +1499,403 @@
         <v>15</v>
       </c>
       <c r="B2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>32</v>
-      </c>
       <c r="D2" s="23" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F2" s="23" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="27" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="20">
-        <v>-25.4</v>
+        <v>-10.199999999999999</v>
       </c>
       <c r="C3" s="20">
-        <v>-7.7</v>
+        <v>-8.1</v>
       </c>
       <c r="D3" s="24"/>
       <c r="E3" s="25"/>
       <c r="F3" s="25"/>
       <c r="G3" s="21" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H3" s="7" cm="1">
         <f t="array" ref="H3:AE3">TRANSPOSE(B3:B26)</f>
-        <v>-25.4</v>
+        <v>-10.199999999999999</v>
       </c>
       <c r="I3" s="7">
-        <v>-24.1</v>
+        <v>-11.1</v>
       </c>
       <c r="J3" s="7">
-        <v>-18.3</v>
+        <v>-32.700000000000003</v>
       </c>
       <c r="K3" s="7">
-        <v>4.5</v>
+        <v>-4.7</v>
       </c>
       <c r="L3" s="7">
-        <v>-19.5</v>
+        <v>-27.7</v>
       </c>
       <c r="M3" s="7">
-        <v>-11.3</v>
+        <v>-21.6</v>
       </c>
       <c r="N3" s="7">
-        <v>-13.3</v>
+        <v>-13.7</v>
       </c>
       <c r="O3" s="7">
-        <v>-29.2</v>
+        <v>-6.7</v>
       </c>
       <c r="P3" s="7">
-        <v>-14.2</v>
+        <v>-14.4</v>
       </c>
       <c r="Q3" s="7">
-        <v>-11.3</v>
+        <v>-18.600000000000001</v>
       </c>
       <c r="R3" s="7">
-        <v>-14.6</v>
+        <v>-27.3</v>
       </c>
       <c r="S3" s="7">
-        <v>-19.8</v>
+        <v>-8.3000000000000007</v>
       </c>
       <c r="T3" s="7">
-        <v>-23.7</v>
+        <v>-3.5</v>
       </c>
       <c r="U3" s="7">
-        <v>-23.8</v>
+        <v>-22.4</v>
       </c>
       <c r="V3" s="7">
-        <v>-10.1</v>
+        <v>-11.1</v>
       </c>
       <c r="W3" s="7">
-        <v>-22</v>
+        <v>-19.7</v>
       </c>
       <c r="X3" s="7">
-        <v>-11.8</v>
+        <v>-14</v>
       </c>
       <c r="Y3" s="7">
-        <v>-13.4</v>
+        <v>-9.6999999999999993</v>
       </c>
       <c r="Z3" s="7">
-        <v>-16.600000000000001</v>
+        <v>-23.2</v>
       </c>
       <c r="AA3" s="7">
-        <v>-18.8</v>
+        <v>-27.8</v>
       </c>
       <c r="AB3" s="7">
-        <v>-18.600000000000001</v>
+        <v>-19.600000000000001</v>
       </c>
       <c r="AC3" s="7">
-        <v>-31.8</v>
+        <v>-29</v>
       </c>
       <c r="AD3" s="7">
-        <v>-17.7</v>
+        <v>-9.6999999999999993</v>
       </c>
       <c r="AE3" s="7">
-        <v>-21</v>
+        <v>-11.1</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="20">
-        <v>-24.1</v>
+        <v>-11.1</v>
       </c>
       <c r="C4" s="20">
-        <v>-2.6</v>
+        <v>-8.8000000000000007</v>
       </c>
       <c r="D4" s="24"/>
       <c r="E4" s="25"/>
       <c r="F4" s="25"/>
       <c r="G4" s="21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="H4" s="7" cm="1">
         <f t="array" ref="H4:AE4">TRANSPOSE(C3:C26)</f>
-        <v>-7.7</v>
+        <v>-8.1</v>
       </c>
       <c r="I4" s="7">
-        <v>-2.6</v>
+        <v>-8.8000000000000007</v>
       </c>
       <c r="J4" s="7">
+        <v>-20.6</v>
+      </c>
+      <c r="K4" s="7">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L4" s="7">
+        <v>-16.3</v>
+      </c>
+      <c r="M4" s="7">
+        <v>-15.4</v>
+      </c>
+      <c r="N4" s="7">
+        <v>-10.9</v>
+      </c>
+      <c r="O4" s="7">
+        <v>-1.6</v>
+      </c>
+      <c r="P4" s="7">
+        <v>-10.5</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="R4" s="7">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="S4" s="7">
+        <v>-0.9</v>
+      </c>
+      <c r="T4" s="7">
+        <v>0.1</v>
+      </c>
+      <c r="U4" s="7">
+        <v>-5.6</v>
+      </c>
+      <c r="V4" s="7">
+        <v>-7.3</v>
+      </c>
+      <c r="W4" s="7">
+        <v>-6.9</v>
+      </c>
+      <c r="X4" s="7">
+        <v>-8</v>
+      </c>
+      <c r="Y4" s="7">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="Z4" s="7">
+        <v>-17</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>-12.5</v>
+      </c>
+      <c r="AB4" s="7">
+        <v>-8.5</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>-16</v>
+      </c>
+      <c r="AD4" s="7">
+        <v>-8.4</v>
+      </c>
+      <c r="AE4" s="7">
         <v>-3.5</v>
-      </c>
-      <c r="K4" s="7">
-        <v>10.9</v>
-      </c>
-      <c r="L4" s="7">
-        <v>-10.4</v>
-      </c>
-      <c r="M4" s="7">
-        <v>-3.5</v>
-      </c>
-      <c r="N4" s="7">
-        <v>-5.7</v>
-      </c>
-      <c r="O4" s="7">
-        <v>-16.7</v>
-      </c>
-      <c r="P4" s="7">
-        <v>-9.5</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>-5.5</v>
-      </c>
-      <c r="R4" s="7">
-        <v>-6.4</v>
-      </c>
-      <c r="S4" s="7">
-        <v>-6.7</v>
-      </c>
-      <c r="T4" s="7">
-        <v>-14.4</v>
-      </c>
-      <c r="U4" s="7">
-        <v>-13</v>
-      </c>
-      <c r="V4" s="7">
-        <v>-2.1</v>
-      </c>
-      <c r="W4" s="7">
-        <v>-9.6</v>
-      </c>
-      <c r="X4" s="7">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="7">
-        <v>-1.9</v>
-      </c>
-      <c r="Z4" s="7">
-        <v>-7.5</v>
-      </c>
-      <c r="AA4" s="7">
-        <v>-11</v>
-      </c>
-      <c r="AB4" s="7">
-        <v>-4.0999999999999996</v>
-      </c>
-      <c r="AC4" s="7">
-        <v>-13.1</v>
-      </c>
-      <c r="AD4" s="7">
-        <v>-5.2</v>
-      </c>
-      <c r="AE4" s="7">
-        <v>-12.2</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="27" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="20">
-        <v>-18.3</v>
+        <v>-32.700000000000003</v>
       </c>
       <c r="C5" s="20">
-        <v>-3.5</v>
+        <v>-20.6</v>
       </c>
       <c r="D5" s="24"/>
       <c r="E5" s="25"/>
       <c r="F5" s="25"/>
       <c r="G5" s="21" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B6" s="20">
-        <v>4.5</v>
+        <v>-4.7</v>
       </c>
       <c r="C6" s="20">
-        <v>10.9</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="D6" s="24"/>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
       <c r="G6" s="21" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="27" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B7" s="20">
-        <v>-19.5</v>
+        <v>-27.7</v>
       </c>
       <c r="C7" s="20">
-        <v>-10.4</v>
+        <v>-16.3</v>
       </c>
       <c r="D7" s="24"/>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
       <c r="G7" s="21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="27" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B8" s="20">
-        <v>-11.3</v>
+        <v>-21.6</v>
       </c>
       <c r="C8" s="20">
-        <v>-3.5</v>
+        <v>-15.4</v>
       </c>
       <c r="D8" s="24"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="G8" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B9" s="20">
-        <v>-13.3</v>
+        <v>-13.7</v>
       </c>
       <c r="C9" s="20">
-        <v>-5.7</v>
+        <v>-10.9</v>
       </c>
       <c r="D9" s="24"/>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="21" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="27" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B10" s="20">
-        <v>-29.2</v>
+        <v>-6.7</v>
       </c>
       <c r="C10" s="20">
-        <v>-16.7</v>
+        <v>-1.6</v>
       </c>
       <c r="D10" s="24"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="21" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="27" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B11" s="20">
-        <v>-14.2</v>
+        <v>-14.4</v>
       </c>
       <c r="C11" s="20">
-        <v>-9.5</v>
+        <v>-10.5</v>
       </c>
       <c r="D11" s="24"/>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
       <c r="G11" s="21" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="27" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B12" s="20">
-        <v>-11.3</v>
+        <v>-18.600000000000001</v>
       </c>
       <c r="C12" s="20">
-        <v>-5.5</v>
+        <v>-9.8000000000000007</v>
       </c>
       <c r="D12" s="24"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="21" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B13" s="20">
-        <v>-14.6</v>
+        <v>-27.3</v>
       </c>
       <c r="C13" s="20">
-        <v>-6.4</v>
+        <v>-16.600000000000001</v>
       </c>
       <c r="D13" s="24"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B14" s="20">
-        <v>-19.8</v>
+        <v>-8.3000000000000007</v>
       </c>
       <c r="C14" s="20">
-        <v>-6.7</v>
+        <v>-0.9</v>
       </c>
       <c r="D14" s="24"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="27" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B15" s="20">
-        <v>-23.7</v>
+        <v>-3.5</v>
       </c>
       <c r="C15" s="20">
-        <v>-14.4</v>
+        <v>0.1</v>
       </c>
       <c r="D15" s="24"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
       <c r="G15" s="21" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B16" s="20">
-        <v>-23.8</v>
+        <v>-22.4</v>
       </c>
       <c r="C16" s="20">
-        <v>-13</v>
+        <v>-5.6</v>
       </c>
       <c r="D16" s="24">
         <v>1</v>
@@ -1866,18 +1907,18 @@
         <v>203</v>
       </c>
       <c r="G16" s="21" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B17" s="20">
-        <v>-10.1</v>
+        <v>-11.1</v>
       </c>
       <c r="C17" s="20">
-        <v>-2.1</v>
+        <v>-7.3</v>
       </c>
       <c r="D17" s="24">
         <v>1</v>
@@ -1889,18 +1930,18 @@
         <v>212</v>
       </c>
       <c r="G17" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B18" s="20">
-        <v>-22</v>
+        <v>-19.7</v>
       </c>
       <c r="C18" s="20">
-        <v>-9.6</v>
+        <v>-6.9</v>
       </c>
       <c r="D18" s="24">
         <v>1</v>
@@ -1912,18 +1953,18 @@
         <v>225</v>
       </c>
       <c r="G18" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B19" s="20">
-        <v>-11.8</v>
+        <v>-14</v>
       </c>
       <c r="C19" s="20">
-        <v>0</v>
+        <v>-8</v>
       </c>
       <c r="D19" s="24">
         <v>1</v>
@@ -1935,18 +1976,18 @@
         <v>292</v>
       </c>
       <c r="G19" s="21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B20" s="20">
-        <v>-13.4</v>
+        <v>-9.6999999999999993</v>
       </c>
       <c r="C20" s="20">
-        <v>-1.9</v>
+        <v>-8.3000000000000007</v>
       </c>
       <c r="D20" s="24">
         <v>1</v>
@@ -1958,18 +1999,18 @@
         <v>211</v>
       </c>
       <c r="G20" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="35" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B21" s="20">
-        <v>-16.600000000000001</v>
+        <v>-23.2</v>
       </c>
       <c r="C21" s="20">
-        <v>-7.5</v>
+        <v>-17</v>
       </c>
       <c r="D21" s="24">
         <v>1</v>
@@ -1981,18 +2022,18 @@
         <v>221</v>
       </c>
       <c r="G21" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="35" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B22" s="20">
-        <v>-18.8</v>
+        <v>-27.8</v>
       </c>
       <c r="C22" s="36">
-        <v>-11</v>
+        <v>-12.5</v>
       </c>
       <c r="D22" s="24">
         <v>1</v>
@@ -2004,18 +2045,18 @@
         <v>224</v>
       </c>
       <c r="G22" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="35" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B23" s="36">
-        <v>-18.600000000000001</v>
+        <v>-19.600000000000001</v>
       </c>
       <c r="C23" s="20">
-        <v>-4.0999999999999996</v>
+        <v>-8.5</v>
       </c>
       <c r="D23" s="24">
         <v>1</v>
@@ -2027,18 +2068,18 @@
         <v>243</v>
       </c>
       <c r="G23" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B24" s="20">
-        <v>-31.8</v>
+        <v>-29</v>
       </c>
       <c r="C24" s="36">
-        <v>-13.1</v>
+        <v>-16</v>
       </c>
       <c r="D24" s="24">
         <v>1</v>
@@ -2050,18 +2091,18 @@
         <v>274</v>
       </c>
       <c r="G24" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B25" s="20">
-        <v>-17.7</v>
+        <v>-9.6999999999999993</v>
       </c>
       <c r="C25" s="20">
-        <v>-5.2</v>
+        <v>-8.4</v>
       </c>
       <c r="D25" s="24">
         <v>3</v>
@@ -2073,18 +2114,18 @@
         <v>828</v>
       </c>
       <c r="G25" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B26" s="20">
-        <v>-21</v>
+        <v>-11.1</v>
       </c>
       <c r="C26" s="20">
-        <v>-12.2</v>
+        <v>-3.5</v>
       </c>
       <c r="D26" s="24">
         <v>4</v>
@@ -2096,26 +2137,26 @@
         <v>893</v>
       </c>
       <c r="G26" s="22" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B28" s="34"/>
       <c r="C28" s="33"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="32" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B29" s="34"/>
       <c r="C29" s="33"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B30" s="34"/>
       <c r="C30" s="33"/>
@@ -2137,8 +2178,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF0FA41-85CC-443B-8D70-8487574C7D86}">
   <dimension ref="A1:E36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2154,10 +2195,10 @@
     <row r="1" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="44"/>
       <c r="B1" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C1" s="40" t="s">
-        <v>29</v>
+        <v>102</v>
       </c>
       <c r="D1" s="40"/>
       <c r="E1" s="41"/>
@@ -2165,7 +2206,7 @@
     <row r="2" spans="1:5" ht="43.05" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="44"/>
       <c r="B2" s="11" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C2" s="42"/>
       <c r="D2" s="42"/>
@@ -2173,16 +2214,16 @@
     </row>
     <row r="3" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="29" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B3" s="12" t="s">
         <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>16</v>
@@ -2190,410 +2231,410 @@
     </row>
     <row r="4" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="15">
-        <v>22</v>
-      </c>
-      <c r="B4" s="13" t="s">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>8</v>
       </c>
       <c r="C4" s="30">
-        <v>-31.8</v>
+        <v>-32.700000000000003</v>
       </c>
       <c r="D4" s="30">
-        <v>-13.1</v>
+        <v>-20.6</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="15">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C5" s="30">
-        <v>-29.2</v>
+        <v>-29</v>
       </c>
       <c r="D5" s="30">
-        <v>-16.7</v>
+        <v>-16</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="15">
-        <v>1</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>0</v>
+        <v>20</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>71</v>
       </c>
       <c r="C6" s="30">
-        <v>-25.4</v>
+        <v>-27.8</v>
       </c>
       <c r="D6" s="30">
-        <v>-7.7</v>
+        <v>-12.5</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="15">
-        <v>2</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>1</v>
+        <v>5</v>
+      </c>
+      <c r="B7" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="C7" s="30">
-        <v>-24.1</v>
+        <v>-27.7</v>
       </c>
       <c r="D7" s="30">
-        <v>-2.6</v>
+        <v>-16.3</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="15">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>2</v>
+        <v>53</v>
       </c>
       <c r="C8" s="30">
-        <v>-23.8</v>
+        <v>-27.3</v>
       </c>
       <c r="D8" s="30">
-        <v>-13</v>
+        <v>-16.600000000000001</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="15">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="C9" s="30">
-        <v>-23.7</v>
+        <v>-23.2</v>
       </c>
       <c r="D9" s="30">
-        <v>-14.4</v>
+        <v>-17</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>64</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="15">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C10" s="30">
-        <v>-22</v>
+        <v>-22.4</v>
       </c>
       <c r="D10" s="30">
-        <v>-9.6</v>
+        <v>-5.6</v>
       </c>
       <c r="E10" s="28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="15">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="C11" s="30">
-        <v>-21</v>
+        <v>-21.6</v>
       </c>
       <c r="D11" s="30">
-        <v>-12.2</v>
+        <v>-15.4</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="15">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>58</v>
+        <v>4</v>
       </c>
       <c r="C12" s="30">
-        <v>-19.8</v>
+        <v>-19.7</v>
       </c>
       <c r="D12" s="30">
-        <v>-6.7</v>
+        <v>-6.9</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>60</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="15">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="C13" s="30">
-        <v>-19.5</v>
+        <v>-19.600000000000001</v>
       </c>
       <c r="D13" s="30">
-        <v>-10.4</v>
+        <v>-8.5</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="15">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C14" s="30">
-        <v>-18.8</v>
+        <v>-18.600000000000001</v>
       </c>
       <c r="D14" s="30">
-        <v>-11</v>
+        <v>-9.8000000000000007</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="15">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>77</v>
+        <v>11</v>
       </c>
       <c r="C15" s="30">
-        <v>-18.600000000000001</v>
+        <v>-14.4</v>
       </c>
       <c r="D15" s="30">
-        <v>-4.0999999999999996</v>
+        <v>-10.5</v>
       </c>
       <c r="E15" s="28" t="s">
-        <v>79</v>
+        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="15">
-        <v>3</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>8</v>
+        <v>17</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>14</v>
       </c>
       <c r="C16" s="30">
-        <v>-18.3</v>
+        <v>-14</v>
       </c>
       <c r="D16" s="30">
-        <v>-3.5</v>
+        <v>-8</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="15">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="C17" s="30">
-        <v>-17.7</v>
+        <v>-13.7</v>
       </c>
       <c r="D17" s="30">
-        <v>-5.2</v>
+        <v>-10.9</v>
       </c>
       <c r="E17" s="28" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="15">
-        <v>19</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>69</v>
+        <v>2</v>
+      </c>
+      <c r="B18" s="14" t="s">
+        <v>1</v>
       </c>
       <c r="C18" s="30">
-        <v>-16.600000000000001</v>
+        <v>-11.1</v>
       </c>
       <c r="D18" s="30">
-        <v>-7.5</v>
+        <v>-8.8000000000000007</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="15">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B19" s="13" t="s">
-        <v>54</v>
+        <v>3</v>
       </c>
       <c r="C19" s="30">
-        <v>-14.6</v>
+        <v>-11.1</v>
       </c>
       <c r="D19" s="30">
-        <v>-6.4</v>
+        <v>-7.3</v>
       </c>
       <c r="E19" s="28" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="15">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="C20" s="30">
-        <v>-14.2</v>
+        <v>-11.1</v>
       </c>
       <c r="D20" s="30">
-        <v>-9.5</v>
+        <v>-3.5</v>
       </c>
       <c r="E20" s="28" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="15">
-        <v>18</v>
-      </c>
-      <c r="B21" s="13" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="B21" s="14" t="s">
+        <v>0</v>
       </c>
       <c r="C21" s="30">
-        <v>-13.4</v>
+        <v>-10.199999999999999</v>
       </c>
       <c r="D21" s="30">
-        <v>-1.9</v>
+        <v>-8.1</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="15">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
       <c r="C22" s="30">
-        <v>-13.3</v>
+        <v>-9.6999999999999993</v>
       </c>
       <c r="D22" s="30">
-        <v>-5.7</v>
+        <v>-8.4</v>
       </c>
       <c r="E22" s="28" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="15">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C23" s="30">
-        <v>-11.8</v>
+        <v>-9.6999999999999993</v>
       </c>
       <c r="D23" s="30">
-        <v>0</v>
+        <v>-8.3000000000000007</v>
       </c>
       <c r="E23" s="28" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="15">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C24" s="30">
-        <v>-11.3</v>
+        <v>-8.3000000000000007</v>
       </c>
       <c r="D24" s="30">
-        <v>-5.5</v>
+        <v>-0.9</v>
       </c>
       <c r="E24" s="28" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="15">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C25" s="30">
-        <v>-11.3</v>
+        <v>-6.7</v>
       </c>
       <c r="D25" s="30">
-        <v>-3.5</v>
+        <v>-1.6</v>
       </c>
       <c r="E25" s="28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="15">
-        <v>15</v>
-      </c>
-      <c r="B26" s="13" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="B26" s="14" t="s">
+        <v>13</v>
       </c>
       <c r="C26" s="30">
-        <v>-10.1</v>
+        <v>-4.7</v>
       </c>
       <c r="D26" s="30">
-        <v>-2.1</v>
+        <v>5.0999999999999996</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="15">
-        <v>4</v>
-      </c>
-      <c r="B27" s="14" t="s">
         <v>13</v>
       </c>
+      <c r="B27" s="13" t="s">
+        <v>61</v>
+      </c>
       <c r="C27" s="30">
-        <v>4.5</v>
+        <v>-3.5</v>
       </c>
       <c r="D27" s="30">
-        <v>10.9</v>
+        <v>0.1</v>
       </c>
       <c r="E27" s="28" t="s">
-        <v>20</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.4">
@@ -2716,7 +2757,7 @@
   <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2726,79 +2767,79 @@
   <sheetData>
     <row r="1" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q1" s="16" t="s">
+      <c r="S1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="W1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="V1" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="W1" s="16" t="s">
-        <v>46</v>
-      </c>
       <c r="X1" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Y1" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.4">
@@ -3575,20 +3616,308 @@
       <c r="A12" s="17">
         <v>45620</v>
       </c>
+      <c r="B12">
+        <v>-18.5</v>
+      </c>
+      <c r="C12">
+        <v>-19.7</v>
+      </c>
+      <c r="D12">
+        <v>-23.3</v>
+      </c>
+      <c r="E12">
+        <v>4.8</v>
+      </c>
+      <c r="F12">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="G12">
+        <v>-18.7</v>
+      </c>
+      <c r="H12">
+        <v>-21</v>
+      </c>
+      <c r="I12">
+        <v>-27.7</v>
+      </c>
+      <c r="J12">
+        <v>-12.3</v>
+      </c>
+      <c r="K12">
+        <v>-25.6</v>
+      </c>
+      <c r="L12">
+        <v>-11.2</v>
+      </c>
+      <c r="M12">
+        <v>-15.9</v>
+      </c>
+      <c r="N12">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="O12">
+        <v>-30.5</v>
+      </c>
+      <c r="P12">
+        <v>-17</v>
+      </c>
+      <c r="Q12">
+        <v>-25.2</v>
+      </c>
+      <c r="R12">
+        <v>-16.7</v>
+      </c>
+      <c r="S12">
+        <v>-19.5</v>
+      </c>
+      <c r="T12">
+        <v>-26.9</v>
+      </c>
+      <c r="U12">
+        <v>-25.4</v>
+      </c>
+      <c r="V12">
+        <v>-20</v>
+      </c>
+      <c r="W12">
+        <v>-24.4</v>
+      </c>
+      <c r="X12">
+        <v>-26.3</v>
+      </c>
+      <c r="Y12">
+        <v>-24.7</v>
+      </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A13" s="17">
         <v>45621</v>
       </c>
+      <c r="B13">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="C13">
+        <v>-9.5</v>
+      </c>
+      <c r="D13">
+        <v>-29.3</v>
+      </c>
+      <c r="E13">
+        <v>1.6</v>
+      </c>
+      <c r="F13">
+        <v>-24.2</v>
+      </c>
+      <c r="G13">
+        <v>-14.8</v>
+      </c>
+      <c r="H13">
+        <v>-14.1</v>
+      </c>
+      <c r="I13">
+        <v>-24.4</v>
+      </c>
+      <c r="J13">
+        <v>-16.2</v>
+      </c>
+      <c r="K13">
+        <v>-30</v>
+      </c>
+      <c r="L13">
+        <v>-19.7</v>
+      </c>
+      <c r="M13">
+        <v>-12.5</v>
+      </c>
+      <c r="N13">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="O13">
+        <v>-22.8</v>
+      </c>
+      <c r="P13">
+        <v>-14.2</v>
+      </c>
+      <c r="Q13">
+        <v>-23.8</v>
+      </c>
+      <c r="R13">
+        <v>-21.5</v>
+      </c>
+      <c r="S13">
+        <v>-10.6</v>
+      </c>
+      <c r="T13">
+        <v>-20.7</v>
+      </c>
+      <c r="U13">
+        <v>-25.9</v>
+      </c>
+      <c r="V13">
+        <v>-26.4</v>
+      </c>
+      <c r="W13">
+        <v>-34.6</v>
+      </c>
+      <c r="X13">
+        <v>-13.8</v>
+      </c>
+      <c r="Y13">
+        <v>-24.7</v>
+      </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A14" s="17">
         <v>45622</v>
       </c>
+      <c r="B14">
+        <v>-13.2</v>
+      </c>
+      <c r="C14">
+        <v>-12.9</v>
+      </c>
+      <c r="D14">
+        <v>-31.8</v>
+      </c>
+      <c r="E14">
+        <v>-2.6</v>
+      </c>
+      <c r="F14">
+        <v>-25.1</v>
+      </c>
+      <c r="G14">
+        <v>-19.5</v>
+      </c>
+      <c r="H14">
+        <v>-14.4</v>
+      </c>
+      <c r="I14">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="J14">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="K14">
+        <v>-22.1</v>
+      </c>
+      <c r="L14">
+        <v>-26.9</v>
+      </c>
+      <c r="M14">
+        <v>-5</v>
+      </c>
+      <c r="N14">
+        <v>-13.3</v>
+      </c>
+      <c r="O14">
+        <v>-25.3</v>
+      </c>
+      <c r="P14">
+        <v>-14.2</v>
+      </c>
+      <c r="Q14">
+        <v>-16.5</v>
+      </c>
+      <c r="R14">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="S14">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="T14">
+        <v>-22.8</v>
+      </c>
+      <c r="U14">
+        <v>-22.5</v>
+      </c>
+      <c r="V14">
+        <v>-18.8</v>
+      </c>
+      <c r="W14">
+        <v>-31</v>
+      </c>
+      <c r="X14">
+        <v>-11.5</v>
+      </c>
+      <c r="Y14">
+        <v>-24.3</v>
+      </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A15" s="17">
         <v>45623</v>
+      </c>
+      <c r="B15">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="C15">
+        <v>-11.1</v>
+      </c>
+      <c r="D15">
+        <v>-32.700000000000003</v>
+      </c>
+      <c r="E15">
+        <v>-4.7</v>
+      </c>
+      <c r="F15">
+        <v>-27.7</v>
+      </c>
+      <c r="G15">
+        <v>-21.6</v>
+      </c>
+      <c r="H15">
+        <v>-13.7</v>
+      </c>
+      <c r="I15">
+        <v>-6.7</v>
+      </c>
+      <c r="J15">
+        <v>-14.4</v>
+      </c>
+      <c r="K15">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="L15">
+        <v>-27.3</v>
+      </c>
+      <c r="M15">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="N15">
+        <v>-3.5</v>
+      </c>
+      <c r="O15">
+        <v>-22.4</v>
+      </c>
+      <c r="P15">
+        <v>-11.1</v>
+      </c>
+      <c r="Q15">
+        <v>-19.7</v>
+      </c>
+      <c r="R15">
+        <v>-14</v>
+      </c>
+      <c r="S15">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="T15">
+        <v>-23.2</v>
+      </c>
+      <c r="U15">
+        <v>-27.8</v>
+      </c>
+      <c r="V15">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="W15">
+        <v>-29</v>
+      </c>
+      <c r="X15">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="Y15">
+        <v>-11.1</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.4">
@@ -3617,7 +3946,7 @@
   <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3627,79 +3956,79 @@
   <sheetData>
     <row r="1" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B1" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="D1" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="E1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="F1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="H1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="J1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="J1" s="16" t="s">
+      <c r="K1" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="M1" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="N1" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="O1" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="16" t="s">
-        <v>49</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="O1" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="P1" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q1" s="16" t="s">
+      <c r="S1" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="T1" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="U1" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="V1" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="W1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="R1" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>47</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="V1" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="W1" s="16" t="s">
-        <v>46</v>
-      </c>
       <c r="X1" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="Y1" s="16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.4">
@@ -4476,20 +4805,308 @@
       <c r="A12" s="17">
         <v>45620</v>
       </c>
+      <c r="B12">
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="C12">
+        <v>-2.2999999999999998</v>
+      </c>
+      <c r="D12">
+        <v>-7.3</v>
+      </c>
+      <c r="E12">
+        <v>9.5</v>
+      </c>
+      <c r="F12">
+        <v>-11.7</v>
+      </c>
+      <c r="G12">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="H12">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="I12">
+        <v>-16.399999999999999</v>
+      </c>
+      <c r="J12">
+        <v>-6.9</v>
+      </c>
+      <c r="K12">
+        <v>-11.3</v>
+      </c>
+      <c r="L12">
+        <v>-5</v>
+      </c>
+      <c r="M12">
+        <v>-2.4</v>
+      </c>
+      <c r="N12">
+        <v>-12.7</v>
+      </c>
+      <c r="O12">
+        <v>-17.7</v>
+      </c>
+      <c r="P12">
+        <v>-5.5</v>
+      </c>
+      <c r="Q12">
+        <v>-12.1</v>
+      </c>
+      <c r="R12">
+        <v>-5.2</v>
+      </c>
+      <c r="S12">
+        <v>-7.2</v>
+      </c>
+      <c r="T12">
+        <v>-11.1</v>
+      </c>
+      <c r="U12">
+        <v>-14.8</v>
+      </c>
+      <c r="V12">
+        <v>-4.0999999999999996</v>
+      </c>
+      <c r="W12">
+        <v>-14.3</v>
+      </c>
+      <c r="X12">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="Y12">
+        <v>-18.8</v>
+      </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A13" s="17">
         <v>45621</v>
       </c>
+      <c r="B13">
+        <v>-9.5</v>
+      </c>
+      <c r="C13">
+        <v>-6.5</v>
+      </c>
+      <c r="D13">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="E13">
+        <v>8.9</v>
+      </c>
+      <c r="F13">
+        <v>-12.1</v>
+      </c>
+      <c r="G13">
+        <v>-7.9</v>
+      </c>
+      <c r="H13">
+        <v>-9.1</v>
+      </c>
+      <c r="I13">
+        <v>-14.1</v>
+      </c>
+      <c r="J13">
+        <v>-11</v>
+      </c>
+      <c r="K13">
+        <v>-20.9</v>
+      </c>
+      <c r="L13">
+        <v>-11.1</v>
+      </c>
+      <c r="M13">
+        <v>-0.3</v>
+      </c>
+      <c r="N13">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="O13">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="P13">
+        <v>-4.5999999999999996</v>
+      </c>
+      <c r="Q13">
+        <v>-13</v>
+      </c>
+      <c r="R13">
+        <v>-11.9</v>
+      </c>
+      <c r="S13">
+        <v>-7.3</v>
+      </c>
+      <c r="T13">
+        <v>-12</v>
+      </c>
+      <c r="U13">
+        <v>-13.5</v>
+      </c>
+      <c r="V13">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="W13">
+        <v>-22.3</v>
+      </c>
+      <c r="X13">
+        <v>-7.8</v>
+      </c>
+      <c r="Y13">
+        <v>-19.600000000000001</v>
+      </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A14" s="17">
         <v>45622</v>
       </c>
+      <c r="B14">
+        <v>-8.4</v>
+      </c>
+      <c r="C14">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="D14">
+        <v>-18.3</v>
+      </c>
+      <c r="E14">
+        <v>2.6</v>
+      </c>
+      <c r="F14">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="G14">
+        <v>-10.4</v>
+      </c>
+      <c r="H14">
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="I14">
+        <v>-6.2</v>
+      </c>
+      <c r="J14">
+        <v>-13.9</v>
+      </c>
+      <c r="K14">
+        <v>-14.2</v>
+      </c>
+      <c r="L14">
+        <v>-16.399999999999999</v>
+      </c>
+      <c r="M14">
+        <v>-1.9</v>
+      </c>
+      <c r="N14">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="O14">
+        <v>-5.6</v>
+      </c>
+      <c r="P14">
+        <v>-5.9</v>
+      </c>
+      <c r="Q14">
+        <v>-9.9</v>
+      </c>
+      <c r="R14">
+        <v>-13.3</v>
+      </c>
+      <c r="S14">
+        <v>-7.6</v>
+      </c>
+      <c r="T14">
+        <v>-12.6</v>
+      </c>
+      <c r="U14">
+        <v>-11.8</v>
+      </c>
+      <c r="V14">
+        <v>-11.5</v>
+      </c>
+      <c r="W14">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="X14">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="Y14">
+        <v>-5.3</v>
+      </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A15" s="17">
         <v>45623</v>
+      </c>
+      <c r="B15">
+        <v>-8.1</v>
+      </c>
+      <c r="C15">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="D15">
+        <v>-20.6</v>
+      </c>
+      <c r="E15">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="F15">
+        <v>-16.3</v>
+      </c>
+      <c r="G15">
+        <v>-15.4</v>
+      </c>
+      <c r="H15">
+        <v>-10.9</v>
+      </c>
+      <c r="I15">
+        <v>-1.6</v>
+      </c>
+      <c r="J15">
+        <v>-10.5</v>
+      </c>
+      <c r="K15">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="L15">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="M15">
+        <v>-0.9</v>
+      </c>
+      <c r="N15">
+        <v>0.1</v>
+      </c>
+      <c r="O15">
+        <v>-5.6</v>
+      </c>
+      <c r="P15">
+        <v>-7.3</v>
+      </c>
+      <c r="Q15">
+        <v>-6.9</v>
+      </c>
+      <c r="R15">
+        <v>-8</v>
+      </c>
+      <c r="S15">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="T15">
+        <v>-17</v>
+      </c>
+      <c r="U15">
+        <v>-12.5</v>
+      </c>
+      <c r="V15">
+        <v>-8.5</v>
+      </c>
+      <c r="W15">
+        <v>-16</v>
+      </c>
+      <c r="X15">
+        <v>-8.4</v>
+      </c>
+      <c r="Y15">
+        <v>-3.5</v>
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.4">

--- a/气象/北境强冷站每日气温记录.xlsx
+++ b/气象/北境强冷站每日气温记录.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CDB7948-05C8-47A0-B68D-6B8040D236A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EC38BA-B7C5-4887-A21A-F1A7D1D4681F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{21DDB67E-D335-466F-8652-CD2F68303142}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{21DDB67E-D335-466F-8652-CD2F68303142}"/>
   </bookViews>
   <sheets>
     <sheet name="无格式草稿" sheetId="2" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="153">
   <si>
     <t>漠河</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -126,18 +126,6 @@
   </si>
   <si>
     <t>所处地区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国-黑龙江省-大兴安岭地区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国-内蒙古自治区-呼伦贝尔市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国-新疆维吾尔自治区-巴音郭楞蒙古自治州</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -443,66 +431,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>今日</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color theme="0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>最低</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>气温(℃)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>今日</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color theme="0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>最高</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color rgb="FFFFC000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>气温(℃)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -549,27 +477,96 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>11月27日</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
+    <t>地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国-新疆-巴音郭楞蒙古自治州</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国-内蒙古-呼伦贝尔市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纬度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国-黑龙江-大兴安岭地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>今日</t>
+    </r>
     <r>
       <rPr>
         <b/>
-        <sz val="48"/>
+        <sz val="20"/>
         <color theme="0"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
+      <t>最低</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FFFFBE0B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+气温(℃)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>今日</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最高</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FFFFBE0B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+气温(℃)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
       <t>北方冷极</t>
     </r>
     <r>
       <rPr>
         <b/>
-        <sz val="48"/>
-        <color rgb="FFFF0000"/>
+        <sz val="32"/>
+        <color rgb="FFF72585"/>
         <rFont val="等线"/>
         <family val="3"/>
         <charset val="134"/>
@@ -577,6 +574,202 @@
       </rPr>
       <t>每日PK</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52.13°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海拔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>433m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50.45°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43.03°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>733m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2459m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39.93°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51.72°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50.00°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50.27°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53.08°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53.75°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53.97°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53.62°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49.00°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50.87°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51.12°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49.80°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48.73°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.92°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50.48°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49.70°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48.75°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49.75°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.21°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49.90°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51.36°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1760m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>632m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1101m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>541m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>625m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>521m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>489m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>267m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>272m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1583m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>939m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1723m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1306m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>799m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1424m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1931m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>675m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2156m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>998m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1555m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -587,7 +780,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -607,15 +800,6 @@
       <b/>
       <sz val="20"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color rgb="FFFFC000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -718,23 +902,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="48"/>
-      <color rgb="FFFFFF00"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="24"/>
       <color rgb="FFFF0000"/>
@@ -768,8 +935,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="48"/>
+      <sz val="15"/>
       <color theme="0"/>
       <name val="等线"/>
       <family val="3"/>
@@ -778,8 +944,43 @@
     </font>
     <font>
       <b/>
-      <sz val="48"/>
-      <color rgb="FFFF0000"/>
+      <sz val="20"/>
+      <color theme="1" tint="0.14999847407452621"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFFBE0B"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="32"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="32"/>
+      <color rgb="FFF72585"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -880,41 +1081,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color theme="0"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top style="thin">
-        <color theme="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="1"/>
-      </left>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -927,15 +1093,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="1"/>
-      </right>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -997,146 +1154,210 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="1" tint="0.249977111117893"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thick">
+        <color theme="1" tint="0.249977111117893"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="11" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="16" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="2" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="6" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="8"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="9" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="19" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1147,16 +1368,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFF72585"/>
+      <color rgb="FFFFBE0B"/>
+      <color rgb="FFFB5607"/>
+      <color rgb="FFE01E37"/>
+      <color rgb="FF9EF01A"/>
       <color rgb="FF8EA604"/>
       <color rgb="FF4CC9F0"/>
       <color rgb="FF480CA8"/>
       <color rgb="FFBF3100"/>
       <color rgb="FFEC9F05"/>
-      <color rgb="FF3A0CA3"/>
-      <color rgb="FFF72585"/>
-      <color rgb="FF7209B7"/>
-      <color rgb="FFB5179E"/>
-      <color rgb="FFFF00FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1469,697 +1690,601 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E72AAA-3912-4684-8CF1-D56A9EC12E76}">
   <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="20.59765625" style="31" customWidth="1"/>
-    <col min="2" max="3" width="12.59765625" style="6" customWidth="1"/>
-    <col min="4" max="6" width="8.59765625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="32.59765625" style="6" customWidth="1"/>
-    <col min="8" max="8" width="12.59765625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="9.06640625" style="6"/>
+    <col min="1" max="1" width="20.59765625" style="20" customWidth="1"/>
+    <col min="2" max="3" width="12.59765625" style="3" customWidth="1"/>
+    <col min="4" max="6" width="8.59765625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="32.59765625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="12.59765625" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.06640625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="39"/>
-    </row>
-    <row r="2" spans="1:31" s="10" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="26" t="s">
+      <c r="A1" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="28"/>
+    </row>
+    <row r="2" spans="1:31" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="H3" s="4" cm="1">
+        <f t="array" ref="H3:AE3">TRANSPOSE(B3:B26)</f>
+        <v>0</v>
+      </c>
+      <c r="I3" s="4">
+        <v>0</v>
+      </c>
+      <c r="J3" s="4">
+        <v>0</v>
+      </c>
+      <c r="K3" s="4">
+        <v>0</v>
+      </c>
+      <c r="L3" s="4">
+        <v>0</v>
+      </c>
+      <c r="M3" s="4">
+        <v>0</v>
+      </c>
+      <c r="N3" s="4">
+        <v>0</v>
+      </c>
+      <c r="O3" s="4">
+        <v>0</v>
+      </c>
+      <c r="P3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>0</v>
+      </c>
+      <c r="R3" s="4">
+        <v>0</v>
+      </c>
+      <c r="S3" s="4">
+        <v>0</v>
+      </c>
+      <c r="T3" s="4">
+        <v>0</v>
+      </c>
+      <c r="U3" s="4">
+        <v>0</v>
+      </c>
+      <c r="V3" s="4">
+        <v>0</v>
+      </c>
+      <c r="W3" s="4">
+        <v>0</v>
+      </c>
+      <c r="X3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD3" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="H4" s="4" cm="1">
+        <f t="array" ref="H4:AE4">TRANSPOSE(C3:C26)</f>
+        <v>0</v>
+      </c>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="4">
+        <v>0</v>
+      </c>
+      <c r="K4" s="4">
+        <v>0</v>
+      </c>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+      <c r="N4" s="4">
+        <v>0</v>
+      </c>
+      <c r="O4" s="4">
+        <v>0</v>
+      </c>
+      <c r="P4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>0</v>
+      </c>
+      <c r="R4" s="4">
+        <v>0</v>
+      </c>
+      <c r="S4" s="4">
+        <v>0</v>
+      </c>
+      <c r="T4" s="4">
+        <v>0</v>
+      </c>
+      <c r="U4" s="4">
+        <v>0</v>
+      </c>
+      <c r="V4" s="4">
+        <v>0</v>
+      </c>
+      <c r="W4" s="4">
+        <v>0</v>
+      </c>
+      <c r="X4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AB4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AC4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AD4" s="4">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>90</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>89</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" s="8" t="s">
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="16"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="13" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="16"/>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="12"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="13" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17"/>
+      <c r="G11" s="13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="12"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="13" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="12"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="16">
+        <v>1</v>
+      </c>
+      <c r="E16" s="17">
+        <v>7</v>
+      </c>
+      <c r="F16" s="17">
+        <v>203</v>
+      </c>
+      <c r="G16" s="13" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="16">
+        <v>1</v>
+      </c>
+      <c r="E17" s="17">
         <v>16</v>
       </c>
-      <c r="H2" s="19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="27" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" s="20">
-        <v>-10.199999999999999</v>
-      </c>
-      <c r="C3" s="20">
-        <v>-8.1</v>
-      </c>
-      <c r="D3" s="24"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="21" t="s">
-        <v>79</v>
-      </c>
-      <c r="H3" s="7" cm="1">
-        <f t="array" ref="H3:AE3">TRANSPOSE(B3:B26)</f>
-        <v>-10.199999999999999</v>
-      </c>
-      <c r="I3" s="7">
-        <v>-11.1</v>
-      </c>
-      <c r="J3" s="7">
-        <v>-32.700000000000003</v>
-      </c>
-      <c r="K3" s="7">
-        <v>-4.7</v>
-      </c>
-      <c r="L3" s="7">
-        <v>-27.7</v>
-      </c>
-      <c r="M3" s="7">
-        <v>-21.6</v>
-      </c>
-      <c r="N3" s="7">
-        <v>-13.7</v>
-      </c>
-      <c r="O3" s="7">
-        <v>-6.7</v>
-      </c>
-      <c r="P3" s="7">
-        <v>-14.4</v>
-      </c>
-      <c r="Q3" s="7">
-        <v>-18.600000000000001</v>
-      </c>
-      <c r="R3" s="7">
-        <v>-27.3</v>
-      </c>
-      <c r="S3" s="7">
-        <v>-8.3000000000000007</v>
-      </c>
-      <c r="T3" s="7">
-        <v>-3.5</v>
-      </c>
-      <c r="U3" s="7">
-        <v>-22.4</v>
-      </c>
-      <c r="V3" s="7">
-        <v>-11.1</v>
-      </c>
-      <c r="W3" s="7">
-        <v>-19.7</v>
-      </c>
-      <c r="X3" s="7">
-        <v>-14</v>
-      </c>
-      <c r="Y3" s="7">
-        <v>-9.6999999999999993</v>
-      </c>
-      <c r="Z3" s="7">
-        <v>-23.2</v>
-      </c>
-      <c r="AA3" s="7">
-        <v>-27.8</v>
-      </c>
-      <c r="AB3" s="7">
-        <v>-19.600000000000001</v>
-      </c>
-      <c r="AC3" s="7">
-        <v>-29</v>
-      </c>
-      <c r="AD3" s="7">
-        <v>-9.6999999999999993</v>
-      </c>
-      <c r="AE3" s="7">
-        <v>-11.1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B4" s="20">
-        <v>-11.1</v>
-      </c>
-      <c r="C4" s="20">
-        <v>-8.8000000000000007</v>
-      </c>
-      <c r="D4" s="24"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="H4" s="7" cm="1">
-        <f t="array" ref="H4:AE4">TRANSPOSE(C3:C26)</f>
-        <v>-8.1</v>
-      </c>
-      <c r="I4" s="7">
-        <v>-8.8000000000000007</v>
-      </c>
-      <c r="J4" s="7">
-        <v>-20.6</v>
-      </c>
-      <c r="K4" s="7">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="L4" s="7">
-        <v>-16.3</v>
-      </c>
-      <c r="M4" s="7">
-        <v>-15.4</v>
-      </c>
-      <c r="N4" s="7">
-        <v>-10.9</v>
-      </c>
-      <c r="O4" s="7">
-        <v>-1.6</v>
-      </c>
-      <c r="P4" s="7">
-        <v>-10.5</v>
-      </c>
-      <c r="Q4" s="7">
-        <v>-9.8000000000000007</v>
-      </c>
-      <c r="R4" s="7">
-        <v>-16.600000000000001</v>
-      </c>
-      <c r="S4" s="7">
-        <v>-0.9</v>
-      </c>
-      <c r="T4" s="7">
-        <v>0.1</v>
-      </c>
-      <c r="U4" s="7">
-        <v>-5.6</v>
-      </c>
-      <c r="V4" s="7">
-        <v>-7.3</v>
-      </c>
-      <c r="W4" s="7">
-        <v>-6.9</v>
-      </c>
-      <c r="X4" s="7">
-        <v>-8</v>
-      </c>
-      <c r="Y4" s="7">
-        <v>-8.3000000000000007</v>
-      </c>
-      <c r="Z4" s="7">
-        <v>-17</v>
-      </c>
-      <c r="AA4" s="7">
-        <v>-12.5</v>
-      </c>
-      <c r="AB4" s="7">
-        <v>-8.5</v>
-      </c>
-      <c r="AC4" s="7">
-        <v>-16</v>
-      </c>
-      <c r="AD4" s="7">
-        <v>-8.4</v>
-      </c>
-      <c r="AE4" s="7">
-        <v>-3.5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="20">
-        <v>-32.700000000000003</v>
-      </c>
-      <c r="C5" s="20">
-        <v>-20.6</v>
-      </c>
-      <c r="D5" s="24"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="21" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="27" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="20">
-        <v>-4.7</v>
-      </c>
-      <c r="C6" s="20">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="21" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="7" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="27" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="20">
-        <v>-27.7</v>
-      </c>
-      <c r="C7" s="20">
-        <v>-16.3</v>
-      </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="21" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="27" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" s="20">
-        <v>-21.6</v>
-      </c>
-      <c r="C8" s="20">
-        <v>-15.4</v>
-      </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="21" t="s">
+      <c r="F17" s="17">
+        <v>212</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18" s="12"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="16">
+        <v>1</v>
+      </c>
+      <c r="E18" s="17">
+        <v>29</v>
+      </c>
+      <c r="F18" s="17">
+        <v>225</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B19" s="12"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="16">
+        <v>1</v>
+      </c>
+      <c r="E19" s="17">
+        <v>87</v>
+      </c>
+      <c r="F19" s="17">
+        <v>292</v>
+      </c>
+      <c r="G19" s="13" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="27" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="20">
-        <v>-13.7</v>
-      </c>
-      <c r="C9" s="20">
-        <v>-10.9</v>
-      </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="21" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="10" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="27" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="20">
-        <v>-6.7</v>
-      </c>
-      <c r="C10" s="20">
-        <v>-1.6</v>
-      </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="21" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="11" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="27" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="20">
-        <v>-14.4</v>
-      </c>
-      <c r="C11" s="20">
-        <v>-10.5</v>
-      </c>
-      <c r="D11" s="24"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="21" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="12" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="27" t="s">
-        <v>48</v>
-      </c>
-      <c r="B12" s="20">
-        <v>-18.600000000000001</v>
-      </c>
-      <c r="C12" s="20">
-        <v>-9.8000000000000007</v>
-      </c>
-      <c r="D12" s="24"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="21" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="27" t="s">
-        <v>52</v>
-      </c>
-      <c r="B13" s="20">
-        <v>-27.3</v>
-      </c>
-      <c r="C13" s="20">
-        <v>-16.600000000000001</v>
-      </c>
-      <c r="D13" s="24"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="21" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="B14" s="20">
-        <v>-8.3000000000000007</v>
-      </c>
-      <c r="C14" s="20">
-        <v>-0.9</v>
-      </c>
-      <c r="D14" s="24"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="21" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="15" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B15" s="20">
-        <v>-3.5</v>
-      </c>
-      <c r="C15" s="20">
-        <v>0.1</v>
-      </c>
-      <c r="D15" s="24"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="21" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="16" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="27" t="s">
+    <row r="20" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="12"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="16">
+        <v>1</v>
+      </c>
+      <c r="E20" s="17">
+        <v>15</v>
+      </c>
+      <c r="F20" s="17">
+        <v>211</v>
+      </c>
+      <c r="G20" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21" s="12"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="16">
+        <v>1</v>
+      </c>
+      <c r="E21" s="17">
+        <v>25</v>
+      </c>
+      <c r="F21" s="17">
+        <v>221</v>
+      </c>
+      <c r="G21" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="12"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="16">
+        <v>1</v>
+      </c>
+      <c r="E22" s="17">
+        <v>28</v>
+      </c>
+      <c r="F22" s="17">
+        <v>224</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="16">
+        <v>1</v>
+      </c>
+      <c r="E23" s="17">
+        <v>45</v>
+      </c>
+      <c r="F23" s="17">
+        <v>243</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="20">
-        <v>-22.4</v>
-      </c>
-      <c r="C16" s="20">
-        <v>-5.6</v>
-      </c>
-      <c r="D16" s="24">
+      <c r="B24" s="12"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="16">
         <v>1</v>
       </c>
-      <c r="E16" s="25">
-        <v>7</v>
-      </c>
-      <c r="F16" s="25">
-        <v>203</v>
-      </c>
-      <c r="G16" s="21" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="27" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="20">
-        <v>-11.1</v>
-      </c>
-      <c r="C17" s="20">
-        <v>-7.3</v>
-      </c>
-      <c r="D17" s="24">
-        <v>1</v>
-      </c>
-      <c r="E17" s="25">
-        <v>16</v>
-      </c>
-      <c r="F17" s="25">
-        <v>212</v>
-      </c>
-      <c r="G17" s="22" t="s">
+      <c r="E24" s="17">
+        <v>72</v>
+      </c>
+      <c r="F24" s="17">
+        <v>274</v>
+      </c>
+      <c r="G24" s="14" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="27" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="20">
-        <v>-19.7</v>
-      </c>
-      <c r="C18" s="20">
-        <v>-6.9</v>
-      </c>
-      <c r="D18" s="24">
-        <v>1</v>
-      </c>
-      <c r="E18" s="25">
-        <v>29</v>
-      </c>
-      <c r="F18" s="25">
-        <v>225</v>
-      </c>
-      <c r="G18" s="22" t="s">
+    <row r="25" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="12"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="16">
+        <v>3</v>
+      </c>
+      <c r="E25" s="17">
+        <v>77</v>
+      </c>
+      <c r="F25" s="17">
+        <v>828</v>
+      </c>
+      <c r="G25" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="24" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="27" t="s">
-        <v>41</v>
-      </c>
-      <c r="B19" s="20">
-        <v>-14</v>
-      </c>
-      <c r="C19" s="20">
-        <v>-8</v>
-      </c>
-      <c r="D19" s="24">
-        <v>1</v>
-      </c>
-      <c r="E19" s="25">
-        <v>87</v>
-      </c>
-      <c r="F19" s="25">
-        <v>292</v>
-      </c>
-      <c r="G19" s="21" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="35" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="20">
-        <v>-9.6999999999999993</v>
-      </c>
-      <c r="C20" s="20">
-        <v>-8.3000000000000007</v>
-      </c>
-      <c r="D20" s="24">
-        <v>1</v>
-      </c>
-      <c r="E20" s="25">
-        <v>15</v>
-      </c>
-      <c r="F20" s="25">
-        <v>211</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="20">
-        <v>-23.2</v>
-      </c>
-      <c r="C21" s="20">
-        <v>-17</v>
-      </c>
-      <c r="D21" s="24">
-        <v>1</v>
-      </c>
-      <c r="E21" s="25">
-        <v>25</v>
-      </c>
-      <c r="F21" s="25">
-        <v>221</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="B22" s="20">
-        <v>-27.8</v>
-      </c>
-      <c r="C22" s="36">
-        <v>-12.5</v>
-      </c>
-      <c r="D22" s="24">
-        <v>1</v>
-      </c>
-      <c r="E22" s="25">
-        <v>28</v>
-      </c>
-      <c r="F22" s="25">
-        <v>224</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="B23" s="36">
-        <v>-19.600000000000001</v>
-      </c>
-      <c r="C23" s="20">
-        <v>-8.5</v>
-      </c>
-      <c r="D23" s="24">
-        <v>1</v>
-      </c>
-      <c r="E23" s="25">
-        <v>45</v>
-      </c>
-      <c r="F23" s="25">
-        <v>243</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B24" s="20">
-        <v>-29</v>
-      </c>
-      <c r="C24" s="36">
-        <v>-16</v>
-      </c>
-      <c r="D24" s="24">
-        <v>1</v>
-      </c>
-      <c r="E24" s="25">
-        <v>72</v>
-      </c>
-      <c r="F24" s="25">
-        <v>274</v>
-      </c>
-      <c r="G24" s="22" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B25" s="20">
-        <v>-9.6999999999999993</v>
-      </c>
-      <c r="C25" s="20">
-        <v>-8.4</v>
-      </c>
-      <c r="D25" s="24">
+      <c r="B26" s="12"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="16">
+        <v>4</v>
+      </c>
+      <c r="E26" s="17">
         <v>3</v>
       </c>
-      <c r="E25" s="25">
-        <v>77</v>
-      </c>
-      <c r="F25" s="25">
-        <v>828</v>
-      </c>
-      <c r="G25" s="22" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="B26" s="20">
-        <v>-11.1</v>
-      </c>
-      <c r="C26" s="20">
-        <v>-3.5</v>
-      </c>
-      <c r="D26" s="24">
-        <v>4</v>
-      </c>
-      <c r="E26" s="25">
-        <v>3</v>
-      </c>
-      <c r="F26" s="25">
+      <c r="F26" s="17">
         <v>893</v>
       </c>
-      <c r="G26" s="22" t="s">
-        <v>74</v>
+      <c r="G26" s="14" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="32" t="s">
-        <v>96</v>
-      </c>
-      <c r="B28" s="34"/>
-      <c r="C28" s="33"/>
+      <c r="A28" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B28" s="23"/>
+      <c r="C28" s="22"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="B29" s="34"/>
-      <c r="C29" s="33"/>
+      <c r="A29" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="22"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="B30" s="34"/>
-      <c r="C30" s="33"/>
+      <c r="A30" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="B30" s="23"/>
+      <c r="C30" s="22"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A20:G26">
@@ -2176,505 +2301,579 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF0FA41-85CC-443B-8D70-8487574C7D86}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.06640625" style="1"/>
-    <col min="2" max="2" width="29.59765625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="32.59765625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.59765625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.06640625" style="1"/>
+    <col min="2" max="2" width="40.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="22.59765625" style="1" customWidth="1"/>
+    <col min="4" max="6" width="16.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.59765625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="44"/>
-      <c r="B1" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="40" t="s">
+    <row r="1" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A1" s="43"/>
+      <c r="B1" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C1" s="48"/>
+      <c r="D1" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+    </row>
+    <row r="2" spans="1:11" ht="29.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="43"/>
+      <c r="B2" s="44">
+        <v>45625</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
+    </row>
+    <row r="3" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="43"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="36" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="D1" s="40"/>
-      <c r="E1" s="41"/>
-    </row>
-    <row r="2" spans="1:5" ht="43.05" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="44"/>
-      <c r="B2" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="43"/>
-    </row>
-    <row r="3" spans="1:5" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="B3" s="12" t="s">
+      <c r="F3" s="37" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="E3" s="2" t="s">
+      <c r="D4" s="37"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+    </row>
+    <row r="5" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="31">
+        <v>1</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C5" s="29" t="s">
+        <v>0</v>
+      </c>
+      <c r="D5" s="34"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="45" t="s">
+        <v>104</v>
+      </c>
+      <c r="G5" s="45" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="31">
+        <v>2</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="45" t="s">
+        <v>107</v>
+      </c>
+      <c r="G6" s="45" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="31">
+        <v>3</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="35"/>
+      <c r="F7" s="45" t="s">
+        <v>108</v>
+      </c>
+      <c r="G7" s="45" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="31">
+        <v>4</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="34"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="46" t="s">
+        <v>111</v>
+      </c>
+      <c r="G8" s="45" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="31">
+        <v>5</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="34"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="G9" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="K9" s="33"/>
+    </row>
+    <row r="10" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="31">
+        <v>6</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="34"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="46" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" s="45" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="31">
+        <v>7</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" s="34"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="46" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11" s="45" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="31">
+        <v>8</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>12</v>
+      </c>
+      <c r="D12" s="34"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="46" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" s="45" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="31">
+        <v>9</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="34"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="46" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" s="45" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="31">
+        <v>10</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" s="34"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="G14" s="45" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="31">
+        <v>11</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="34"/>
+      <c r="E15" s="35"/>
+      <c r="F15" s="46" t="s">
+        <v>118</v>
+      </c>
+      <c r="G15" s="45" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="31">
+        <v>12</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="34"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="46" t="s">
+        <v>119</v>
+      </c>
+      <c r="G16" s="45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="31">
+        <v>13</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>60</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="34"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="G17" s="45" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="31">
+        <v>14</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" s="34"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="46" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="45" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="31">
+        <v>15</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="34"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="46" t="s">
+        <v>122</v>
+      </c>
+      <c r="G19" s="45" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="31">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="15">
-        <v>3</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="30">
-        <v>-32.700000000000003</v>
-      </c>
-      <c r="D4" s="30">
-        <v>-20.6</v>
-      </c>
-      <c r="E4" s="28" t="s">
+      <c r="B20" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="34"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="46" t="s">
+        <v>123</v>
+      </c>
+      <c r="G20" s="45" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="31">
+        <v>17</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D21" s="34"/>
+      <c r="E21" s="35"/>
+      <c r="F21" s="46" t="s">
+        <v>124</v>
+      </c>
+      <c r="G21" s="45" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="31">
+        <v>18</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="34"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="46" t="s">
+        <v>125</v>
+      </c>
+      <c r="G22" s="45" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="31">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="15">
+      <c r="B23" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="D23" s="34"/>
+      <c r="E23" s="35"/>
+      <c r="F23" s="46" t="s">
+        <v>126</v>
+      </c>
+      <c r="G23" s="45" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="31">
+        <v>20</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="D24" s="34"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="G24" s="45" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="31">
+        <v>21</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="34"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="46" t="s">
+        <v>128</v>
+      </c>
+      <c r="G25" s="45" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="31">
         <v>22</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B26" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="30">
-        <v>-29</v>
-      </c>
-      <c r="D5" s="30">
-        <v>-16</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="15">
-        <v>20</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="30">
-        <v>-27.8</v>
-      </c>
-      <c r="D6" s="30">
-        <v>-12.5</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="15">
-        <v>5</v>
-      </c>
-      <c r="B7" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="30">
-        <v>-27.7</v>
-      </c>
-      <c r="D7" s="30">
-        <v>-16.3</v>
-      </c>
-      <c r="E7" s="28" t="s">
+      <c r="D26" s="34"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="46" t="s">
+        <v>129</v>
+      </c>
+      <c r="G26" s="45" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="31">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="15">
-        <v>11</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="30">
-        <v>-27.3</v>
-      </c>
-      <c r="D8" s="30">
-        <v>-16.600000000000001</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="15">
-        <v>19</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="30">
-        <v>-23.2</v>
-      </c>
-      <c r="D9" s="30">
-        <v>-17</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="15">
-        <v>14</v>
-      </c>
-      <c r="B10" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C10" s="30">
-        <v>-22.4</v>
-      </c>
-      <c r="D10" s="30">
-        <v>-5.6</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="15">
-        <v>6</v>
-      </c>
-      <c r="B11" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="30">
-        <v>-21.6</v>
-      </c>
-      <c r="D11" s="30">
-        <v>-15.4</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="15">
-        <v>16</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" s="30">
-        <v>-19.7</v>
-      </c>
-      <c r="D12" s="30">
-        <v>-6.9</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="15">
-        <v>21</v>
-      </c>
-      <c r="B13" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="C13" s="30">
-        <v>-19.600000000000001</v>
-      </c>
-      <c r="D13" s="30">
-        <v>-8.5</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="15">
-        <v>10</v>
-      </c>
-      <c r="B14" s="13" t="s">
-        <v>49</v>
-      </c>
-      <c r="C14" s="30">
-        <v>-18.600000000000001</v>
-      </c>
-      <c r="D14" s="30">
-        <v>-9.8000000000000007</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="15">
-        <v>9</v>
-      </c>
-      <c r="B15" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="30">
-        <v>-14.4</v>
-      </c>
-      <c r="D15" s="30">
-        <v>-10.5</v>
-      </c>
-      <c r="E15" s="28" t="s">
+      <c r="B27" s="32" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="15">
-        <v>17</v>
-      </c>
-      <c r="B16" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" s="30">
-        <v>-14</v>
-      </c>
-      <c r="D16" s="30">
-        <v>-8</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="15">
-        <v>7</v>
-      </c>
-      <c r="B17" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="30">
-        <v>-13.7</v>
-      </c>
-      <c r="D17" s="30">
-        <v>-10.9</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="15">
-        <v>2</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="30">
-        <v>-11.1</v>
-      </c>
-      <c r="D18" s="30">
-        <v>-8.8000000000000007</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="15">
-        <v>15</v>
-      </c>
-      <c r="B19" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C19" s="30">
-        <v>-11.1</v>
-      </c>
-      <c r="D19" s="30">
-        <v>-7.3</v>
-      </c>
-      <c r="E19" s="28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="15">
+      <c r="C27" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="34"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="G27" s="45" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="31">
         <v>24</v>
       </c>
-      <c r="B20" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="C20" s="30">
-        <v>-11.1</v>
-      </c>
-      <c r="D20" s="30">
-        <v>-3.5</v>
-      </c>
-      <c r="E20" s="28" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="15">
-        <v>1</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="C21" s="30">
-        <v>-10.199999999999999</v>
-      </c>
-      <c r="D21" s="30">
-        <v>-8.1</v>
-      </c>
-      <c r="E21" s="28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="15">
+      <c r="B28" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="B22" s="13" t="s">
-        <v>65</v>
-      </c>
-      <c r="C22" s="30">
-        <v>-9.6999999999999993</v>
-      </c>
-      <c r="D22" s="30">
-        <v>-8.4</v>
-      </c>
-      <c r="E22" s="28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="15">
-        <v>18</v>
-      </c>
-      <c r="B23" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C23" s="30">
-        <v>-9.6999999999999993</v>
-      </c>
-      <c r="D23" s="30">
-        <v>-8.3000000000000007</v>
-      </c>
-      <c r="E23" s="28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="15">
-        <v>12</v>
-      </c>
-      <c r="B24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="30">
-        <v>-8.3000000000000007</v>
-      </c>
-      <c r="D24" s="30">
-        <v>-0.9</v>
-      </c>
-      <c r="E24" s="28" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="15">
-        <v>8</v>
-      </c>
-      <c r="B25" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="30">
-        <v>-6.7</v>
-      </c>
-      <c r="D25" s="30">
-        <v>-1.6</v>
-      </c>
-      <c r="E25" s="28" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="15">
-        <v>4</v>
-      </c>
-      <c r="B26" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26" s="30">
-        <v>-4.7</v>
-      </c>
-      <c r="D26" s="30">
-        <v>5.0999999999999996</v>
-      </c>
-      <c r="E26" s="28" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="15">
-        <v>13</v>
-      </c>
-      <c r="B27" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="30">
-        <v>-3.5</v>
-      </c>
-      <c r="D27" s="30">
-        <v>0.1</v>
-      </c>
-      <c r="E27" s="28" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="E28" s="4"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="E29" s="4"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="E30" s="4"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="E31" s="4"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="E32" s="4"/>
-    </row>
-    <row r="33" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E33" s="4"/>
-    </row>
-    <row r="34" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E34" s="4"/>
-    </row>
-    <row r="35" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E35" s="4"/>
-    </row>
-    <row r="36" spans="5:5" x14ac:dyDescent="0.4">
-      <c r="E36" s="4"/>
+      <c r="C28" s="30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D28" s="34"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="46" t="s">
+        <v>131</v>
+      </c>
+      <c r="G28" s="45" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B37" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:E27">
-    <sortCondition ref="C4:C27"/>
-    <sortCondition ref="D4:D27"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:G28">
+    <sortCondition ref="A5:A28"/>
+    <sortCondition ref="E5:E28"/>
   </sortState>
-  <mergeCells count="2">
-    <mergeCell ref="C1:E2"/>
-    <mergeCell ref="A1:A2"/>
+  <mergeCells count="8">
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:G4"/>
+    <mergeCell ref="D1:G2"/>
+    <mergeCell ref="B2:C3"/>
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="A1:A3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="C4:C27">
+  <conditionalFormatting sqref="D5:D28">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2706,7 +2905,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D27">
+  <conditionalFormatting sqref="E5:E28">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2757,93 +2956,93 @@
   <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="16.59765625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
-        <v>91</v>
-      </c>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="F1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="G1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="H1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="I1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="J1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="K1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="16" t="s">
+      <c r="S1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="W1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="V1" s="16" t="s">
-        <v>75</v>
-      </c>
-      <c r="W1" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="X1" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y1" s="16" t="s">
-        <v>72</v>
+      <c r="X1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A2" s="17">
+      <c r="A2" s="9">
         <v>45610</v>
       </c>
       <c r="B2">
@@ -2920,7 +3119,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A3" s="17">
+      <c r="A3" s="9">
         <v>45611</v>
       </c>
       <c r="B3">
@@ -2997,7 +3196,7 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A4" s="17">
+      <c r="A4" s="9">
         <v>45612</v>
       </c>
       <c r="B4">
@@ -3074,7 +3273,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A5" s="17">
+      <c r="A5" s="9">
         <v>45613</v>
       </c>
       <c r="B5">
@@ -3151,7 +3350,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A6" s="17">
+      <c r="A6" s="9">
         <v>45614</v>
       </c>
       <c r="B6">
@@ -3228,7 +3427,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A7" s="17">
+      <c r="A7" s="9">
         <v>45615</v>
       </c>
       <c r="B7">
@@ -3305,7 +3504,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A8" s="17">
+      <c r="A8" s="9">
         <v>45616</v>
       </c>
       <c r="B8">
@@ -3382,7 +3581,7 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A9" s="17">
+      <c r="A9" s="9">
         <v>45617</v>
       </c>
       <c r="B9">
@@ -3459,7 +3658,7 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A10" s="17">
+      <c r="A10" s="9">
         <v>45618</v>
       </c>
       <c r="B10">
@@ -3536,7 +3735,7 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A11" s="17">
+      <c r="A11" s="9">
         <v>45619</v>
       </c>
       <c r="B11">
@@ -3613,7 +3812,7 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A12" s="17">
+      <c r="A12" s="9">
         <v>45620</v>
       </c>
       <c r="B12">
@@ -3690,7 +3889,7 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A13" s="17">
+      <c r="A13" s="9">
         <v>45621</v>
       </c>
       <c r="B13">
@@ -3767,7 +3966,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A14" s="17">
+      <c r="A14" s="9">
         <v>45622</v>
       </c>
       <c r="B14">
@@ -3844,7 +4043,7 @@
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A15" s="17">
+      <c r="A15" s="9">
         <v>45623</v>
       </c>
       <c r="B15">
@@ -3921,17 +4120,89 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A16" s="17">
+      <c r="A16" s="9">
         <v>45624</v>
       </c>
+      <c r="B16">
+        <v>-22.8</v>
+      </c>
+      <c r="C16">
+        <v>-21.2</v>
+      </c>
+      <c r="D16">
+        <v>-33.6</v>
+      </c>
+      <c r="E16">
+        <v>0.6</v>
+      </c>
+      <c r="F16">
+        <v>-30.2</v>
+      </c>
+      <c r="G16">
+        <v>-22.1</v>
+      </c>
+      <c r="H16">
+        <v>-16.5</v>
+      </c>
+      <c r="I16">
+        <v>-10.9</v>
+      </c>
+      <c r="J16">
+        <v>-14.6</v>
+      </c>
+      <c r="K16">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="L16">
+        <v>-18.2</v>
+      </c>
+      <c r="M16">
+        <v>-11.9</v>
+      </c>
+      <c r="N16">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="O16">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="P16">
+        <v>-12</v>
+      </c>
+      <c r="Q16">
+        <v>-20.2</v>
+      </c>
+      <c r="R16">
+        <v>-11.3</v>
+      </c>
+      <c r="S16">
+        <v>-10.6</v>
+      </c>
+      <c r="T16">
+        <v>-25.8</v>
+      </c>
+      <c r="U16">
+        <v>-26.9</v>
+      </c>
+      <c r="V16">
+        <v>-10.3</v>
+      </c>
+      <c r="W16">
+        <v>-29.6</v>
+      </c>
+      <c r="X16">
+        <v>-12.3</v>
+      </c>
+      <c r="Y16">
+        <v>-16.100000000000001</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" s="17">
+      <c r="A17" s="9">
         <v>45625</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" s="17">
+      <c r="A18" s="9">
         <v>45626</v>
       </c>
     </row>
@@ -3946,93 +4217,93 @@
   <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="16.59765625" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="R1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="S1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="V1" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>36</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>37</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>38</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>39</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>48</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="N1" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="O1" s="16" t="s">
+      <c r="W1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="P1" s="16" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q1" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="R1" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="S1" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="T1" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="U1" s="16" t="s">
-        <v>70</v>
-      </c>
-      <c r="V1" s="16" t="s">
-        <v>97</v>
-      </c>
-      <c r="W1" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="X1" s="16" t="s">
-        <v>64</v>
-      </c>
-      <c r="Y1" s="16" t="s">
-        <v>72</v>
+      <c r="X1" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="Y1" s="8" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A2" s="17">
+      <c r="A2" s="9">
         <v>45610</v>
       </c>
       <c r="B2">
@@ -4109,7 +4380,7 @@
       </c>
     </row>
     <row r="3" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A3" s="17">
+      <c r="A3" s="9">
         <v>45611</v>
       </c>
       <c r="B3">
@@ -4186,7 +4457,7 @@
       </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A4" s="17">
+      <c r="A4" s="9">
         <v>45612</v>
       </c>
       <c r="B4">
@@ -4263,7 +4534,7 @@
       </c>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A5" s="17">
+      <c r="A5" s="9">
         <v>45613</v>
       </c>
       <c r="B5">
@@ -4340,7 +4611,7 @@
       </c>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A6" s="17">
+      <c r="A6" s="9">
         <v>45614</v>
       </c>
       <c r="B6">
@@ -4417,7 +4688,7 @@
       </c>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A7" s="17">
+      <c r="A7" s="9">
         <v>45615</v>
       </c>
       <c r="B7">
@@ -4494,7 +4765,7 @@
       </c>
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A8" s="17">
+      <c r="A8" s="9">
         <v>45616</v>
       </c>
       <c r="B8">
@@ -4571,7 +4842,7 @@
       </c>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A9" s="17">
+      <c r="A9" s="9">
         <v>45617</v>
       </c>
       <c r="B9">
@@ -4648,7 +4919,7 @@
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A10" s="17">
+      <c r="A10" s="9">
         <v>45618</v>
       </c>
       <c r="B10">
@@ -4725,7 +4996,7 @@
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A11" s="17">
+      <c r="A11" s="9">
         <v>45619</v>
       </c>
       <c r="B11">
@@ -4802,7 +5073,7 @@
       </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A12" s="17">
+      <c r="A12" s="9">
         <v>45620</v>
       </c>
       <c r="B12">
@@ -4879,7 +5150,7 @@
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A13" s="17">
+      <c r="A13" s="9">
         <v>45621</v>
       </c>
       <c r="B13">
@@ -4956,7 +5227,7 @@
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A14" s="17">
+      <c r="A14" s="9">
         <v>45622</v>
       </c>
       <c r="B14">
@@ -5033,7 +5304,7 @@
       </c>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A15" s="17">
+      <c r="A15" s="9">
         <v>45623</v>
       </c>
       <c r="B15">
@@ -5110,17 +5381,89 @@
       </c>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.4">
-      <c r="A16" s="17">
+      <c r="A16" s="9">
         <v>45624</v>
       </c>
+      <c r="B16">
+        <v>-9.4</v>
+      </c>
+      <c r="C16">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="D16">
+        <v>-22.4</v>
+      </c>
+      <c r="E16">
+        <v>7.4</v>
+      </c>
+      <c r="F16">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="G16">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="H16">
+        <v>-12.5</v>
+      </c>
+      <c r="I16">
+        <v>-2.1</v>
+      </c>
+      <c r="J16">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="K16">
+        <v>0.8</v>
+      </c>
+      <c r="L16">
+        <v>-13.5</v>
+      </c>
+      <c r="M16">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="N16">
+        <v>-2.8</v>
+      </c>
+      <c r="O16">
+        <v>-7.4</v>
+      </c>
+      <c r="P16">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="Q16">
+        <v>-9</v>
+      </c>
+      <c r="R16">
+        <v>-0.5</v>
+      </c>
+      <c r="S16">
+        <v>-9</v>
+      </c>
+      <c r="T16">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="U16">
+        <v>-10</v>
+      </c>
+      <c r="V16">
+        <v>-1.9</v>
+      </c>
+      <c r="W16">
+        <v>-16.2</v>
+      </c>
+      <c r="X16">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="Y16">
+        <v>-5.0999999999999996</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A17" s="17">
+      <c r="A17" s="9">
         <v>45625</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A18" s="17">
+      <c r="A18" s="9">
         <v>45626</v>
       </c>
     </row>

--- a/气象/北境强冷站每日气温记录.xlsx
+++ b/气象/北境强冷站每日气温记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81EC38BA-B7C5-4887-A21A-F1A7D1D4681F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB50B6A-6ECD-4D5C-A0DD-85968D0DEFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{21DDB67E-D335-466F-8652-CD2F68303142}"/>
   </bookViews>
@@ -489,11 +489,235 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>中国-黑龙江-大兴安岭地区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>52.13°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>433m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50.45°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>43.03°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>733m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2459m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>39.93°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51.72°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50.00°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50.27°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53.08°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53.75°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53.97°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>53.62°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49.00°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50.87°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51.12°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49.80°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48.73°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.92°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50.48°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49.70°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>48.75°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49.75°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>47.21°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49.90°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51.36°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>55m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1760m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>632m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1101m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>541m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>625m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>521m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>489m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>267m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>272m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1583m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>939m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1723m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1306m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>799m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1424m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1931m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>675m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2156m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>998m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1555m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>纬度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国-黑龙江-大兴安岭地区</t>
+  </si>
+  <si>
+    <t>海拔</t>
+  </si>
+  <si>
+    <r>
+      <t>今日</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最高</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="20"/>
+        <color rgb="FFFFBE0B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>气温(℃)</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -522,39 +746,7 @@
         <charset val="134"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">
-气温(℃)</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>今日</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color theme="0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>最高</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="20"/>
-        <color rgb="FFFFBE0B"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-气温(℃)</t>
+      <t>气温(℃)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -565,7 +757,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="32"/>
+        <sz val="36"/>
         <color rgb="FFF72585"/>
         <rFont val="等线"/>
         <family val="3"/>
@@ -576,202 +768,6 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>52.13°N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海拔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>433m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50.45°N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>43.03°N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>733m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2459m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>39.93°N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51.72°N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50.00°N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50.27°N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53.08°N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53.75°N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53.97°N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53.62°N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>49.00°N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50.87°N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51.12°N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>49.80°N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48.73°N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47.92°N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>50.48°N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>49.70°N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>48.75°N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>49.75°N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>47.21°N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>49.90°N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>51.36°N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>55m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1760m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>632m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1101m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>541m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>625m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>521m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>489m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>267m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>272m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1583m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>939m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1723m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1306m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>799m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1424m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1931m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>675m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2156m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>998m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1555m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
@@ -780,7 +776,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -851,15 +847,6 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="36"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -970,7 +957,16 @@
     </font>
     <font>
       <b/>
-      <sz val="32"/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="36"/>
       <color theme="0"/>
       <name val="等线"/>
       <family val="3"/>
@@ -979,15 +975,31 @@
     </font>
     <font>
       <b/>
-      <sz val="32"/>
+      <sz val="36"/>
       <color rgb="FFF72585"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1036,8 +1048,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -1055,15 +1073,6 @@
       <top style="thin">
         <color theme="0"/>
       </top>
-      <bottom style="thin">
-        <color theme="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color theme="0"/>
       </bottom>
@@ -1212,7 +1221,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1228,137 +1237,134 @@
     <xf numFmtId="176" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="11" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="10" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="6" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="1" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="8" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="16" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="15" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="5"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="21" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="20" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1691,7 +1697,7 @@
   <dimension ref="A1:AE30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.4"/>
@@ -1705,15 +1711,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="41" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="43"/>
     </row>
     <row r="2" spans="1:31" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="18" t="s">
@@ -2301,534 +2307,529 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF0FA41-85CC-443B-8D70-8487574C7D86}">
-  <dimension ref="A1:K37"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.06640625" style="1"/>
-    <col min="2" max="2" width="40.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="22.59765625" style="1" customWidth="1"/>
-    <col min="4" max="6" width="16.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="35.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.59765625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="18.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.59765625" style="1" customWidth="1"/>
     <col min="7" max="7" width="14.59765625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="43"/>
-      <c r="B1" s="47" t="s">
+      <c r="A1" s="44"/>
+      <c r="B1" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="38" t="s">
+      <c r="C1" s="45" t="s">
+        <v>152</v>
+      </c>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
+    </row>
+    <row r="2" spans="1:11" ht="29.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="44"/>
+      <c r="B2" s="40">
+        <v>45625</v>
+      </c>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+    </row>
+    <row r="3" spans="1:11" ht="56" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>96</v>
+      </c>
+      <c r="C3" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="33" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="33" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" s="33" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="28">
+        <v>1</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="31"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="37" t="s">
+        <v>100</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="28">
+        <v>2</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="31"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="37" t="s">
+        <v>102</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="28">
+        <v>3</v>
+      </c>
+      <c r="B6" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="31"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-    </row>
-    <row r="2" spans="1:11" ht="29.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="43"/>
-      <c r="B2" s="44">
-        <v>45625</v>
-      </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
-    </row>
-    <row r="3" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="43"/>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="36" t="s">
-        <v>101</v>
-      </c>
-      <c r="E3" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="G3" s="37" t="s">
+      <c r="G6" s="37" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="36" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="41" t="s">
-        <v>90</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="C4" s="40" t="s">
+    <row r="7" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="28">
+        <v>4</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="31"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="37" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="28">
+        <v>5</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="G8" s="37" t="s">
+        <v>128</v>
+      </c>
+      <c r="K8" s="30"/>
+    </row>
+    <row r="9" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="28">
+        <v>6</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="31"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" s="37" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="28">
+        <v>7</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="31"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="G10" s="37" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="28">
+        <v>8</v>
+      </c>
+      <c r="B11" s="29" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="27" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="G11" s="37" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="28">
+        <v>9</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="28">
+        <v>10</v>
+      </c>
+      <c r="B13" s="29" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="31"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="38" t="s">
+        <v>112</v>
+      </c>
+      <c r="G13" s="37" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="28">
+        <v>11</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="D14" s="31"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="G14" s="37" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="28">
+        <v>12</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="38" t="s">
+        <v>114</v>
+      </c>
+      <c r="G15" s="37" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="28">
+        <v>13</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="31"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="38" t="s">
+        <v>115</v>
+      </c>
+      <c r="G16" s="37" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="28">
+        <v>14</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="31"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="37" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="28">
         <v>15</v>
       </c>
-      <c r="D4" s="37"/>
-      <c r="E4" s="37"/>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-    </row>
-    <row r="5" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="31">
-        <v>1</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="C5" s="29" t="s">
-        <v>0</v>
-      </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="45" t="s">
-        <v>104</v>
-      </c>
-      <c r="G5" s="45" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="31">
-        <v>2</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>98</v>
-      </c>
-      <c r="C6" s="29" t="s">
-        <v>1</v>
-      </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="45" t="s">
-        <v>107</v>
-      </c>
-      <c r="G6" s="45" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="31">
+      <c r="B18" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="32" t="s">
-        <v>97</v>
-      </c>
-      <c r="C7" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="45" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="31">
+      <c r="D18" s="31"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="G18" s="37" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="28">
+        <v>16</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="32" t="s">
+      <c r="D19" s="31"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="G19" s="37" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="28">
         <v>17</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="34"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="46" t="s">
-        <v>111</v>
-      </c>
-      <c r="G8" s="45" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="31">
-        <v>5</v>
-      </c>
-      <c r="B9" s="32" t="s">
+      <c r="B20" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20" s="27" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="31"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" s="37" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="28">
+        <v>18</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="31"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="G21" s="37" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="28">
+        <v>19</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" s="27" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="31"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" s="37" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="28">
         <v>20</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="34"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="46" t="s">
-        <v>113</v>
-      </c>
-      <c r="G9" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="K9" s="33"/>
-    </row>
-    <row r="10" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="31">
-        <v>6</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>6</v>
-      </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="46" t="s">
-        <v>112</v>
-      </c>
-      <c r="G10" s="45" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="31">
-        <v>7</v>
-      </c>
-      <c r="B11" s="32" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="46" t="s">
-        <v>114</v>
-      </c>
-      <c r="G11" s="45" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="31">
-        <v>8</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>12</v>
-      </c>
-      <c r="D12" s="34"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="46" t="s">
-        <v>115</v>
-      </c>
-      <c r="G12" s="45" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="31">
+      <c r="B23" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="31"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" s="37" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="28">
+        <v>21</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="31"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="G24" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="28">
+        <v>22</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="32" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>11</v>
-      </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="46" t="s">
-        <v>116</v>
-      </c>
-      <c r="G13" s="45" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="31">
-        <v>10</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" s="34"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="46" t="s">
-        <v>117</v>
-      </c>
-      <c r="G14" s="45" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="31">
-        <v>11</v>
-      </c>
-      <c r="B15" s="32" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="46" t="s">
-        <v>118</v>
-      </c>
-      <c r="G15" s="45" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="31">
-        <v>12</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="46" t="s">
-        <v>119</v>
-      </c>
-      <c r="G16" s="45" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="31">
-        <v>13</v>
-      </c>
-      <c r="B17" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="34"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="46" t="s">
-        <v>120</v>
-      </c>
-      <c r="G17" s="45" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="31">
-        <v>14</v>
-      </c>
-      <c r="B18" s="32" t="s">
+      <c r="D25" s="31"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="G25" s="37" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="28">
         <v>23</v>
       </c>
-      <c r="C18" s="30" t="s">
-        <v>2</v>
-      </c>
-      <c r="D18" s="34"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="46" t="s">
-        <v>121</v>
-      </c>
-      <c r="G18" s="45" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="31">
-        <v>15</v>
-      </c>
-      <c r="B19" s="32" t="s">
+      <c r="B26" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="C19" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="34"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="46" t="s">
-        <v>122</v>
-      </c>
-      <c r="G19" s="45" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="31">
-        <v>16</v>
-      </c>
-      <c r="B20" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" s="34"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="46" t="s">
-        <v>123</v>
-      </c>
-      <c r="G20" s="45" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="31">
-        <v>17</v>
-      </c>
-      <c r="B21" s="32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>14</v>
-      </c>
-      <c r="D21" s="34"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="46" t="s">
-        <v>124</v>
-      </c>
-      <c r="G21" s="45" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="31">
-        <v>18</v>
-      </c>
-      <c r="B22" s="32" t="s">
+      <c r="C26" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="31"/>
+      <c r="E26" s="32"/>
+      <c r="F26" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="G26" s="37" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="28">
         <v>24</v>
       </c>
-      <c r="C22" s="30" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="34"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="46" t="s">
-        <v>125</v>
-      </c>
-      <c r="G22" s="45" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="31">
-        <v>19</v>
-      </c>
-      <c r="B23" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="D23" s="34"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="46" t="s">
+      <c r="B27" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>70</v>
+      </c>
+      <c r="D27" s="31"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="G23" s="45" t="s">
+      <c r="G27" s="37" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="31">
-        <v>20</v>
-      </c>
-      <c r="B24" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="D24" s="34"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="46" t="s">
-        <v>127</v>
-      </c>
-      <c r="G24" s="45" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="31">
-        <v>21</v>
-      </c>
-      <c r="B25" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="D25" s="34"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="46" t="s">
-        <v>128</v>
-      </c>
-      <c r="G25" s="45" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="31">
-        <v>22</v>
-      </c>
-      <c r="B26" s="32" t="s">
-        <v>25</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>9</v>
-      </c>
-      <c r="D26" s="34"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="46" t="s">
-        <v>129</v>
-      </c>
-      <c r="G26" s="45" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="31">
-        <v>23</v>
-      </c>
-      <c r="B27" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="34"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="46" t="s">
-        <v>130</v>
-      </c>
-      <c r="G27" s="45" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="31">
-        <v>24</v>
-      </c>
-      <c r="B28" s="32" t="s">
-        <v>23</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" s="34"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="G28" s="45" t="s">
-        <v>152</v>
-      </c>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.4">
+      <c r="B28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="B29" s="2"/>
@@ -2854,26 +2855,17 @@
     <row r="36" spans="2:2" x14ac:dyDescent="0.4">
       <c r="B36" s="2"/>
     </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.4">
-      <c r="B37" s="2"/>
-    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A5:G28">
-    <sortCondition ref="A5:A28"/>
-    <sortCondition ref="E5:E28"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G27">
+    <sortCondition ref="A4:A27"/>
+    <sortCondition ref="E4:E27"/>
   </sortState>
-  <mergeCells count="8">
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:G4"/>
-    <mergeCell ref="D1:G2"/>
-    <mergeCell ref="B2:C3"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="A1:A3"/>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="C1:G2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D5:D28">
+  <conditionalFormatting sqref="D4:D27">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -2905,7 +2897,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E5:E28">
+  <conditionalFormatting sqref="E4:E27">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -2956,7 +2948,7 @@
   <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -4196,12 +4188,84 @@
         <v>-16.100000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A17" s="9">
         <v>45625</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B17">
+        <v>-25.8</v>
+      </c>
+      <c r="C17">
+        <v>-27.8</v>
+      </c>
+      <c r="D17">
+        <v>-34.9</v>
+      </c>
+      <c r="E17">
+        <v>-0.7</v>
+      </c>
+      <c r="F17">
+        <v>-32.299999999999997</v>
+      </c>
+      <c r="G17">
+        <v>-25.2</v>
+      </c>
+      <c r="H17">
+        <v>-18.2</v>
+      </c>
+      <c r="I17">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="J17">
+        <v>-22.8</v>
+      </c>
+      <c r="K17">
+        <v>-5.7</v>
+      </c>
+      <c r="L17">
+        <v>-13.7</v>
+      </c>
+      <c r="M17">
+        <v>-21.3</v>
+      </c>
+      <c r="N17">
+        <v>-22.2</v>
+      </c>
+      <c r="O17">
+        <v>-23.5</v>
+      </c>
+      <c r="P17">
+        <v>-12.6</v>
+      </c>
+      <c r="Q17">
+        <v>-23.4</v>
+      </c>
+      <c r="R17">
+        <v>-5.4</v>
+      </c>
+      <c r="S17">
+        <v>-11.6</v>
+      </c>
+      <c r="T17">
+        <v>-29.1</v>
+      </c>
+      <c r="U17">
+        <v>-25.8</v>
+      </c>
+      <c r="V17">
+        <v>-14.3</v>
+      </c>
+      <c r="W17">
+        <v>-29.5</v>
+      </c>
+      <c r="X17">
+        <v>-14</v>
+      </c>
+      <c r="Y17">
+        <v>-21.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A18" s="9">
         <v>45626</v>
       </c>
@@ -4217,7 +4281,7 @@
   <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -5457,12 +5521,84 @@
         <v>-5.0999999999999996</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A17" s="9">
         <v>45625</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B17">
+        <v>-10.6</v>
+      </c>
+      <c r="C17">
+        <v>-10.4</v>
+      </c>
+      <c r="D17">
+        <v>-23.4</v>
+      </c>
+      <c r="E17">
+        <v>15.1</v>
+      </c>
+      <c r="F17">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="G17">
+        <v>-19.2</v>
+      </c>
+      <c r="H17">
+        <v>-13.7</v>
+      </c>
+      <c r="I17">
+        <v>-8.6</v>
+      </c>
+      <c r="J17">
+        <v>-10</v>
+      </c>
+      <c r="K17">
+        <v>0.2</v>
+      </c>
+      <c r="L17">
+        <v>-1</v>
+      </c>
+      <c r="M17">
+        <v>-5.6</v>
+      </c>
+      <c r="N17">
+        <v>-8.3000000000000007</v>
+      </c>
+      <c r="O17">
+        <v>-11.7</v>
+      </c>
+      <c r="P17">
+        <v>-10.3</v>
+      </c>
+      <c r="Q17">
+        <v>-12.6</v>
+      </c>
+      <c r="R17">
+        <v>3.3</v>
+      </c>
+      <c r="S17">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="T17">
+        <v>-18</v>
+      </c>
+      <c r="U17">
+        <v>-10.9</v>
+      </c>
+      <c r="V17">
+        <v>-1.9</v>
+      </c>
+      <c r="W17">
+        <v>-18.7</v>
+      </c>
+      <c r="X17">
+        <v>-11.2</v>
+      </c>
+      <c r="Y17">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A18" s="9">
         <v>45626</v>
       </c>

--- a/气象/北境强冷站每日气温记录.xlsx
+++ b/气象/北境强冷站每日气温记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DB50B6A-6ECD-4D5C-A0DD-85968D0DEFDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57A0AA9-9BD1-4C46-8608-9D77E2BE6CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{21DDB67E-D335-466F-8652-CD2F68303142}"/>
   </bookViews>
@@ -1221,7 +1221,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1345,6 +1345,12 @@
     <xf numFmtId="58" fontId="21" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1360,10 +1366,7 @@
     <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
   </cellXfs>
@@ -1697,7 +1700,7 @@
   <dimension ref="A1:AE30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.4"/>
@@ -1711,15 +1714,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="43" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="43"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="1:31" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="18" t="s">
@@ -2309,8 +2312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF0FA41-85CC-443B-8D70-8487574C7D86}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2325,28 +2328,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="44"/>
+      <c r="A1" s="46"/>
       <c r="B1" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="47" t="s">
         <v>152</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:11" ht="29.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="44"/>
+      <c r="A2" s="46"/>
       <c r="B2" s="40">
-        <v>45625</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
+        <v>45626</v>
+      </c>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
     </row>
     <row r="3" spans="1:11" ht="56" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="35" t="s">
@@ -2375,7 +2378,7 @@
       <c r="A4" s="28">
         <v>1</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="41" t="s">
         <v>99</v>
       </c>
       <c r="C4" s="26" t="s">
@@ -2394,7 +2397,7 @@
       <c r="A5" s="28">
         <v>2</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="41" t="s">
         <v>98</v>
       </c>
       <c r="C5" s="26" t="s">
@@ -2413,7 +2416,7 @@
       <c r="A6" s="28">
         <v>3</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="42" t="s">
         <v>97</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -2432,7 +2435,7 @@
       <c r="A7" s="28">
         <v>4</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="41" t="s">
         <v>17</v>
       </c>
       <c r="C7" s="26" t="s">
@@ -2604,7 +2607,7 @@
       <c r="A16" s="28">
         <v>13</v>
       </c>
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="48" t="s">
         <v>60</v>
       </c>
       <c r="C16" s="27" t="s">
@@ -2948,7 +2951,7 @@
   <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -4268,6 +4271,78 @@
     <row r="18" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A18" s="9">
         <v>45626</v>
+      </c>
+      <c r="B18">
+        <v>-30.5</v>
+      </c>
+      <c r="C18">
+        <v>-27.8</v>
+      </c>
+      <c r="D18">
+        <v>-31.4</v>
+      </c>
+      <c r="E18">
+        <v>0.6</v>
+      </c>
+      <c r="F18">
+        <v>-28.2</v>
+      </c>
+      <c r="G18">
+        <v>-23.3</v>
+      </c>
+      <c r="H18">
+        <v>-17.7</v>
+      </c>
+      <c r="I18">
+        <v>-14.7</v>
+      </c>
+      <c r="J18">
+        <v>-20.8</v>
+      </c>
+      <c r="K18">
+        <v>-10.5</v>
+      </c>
+      <c r="L18">
+        <v>-18.3</v>
+      </c>
+      <c r="M18">
+        <v>-18.5</v>
+      </c>
+      <c r="N18">
+        <v>-18.8</v>
+      </c>
+      <c r="O18">
+        <v>-26</v>
+      </c>
+      <c r="P18">
+        <v>-13.2</v>
+      </c>
+      <c r="Q18">
+        <v>-26.7</v>
+      </c>
+      <c r="R18">
+        <v>-12</v>
+      </c>
+      <c r="S18">
+        <v>-15.4</v>
+      </c>
+      <c r="T18">
+        <v>-30.2</v>
+      </c>
+      <c r="U18">
+        <v>-27.2</v>
+      </c>
+      <c r="V18">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="W18">
+        <v>-34.299999999999997</v>
+      </c>
+      <c r="X18">
+        <v>-13.9</v>
+      </c>
+      <c r="Y18">
+        <v>-25.1</v>
       </c>
     </row>
   </sheetData>
@@ -4281,7 +4356,7 @@
   <dimension ref="A1:Y18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -5602,6 +5677,78 @@
       <c r="A18" s="9">
         <v>45626</v>
       </c>
+      <c r="B18">
+        <v>-10.4</v>
+      </c>
+      <c r="C18">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="D18">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="E18">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="F18">
+        <v>-15.7</v>
+      </c>
+      <c r="G18">
+        <v>-16.2</v>
+      </c>
+      <c r="H18">
+        <v>-14.1</v>
+      </c>
+      <c r="I18">
+        <v>-5</v>
+      </c>
+      <c r="J18">
+        <v>-10.3</v>
+      </c>
+      <c r="K18">
+        <v>-2.1</v>
+      </c>
+      <c r="L18">
+        <v>-6.5</v>
+      </c>
+      <c r="M18">
+        <v>-8.6999999999999993</v>
+      </c>
+      <c r="N18">
+        <v>-8</v>
+      </c>
+      <c r="O18">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="P18">
+        <v>-10.1</v>
+      </c>
+      <c r="Q18">
+        <v>-15.4</v>
+      </c>
+      <c r="R18">
+        <v>-0.1</v>
+      </c>
+      <c r="S18">
+        <v>-11.2</v>
+      </c>
+      <c r="T18">
+        <v>-19.5</v>
+      </c>
+      <c r="U18">
+        <v>-11.7</v>
+      </c>
+      <c r="V18">
+        <v>-9.6</v>
+      </c>
+      <c r="W18">
+        <v>-22.7</v>
+      </c>
+      <c r="X18">
+        <v>-10.6</v>
+      </c>
+      <c r="Y18">
+        <v>-16.2</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/气象/北境强冷站每日气温记录.xlsx
+++ b/气象/北境强冷站每日气温记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A57A0AA9-9BD1-4C46-8608-9D77E2BE6CFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88828F0E-FD3A-4A2E-A0F2-85A7A903B916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{21DDB67E-D335-466F-8652-CD2F68303142}"/>
   </bookViews>
@@ -141,14 +141,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>俄罗斯-阿尔泰共和国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>俄罗斯-后贝加尔边疆区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>蒙古-乌兰巴托市</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -239,10 +231,6 @@
     <t>俄罗斯-伊尔库茨克州</t>
   </si>
   <si>
-    <t>俄罗斯-伊尔库茨克州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>巴尔古津</t>
   </si>
   <si>
@@ -253,10 +241,6 @@
     <t>俄罗斯-布里亚特共和国</t>
   </si>
   <si>
-    <t>俄罗斯-布里亚特共和国</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>奥布卢奇耶</t>
   </si>
   <si>
@@ -281,10 +265,6 @@
     <t>俄罗斯-哈巴罗夫斯克边疆区</t>
   </si>
   <si>
-    <t>俄罗斯-哈巴罗夫斯克边疆区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>东戈壁</t>
   </si>
   <si>
@@ -293,13 +273,6 @@
   </si>
   <si>
     <t>蒙古-乌布苏省</t>
-  </si>
-  <si>
-    <t>巴彦特斯</t>
-  </si>
-  <si>
-    <t>巴彦特斯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>蒙古-扎布汗省</t>
@@ -481,18 +454,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>中国-新疆-巴音郭楞蒙古自治州</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国-内蒙古-呼伦贝尔市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国-黑龙江-大兴安岭地区</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>52.13°N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -577,10 +538,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>49.70°N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>48.75°N</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -661,10 +618,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1424m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1931m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -692,6 +645,245 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">中国-黑龙江
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大兴安岭地区</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中国-内蒙古</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>呼伦贝尔市</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">中国-新疆
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF00B0F0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>巴音郭楞蒙古自治州</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>俄罗斯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>阿尔泰共和国</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">俄罗斯
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>后贝加尔边疆区</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">俄罗斯
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>伊尔库茨克州</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">俄罗斯
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>布里亚特共和国</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">俄罗斯
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>哈巴罗夫斯克边疆区</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="19"/>
+        <color rgb="FFFFBE0B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>今日</t>
     </r>
     <r>
@@ -709,7 +901,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="20"/>
+        <sz val="19"/>
         <color rgb="FFFFBE0B"/>
         <rFont val="等线"/>
         <family val="3"/>
@@ -722,6 +914,15 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="19"/>
+        <color rgb="FFFFBE0B"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>今日</t>
     </r>
     <r>
@@ -739,7 +940,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="20"/>
+        <sz val="19"/>
         <color rgb="FFFFBE0B"/>
         <rFont val="等线"/>
         <family val="3"/>
@@ -751,21 +952,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>北方冷极</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="36"/>
-        <color rgb="FFF72585"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>每日PK</t>
-    </r>
+    <t>北方冷极每日PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1288m</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49.65°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特斯(zavkhan)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特斯(zavkhan)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -776,7 +979,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="26" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -939,14 +1142,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="20"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="20"/>
       <color rgb="FFFFBE0B"/>
@@ -974,15 +1169,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="36"/>
-      <color rgb="FFF72585"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="15"/>
       <color rgb="FF00B0F0"/>
       <name val="等线"/>
@@ -993,6 +1179,47 @@
     <font>
       <sz val="13"/>
       <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B0F0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="19"/>
+      <color rgb="FFFFBE0B"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1221,7 +1448,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1300,12 +1527,6 @@
     <xf numFmtId="176" fontId="15" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1321,34 +1542,31 @@
     <xf numFmtId="176" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="5"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="19" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="21" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="20" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1363,11 +1581,26 @@
     <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1377,16 +1610,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF595758"/>
+      <color rgb="FF3D2645"/>
+      <color rgb="FF820263"/>
+      <color rgb="FF7209B7"/>
+      <color rgb="FFE36414"/>
+      <color rgb="FF081C15"/>
+      <color rgb="FF480CA8"/>
       <color rgb="FFF72585"/>
-      <color rgb="FFFFBE0B"/>
-      <color rgb="FFFB5607"/>
-      <color rgb="FFE01E37"/>
-      <color rgb="FF9EF01A"/>
-      <color rgb="FF8EA604"/>
-      <color rgb="FF4CC9F0"/>
-      <color rgb="FF480CA8"/>
-      <color rgb="FFBF3100"/>
-      <color rgb="FFEC9F05"/>
+      <color rgb="FF3A0CA3"/>
+      <color rgb="FF780116"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1699,8 +1932,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E72AAA-3912-4684-8CF1-D56A9EC12E76}">
   <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.4"/>
@@ -1714,45 +1947,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="45"/>
+      <c r="A1" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="42"/>
     </row>
     <row r="2" spans="1:31" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="18" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" s="12"/>
       <c r="C3" s="12"/>
@@ -1760,7 +1993,7 @@
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
       <c r="G3" s="13" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="H3" s="4" cm="1">
         <f t="array" ref="H3:AE3">TRANSPOSE(B3:B26)</f>
@@ -1838,7 +2071,7 @@
     </row>
     <row r="4" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -1846,7 +2079,7 @@
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
       <c r="G4" s="13" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H4" s="4" cm="1">
         <f t="array" ref="H4:AE4">TRANSPOSE(C3:C26)</f>
@@ -1924,7 +2157,7 @@
     </row>
     <row r="5" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="19" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -1932,12 +2165,12 @@
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
       <c r="G5" s="13" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12"/>
@@ -1945,12 +2178,12 @@
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
       <c r="G6" s="13" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -1958,12 +2191,12 @@
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
       <c r="G7" s="13" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B8" s="12"/>
       <c r="C8" s="12"/>
@@ -1971,12 +2204,12 @@
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
       <c r="G8" s="13" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="19" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B9" s="12"/>
       <c r="C9" s="12"/>
@@ -1984,12 +2217,12 @@
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
       <c r="G9" s="13" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="19" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B10" s="12"/>
       <c r="C10" s="12"/>
@@ -1997,12 +2230,12 @@
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="G10" s="13" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -2010,12 +2243,12 @@
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
       <c r="G11" s="13" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="19" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -2023,12 +2256,12 @@
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
       <c r="G12" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="19" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B13" s="12"/>
       <c r="C13" s="12"/>
@@ -2036,12 +2269,12 @@
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
       <c r="G13" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="19" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
@@ -2049,12 +2282,12 @@
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
       <c r="G14" s="13" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="19" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -2062,12 +2295,12 @@
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
       <c r="G15" s="13" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="19" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -2081,12 +2314,12 @@
         <v>203</v>
       </c>
       <c r="G16" s="13" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="19" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B17" s="12"/>
       <c r="C17" s="12"/>
@@ -2100,12 +2333,12 @@
         <v>212</v>
       </c>
       <c r="G17" s="14" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -2119,12 +2352,12 @@
         <v>225</v>
       </c>
       <c r="G18" s="14" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="19" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -2138,12 +2371,12 @@
         <v>292</v>
       </c>
       <c r="G19" s="13" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="24" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -2157,12 +2390,12 @@
         <v>211</v>
       </c>
       <c r="G20" s="14" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="24" t="s">
-        <v>64</v>
+        <v>151</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -2176,12 +2409,12 @@
         <v>221</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="24" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="25"/>
@@ -2195,12 +2428,12 @@
         <v>224</v>
       </c>
       <c r="G22" s="14" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="24" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="12"/>
@@ -2214,12 +2447,12 @@
         <v>243</v>
       </c>
       <c r="G23" s="14" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="24" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B24" s="12"/>
       <c r="C24" s="25"/>
@@ -2233,12 +2466,12 @@
         <v>274</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="24" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
@@ -2252,12 +2485,12 @@
         <v>828</v>
       </c>
       <c r="G25" s="14" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="24" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -2271,26 +2504,26 @@
         <v>893</v>
       </c>
       <c r="G26" s="14" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A28" s="21" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B28" s="23"/>
       <c r="C28" s="22"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A29" s="21" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B29" s="23"/>
       <c r="C29" s="22"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A30" s="21" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="B30" s="23"/>
       <c r="C30" s="22"/>
@@ -2312,523 +2545,523 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF0FA41-85CC-443B-8D70-8487574C7D86}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="9.06640625" style="1"/>
-    <col min="2" max="2" width="35.59765625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.59765625" style="1" customWidth="1"/>
-    <col min="4" max="5" width="18.59765625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="27.59765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="19.59765625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="27.59765625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="13.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="11.59765625" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9.06640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="46"/>
-      <c r="B1" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C1" s="47" t="s">
-        <v>152</v>
-      </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="A1" s="43"/>
+      <c r="B1" s="35" t="s">
+        <v>24</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
     </row>
     <row r="2" spans="1:11" ht="29.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="46"/>
-      <c r="B2" s="40">
-        <v>45626</v>
-      </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-    </row>
-    <row r="3" spans="1:11" ht="56" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="35" t="s">
+      <c r="A2" s="43"/>
+      <c r="B2" s="36">
+        <v>45627</v>
+      </c>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+    </row>
+    <row r="3" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="34" t="s">
+        <v>89</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="31" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>136</v>
+      </c>
+      <c r="G3" s="31" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="26">
+        <v>1</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>138</v>
+      </c>
+      <c r="C4" s="48" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="29"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="46" t="s">
         <v>90</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="G4" s="46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="26">
+        <v>2</v>
+      </c>
+      <c r="B5" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="48" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="G5" s="46" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="26">
+        <v>3</v>
+      </c>
+      <c r="B6" s="38" t="s">
+        <v>140</v>
+      </c>
+      <c r="C6" s="48" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="29"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="46" t="s">
+        <v>93</v>
+      </c>
+      <c r="G6" s="46" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="26">
+        <v>4</v>
+      </c>
+      <c r="B7" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="G7" s="46" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="26">
+        <v>5</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>141</v>
+      </c>
+      <c r="C8" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="47" t="s">
+        <v>98</v>
+      </c>
+      <c r="G8" s="46" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="28"/>
+    </row>
+    <row r="9" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="26">
+        <v>6</v>
+      </c>
+      <c r="B9" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="47" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" s="46" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="26">
+        <v>7</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="47" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="46" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="26">
+        <v>8</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="49" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="47" t="s">
+        <v>100</v>
+      </c>
+      <c r="G11" s="46" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="26">
+        <v>9</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="C12" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="G12" s="46" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="26">
+        <v>10</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="C13" s="49" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="47" t="s">
+        <v>102</v>
+      </c>
+      <c r="G13" s="46" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="26">
+        <v>11</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="49" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="47" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="46" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="26">
+        <v>12</v>
+      </c>
+      <c r="B15" s="27" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="49" t="s">
+        <v>50</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="47" t="s">
+        <v>104</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="26">
+        <v>13</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="C16" s="49" t="s">
+        <v>54</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="26">
+        <v>14</v>
+      </c>
+      <c r="B17" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>2</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="47" t="s">
+        <v>106</v>
+      </c>
+      <c r="G17" s="46" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="26">
         <v>15</v>
       </c>
-      <c r="D3" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="E3" s="33" t="s">
+      <c r="B18" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="47" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" s="46" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="26">
+        <v>16</v>
+      </c>
+      <c r="B19" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="47" t="s">
+        <v>108</v>
+      </c>
+      <c r="G19" s="46" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="26">
+        <v>17</v>
+      </c>
+      <c r="B20" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="49" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="29"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="47" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" s="46" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="26">
+        <v>18</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C21" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="47" t="s">
+        <v>110</v>
+      </c>
+      <c r="G21" s="46" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="26">
+        <v>19</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C22" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="47" t="s">
         <v>150</v>
       </c>
-      <c r="F3" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="G3" s="33" t="s">
+      <c r="G22" s="46" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="28">
-        <v>1</v>
-      </c>
-      <c r="B4" s="41" t="s">
-        <v>99</v>
-      </c>
-      <c r="C4" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="31"/>
-      <c r="E4" s="32"/>
-      <c r="F4" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="G4" s="37" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="28">
-        <v>2</v>
-      </c>
-      <c r="B5" s="41" t="s">
-        <v>98</v>
-      </c>
-      <c r="C5" s="26" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="G5" s="37" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="28">
-        <v>3</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="26" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="31"/>
-      <c r="E6" s="32"/>
-      <c r="F6" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="G6" s="37" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="28">
-        <v>4</v>
-      </c>
-      <c r="B7" s="41" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="26" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="32"/>
-      <c r="F7" s="38" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="37" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="28">
-        <v>5</v>
-      </c>
-      <c r="B8" s="29" t="s">
+    <row r="23" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="26">
         <v>20</v>
       </c>
-      <c r="C8" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="G8" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="K8" s="30"/>
-    </row>
-    <row r="9" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="28">
-        <v>6</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="G9" s="37" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="28">
-        <v>7</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="G10" s="37" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="28">
-        <v>8</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="G11" s="37" t="s">
+      <c r="B23" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="49" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="47" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" s="46" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="28">
+    <row r="24" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="26">
+        <v>21</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="49" t="s">
+        <v>66</v>
+      </c>
+      <c r="D24" s="29"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="47" t="s">
+        <v>112</v>
+      </c>
+      <c r="G24" s="46" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="26">
+        <v>22</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="D25" s="29"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="G25" s="46" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="26">
+        <v>23</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C26" s="49" t="s">
+        <v>57</v>
+      </c>
+      <c r="D26" s="29"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="47" t="s">
+        <v>114</v>
+      </c>
+      <c r="G26" s="46" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="26">
+        <v>24</v>
+      </c>
+      <c r="B27" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="27" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="38" t="s">
-        <v>111</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="28">
-        <v>10</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>48</v>
-      </c>
-      <c r="C13" s="27" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="38" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" s="37" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="28">
-        <v>11</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C14" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="38" t="s">
-        <v>113</v>
-      </c>
-      <c r="G14" s="37" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="28">
-        <v>12</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="G15" s="37" t="s">
+      <c r="C27" s="49" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="G27" s="46" t="s">
         <v>135</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="28">
-        <v>13</v>
-      </c>
-      <c r="B16" s="48" t="s">
-        <v>60</v>
-      </c>
-      <c r="C16" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="31"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="38" t="s">
-        <v>115</v>
-      </c>
-      <c r="G16" s="37" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="28">
-        <v>14</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="27" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="31"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="38" t="s">
-        <v>116</v>
-      </c>
-      <c r="G17" s="37" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="28">
-        <v>15</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="G18" s="37" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="28">
-        <v>16</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="31"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="38" t="s">
-        <v>118</v>
-      </c>
-      <c r="G19" s="37" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="28">
-        <v>17</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="C20" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="38" t="s">
-        <v>119</v>
-      </c>
-      <c r="G20" s="37" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="28">
-        <v>18</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="27" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="32"/>
-      <c r="F21" s="38" t="s">
-        <v>120</v>
-      </c>
-      <c r="G21" s="37" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="28">
-        <v>19</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C22" s="27" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="32"/>
-      <c r="F22" s="38" t="s">
-        <v>121</v>
-      </c>
-      <c r="G22" s="37" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="28">
-        <v>20</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" s="27" t="s">
-        <v>68</v>
-      </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="38" t="s">
-        <v>122</v>
-      </c>
-      <c r="G23" s="37" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="28">
-        <v>21</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C24" s="27" t="s">
-        <v>73</v>
-      </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="38" t="s">
-        <v>123</v>
-      </c>
-      <c r="G24" s="37" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="28">
-        <v>22</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="38" t="s">
-        <v>124</v>
-      </c>
-      <c r="G25" s="37" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="28">
-        <v>23</v>
-      </c>
-      <c r="B26" s="29" t="s">
-        <v>24</v>
-      </c>
-      <c r="C26" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="38" t="s">
-        <v>125</v>
-      </c>
-      <c r="G26" s="37" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="28">
-        <v>24</v>
-      </c>
-      <c r="B27" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="C27" s="27" t="s">
-        <v>70</v>
-      </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="G27" s="37" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
@@ -2948,10 +3181,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D81969E-A078-4EA2-89F6-5F7791D6A569}">
-  <dimension ref="A1:Y18"/>
+  <dimension ref="A1:Y109"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2961,79 +3194,79 @@
   <sheetData>
     <row r="1" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="K1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="8" t="s">
+      <c r="S1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="W1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="X1" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.4">
@@ -3094,7 +3327,7 @@
       <c r="S2">
         <v>-12.7</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="50">
         <v>-16.5</v>
       </c>
       <c r="U2">
@@ -3171,7 +3404,7 @@
       <c r="S3">
         <v>-15.5</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="50">
         <v>-18</v>
       </c>
       <c r="U3">
@@ -3248,7 +3481,7 @@
       <c r="S4">
         <v>-9.6999999999999993</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="50">
         <v>-17.2</v>
       </c>
       <c r="U4">
@@ -3325,7 +3558,7 @@
       <c r="S5">
         <v>-15.4</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="50">
         <v>-18.8</v>
       </c>
       <c r="U5">
@@ -3402,7 +3635,7 @@
       <c r="S6">
         <v>-15</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="50">
         <v>-20.9</v>
       </c>
       <c r="U6">
@@ -3479,7 +3712,7 @@
       <c r="S7">
         <v>-12.2</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="50">
         <v>-21.7</v>
       </c>
       <c r="U7">
@@ -3556,7 +3789,7 @@
       <c r="S8">
         <v>-10.5</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="50">
         <v>-20.7</v>
       </c>
       <c r="U8">
@@ -3633,7 +3866,7 @@
       <c r="S9">
         <v>-16.399999999999999</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="50">
         <v>-19</v>
       </c>
       <c r="U9">
@@ -3710,7 +3943,7 @@
       <c r="S10">
         <v>-14.3</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="50">
         <v>-21.1</v>
       </c>
       <c r="U10">
@@ -3787,7 +4020,7 @@
       <c r="S11">
         <v>-13.4</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="50">
         <v>-16.600000000000001</v>
       </c>
       <c r="U11">
@@ -3864,7 +4097,7 @@
       <c r="S12">
         <v>-19.5</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="50">
         <v>-26.9</v>
       </c>
       <c r="U12">
@@ -3941,7 +4174,7 @@
       <c r="S13">
         <v>-10.6</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="50">
         <v>-20.7</v>
       </c>
       <c r="U13">
@@ -4018,7 +4251,7 @@
       <c r="S14">
         <v>-9.6999999999999993</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="50">
         <v>-22.8</v>
       </c>
       <c r="U14">
@@ -4095,7 +4328,7 @@
       <c r="S15">
         <v>-9.6999999999999993</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="50">
         <v>-23.2</v>
       </c>
       <c r="U15">
@@ -4172,7 +4405,7 @@
       <c r="S16">
         <v>-10.6</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="50">
         <v>-25.8</v>
       </c>
       <c r="U16">
@@ -4249,7 +4482,7 @@
       <c r="S17">
         <v>-11.6</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="50">
         <v>-29.1</v>
       </c>
       <c r="U17">
@@ -4326,7 +4559,7 @@
       <c r="S18">
         <v>-15.4</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="50">
         <v>-30.2</v>
       </c>
       <c r="U18">
@@ -4343,6 +4576,461 @@
       </c>
       <c r="Y18">
         <v>-25.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A19" s="9">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A20" s="9">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A21" s="9">
+        <v>45629</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A22" s="9">
+        <v>45630</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A23" s="9">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A24" s="9">
+        <v>45632</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A25" s="9">
+        <v>45633</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A26" s="9">
+        <v>45634</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A27" s="9">
+        <v>45635</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A28" s="9">
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A29" s="9">
+        <v>45637</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A30" s="9">
+        <v>45638</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A31" s="9">
+        <v>45639</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A32" s="9">
+        <v>45640</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33" s="9">
+        <v>45641</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34" s="9">
+        <v>45642</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35" s="9">
+        <v>45643</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36" s="9">
+        <v>45644</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A37" s="9">
+        <v>45645</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A38" s="9">
+        <v>45646</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A39" s="9">
+        <v>45647</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A40" s="9">
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A41" s="9">
+        <v>45649</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A42" s="9">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A43" s="9">
+        <v>45651</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A44" s="9">
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A45" s="9">
+        <v>45653</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A46" s="9">
+        <v>45654</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A47" s="9">
+        <v>45655</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A48" s="9">
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A49" s="9">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A50" s="9">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A51" s="9">
+        <v>45659</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A52" s="9">
+        <v>45660</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A53" s="9">
+        <v>45661</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A54" s="9">
+        <v>45662</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A55" s="9">
+        <v>45663</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A56" s="9">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A57" s="9">
+        <v>45665</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A58" s="9">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A59" s="9">
+        <v>45667</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A60" s="9">
+        <v>45668</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A61" s="9">
+        <v>45669</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A62" s="9">
+        <v>45670</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A63" s="9">
+        <v>45671</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A64" s="9">
+        <v>45672</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A65" s="9">
+        <v>45673</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A66" s="9">
+        <v>45674</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A67" s="9">
+        <v>45675</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A68" s="9">
+        <v>45676</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A69" s="9">
+        <v>45677</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A70" s="9">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A71" s="9">
+        <v>45679</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A72" s="9">
+        <v>45680</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A73" s="9">
+        <v>45681</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A74" s="9">
+        <v>45682</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A75" s="9">
+        <v>45683</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A76" s="9">
+        <v>45684</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A77" s="9">
+        <v>45685</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A78" s="9">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A79" s="9">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A80" s="9">
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A81" s="9">
+        <v>45689</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A82" s="9">
+        <v>45690</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A83" s="9">
+        <v>45691</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A84" s="9">
+        <v>45692</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A85" s="9">
+        <v>45693</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A86" s="9">
+        <v>45694</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A87" s="9">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A88" s="9">
+        <v>45696</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A89" s="9">
+        <v>45697</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A90" s="9">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A91" s="9">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A92" s="9">
+        <v>45700</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A93" s="9">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A94" s="9">
+        <v>45702</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A95" s="9">
+        <v>45703</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A96" s="9">
+        <v>45704</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A97" s="9">
+        <v>45705</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A98" s="9">
+        <v>45706</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A99" s="9">
+        <v>45707</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A100" s="9">
+        <v>45708</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A101" s="9">
+        <v>45709</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A102" s="9">
+        <v>45710</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A103" s="9">
+        <v>45711</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A104" s="9">
+        <v>45712</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A105" s="9">
+        <v>45713</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A106" s="9">
+        <v>45714</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A107" s="9">
+        <v>45715</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A108" s="9">
+        <v>45716</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A109" s="9">
+        <v>45717</v>
       </c>
     </row>
   </sheetData>
@@ -4353,10 +5041,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4603A40C-9136-4681-B4C7-1EB22060A809}">
-  <dimension ref="A1:Y18"/>
+  <dimension ref="A1:Y109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="D109" sqref="D109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -4366,79 +5054,79 @@
   <sheetData>
     <row r="1" spans="1:25" ht="36" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="8" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="K1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="P1" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q1" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="R1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="O1" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="P1" s="8" t="s">
+      <c r="S1" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="T1" s="8" t="s">
+        <v>152</v>
+      </c>
+      <c r="U1" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="V1" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="W1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="Q1" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="R1" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="S1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="T1" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="U1" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="V1" s="8" t="s">
-        <v>92</v>
-      </c>
-      <c r="W1" s="8" t="s">
-        <v>42</v>
-      </c>
       <c r="X1" s="8" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="Y1" s="8" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
     </row>
     <row r="2" spans="1:25" x14ac:dyDescent="0.4">
@@ -4499,7 +5187,7 @@
       <c r="S2">
         <v>-1.3</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="50">
         <v>-5.2</v>
       </c>
       <c r="U2">
@@ -4576,7 +5264,7 @@
       <c r="S3">
         <v>-4.5</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="50">
         <v>-8.1</v>
       </c>
       <c r="U3">
@@ -4653,7 +5341,7 @@
       <c r="S4">
         <v>-1.2</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="50">
         <v>-7</v>
       </c>
       <c r="U4">
@@ -4730,7 +5418,7 @@
       <c r="S5">
         <v>-2.5</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="50">
         <v>-5.8</v>
       </c>
       <c r="U5">
@@ -4807,7 +5495,7 @@
       <c r="S6">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="50">
         <v>-6.2</v>
       </c>
       <c r="U6">
@@ -4884,7 +5572,7 @@
       <c r="S7">
         <v>-4.5</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="50">
         <v>-6.7</v>
       </c>
       <c r="U7">
@@ -4961,7 +5649,7 @@
       <c r="S8">
         <v>-2.4</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="50">
         <v>-3.8</v>
       </c>
       <c r="U8">
@@ -5038,7 +5726,7 @@
       <c r="S9">
         <v>-3.5</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="50">
         <v>-2.2999999999999998</v>
       </c>
       <c r="U9">
@@ -5115,7 +5803,7 @@
       <c r="S10">
         <v>-5.7</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="50">
         <v>-5.8</v>
       </c>
       <c r="U10">
@@ -5192,7 +5880,7 @@
       <c r="S11">
         <v>-1.9</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="50">
         <v>-7.5</v>
       </c>
       <c r="U11">
@@ -5269,7 +5957,7 @@
       <c r="S12">
         <v>-7.2</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="50">
         <v>-11.1</v>
       </c>
       <c r="U12">
@@ -5346,7 +6034,7 @@
       <c r="S13">
         <v>-7.3</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="50">
         <v>-12</v>
       </c>
       <c r="U13">
@@ -5423,7 +6111,7 @@
       <c r="S14">
         <v>-7.6</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="50">
         <v>-12.6</v>
       </c>
       <c r="U14">
@@ -5500,7 +6188,7 @@
       <c r="S15">
         <v>-8.3000000000000007</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="50">
         <v>-17</v>
       </c>
       <c r="U15">
@@ -5577,7 +6265,7 @@
       <c r="S16">
         <v>-9</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="50">
         <v>-17.100000000000001</v>
       </c>
       <c r="U16">
@@ -5654,7 +6342,7 @@
       <c r="S17">
         <v>-10.199999999999999</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="50">
         <v>-18</v>
       </c>
       <c r="U17">
@@ -5731,7 +6419,7 @@
       <c r="S18">
         <v>-11.2</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="50">
         <v>-19.5</v>
       </c>
       <c r="U18">
@@ -5748,6 +6436,461 @@
       </c>
       <c r="Y18">
         <v>-16.2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A19" s="9">
+        <v>45627</v>
+      </c>
+    </row>
+    <row r="20" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A20" s="9">
+        <v>45628</v>
+      </c>
+    </row>
+    <row r="21" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A21" s="9">
+        <v>45629</v>
+      </c>
+    </row>
+    <row r="22" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A22" s="9">
+        <v>45630</v>
+      </c>
+    </row>
+    <row r="23" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A23" s="9">
+        <v>45631</v>
+      </c>
+    </row>
+    <row r="24" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A24" s="9">
+        <v>45632</v>
+      </c>
+    </row>
+    <row r="25" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A25" s="9">
+        <v>45633</v>
+      </c>
+    </row>
+    <row r="26" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A26" s="9">
+        <v>45634</v>
+      </c>
+    </row>
+    <row r="27" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A27" s="9">
+        <v>45635</v>
+      </c>
+    </row>
+    <row r="28" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A28" s="9">
+        <v>45636</v>
+      </c>
+    </row>
+    <row r="29" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A29" s="9">
+        <v>45637</v>
+      </c>
+    </row>
+    <row r="30" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A30" s="9">
+        <v>45638</v>
+      </c>
+    </row>
+    <row r="31" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A31" s="9">
+        <v>45639</v>
+      </c>
+    </row>
+    <row r="32" spans="1:25" x14ac:dyDescent="0.4">
+      <c r="A32" s="9">
+        <v>45640</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A33" s="9">
+        <v>45641</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A34" s="9">
+        <v>45642</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A35" s="9">
+        <v>45643</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A36" s="9">
+        <v>45644</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A37" s="9">
+        <v>45645</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A38" s="9">
+        <v>45646</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A39" s="9">
+        <v>45647</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A40" s="9">
+        <v>45648</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A41" s="9">
+        <v>45649</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A42" s="9">
+        <v>45650</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A43" s="9">
+        <v>45651</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A44" s="9">
+        <v>45652</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A45" s="9">
+        <v>45653</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A46" s="9">
+        <v>45654</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A47" s="9">
+        <v>45655</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A48" s="9">
+        <v>45656</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A49" s="9">
+        <v>45657</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A50" s="9">
+        <v>45658</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A51" s="9">
+        <v>45659</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A52" s="9">
+        <v>45660</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A53" s="9">
+        <v>45661</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A54" s="9">
+        <v>45662</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A55" s="9">
+        <v>45663</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A56" s="9">
+        <v>45664</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A57" s="9">
+        <v>45665</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A58" s="9">
+        <v>45666</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A59" s="9">
+        <v>45667</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A60" s="9">
+        <v>45668</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A61" s="9">
+        <v>45669</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A62" s="9">
+        <v>45670</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A63" s="9">
+        <v>45671</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A64" s="9">
+        <v>45672</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A65" s="9">
+        <v>45673</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A66" s="9">
+        <v>45674</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A67" s="9">
+        <v>45675</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A68" s="9">
+        <v>45676</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A69" s="9">
+        <v>45677</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A70" s="9">
+        <v>45678</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A71" s="9">
+        <v>45679</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A72" s="9">
+        <v>45680</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A73" s="9">
+        <v>45681</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A74" s="9">
+        <v>45682</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A75" s="9">
+        <v>45683</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A76" s="9">
+        <v>45684</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A77" s="9">
+        <v>45685</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A78" s="9">
+        <v>45686</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A79" s="9">
+        <v>45687</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A80" s="9">
+        <v>45688</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A81" s="9">
+        <v>45689</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A82" s="9">
+        <v>45690</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A83" s="9">
+        <v>45691</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A84" s="9">
+        <v>45692</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A85" s="9">
+        <v>45693</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A86" s="9">
+        <v>45694</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A87" s="9">
+        <v>45695</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A88" s="9">
+        <v>45696</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A89" s="9">
+        <v>45697</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A90" s="9">
+        <v>45698</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A91" s="9">
+        <v>45699</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A92" s="9">
+        <v>45700</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A93" s="9">
+        <v>45701</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A94" s="9">
+        <v>45702</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A95" s="9">
+        <v>45703</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A96" s="9">
+        <v>45704</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A97" s="9">
+        <v>45705</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A98" s="9">
+        <v>45706</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A99" s="9">
+        <v>45707</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A100" s="9">
+        <v>45708</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A101" s="9">
+        <v>45709</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A102" s="9">
+        <v>45710</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A103" s="9">
+        <v>45711</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A104" s="9">
+        <v>45712</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A105" s="9">
+        <v>45713</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A106" s="9">
+        <v>45714</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A107" s="9">
+        <v>45715</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A108" s="9">
+        <v>45716</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A109" s="9">
+        <v>45717</v>
       </c>
     </row>
   </sheetData>

--- a/气象/北境强冷站每日气温记录.xlsx
+++ b/气象/北境强冷站每日气温记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88828F0E-FD3A-4A2E-A0F2-85A7A903B916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919DDE84-5833-4B76-8515-BDAF337A8629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{21DDB67E-D335-466F-8652-CD2F68303142}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="152">
   <si>
     <t>漠河</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -956,19 +956,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1288m</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>49.65°N</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特斯(zavkhan)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>特斯(zavkhan)</t>
+    <t>巴彦特斯</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>49.70°N</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1424m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1448,7 +1444,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1536,12 +1532,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1569,6 +1559,21 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="27" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1584,23 +1589,11 @@
     <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="27" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="6"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1932,8 +1925,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E72AAA-3912-4684-8CF1-D56A9EC12E76}">
   <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.4"/>
@@ -1947,15 +1940,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="40" t="s">
+      <c r="A1" s="43" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="42"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="1:31" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="18" t="s">
@@ -2395,10 +2388,10 @@
     </row>
     <row r="21" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="16">
         <v>1</v>
       </c>
@@ -2409,7 +2402,7 @@
         <v>221</v>
       </c>
       <c r="G21" s="14" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -2466,7 +2459,7 @@
         <v>274</v>
       </c>
       <c r="G24" s="14" t="s">
-        <v>59</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -2545,8 +2538,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF0FA41-85CC-443B-8D70-8487574C7D86}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2561,49 +2554,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="43"/>
-      <c r="B1" s="35" t="s">
+      <c r="A1" s="46"/>
+      <c r="B1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="47" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
     </row>
     <row r="2" spans="1:11" ht="29.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="43"/>
-      <c r="B2" s="36">
+      <c r="A2" s="46"/>
+      <c r="B2" s="34">
         <v>45627</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
-      <c r="G2" s="44"/>
+      <c r="C2" s="47"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
     </row>
     <row r="3" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="31" t="s">
         <v>83</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="32" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="29" t="s">
         <v>147</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="29" t="s">
         <v>146</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="29" t="s">
         <v>136</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="29" t="s">
         <v>137</v>
       </c>
     </row>
@@ -2611,18 +2604,18 @@
       <c r="A4" s="26">
         <v>1</v>
       </c>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="36" t="s">
         <v>138</v>
       </c>
-      <c r="C4" s="48" t="s">
+      <c r="C4" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="46" t="s">
+      <c r="D4" s="48"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="46" t="s">
+      <c r="G4" s="39" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2630,18 +2623,18 @@
       <c r="A5" s="26">
         <v>2</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="C5" s="48" t="s">
+      <c r="C5" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="46" t="s">
+      <c r="D5" s="48"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="39" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="39" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2649,18 +2642,18 @@
       <c r="A6" s="26">
         <v>3</v>
       </c>
-      <c r="B6" s="38" t="s">
+      <c r="B6" s="36" t="s">
         <v>140</v>
       </c>
-      <c r="C6" s="48" t="s">
+      <c r="C6" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="46" t="s">
+      <c r="D6" s="48"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="39" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="46" t="s">
+      <c r="G6" s="39" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2668,18 +2661,18 @@
       <c r="A7" s="26">
         <v>4</v>
       </c>
-      <c r="B7" s="37" t="s">
+      <c r="B7" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="47" t="s">
+      <c r="D7" s="48"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="40" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="46" t="s">
+      <c r="G7" s="39" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2687,18 +2680,18 @@
       <c r="A8" s="26">
         <v>5</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="38" t="s">
         <v>141</v>
       </c>
-      <c r="C8" s="49" t="s">
+      <c r="C8" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="47" t="s">
+      <c r="D8" s="48"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="40" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="46" t="s">
+      <c r="G8" s="39" t="s">
         <v>117</v>
       </c>
       <c r="K8" s="28"/>
@@ -2710,15 +2703,15 @@
       <c r="B9" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="49" t="s">
+      <c r="C9" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="47" t="s">
+      <c r="D9" s="48"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="40" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="46" t="s">
+      <c r="G9" s="39" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2729,15 +2722,15 @@
       <c r="B10" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="49" t="s">
+      <c r="C10" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="47" t="s">
+      <c r="D10" s="48"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="40" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="46" t="s">
+      <c r="G10" s="39" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2748,15 +2741,15 @@
       <c r="B11" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="49" t="s">
+      <c r="C11" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="47" t="s">
+      <c r="D11" s="48"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="40" t="s">
         <v>100</v>
       </c>
-      <c r="G11" s="46" t="s">
+      <c r="G11" s="39" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2767,15 +2760,15 @@
       <c r="B12" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="49" t="s">
+      <c r="C12" s="42" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="47" t="s">
+      <c r="D12" s="48"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="40" t="s">
         <v>101</v>
       </c>
-      <c r="G12" s="46" t="s">
+      <c r="G12" s="39" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2786,15 +2779,15 @@
       <c r="B13" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="C13" s="49" t="s">
+      <c r="C13" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="47" t="s">
+      <c r="D13" s="48"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="40" t="s">
         <v>102</v>
       </c>
-      <c r="G13" s="46" t="s">
+      <c r="G13" s="39" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2805,15 +2798,15 @@
       <c r="B14" s="27" t="s">
         <v>144</v>
       </c>
-      <c r="C14" s="49" t="s">
+      <c r="C14" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="47" t="s">
+      <c r="D14" s="48"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="40" t="s">
         <v>103</v>
       </c>
-      <c r="G14" s="46" t="s">
+      <c r="G14" s="39" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2824,15 +2817,15 @@
       <c r="B15" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="29"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="47" t="s">
+      <c r="D15" s="48"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="40" t="s">
         <v>104</v>
       </c>
-      <c r="G15" s="46" t="s">
+      <c r="G15" s="39" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2840,18 +2833,18 @@
       <c r="A16" s="26">
         <v>13</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="29"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="47" t="s">
+      <c r="D16" s="48"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="40" t="s">
         <v>105</v>
       </c>
-      <c r="G16" s="46" t="s">
+      <c r="G16" s="39" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2862,15 +2855,15 @@
       <c r="B17" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="49" t="s">
+      <c r="C17" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="47" t="s">
+      <c r="D17" s="48"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="40" t="s">
         <v>106</v>
       </c>
-      <c r="G17" s="46" t="s">
+      <c r="G17" s="39" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2881,15 +2874,15 @@
       <c r="B18" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="49" t="s">
+      <c r="C18" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="47" t="s">
+      <c r="D18" s="48"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="40" t="s">
         <v>107</v>
       </c>
-      <c r="G18" s="46" t="s">
+      <c r="G18" s="39" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2900,15 +2893,15 @@
       <c r="B19" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="49" t="s">
+      <c r="C19" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="47" t="s">
+      <c r="D19" s="48"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="40" t="s">
         <v>108</v>
       </c>
-      <c r="G19" s="46" t="s">
+      <c r="G19" s="39" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2919,15 +2912,15 @@
       <c r="B20" s="27" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="49" t="s">
+      <c r="C20" s="42" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="47" t="s">
+      <c r="D20" s="48"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="40" t="s">
         <v>109</v>
       </c>
-      <c r="G20" s="46" t="s">
+      <c r="G20" s="39" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2938,15 +2931,15 @@
       <c r="B21" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="49" t="s">
+      <c r="C21" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="47" t="s">
+      <c r="D21" s="48"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="40" t="s">
         <v>110</v>
       </c>
-      <c r="G21" s="46" t="s">
+      <c r="G21" s="39" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2957,16 +2950,16 @@
       <c r="B22" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="49" t="s">
-        <v>10</v>
-      </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="47" t="s">
+      <c r="C22" s="42" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="48"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="40" t="s">
         <v>150</v>
       </c>
-      <c r="G22" s="46" t="s">
-        <v>149</v>
+      <c r="G22" s="39" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -2976,15 +2969,15 @@
       <c r="B23" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="49" t="s">
+      <c r="C23" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="47" t="s">
+      <c r="D23" s="48"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="G23" s="46" t="s">
+      <c r="G23" s="39" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2995,15 +2988,15 @@
       <c r="B24" s="27" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="49" t="s">
+      <c r="C24" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="47" t="s">
+      <c r="D24" s="48"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="G24" s="46" t="s">
+      <c r="G24" s="39" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3014,15 +3007,15 @@
       <c r="B25" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="49" t="s">
+      <c r="C25" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="29"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="47" t="s">
+      <c r="D25" s="48"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="40" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="46" t="s">
+      <c r="G25" s="39" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3033,15 +3026,15 @@
       <c r="B26" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="49" t="s">
+      <c r="C26" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="47" t="s">
+      <c r="D26" s="48"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="40" t="s">
         <v>114</v>
       </c>
-      <c r="G26" s="46" t="s">
+      <c r="G26" s="39" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3052,15 +3045,15 @@
       <c r="B27" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="49" t="s">
+      <c r="C27" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="47" t="s">
+      <c r="D27" s="48"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="40" t="s">
         <v>115</v>
       </c>
-      <c r="G27" s="46" t="s">
+      <c r="G27" s="39" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3184,7 +3177,7 @@
   <dimension ref="A1:Y109"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3251,7 +3244,7 @@
         <v>41</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="U1" s="8" t="s">
         <v>60</v>
@@ -3327,7 +3320,7 @@
       <c r="S2">
         <v>-12.7</v>
       </c>
-      <c r="T2" s="50">
+      <c r="T2">
         <v>-16.5</v>
       </c>
       <c r="U2">
@@ -3404,7 +3397,7 @@
       <c r="S3">
         <v>-15.5</v>
       </c>
-      <c r="T3" s="50">
+      <c r="T3">
         <v>-18</v>
       </c>
       <c r="U3">
@@ -3481,7 +3474,7 @@
       <c r="S4">
         <v>-9.6999999999999993</v>
       </c>
-      <c r="T4" s="50">
+      <c r="T4">
         <v>-17.2</v>
       </c>
       <c r="U4">
@@ -3558,7 +3551,7 @@
       <c r="S5">
         <v>-15.4</v>
       </c>
-      <c r="T5" s="50">
+      <c r="T5">
         <v>-18.8</v>
       </c>
       <c r="U5">
@@ -3635,7 +3628,7 @@
       <c r="S6">
         <v>-15</v>
       </c>
-      <c r="T6" s="50">
+      <c r="T6">
         <v>-20.9</v>
       </c>
       <c r="U6">
@@ -3712,7 +3705,7 @@
       <c r="S7">
         <v>-12.2</v>
       </c>
-      <c r="T7" s="50">
+      <c r="T7">
         <v>-21.7</v>
       </c>
       <c r="U7">
@@ -3789,7 +3782,7 @@
       <c r="S8">
         <v>-10.5</v>
       </c>
-      <c r="T8" s="50">
+      <c r="T8">
         <v>-20.7</v>
       </c>
       <c r="U8">
@@ -3866,7 +3859,7 @@
       <c r="S9">
         <v>-16.399999999999999</v>
       </c>
-      <c r="T9" s="50">
+      <c r="T9">
         <v>-19</v>
       </c>
       <c r="U9">
@@ -3943,7 +3936,7 @@
       <c r="S10">
         <v>-14.3</v>
       </c>
-      <c r="T10" s="50">
+      <c r="T10">
         <v>-21.1</v>
       </c>
       <c r="U10">
@@ -4020,7 +4013,7 @@
       <c r="S11">
         <v>-13.4</v>
       </c>
-      <c r="T11" s="50">
+      <c r="T11">
         <v>-16.600000000000001</v>
       </c>
       <c r="U11">
@@ -4097,7 +4090,7 @@
       <c r="S12">
         <v>-19.5</v>
       </c>
-      <c r="T12" s="50">
+      <c r="T12">
         <v>-26.9</v>
       </c>
       <c r="U12">
@@ -4174,7 +4167,7 @@
       <c r="S13">
         <v>-10.6</v>
       </c>
-      <c r="T13" s="50">
+      <c r="T13">
         <v>-20.7</v>
       </c>
       <c r="U13">
@@ -4251,7 +4244,7 @@
       <c r="S14">
         <v>-9.6999999999999993</v>
       </c>
-      <c r="T14" s="50">
+      <c r="T14">
         <v>-22.8</v>
       </c>
       <c r="U14">
@@ -4328,7 +4321,7 @@
       <c r="S15">
         <v>-9.6999999999999993</v>
       </c>
-      <c r="T15" s="50">
+      <c r="T15">
         <v>-23.2</v>
       </c>
       <c r="U15">
@@ -4405,7 +4398,7 @@
       <c r="S16">
         <v>-10.6</v>
       </c>
-      <c r="T16" s="50">
+      <c r="T16">
         <v>-25.8</v>
       </c>
       <c r="U16">
@@ -4482,7 +4475,7 @@
       <c r="S17">
         <v>-11.6</v>
       </c>
-      <c r="T17" s="50">
+      <c r="T17">
         <v>-29.1</v>
       </c>
       <c r="U17">
@@ -4559,7 +4552,7 @@
       <c r="S18">
         <v>-15.4</v>
       </c>
-      <c r="T18" s="50">
+      <c r="T18">
         <v>-30.2</v>
       </c>
       <c r="U18">
@@ -5044,7 +5037,7 @@
   <dimension ref="A1:Y109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -5111,7 +5104,7 @@
         <v>41</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="U1" s="8" t="s">
         <v>60</v>
@@ -5187,7 +5180,7 @@
       <c r="S2">
         <v>-1.3</v>
       </c>
-      <c r="T2" s="50">
+      <c r="T2">
         <v>-5.2</v>
       </c>
       <c r="U2">
@@ -5264,7 +5257,7 @@
       <c r="S3">
         <v>-4.5</v>
       </c>
-      <c r="T3" s="50">
+      <c r="T3">
         <v>-8.1</v>
       </c>
       <c r="U3">
@@ -5341,7 +5334,7 @@
       <c r="S4">
         <v>-1.2</v>
       </c>
-      <c r="T4" s="50">
+      <c r="T4">
         <v>-7</v>
       </c>
       <c r="U4">
@@ -5418,7 +5411,7 @@
       <c r="S5">
         <v>-2.5</v>
       </c>
-      <c r="T5" s="50">
+      <c r="T5">
         <v>-5.8</v>
       </c>
       <c r="U5">
@@ -5495,7 +5488,7 @@
       <c r="S6">
         <v>-2.2000000000000002</v>
       </c>
-      <c r="T6" s="50">
+      <c r="T6">
         <v>-6.2</v>
       </c>
       <c r="U6">
@@ -5572,7 +5565,7 @@
       <c r="S7">
         <v>-4.5</v>
       </c>
-      <c r="T7" s="50">
+      <c r="T7">
         <v>-6.7</v>
       </c>
       <c r="U7">
@@ -5649,7 +5642,7 @@
       <c r="S8">
         <v>-2.4</v>
       </c>
-      <c r="T8" s="50">
+      <c r="T8">
         <v>-3.8</v>
       </c>
       <c r="U8">
@@ -5726,7 +5719,7 @@
       <c r="S9">
         <v>-3.5</v>
       </c>
-      <c r="T9" s="50">
+      <c r="T9">
         <v>-2.2999999999999998</v>
       </c>
       <c r="U9">
@@ -5803,7 +5796,7 @@
       <c r="S10">
         <v>-5.7</v>
       </c>
-      <c r="T10" s="50">
+      <c r="T10">
         <v>-5.8</v>
       </c>
       <c r="U10">
@@ -5880,7 +5873,7 @@
       <c r="S11">
         <v>-1.9</v>
       </c>
-      <c r="T11" s="50">
+      <c r="T11">
         <v>-7.5</v>
       </c>
       <c r="U11">
@@ -5957,7 +5950,7 @@
       <c r="S12">
         <v>-7.2</v>
       </c>
-      <c r="T12" s="50">
+      <c r="T12">
         <v>-11.1</v>
       </c>
       <c r="U12">
@@ -6034,7 +6027,7 @@
       <c r="S13">
         <v>-7.3</v>
       </c>
-      <c r="T13" s="50">
+      <c r="T13">
         <v>-12</v>
       </c>
       <c r="U13">
@@ -6111,7 +6104,7 @@
       <c r="S14">
         <v>-7.6</v>
       </c>
-      <c r="T14" s="50">
+      <c r="T14">
         <v>-12.6</v>
       </c>
       <c r="U14">
@@ -6188,7 +6181,7 @@
       <c r="S15">
         <v>-8.3000000000000007</v>
       </c>
-      <c r="T15" s="50">
+      <c r="T15">
         <v>-17</v>
       </c>
       <c r="U15">
@@ -6265,7 +6258,7 @@
       <c r="S16">
         <v>-9</v>
       </c>
-      <c r="T16" s="50">
+      <c r="T16">
         <v>-17.100000000000001</v>
       </c>
       <c r="U16">
@@ -6342,7 +6335,7 @@
       <c r="S17">
         <v>-10.199999999999999</v>
       </c>
-      <c r="T17" s="50">
+      <c r="T17">
         <v>-18</v>
       </c>
       <c r="U17">
@@ -6419,7 +6412,7 @@
       <c r="S18">
         <v>-11.2</v>
       </c>
-      <c r="T18" s="50">
+      <c r="T18">
         <v>-19.5</v>
       </c>
       <c r="U18">

--- a/气象/北境强冷站每日气温记录.xlsx
+++ b/气象/北境强冷站每日气温记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{919DDE84-5833-4B76-8515-BDAF337A8629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0F1EBD-3488-4512-AEC8-8CF7E84A2EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{21DDB67E-D335-466F-8652-CD2F68303142}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -642,236 +642,6 @@
   </si>
   <si>
     <t>海拔</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">中国-黑龙江
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>大兴安岭地区</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>中国-内蒙古</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>呼伦贝尔市</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">中国-新疆
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color rgb="FF00B0F0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>巴音郭楞蒙古自治州</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>俄罗斯</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="13"/>
-        <color theme="0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>阿尔泰共和国</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">俄罗斯
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>后贝加尔边疆区</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">俄罗斯
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>伊尔库茨克州</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">俄罗斯
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="15"/>
-        <color theme="0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>布里亚特共和国</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">俄罗斯
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="0"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>哈巴罗夫斯克边疆区</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -967,6 +737,236 @@
     <t>1424m</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">中国-黑龙江
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>大兴安岭地区</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>中国-内蒙古</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>呼伦贝尔市</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">中国-新疆
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>巴音郭楞蒙古自治州</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1DD3B0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>俄罗斯</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color rgb="FF1DD3B0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF1DD3B0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>阿尔泰共和国</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1DD3B0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">俄罗斯
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF1DD3B0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>布里亚特共和国</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1DD3B0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">俄罗斯
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF1DD3B0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>哈巴罗夫斯克边疆区</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1DD3B0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">俄罗斯
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF1DD3B0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>后贝加尔边疆区</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF1DD3B0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">俄罗斯
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="15"/>
+        <color rgb="FF1DD3B0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>伊尔库茨克州</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -975,7 +975,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1003,15 +1003,6 @@
     <font>
       <sz val="14"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="20"/>
-      <color rgb="FF00B0F0"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1165,32 +1156,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="15"/>
-      <color rgb="FF00B0F0"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="13"/>
-      <color rgb="FF00B0F0"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="13"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF00B0F0"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1216,6 +1183,64 @@
       <b/>
       <sz val="19"/>
       <color rgb="FFFFBE0B"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF1DD3B0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF1DD3B0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF1DD3B0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF1DD3B0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF1DD3B0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color rgb="FF84E6F8"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FF84E6F8"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -1444,7 +1469,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1454,43 +1479,43 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="10" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="176" fontId="9" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1499,101 +1524,107 @@
     <xf numFmtId="1" fontId="3" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="8" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="15" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="14" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="5"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="58" fontId="20" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="58" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="2" fontId="27" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="23" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="6"/>
     </xf>
     <xf numFmtId="176" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="6"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1603,16 +1634,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF595758"/>
-      <color rgb="FF3D2645"/>
-      <color rgb="FF820263"/>
-      <color rgb="FF7209B7"/>
-      <color rgb="FFE36414"/>
-      <color rgb="FF081C15"/>
-      <color rgb="FF480CA8"/>
-      <color rgb="FFF72585"/>
-      <color rgb="FF3A0CA3"/>
-      <color rgb="FF780116"/>
+      <color rgb="FF84E6F8"/>
+      <color rgb="FFFAE0E4"/>
+      <color rgb="FF6FFFE9"/>
+      <color rgb="FF06BEE1"/>
+      <color rgb="FF4CC9F0"/>
+      <color rgb="FF1DD3B0"/>
+      <color rgb="FF38B000"/>
+      <color rgb="FF008000"/>
+      <color rgb="FF006400"/>
+      <color rgb="FF8CFFDA"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1940,15 +1971,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="41" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="45"/>
+      <c r="B1" s="42"/>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="42"/>
+      <c r="G1" s="43"/>
     </row>
     <row r="2" spans="1:31" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="18" t="s">
@@ -2388,7 +2419,7 @@
     </row>
     <row r="21" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="24" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="25"/>
@@ -2539,7 +2570,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2554,28 +2585,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="46"/>
+      <c r="A1" s="44"/>
       <c r="B1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="47" t="s">
-        <v>148</v>
-      </c>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="47"/>
-      <c r="G1" s="47"/>
+      <c r="C1" s="45" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="45"/>
     </row>
     <row r="2" spans="1:11" ht="29.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="46"/>
+      <c r="A2" s="44"/>
       <c r="B2" s="34">
         <v>45627</v>
       </c>
-      <c r="C2" s="47"/>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
+      <c r="C2" s="45"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
     </row>
     <row r="3" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="31" t="s">
@@ -2588,10 +2619,10 @@
         <v>15</v>
       </c>
       <c r="D3" s="29" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="E3" s="29" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="F3" s="29" t="s">
         <v>136</v>
@@ -2604,18 +2635,18 @@
       <c r="A4" s="26">
         <v>1</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>138</v>
-      </c>
-      <c r="C4" s="41" t="s">
+      <c r="B4" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C4" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="39" t="s">
+      <c r="D4" s="39"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="36" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="39" t="s">
+      <c r="G4" s="36" t="s">
         <v>91</v>
       </c>
     </row>
@@ -2623,18 +2654,18 @@
       <c r="A5" s="26">
         <v>2</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="41" t="s">
+      <c r="B5" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="39" t="s">
+      <c r="D5" s="39"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="36" t="s">
         <v>92</v>
       </c>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="36" t="s">
         <v>94</v>
       </c>
     </row>
@@ -2642,18 +2673,18 @@
       <c r="A6" s="26">
         <v>3</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="C6" s="41" t="s">
+      <c r="B6" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="39" t="s">
+      <c r="D6" s="39"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="39" t="s">
+      <c r="G6" s="36" t="s">
         <v>95</v>
       </c>
     </row>
@@ -2661,18 +2692,18 @@
       <c r="A7" s="26">
         <v>4</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="41" t="s">
+      <c r="C7" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="40" t="s">
+      <c r="D7" s="39"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="37" t="s">
         <v>96</v>
       </c>
-      <c r="G7" s="39" t="s">
+      <c r="G7" s="36" t="s">
         <v>116</v>
       </c>
     </row>
@@ -2680,18 +2711,18 @@
       <c r="A8" s="26">
         <v>5</v>
       </c>
-      <c r="B8" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="C8" s="42" t="s">
+      <c r="B8" s="46" t="s">
+        <v>147</v>
+      </c>
+      <c r="C8" s="47" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="48"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="40" t="s">
+      <c r="D8" s="39"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="37" t="s">
         <v>98</v>
       </c>
-      <c r="G8" s="39" t="s">
+      <c r="G8" s="36" t="s">
         <v>117</v>
       </c>
       <c r="K8" s="28"/>
@@ -2700,18 +2731,18 @@
       <c r="A9" s="26">
         <v>6</v>
       </c>
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="48"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="40" t="s">
+      <c r="D9" s="39"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="G9" s="39" t="s">
+      <c r="G9" s="36" t="s">
         <v>118</v>
       </c>
     </row>
@@ -2719,18 +2750,18 @@
       <c r="A10" s="26">
         <v>7</v>
       </c>
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="48" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="48"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="40" t="s">
+      <c r="D10" s="39"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="37" t="s">
         <v>99</v>
       </c>
-      <c r="G10" s="39" t="s">
+      <c r="G10" s="36" t="s">
         <v>119</v>
       </c>
     </row>
@@ -2738,18 +2769,18 @@
       <c r="A11" s="26">
         <v>8</v>
       </c>
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="42" t="s">
+      <c r="C11" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="48"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="40" t="s">
+      <c r="D11" s="39"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="37" t="s">
         <v>100</v>
       </c>
-      <c r="G11" s="39" t="s">
+      <c r="G11" s="36" t="s">
         <v>120</v>
       </c>
     </row>
@@ -2757,18 +2788,18 @@
       <c r="A12" s="26">
         <v>9</v>
       </c>
-      <c r="B12" s="27" t="s">
-        <v>142</v>
-      </c>
-      <c r="C12" s="42" t="s">
+      <c r="B12" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="C12" s="47" t="s">
         <v>11</v>
       </c>
-      <c r="D12" s="48"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="40" t="s">
+      <c r="D12" s="39"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="G12" s="39" t="s">
+      <c r="G12" s="36" t="s">
         <v>121</v>
       </c>
     </row>
@@ -2776,18 +2807,18 @@
       <c r="A13" s="26">
         <v>10</v>
       </c>
-      <c r="B13" s="27" t="s">
-        <v>143</v>
-      </c>
-      <c r="C13" s="42" t="s">
+      <c r="B13" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="C13" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="48"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="40" t="s">
+      <c r="D13" s="39"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="G13" s="39" t="s">
+      <c r="G13" s="36" t="s">
         <v>122</v>
       </c>
     </row>
@@ -2795,18 +2826,18 @@
       <c r="A14" s="26">
         <v>11</v>
       </c>
-      <c r="B14" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" s="42" t="s">
+      <c r="B14" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="C14" s="47" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="48"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="40" t="s">
+      <c r="D14" s="39"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="37" t="s">
         <v>103</v>
       </c>
-      <c r="G14" s="39" t="s">
+      <c r="G14" s="36" t="s">
         <v>123</v>
       </c>
     </row>
@@ -2814,18 +2845,18 @@
       <c r="A15" s="26">
         <v>12</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="47" t="s">
         <v>50</v>
       </c>
-      <c r="D15" s="48"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="40" t="s">
+      <c r="D15" s="39"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="36" t="s">
         <v>124</v>
       </c>
     </row>
@@ -2833,18 +2864,18 @@
       <c r="A16" s="26">
         <v>13</v>
       </c>
-      <c r="B16" s="37" t="s">
-        <v>145</v>
-      </c>
-      <c r="C16" s="42" t="s">
+      <c r="B16" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="C16" s="47" t="s">
         <v>54</v>
       </c>
-      <c r="D16" s="48"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="40" t="s">
+      <c r="D16" s="39"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="37" t="s">
         <v>105</v>
       </c>
-      <c r="G16" s="39" t="s">
+      <c r="G16" s="36" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2852,18 +2883,18 @@
       <c r="A17" s="26">
         <v>14</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C17" s="42" t="s">
+      <c r="C17" s="51" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="48"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="40" t="s">
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="G17" s="39" t="s">
+      <c r="G17" s="36" t="s">
         <v>126</v>
       </c>
     </row>
@@ -2871,18 +2902,18 @@
       <c r="A18" s="26">
         <v>15</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C18" s="42" t="s">
+      <c r="C18" s="51" t="s">
         <v>3</v>
       </c>
-      <c r="D18" s="48"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="40" t="s">
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="G18" s="39" t="s">
+      <c r="G18" s="36" t="s">
         <v>127</v>
       </c>
     </row>
@@ -2890,18 +2921,18 @@
       <c r="A19" s="26">
         <v>16</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="D19" s="48"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="40" t="s">
+      <c r="D19" s="39"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="37" t="s">
         <v>108</v>
       </c>
-      <c r="G19" s="39" t="s">
+      <c r="G19" s="36" t="s">
         <v>128</v>
       </c>
     </row>
@@ -2909,18 +2940,18 @@
       <c r="A20" s="26">
         <v>17</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="48"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="40" t="s">
+      <c r="D20" s="39"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="G20" s="39" t="s">
+      <c r="G20" s="36" t="s">
         <v>129</v>
       </c>
     </row>
@@ -2928,18 +2959,18 @@
       <c r="A21" s="26">
         <v>18</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="51" t="s">
         <v>10</v>
       </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="40" t="s">
+      <c r="D21" s="39"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="37" t="s">
         <v>110</v>
       </c>
-      <c r="G21" s="39" t="s">
+      <c r="G21" s="36" t="s">
         <v>130</v>
       </c>
     </row>
@@ -2947,37 +2978,37 @@
       <c r="A22" s="26">
         <v>19</v>
       </c>
-      <c r="B22" s="27" t="s">
+      <c r="B22" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="42" t="s">
-        <v>149</v>
-      </c>
-      <c r="D22" s="48"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="40" t="s">
-        <v>150</v>
-      </c>
-      <c r="G22" s="39" t="s">
-        <v>151</v>
+      <c r="C22" s="51" t="s">
+        <v>141</v>
+      </c>
+      <c r="D22" s="39"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="G22" s="36" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="26">
         <v>20</v>
       </c>
-      <c r="B23" s="27" t="s">
+      <c r="B23" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C23" s="42" t="s">
+      <c r="C23" s="51" t="s">
         <v>61</v>
       </c>
-      <c r="D23" s="48"/>
-      <c r="E23" s="49"/>
-      <c r="F23" s="40" t="s">
+      <c r="D23" s="39"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="37" t="s">
         <v>111</v>
       </c>
-      <c r="G23" s="39" t="s">
+      <c r="G23" s="36" t="s">
         <v>131</v>
       </c>
     </row>
@@ -2985,18 +3016,18 @@
       <c r="A24" s="26">
         <v>21</v>
       </c>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="50" t="s">
         <v>68</v>
       </c>
-      <c r="C24" s="42" t="s">
+      <c r="C24" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="D24" s="48"/>
-      <c r="E24" s="49"/>
-      <c r="F24" s="40" t="s">
+      <c r="D24" s="39"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="37" t="s">
         <v>112</v>
       </c>
-      <c r="G24" s="39" t="s">
+      <c r="G24" s="36" t="s">
         <v>132</v>
       </c>
     </row>
@@ -3004,18 +3035,18 @@
       <c r="A25" s="26">
         <v>22</v>
       </c>
-      <c r="B25" s="27" t="s">
+      <c r="B25" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C25" s="42" t="s">
+      <c r="C25" s="51" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="48"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="40" t="s">
+      <c r="D25" s="39"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="G25" s="39" t="s">
+      <c r="G25" s="36" t="s">
         <v>133</v>
       </c>
     </row>
@@ -3023,18 +3054,18 @@
       <c r="A26" s="26">
         <v>23</v>
       </c>
-      <c r="B26" s="27" t="s">
+      <c r="B26" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="42" t="s">
+      <c r="C26" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="D26" s="48"/>
-      <c r="E26" s="49"/>
-      <c r="F26" s="40" t="s">
+      <c r="D26" s="39"/>
+      <c r="E26" s="40"/>
+      <c r="F26" s="37" t="s">
         <v>114</v>
       </c>
-      <c r="G26" s="39" t="s">
+      <c r="G26" s="36" t="s">
         <v>134</v>
       </c>
     </row>
@@ -3042,18 +3073,18 @@
       <c r="A27" s="26">
         <v>24</v>
       </c>
-      <c r="B27" s="27" t="s">
+      <c r="B27" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C27" s="42" t="s">
+      <c r="C27" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="D27" s="48"/>
-      <c r="E27" s="49"/>
-      <c r="F27" s="40" t="s">
+      <c r="D27" s="39"/>
+      <c r="E27" s="40"/>
+      <c r="F27" s="37" t="s">
         <v>115</v>
       </c>
-      <c r="G27" s="39" t="s">
+      <c r="G27" s="36" t="s">
         <v>135</v>
       </c>
     </row>
@@ -3244,7 +3275,7 @@
         <v>41</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="U1" s="8" t="s">
         <v>60</v>
@@ -5104,7 +5135,7 @@
         <v>41</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="U1" s="8" t="s">
         <v>60</v>

--- a/气象/北境强冷站每日气温记录.xlsx
+++ b/气象/北境强冷站每日气温记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A0F1EBD-3488-4512-AEC8-8CF7E84A2EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9112A2F-EB4F-4643-A58F-A81E3816EF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{21DDB67E-D335-466F-8652-CD2F68303142}"/>
   </bookViews>
@@ -1593,21 +1593,6 @@
     <xf numFmtId="176" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
@@ -1625,6 +1610,21 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1957,7 +1957,7 @@
   <dimension ref="A1:AE30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.4"/>
@@ -1971,15 +1971,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="42"/>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="43"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="49"/>
     </row>
     <row r="2" spans="1:31" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="18" t="s">
@@ -2011,8 +2011,12 @@
       <c r="A3" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
+      <c r="B3" s="12">
+        <v>-21.5</v>
+      </c>
+      <c r="C3" s="12">
+        <v>-13.9</v>
+      </c>
       <c r="D3" s="16"/>
       <c r="E3" s="17"/>
       <c r="F3" s="17"/>
@@ -2021,84 +2025,88 @@
       </c>
       <c r="H3" s="4" cm="1">
         <f t="array" ref="H3:AE3">TRANSPOSE(B3:B26)</f>
-        <v>0</v>
+        <v>-21.5</v>
       </c>
       <c r="I3" s="4">
-        <v>0</v>
+        <v>-27.8</v>
       </c>
       <c r="J3" s="4">
-        <v>0</v>
+        <v>-26.6</v>
       </c>
       <c r="K3" s="4">
-        <v>0</v>
+        <v>-3.2</v>
       </c>
       <c r="L3" s="4">
-        <v>0</v>
+        <v>-26.2</v>
       </c>
       <c r="M3" s="4">
-        <v>0</v>
+        <v>-15.9</v>
       </c>
       <c r="N3" s="4">
-        <v>0</v>
+        <v>-21.9</v>
       </c>
       <c r="O3" s="4">
-        <v>0</v>
+        <v>-21.4</v>
       </c>
       <c r="P3" s="4">
-        <v>0</v>
+        <v>-17.5</v>
       </c>
       <c r="Q3" s="4">
-        <v>0</v>
+        <v>-41</v>
       </c>
       <c r="R3" s="4">
-        <v>0</v>
+        <v>-33.700000000000003</v>
       </c>
       <c r="S3" s="4">
-        <v>0</v>
+        <v>-29.4</v>
       </c>
       <c r="T3" s="4">
-        <v>0</v>
+        <v>-25.7</v>
       </c>
       <c r="U3" s="4">
-        <v>0</v>
+        <v>-30.7</v>
       </c>
       <c r="V3" s="4">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="W3" s="4">
-        <v>0</v>
+        <v>-21.3</v>
       </c>
       <c r="X3" s="4">
-        <v>0</v>
+        <v>-21.6</v>
       </c>
       <c r="Y3" s="4">
-        <v>0</v>
+        <v>-17.3</v>
       </c>
       <c r="Z3" s="4">
-        <v>0</v>
+        <v>-24.9</v>
       </c>
       <c r="AA3" s="4">
-        <v>0</v>
+        <v>-24.6</v>
       </c>
       <c r="AB3" s="4">
-        <v>0</v>
+        <v>-30.7</v>
       </c>
       <c r="AC3" s="4">
-        <v>0</v>
+        <v>-31.3</v>
       </c>
       <c r="AD3" s="4">
-        <v>0</v>
+        <v>-23</v>
       </c>
       <c r="AE3" s="4">
-        <v>0</v>
+        <v>-28.5</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
+      <c r="B4" s="12">
+        <v>-27.8</v>
+      </c>
+      <c r="C4" s="12">
+        <v>-17.7</v>
+      </c>
       <c r="D4" s="16"/>
       <c r="E4" s="17"/>
       <c r="F4" s="17"/>
@@ -2107,84 +2115,88 @@
       </c>
       <c r="H4" s="4" cm="1">
         <f t="array" ref="H4:AE4">TRANSPOSE(C3:C26)</f>
-        <v>0</v>
+        <v>-13.9</v>
       </c>
       <c r="I4" s="4">
-        <v>0</v>
+        <v>-17.7</v>
       </c>
       <c r="J4" s="4">
-        <v>0</v>
+        <v>-15.3</v>
       </c>
       <c r="K4" s="4">
-        <v>0</v>
+        <v>9.6999999999999993</v>
       </c>
       <c r="L4" s="4">
-        <v>0</v>
+        <v>-18.5</v>
       </c>
       <c r="M4" s="4">
-        <v>0</v>
+        <v>-11.1</v>
       </c>
       <c r="N4" s="4">
-        <v>0</v>
+        <v>-9.6</v>
       </c>
       <c r="O4" s="4">
-        <v>0</v>
+        <v>-12.9</v>
       </c>
       <c r="P4" s="4">
-        <v>0</v>
+        <v>-12</v>
       </c>
       <c r="Q4" s="4">
-        <v>0</v>
+        <v>-30.6</v>
       </c>
       <c r="R4" s="4">
-        <v>0</v>
+        <v>-24.3</v>
       </c>
       <c r="S4" s="4">
-        <v>0</v>
+        <v>-17.399999999999999</v>
       </c>
       <c r="T4" s="4">
-        <v>0</v>
+        <v>-18.100000000000001</v>
       </c>
       <c r="U4" s="4">
-        <v>0</v>
+        <v>-20.9</v>
       </c>
       <c r="V4" s="4">
-        <v>0</v>
+        <v>-7.7</v>
       </c>
       <c r="W4" s="4">
-        <v>0</v>
+        <v>-13.8</v>
       </c>
       <c r="X4" s="4">
-        <v>0</v>
+        <v>-9.1</v>
       </c>
       <c r="Y4" s="4">
-        <v>0</v>
+        <v>-11.1</v>
       </c>
       <c r="Z4" s="4">
-        <v>0</v>
+        <v>-17.5</v>
       </c>
       <c r="AA4" s="4">
-        <v>0</v>
+        <v>-15.3</v>
       </c>
       <c r="AB4" s="4">
-        <v>0</v>
+        <v>-20.6</v>
       </c>
       <c r="AC4" s="4">
-        <v>0</v>
+        <v>-19.8</v>
       </c>
       <c r="AD4" s="4">
-        <v>0</v>
+        <v>-12.3</v>
       </c>
       <c r="AE4" s="4">
-        <v>0</v>
+        <v>-20.9</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
+      <c r="B5" s="12">
+        <v>-26.6</v>
+      </c>
+      <c r="C5" s="12">
+        <v>-15.3</v>
+      </c>
       <c r="D5" s="16"/>
       <c r="E5" s="17"/>
       <c r="F5" s="17"/>
@@ -2196,8 +2208,12 @@
       <c r="A6" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
+      <c r="B6" s="12">
+        <v>-3.2</v>
+      </c>
+      <c r="C6" s="12">
+        <v>9.6999999999999993</v>
+      </c>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
       <c r="F6" s="17"/>
@@ -2209,8 +2225,12 @@
       <c r="A7" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
+      <c r="B7" s="12">
+        <v>-26.2</v>
+      </c>
+      <c r="C7" s="12">
+        <v>-18.5</v>
+      </c>
       <c r="D7" s="16"/>
       <c r="E7" s="17"/>
       <c r="F7" s="17"/>
@@ -2222,8 +2242,12 @@
       <c r="A8" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
+      <c r="B8" s="12">
+        <v>-15.9</v>
+      </c>
+      <c r="C8" s="12">
+        <v>-11.1</v>
+      </c>
       <c r="D8" s="16"/>
       <c r="E8" s="17"/>
       <c r="F8" s="17"/>
@@ -2235,8 +2259,12 @@
       <c r="A9" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
+      <c r="B9" s="12">
+        <v>-21.9</v>
+      </c>
+      <c r="C9" s="12">
+        <v>-9.6</v>
+      </c>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
       <c r="F9" s="17"/>
@@ -2248,8 +2276,12 @@
       <c r="A10" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
+      <c r="B10" s="12">
+        <v>-21.4</v>
+      </c>
+      <c r="C10" s="12">
+        <v>-12.9</v>
+      </c>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
@@ -2261,8 +2293,12 @@
       <c r="A11" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="B11" s="12">
+        <v>-17.5</v>
+      </c>
+      <c r="C11" s="12">
+        <v>-12</v>
+      </c>
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
       <c r="F11" s="17"/>
@@ -2274,8 +2310,12 @@
       <c r="A12" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="B12" s="12"/>
-      <c r="C12" s="12"/>
+      <c r="B12" s="12">
+        <v>-41</v>
+      </c>
+      <c r="C12" s="12">
+        <v>-30.6</v>
+      </c>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
       <c r="F12" s="17"/>
@@ -2287,8 +2327,12 @@
       <c r="A13" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="12"/>
-      <c r="C13" s="12"/>
+      <c r="B13" s="12">
+        <v>-33.700000000000003</v>
+      </c>
+      <c r="C13" s="12">
+        <v>-24.3</v>
+      </c>
       <c r="D13" s="16"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
@@ -2300,8 +2344,12 @@
       <c r="A14" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
+      <c r="B14" s="12">
+        <v>-29.4</v>
+      </c>
+      <c r="C14" s="12">
+        <v>-17.399999999999999</v>
+      </c>
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
@@ -2313,8 +2361,12 @@
       <c r="A15" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="12"/>
+      <c r="B15" s="12">
+        <v>-25.7</v>
+      </c>
+      <c r="C15" s="12">
+        <v>-18.100000000000001</v>
+      </c>
       <c r="D15" s="16"/>
       <c r="E15" s="17"/>
       <c r="F15" s="17"/>
@@ -2326,8 +2378,12 @@
       <c r="A16" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
+      <c r="B16" s="12">
+        <v>-30.7</v>
+      </c>
+      <c r="C16" s="12">
+        <v>-20.9</v>
+      </c>
       <c r="D16" s="16">
         <v>1</v>
       </c>
@@ -2345,8 +2401,12 @@
       <c r="A17" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
+      <c r="B17" s="12">
+        <v>-12</v>
+      </c>
+      <c r="C17" s="12">
+        <v>-7.7</v>
+      </c>
       <c r="D17" s="16">
         <v>1</v>
       </c>
@@ -2364,8 +2424,12 @@
       <c r="A18" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="12"/>
-      <c r="C18" s="12"/>
+      <c r="B18" s="12">
+        <v>-21.3</v>
+      </c>
+      <c r="C18" s="12">
+        <v>-13.8</v>
+      </c>
       <c r="D18" s="16">
         <v>1</v>
       </c>
@@ -2383,8 +2447,12 @@
       <c r="A19" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="12"/>
-      <c r="C19" s="12"/>
+      <c r="B19" s="12">
+        <v>-21.6</v>
+      </c>
+      <c r="C19" s="12">
+        <v>-9.1</v>
+      </c>
       <c r="D19" s="16">
         <v>1</v>
       </c>
@@ -2402,8 +2470,12 @@
       <c r="A20" s="24" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
+      <c r="B20" s="12">
+        <v>-17.3</v>
+      </c>
+      <c r="C20" s="12">
+        <v>-11.1</v>
+      </c>
       <c r="D20" s="16">
         <v>1</v>
       </c>
@@ -2421,8 +2493,12 @@
       <c r="A21" s="24" t="s">
         <v>141</v>
       </c>
-      <c r="B21" s="12"/>
-      <c r="C21" s="25"/>
+      <c r="B21" s="12">
+        <v>-24.9</v>
+      </c>
+      <c r="C21" s="25">
+        <v>-17.5</v>
+      </c>
       <c r="D21" s="16">
         <v>1</v>
       </c>
@@ -2440,8 +2516,12 @@
       <c r="A22" s="24" t="s">
         <v>60</v>
       </c>
-      <c r="B22" s="12"/>
-      <c r="C22" s="25"/>
+      <c r="B22" s="12">
+        <v>-24.6</v>
+      </c>
+      <c r="C22" s="25">
+        <v>-15.3</v>
+      </c>
       <c r="D22" s="16">
         <v>1</v>
       </c>
@@ -2459,8 +2539,12 @@
       <c r="A23" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="12"/>
+      <c r="B23" s="25">
+        <v>-30.7</v>
+      </c>
+      <c r="C23" s="12">
+        <v>-20.6</v>
+      </c>
       <c r="D23" s="16">
         <v>1</v>
       </c>
@@ -2478,8 +2562,12 @@
       <c r="A24" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B24" s="12"/>
-      <c r="C24" s="25"/>
+      <c r="B24" s="12">
+        <v>-31.3</v>
+      </c>
+      <c r="C24" s="25">
+        <v>-19.8</v>
+      </c>
       <c r="D24" s="16">
         <v>1</v>
       </c>
@@ -2497,8 +2585,12 @@
       <c r="A25" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
+      <c r="B25" s="12">
+        <v>-23</v>
+      </c>
+      <c r="C25" s="12">
+        <v>-12.3</v>
+      </c>
       <c r="D25" s="16">
         <v>3</v>
       </c>
@@ -2516,8 +2608,12 @@
       <c r="A26" s="24" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
+      <c r="B26" s="12">
+        <v>-28.5</v>
+      </c>
+      <c r="C26" s="12">
+        <v>-20.9</v>
+      </c>
       <c r="D26" s="16">
         <v>4</v>
       </c>
@@ -2569,8 +2665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF0FA41-85CC-443B-8D70-8487574C7D86}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2585,28 +2681,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="44"/>
+      <c r="A1" s="50"/>
       <c r="B1" s="33" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="45" t="s">
+      <c r="C1" s="51" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="45"/>
-      <c r="E1" s="45"/>
-      <c r="F1" s="45"/>
-      <c r="G1" s="45"/>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
     </row>
     <row r="2" spans="1:11" ht="29.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="44"/>
+      <c r="A2" s="50"/>
       <c r="B2" s="34">
-        <v>45627</v>
-      </c>
-      <c r="C2" s="45"/>
-      <c r="D2" s="45"/>
-      <c r="E2" s="45"/>
-      <c r="F2" s="45"/>
-      <c r="G2" s="45"/>
+        <v>45629</v>
+      </c>
+      <c r="C2" s="51"/>
+      <c r="D2" s="51"/>
+      <c r="E2" s="51"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
     </row>
     <row r="3" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="31" t="s">
@@ -2633,459 +2729,555 @@
     </row>
     <row r="4" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="26">
-        <v>1</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="39"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="36" t="s">
-        <v>90</v>
+        <v>10</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="39">
+        <v>-41</v>
+      </c>
+      <c r="E4" s="40">
+        <v>-30.6</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>102</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>91</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="26">
-        <v>2</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="36" t="s">
-        <v>92</v>
+        <v>11</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" s="39">
+        <v>-33.700000000000003</v>
+      </c>
+      <c r="E5" s="40">
+        <v>-24.3</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>103</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>94</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="26">
-        <v>3</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="39"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="36" t="s">
-        <v>93</v>
+        <v>22</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="39">
+        <v>-31.3</v>
+      </c>
+      <c r="E6" s="40">
+        <v>-19.8</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>113</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="26">
-        <v>4</v>
-      </c>
-      <c r="B7" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="39"/>
-      <c r="E7" s="40"/>
+        <v>14</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="39">
+        <v>-30.7</v>
+      </c>
+      <c r="E7" s="40">
+        <v>-20.9</v>
+      </c>
       <c r="F7" s="37" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="26">
-        <v>5</v>
-      </c>
-      <c r="B8" s="46" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="47" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="39"/>
-      <c r="E8" s="40"/>
+        <v>21</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="39">
+        <v>-30.7</v>
+      </c>
+      <c r="E8" s="40">
+        <v>-20.6</v>
+      </c>
       <c r="F8" s="37" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>117</v>
+        <v>132</v>
       </c>
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="26">
-        <v>6</v>
-      </c>
-      <c r="B9" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="47" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="39"/>
-      <c r="E9" s="40"/>
+        <v>12</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D9" s="39">
+        <v>-29.4</v>
+      </c>
+      <c r="E9" s="40">
+        <v>-17.399999999999999</v>
+      </c>
       <c r="F9" s="37" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="26">
-        <v>7</v>
-      </c>
-      <c r="B10" s="48" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="47" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="39"/>
-      <c r="E10" s="40"/>
+        <v>24</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="39">
+        <v>-28.5</v>
+      </c>
+      <c r="E10" s="40">
+        <v>-20.9</v>
+      </c>
       <c r="F10" s="37" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>119</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="26">
-        <v>8</v>
-      </c>
-      <c r="B11" s="48" t="s">
-        <v>19</v>
-      </c>
-      <c r="C11" s="47" t="s">
-        <v>12</v>
-      </c>
-      <c r="D11" s="39"/>
-      <c r="E11" s="40"/>
-      <c r="F11" s="37" t="s">
-        <v>100</v>
+        <v>2</v>
+      </c>
+      <c r="B11" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="39">
+        <v>-27.8</v>
+      </c>
+      <c r="E11" s="40">
+        <v>-17.7</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>92</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>120</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="26">
-        <v>9</v>
-      </c>
-      <c r="B12" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="C12" s="47" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="39"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="37" t="s">
-        <v>101</v>
+        <v>3</v>
+      </c>
+      <c r="B12" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="39">
+        <v>-26.6</v>
+      </c>
+      <c r="E12" s="40">
+        <v>-15.3</v>
+      </c>
+      <c r="F12" s="36" t="s">
+        <v>93</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>121</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="26">
-        <v>10</v>
-      </c>
-      <c r="B13" s="48" t="s">
-        <v>151</v>
-      </c>
-      <c r="C13" s="47" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="39"/>
-      <c r="E13" s="40"/>
+        <v>5</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="39">
+        <v>-26.2</v>
+      </c>
+      <c r="E13" s="40">
+        <v>-18.5</v>
+      </c>
       <c r="F13" s="37" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="26">
-        <v>11</v>
-      </c>
-      <c r="B14" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="C14" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
+        <v>13</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="D14" s="39">
+        <v>-25.7</v>
+      </c>
+      <c r="E14" s="40">
+        <v>-18.100000000000001</v>
+      </c>
       <c r="F14" s="37" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="26">
-        <v>12</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="D15" s="39"/>
-      <c r="E15" s="40"/>
+        <v>19</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="39">
+        <v>-24.9</v>
+      </c>
+      <c r="E15" s="40">
+        <v>-17.5</v>
+      </c>
       <c r="F15" s="37" t="s">
-        <v>104</v>
+        <v>142</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>124</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="26">
-        <v>13</v>
-      </c>
-      <c r="B16" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="C16" s="47" t="s">
-        <v>54</v>
-      </c>
-      <c r="D16" s="39"/>
-      <c r="E16" s="40"/>
+        <v>20</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="39">
+        <v>-24.6</v>
+      </c>
+      <c r="E16" s="40">
+        <v>-15.3</v>
+      </c>
       <c r="F16" s="37" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="26">
-        <v>14</v>
-      </c>
-      <c r="B17" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C17" s="51" t="s">
-        <v>2</v>
-      </c>
-      <c r="D17" s="39"/>
-      <c r="E17" s="40"/>
+        <v>23</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="D17" s="39">
+        <v>-23</v>
+      </c>
+      <c r="E17" s="40">
+        <v>-12.3</v>
+      </c>
       <c r="F17" s="37" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="26">
-        <v>15</v>
-      </c>
-      <c r="B18" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="39"/>
-      <c r="E18" s="40"/>
+        <v>7</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="39">
+        <v>-21.9</v>
+      </c>
+      <c r="E18" s="40">
+        <v>-9.6</v>
+      </c>
       <c r="F18" s="37" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="26">
-        <v>16</v>
-      </c>
-      <c r="B19" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="40"/>
+        <v>17</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>14</v>
+      </c>
+      <c r="D19" s="39">
+        <v>-21.6</v>
+      </c>
+      <c r="E19" s="40">
+        <v>-9.1</v>
+      </c>
       <c r="F19" s="37" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="26">
-        <v>17</v>
-      </c>
-      <c r="B20" s="50" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="51" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="39"/>
-      <c r="E20" s="40"/>
-      <c r="F20" s="37" t="s">
-        <v>109</v>
+        <v>1</v>
+      </c>
+      <c r="B20" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="39">
+        <v>-21.5</v>
+      </c>
+      <c r="E20" s="40">
+        <v>-13.9</v>
+      </c>
+      <c r="F20" s="36" t="s">
+        <v>90</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="26">
-        <v>18</v>
-      </c>
-      <c r="B21" s="50" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="51" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="39"/>
-      <c r="E21" s="40"/>
+        <v>8</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="39">
+        <v>-21.4</v>
+      </c>
+      <c r="E21" s="40">
+        <v>-12.9</v>
+      </c>
       <c r="F21" s="37" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="26">
-        <v>19</v>
-      </c>
-      <c r="B22" s="50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B22" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="C22" s="51" t="s">
-        <v>141</v>
-      </c>
-      <c r="D22" s="39"/>
-      <c r="E22" s="40"/>
+      <c r="C22" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="39">
+        <v>-21.3</v>
+      </c>
+      <c r="E22" s="40">
+        <v>-13.8</v>
+      </c>
       <c r="F22" s="37" t="s">
-        <v>142</v>
+        <v>108</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="26">
-        <v>20</v>
-      </c>
-      <c r="B23" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="51" t="s">
-        <v>61</v>
-      </c>
-      <c r="D23" s="39"/>
-      <c r="E23" s="40"/>
+        <v>9</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="39">
+        <v>-17.5</v>
+      </c>
+      <c r="E23" s="40">
+        <v>-12</v>
+      </c>
       <c r="F23" s="37" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="26">
-        <v>21</v>
-      </c>
-      <c r="B24" s="50" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="40"/>
+        <v>18</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" s="39">
+        <v>-17.3</v>
+      </c>
+      <c r="E24" s="40">
+        <v>-11.1</v>
+      </c>
       <c r="F24" s="37" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="26">
-        <v>22</v>
-      </c>
-      <c r="B25" s="50" t="s">
-        <v>23</v>
-      </c>
-      <c r="C25" s="51" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="39"/>
-      <c r="E25" s="40"/>
+        <v>6</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" s="39">
+        <v>-15.9</v>
+      </c>
+      <c r="E25" s="40">
+        <v>-11.1</v>
+      </c>
       <c r="F25" s="37" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="26">
-        <v>23</v>
-      </c>
-      <c r="B26" s="50" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C26" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="D26" s="39"/>
-      <c r="E26" s="40"/>
+      <c r="C26" s="46" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="39">
+        <v>-12</v>
+      </c>
+      <c r="E26" s="40">
+        <v>-7.7</v>
+      </c>
       <c r="F26" s="37" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A27" s="26">
-        <v>24</v>
-      </c>
-      <c r="B27" s="50" t="s">
-        <v>21</v>
-      </c>
-      <c r="C27" s="51" t="s">
-        <v>63</v>
-      </c>
-      <c r="D27" s="39"/>
-      <c r="E27" s="40"/>
+        <v>4</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="39">
+        <v>-3.2</v>
+      </c>
+      <c r="E27" s="40">
+        <v>9.6999999999999993</v>
+      </c>
       <c r="F27" s="37" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="G27" s="36" t="s">
-        <v>135</v>
+        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
@@ -3117,7 +3309,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G27">
-    <sortCondition ref="A4:A27"/>
+    <sortCondition ref="D4:D27"/>
     <sortCondition ref="E4:E27"/>
   </sortState>
   <mergeCells count="2">
@@ -3208,7 +3400,7 @@
   <dimension ref="A1:Y109"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -4606,15 +4798,231 @@
       <c r="A19" s="9">
         <v>45627</v>
       </c>
+      <c r="B19">
+        <v>-36.4</v>
+      </c>
+      <c r="C19">
+        <v>-28.9</v>
+      </c>
+      <c r="D19">
+        <v>-24.6</v>
+      </c>
+      <c r="E19">
+        <v>-0.2</v>
+      </c>
+      <c r="F19">
+        <v>-20</v>
+      </c>
+      <c r="G19">
+        <v>-22.4</v>
+      </c>
+      <c r="H19">
+        <v>-16.2</v>
+      </c>
+      <c r="I19">
+        <v>-19.8</v>
+      </c>
+      <c r="J19">
+        <v>-28.2</v>
+      </c>
+      <c r="K19">
+        <v>-31.7</v>
+      </c>
+      <c r="L19">
+        <v>-26.2</v>
+      </c>
+      <c r="M19">
+        <v>-28.2</v>
+      </c>
+      <c r="N19">
+        <v>-21.8</v>
+      </c>
+      <c r="O19">
+        <v>-28.2</v>
+      </c>
+      <c r="P19">
+        <v>-16.5</v>
+      </c>
+      <c r="Q19">
+        <v>-19.8</v>
+      </c>
+      <c r="R19">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="S19">
+        <v>-17.3</v>
+      </c>
+      <c r="T19">
+        <v>-20.5</v>
+      </c>
+      <c r="U19">
+        <v>-24.6</v>
+      </c>
+      <c r="V19">
+        <v>-17.7</v>
+      </c>
+      <c r="W19">
+        <v>-31.2</v>
+      </c>
+      <c r="X19">
+        <v>-21.3</v>
+      </c>
+      <c r="Y19">
+        <v>-28.1</v>
+      </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A20" s="9">
         <v>45628</v>
       </c>
+      <c r="B20">
+        <v>-30.3</v>
+      </c>
+      <c r="C20">
+        <v>-39.1</v>
+      </c>
+      <c r="D20">
+        <v>-23.2</v>
+      </c>
+      <c r="E20">
+        <v>-0.6</v>
+      </c>
+      <c r="F20">
+        <v>-25.4</v>
+      </c>
+      <c r="G20">
+        <v>-15.9</v>
+      </c>
+      <c r="H20">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="I20">
+        <v>-25.3</v>
+      </c>
+      <c r="J20">
+        <v>-22.3</v>
+      </c>
+      <c r="K20">
+        <v>-40.4</v>
+      </c>
+      <c r="L20">
+        <v>-34</v>
+      </c>
+      <c r="M20">
+        <v>-20.7</v>
+      </c>
+      <c r="N20">
+        <v>-23.2</v>
+      </c>
+      <c r="O20">
+        <v>-32</v>
+      </c>
+      <c r="P20">
+        <v>-10.6</v>
+      </c>
+      <c r="Q20">
+        <v>-23</v>
+      </c>
+      <c r="R20">
+        <v>-22.2</v>
+      </c>
+      <c r="S20">
+        <v>-12.7</v>
+      </c>
+      <c r="T20">
+        <v>-22.3</v>
+      </c>
+      <c r="U20">
+        <v>-23.4</v>
+      </c>
+      <c r="V20">
+        <v>-28.7</v>
+      </c>
+      <c r="W20">
+        <v>-30.6</v>
+      </c>
+      <c r="X20">
+        <v>-13.6</v>
+      </c>
+      <c r="Y20">
+        <v>-30.1</v>
+      </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A21" s="9">
         <v>45629</v>
+      </c>
+      <c r="B21">
+        <v>-21.5</v>
+      </c>
+      <c r="C21">
+        <v>-27.8</v>
+      </c>
+      <c r="D21">
+        <v>-26.6</v>
+      </c>
+      <c r="E21">
+        <v>-3.2</v>
+      </c>
+      <c r="F21">
+        <v>-26.2</v>
+      </c>
+      <c r="G21">
+        <v>-15.9</v>
+      </c>
+      <c r="H21">
+        <v>-21.9</v>
+      </c>
+      <c r="I21">
+        <v>-21.4</v>
+      </c>
+      <c r="J21">
+        <v>-17.5</v>
+      </c>
+      <c r="K21">
+        <v>-41</v>
+      </c>
+      <c r="L21">
+        <v>-33.700000000000003</v>
+      </c>
+      <c r="M21">
+        <v>-29.4</v>
+      </c>
+      <c r="N21">
+        <v>-25.7</v>
+      </c>
+      <c r="O21">
+        <v>-30.7</v>
+      </c>
+      <c r="P21">
+        <v>-12</v>
+      </c>
+      <c r="Q21">
+        <v>-21.3</v>
+      </c>
+      <c r="R21">
+        <v>-21.6</v>
+      </c>
+      <c r="S21">
+        <v>-17.3</v>
+      </c>
+      <c r="T21">
+        <v>-24.9</v>
+      </c>
+      <c r="U21">
+        <v>-24.6</v>
+      </c>
+      <c r="V21">
+        <v>-30.7</v>
+      </c>
+      <c r="W21">
+        <v>-31.3</v>
+      </c>
+      <c r="X21">
+        <v>-23</v>
+      </c>
+      <c r="Y21">
+        <v>-28.5</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.4">
@@ -5068,7 +5476,7 @@
   <dimension ref="A1:Y109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -6466,15 +6874,231 @@
       <c r="A19" s="9">
         <v>45627</v>
       </c>
+      <c r="B19">
+        <v>-18.5</v>
+      </c>
+      <c r="C19">
+        <v>-14.1</v>
+      </c>
+      <c r="D19">
+        <v>-15.3</v>
+      </c>
+      <c r="E19">
+        <v>15</v>
+      </c>
+      <c r="F19">
+        <v>-12.9</v>
+      </c>
+      <c r="G19">
+        <v>-12.8</v>
+      </c>
+      <c r="H19">
+        <v>-10.4</v>
+      </c>
+      <c r="I19">
+        <v>-10.8</v>
+      </c>
+      <c r="J19">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="K19">
+        <v>-23.2</v>
+      </c>
+      <c r="L19">
+        <v>-7.6</v>
+      </c>
+      <c r="M19">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="N19">
+        <v>-9.1</v>
+      </c>
+      <c r="O19">
+        <v>-18.2</v>
+      </c>
+      <c r="P19">
+        <v>-9.4</v>
+      </c>
+      <c r="Q19">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="R19">
+        <v>-5</v>
+      </c>
+      <c r="S19">
+        <v>-10</v>
+      </c>
+      <c r="T19">
+        <v>-15.7</v>
+      </c>
+      <c r="U19">
+        <v>-12</v>
+      </c>
+      <c r="V19">
+        <v>-5.9</v>
+      </c>
+      <c r="W19">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="X19">
+        <v>-11.3</v>
+      </c>
+      <c r="Y19">
+        <v>-18.100000000000001</v>
+      </c>
     </row>
     <row r="20" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A20" s="9">
         <v>45628</v>
       </c>
+      <c r="B20">
+        <v>-19</v>
+      </c>
+      <c r="C20">
+        <v>-21.2</v>
+      </c>
+      <c r="D20">
+        <v>-12.9</v>
+      </c>
+      <c r="E20">
+        <v>11.2</v>
+      </c>
+      <c r="F20">
+        <v>-14.3</v>
+      </c>
+      <c r="G20">
+        <v>-12.4</v>
+      </c>
+      <c r="H20">
+        <v>-9.6999999999999993</v>
+      </c>
+      <c r="I20">
+        <v>-12.8</v>
+      </c>
+      <c r="J20">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="K20">
+        <v>-31.4</v>
+      </c>
+      <c r="L20">
+        <v>-22.8</v>
+      </c>
+      <c r="M20">
+        <v>-10.8</v>
+      </c>
+      <c r="N20">
+        <v>-10.3</v>
+      </c>
+      <c r="O20">
+        <v>-21.4</v>
+      </c>
+      <c r="P20">
+        <v>-7.9</v>
+      </c>
+      <c r="Q20">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="R20">
+        <v>-11.1</v>
+      </c>
+      <c r="S20">
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="T20">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="U20">
+        <v>-13.1</v>
+      </c>
+      <c r="V20">
+        <v>-17.7</v>
+      </c>
+      <c r="W20">
+        <v>-20.2</v>
+      </c>
+      <c r="X20">
+        <v>-9.4</v>
+      </c>
+      <c r="Y20">
+        <v>-22</v>
+      </c>
     </row>
     <row r="21" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A21" s="9">
         <v>45629</v>
+      </c>
+      <c r="B21">
+        <v>-13.9</v>
+      </c>
+      <c r="C21">
+        <v>-17.7</v>
+      </c>
+      <c r="D21">
+        <v>-15.3</v>
+      </c>
+      <c r="E21">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F21">
+        <v>-18.5</v>
+      </c>
+      <c r="G21">
+        <v>-11.1</v>
+      </c>
+      <c r="H21">
+        <v>-9.6</v>
+      </c>
+      <c r="I21">
+        <v>-12.9</v>
+      </c>
+      <c r="J21">
+        <v>-12</v>
+      </c>
+      <c r="K21">
+        <v>-30.6</v>
+      </c>
+      <c r="L21">
+        <v>-24.3</v>
+      </c>
+      <c r="M21">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="N21">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="O21">
+        <v>-20.9</v>
+      </c>
+      <c r="P21">
+        <v>-7.7</v>
+      </c>
+      <c r="Q21">
+        <v>-13.8</v>
+      </c>
+      <c r="R21">
+        <v>-9.1</v>
+      </c>
+      <c r="S21">
+        <v>-11.1</v>
+      </c>
+      <c r="T21">
+        <v>-17.5</v>
+      </c>
+      <c r="U21">
+        <v>-15.3</v>
+      </c>
+      <c r="V21">
+        <v>-20.6</v>
+      </c>
+      <c r="W21">
+        <v>-19.8</v>
+      </c>
+      <c r="X21">
+        <v>-12.3</v>
+      </c>
+      <c r="Y21">
+        <v>-20.9</v>
       </c>
     </row>
     <row r="22" spans="1:25" x14ac:dyDescent="0.4">

--- a/气象/北境强冷站每日气温记录.xlsx
+++ b/气象/北境强冷站每日气温记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9112A2F-EB4F-4643-A58F-A81E3816EF86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6436A688-F9F8-47F9-8792-E9C30A51EE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{21DDB67E-D335-466F-8652-CD2F68303142}"/>
   </bookViews>
@@ -1957,7 +1957,7 @@
   <dimension ref="A1:AE30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.4"/>
@@ -2012,10 +2012,10 @@
         <v>27</v>
       </c>
       <c r="B3" s="12">
-        <v>-21.5</v>
+        <v>-25</v>
       </c>
       <c r="C3" s="12">
-        <v>-13.9</v>
+        <v>-11.7</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="17"/>
@@ -2025,76 +2025,76 @@
       </c>
       <c r="H3" s="4" cm="1">
         <f t="array" ref="H3:AE3">TRANSPOSE(B3:B26)</f>
-        <v>-21.5</v>
+        <v>-25</v>
       </c>
       <c r="I3" s="4">
-        <v>-27.8</v>
+        <v>-25</v>
       </c>
       <c r="J3" s="4">
-        <v>-26.6</v>
+        <v>-39.299999999999997</v>
       </c>
       <c r="K3" s="4">
-        <v>-3.2</v>
+        <v>-2.6</v>
       </c>
       <c r="L3" s="4">
-        <v>-26.2</v>
+        <v>-30.7</v>
       </c>
       <c r="M3" s="4">
-        <v>-15.9</v>
+        <v>-15.5</v>
       </c>
       <c r="N3" s="4">
-        <v>-21.9</v>
+        <v>-18</v>
       </c>
       <c r="O3" s="4">
-        <v>-21.4</v>
+        <v>-31.9</v>
       </c>
       <c r="P3" s="4">
+        <v>-19.2</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>-28.6</v>
+      </c>
+      <c r="R3" s="4">
+        <v>-34</v>
+      </c>
+      <c r="S3" s="4">
+        <v>-34.9</v>
+      </c>
+      <c r="T3" s="4">
+        <v>-36.700000000000003</v>
+      </c>
+      <c r="U3" s="4">
         <v>-17.5</v>
       </c>
-      <c r="Q3" s="4">
-        <v>-41</v>
-      </c>
-      <c r="R3" s="4">
-        <v>-33.700000000000003</v>
-      </c>
-      <c r="S3" s="4">
-        <v>-29.4</v>
-      </c>
-      <c r="T3" s="4">
-        <v>-25.7</v>
-      </c>
-      <c r="U3" s="4">
-        <v>-30.7</v>
-      </c>
       <c r="V3" s="4">
-        <v>-12</v>
+        <v>-11.8</v>
       </c>
       <c r="W3" s="4">
-        <v>-21.3</v>
+        <v>-17.3</v>
       </c>
       <c r="X3" s="4">
-        <v>-21.6</v>
+        <v>-17.5</v>
       </c>
       <c r="Y3" s="4">
-        <v>-17.3</v>
+        <v>-14.6</v>
       </c>
       <c r="Z3" s="4">
-        <v>-24.9</v>
+        <v>-23.7</v>
       </c>
       <c r="AA3" s="4">
-        <v>-24.6</v>
+        <v>-23.6</v>
       </c>
       <c r="AB3" s="4">
-        <v>-30.7</v>
+        <v>-24.8</v>
       </c>
       <c r="AC3" s="4">
-        <v>-31.3</v>
+        <v>-31.1</v>
       </c>
       <c r="AD3" s="4">
-        <v>-23</v>
+        <v>-25.1</v>
       </c>
       <c r="AE3" s="4">
-        <v>-28.5</v>
+        <v>-16.399999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -2102,10 +2102,10 @@
         <v>28</v>
       </c>
       <c r="B4" s="12">
-        <v>-27.8</v>
+        <v>-25</v>
       </c>
       <c r="C4" s="12">
-        <v>-17.7</v>
+        <v>-12.1</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="17"/>
@@ -2115,76 +2115,76 @@
       </c>
       <c r="H4" s="4" cm="1">
         <f t="array" ref="H4:AE4">TRANSPOSE(C3:C26)</f>
-        <v>-13.9</v>
+        <v>-11.7</v>
       </c>
       <c r="I4" s="4">
-        <v>-17.7</v>
+        <v>-12.1</v>
       </c>
       <c r="J4" s="4">
-        <v>-15.3</v>
+        <v>-28.4</v>
       </c>
       <c r="K4" s="4">
-        <v>9.6999999999999993</v>
+        <v>7.3</v>
       </c>
       <c r="L4" s="4">
-        <v>-18.5</v>
+        <v>-19.899999999999999</v>
       </c>
       <c r="M4" s="4">
-        <v>-11.1</v>
+        <v>-7.7</v>
       </c>
       <c r="N4" s="4">
-        <v>-9.6</v>
+        <v>-9.4</v>
       </c>
       <c r="O4" s="4">
-        <v>-12.9</v>
+        <v>-24</v>
       </c>
       <c r="P4" s="4">
-        <v>-12</v>
+        <v>-10</v>
       </c>
       <c r="Q4" s="4">
-        <v>-30.6</v>
+        <v>-16.899999999999999</v>
       </c>
       <c r="R4" s="4">
-        <v>-24.3</v>
+        <v>-24.7</v>
       </c>
       <c r="S4" s="4">
-        <v>-17.399999999999999</v>
+        <v>-19.3</v>
       </c>
       <c r="T4" s="4">
-        <v>-18.100000000000001</v>
+        <v>-27.2</v>
       </c>
       <c r="U4" s="4">
-        <v>-20.9</v>
+        <v>-9</v>
       </c>
       <c r="V4" s="4">
-        <v>-7.7</v>
+        <v>-9.4</v>
       </c>
       <c r="W4" s="4">
-        <v>-13.8</v>
+        <v>-10.7</v>
       </c>
       <c r="X4" s="4">
-        <v>-9.1</v>
+        <v>-10.199999999999999</v>
       </c>
       <c r="Y4" s="4">
-        <v>-11.1</v>
+        <v>-10.9</v>
       </c>
       <c r="Z4" s="4">
-        <v>-17.5</v>
+        <v>-11.4</v>
       </c>
       <c r="AA4" s="4">
-        <v>-15.3</v>
+        <v>-8.1999999999999993</v>
       </c>
       <c r="AB4" s="4">
-        <v>-20.6</v>
+        <v>-15.9</v>
       </c>
       <c r="AC4" s="4">
-        <v>-19.8</v>
+        <v>-15.7</v>
       </c>
       <c r="AD4" s="4">
-        <v>-12.3</v>
+        <v>-11.5</v>
       </c>
       <c r="AE4" s="4">
-        <v>-20.9</v>
+        <v>-11.8</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -2192,10 +2192,10 @@
         <v>29</v>
       </c>
       <c r="B5" s="12">
-        <v>-26.6</v>
+        <v>-39.299999999999997</v>
       </c>
       <c r="C5" s="12">
-        <v>-15.3</v>
+        <v>-28.4</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="17"/>
@@ -2209,10 +2209,10 @@
         <v>30</v>
       </c>
       <c r="B6" s="12">
-        <v>-3.2</v>
+        <v>-2.6</v>
       </c>
       <c r="C6" s="12">
-        <v>9.6999999999999993</v>
+        <v>7.3</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
@@ -2226,10 +2226,10 @@
         <v>31</v>
       </c>
       <c r="B7" s="12">
-        <v>-26.2</v>
+        <v>-30.7</v>
       </c>
       <c r="C7" s="12">
-        <v>-18.5</v>
+        <v>-19.899999999999999</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="17"/>
@@ -2243,10 +2243,10 @@
         <v>32</v>
       </c>
       <c r="B8" s="12">
-        <v>-15.9</v>
+        <v>-15.5</v>
       </c>
       <c r="C8" s="12">
-        <v>-11.1</v>
+        <v>-7.7</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="17"/>
@@ -2260,10 +2260,10 @@
         <v>33</v>
       </c>
       <c r="B9" s="12">
-        <v>-21.9</v>
+        <v>-18</v>
       </c>
       <c r="C9" s="12">
-        <v>-9.6</v>
+        <v>-9.4</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
@@ -2277,10 +2277,10 @@
         <v>34</v>
       </c>
       <c r="B10" s="12">
-        <v>-21.4</v>
+        <v>-31.9</v>
       </c>
       <c r="C10" s="12">
-        <v>-12.9</v>
+        <v>-24</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
@@ -2294,10 +2294,10 @@
         <v>35</v>
       </c>
       <c r="B11" s="12">
-        <v>-17.5</v>
+        <v>-19.2</v>
       </c>
       <c r="C11" s="12">
-        <v>-12</v>
+        <v>-10</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
@@ -2311,10 +2311,10 @@
         <v>43</v>
       </c>
       <c r="B12" s="12">
-        <v>-41</v>
+        <v>-28.6</v>
       </c>
       <c r="C12" s="12">
-        <v>-30.6</v>
+        <v>-16.899999999999999</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
@@ -2328,10 +2328,10 @@
         <v>46</v>
       </c>
       <c r="B13" s="12">
-        <v>-33.700000000000003</v>
+        <v>-34</v>
       </c>
       <c r="C13" s="12">
-        <v>-24.3</v>
+        <v>-24.7</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="17"/>
@@ -2345,10 +2345,10 @@
         <v>49</v>
       </c>
       <c r="B14" s="12">
-        <v>-29.4</v>
+        <v>-34.9</v>
       </c>
       <c r="C14" s="12">
-        <v>-17.399999999999999</v>
+        <v>-19.3</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
@@ -2362,10 +2362,10 @@
         <v>53</v>
       </c>
       <c r="B15" s="12">
-        <v>-25.7</v>
+        <v>-36.700000000000003</v>
       </c>
       <c r="C15" s="12">
-        <v>-18.100000000000001</v>
+        <v>-27.2</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="17"/>
@@ -2379,10 +2379,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="12">
-        <v>-30.7</v>
+        <v>-17.5</v>
       </c>
       <c r="C16" s="12">
-        <v>-20.9</v>
+        <v>-9</v>
       </c>
       <c r="D16" s="16">
         <v>1</v>
@@ -2402,10 +2402,10 @@
         <v>38</v>
       </c>
       <c r="B17" s="12">
-        <v>-12</v>
+        <v>-11.8</v>
       </c>
       <c r="C17" s="12">
-        <v>-7.7</v>
+        <v>-9.4</v>
       </c>
       <c r="D17" s="16">
         <v>1</v>
@@ -2425,10 +2425,10 @@
         <v>39</v>
       </c>
       <c r="B18" s="12">
-        <v>-21.3</v>
+        <v>-17.3</v>
       </c>
       <c r="C18" s="12">
-        <v>-13.8</v>
+        <v>-10.7</v>
       </c>
       <c r="D18" s="16">
         <v>1</v>
@@ -2448,10 +2448,10 @@
         <v>36</v>
       </c>
       <c r="B19" s="12">
-        <v>-21.6</v>
+        <v>-17.5</v>
       </c>
       <c r="C19" s="12">
-        <v>-9.1</v>
+        <v>-10.199999999999999</v>
       </c>
       <c r="D19" s="16">
         <v>1</v>
@@ -2471,10 +2471,10 @@
         <v>41</v>
       </c>
       <c r="B20" s="12">
-        <v>-17.3</v>
+        <v>-14.6</v>
       </c>
       <c r="C20" s="12">
-        <v>-11.1</v>
+        <v>-10.9</v>
       </c>
       <c r="D20" s="16">
         <v>1</v>
@@ -2494,10 +2494,10 @@
         <v>141</v>
       </c>
       <c r="B21" s="12">
-        <v>-24.9</v>
+        <v>-23.7</v>
       </c>
       <c r="C21" s="25">
-        <v>-17.5</v>
+        <v>-11.4</v>
       </c>
       <c r="D21" s="16">
         <v>1</v>
@@ -2517,10 +2517,10 @@
         <v>60</v>
       </c>
       <c r="B22" s="12">
-        <v>-24.6</v>
+        <v>-23.6</v>
       </c>
       <c r="C22" s="25">
-        <v>-15.3</v>
+        <v>-8.1999999999999993</v>
       </c>
       <c r="D22" s="16">
         <v>1</v>
@@ -2540,10 +2540,10 @@
         <v>65</v>
       </c>
       <c r="B23" s="25">
-        <v>-30.7</v>
+        <v>-24.8</v>
       </c>
       <c r="C23" s="12">
-        <v>-20.6</v>
+        <v>-15.9</v>
       </c>
       <c r="D23" s="16">
         <v>1</v>
@@ -2563,10 +2563,10 @@
         <v>40</v>
       </c>
       <c r="B24" s="12">
-        <v>-31.3</v>
+        <v>-31.1</v>
       </c>
       <c r="C24" s="25">
-        <v>-19.8</v>
+        <v>-15.7</v>
       </c>
       <c r="D24" s="16">
         <v>1</v>
@@ -2586,10 +2586,10 @@
         <v>56</v>
       </c>
       <c r="B25" s="12">
-        <v>-23</v>
+        <v>-25.1</v>
       </c>
       <c r="C25" s="12">
-        <v>-12.3</v>
+        <v>-11.5</v>
       </c>
       <c r="D25" s="16">
         <v>3</v>
@@ -2609,10 +2609,10 @@
         <v>62</v>
       </c>
       <c r="B26" s="12">
-        <v>-28.5</v>
+        <v>-16.399999999999999</v>
       </c>
       <c r="C26" s="12">
-        <v>-20.9</v>
+        <v>-11.8</v>
       </c>
       <c r="D26" s="16">
         <v>4</v>
@@ -2666,7 +2666,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2696,7 +2696,7 @@
     <row r="2" spans="1:11" ht="29.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="50"/>
       <c r="B2" s="34">
-        <v>45629</v>
+        <v>45632</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -2729,417 +2729,417 @@
     </row>
     <row r="4" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="26">
-        <v>10</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="C4" s="42" t="s">
-        <v>44</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>8</v>
       </c>
       <c r="D4" s="39">
-        <v>-41</v>
+        <v>-39.299999999999997</v>
       </c>
       <c r="E4" s="40">
-        <v>-30.6</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>102</v>
+        <v>-28.4</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>93</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="26">
-        <v>11</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>148</v>
+        <v>13</v>
+      </c>
+      <c r="B5" s="44" t="s">
+        <v>149</v>
       </c>
       <c r="C5" s="42" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D5" s="39">
-        <v>-33.700000000000003</v>
+        <v>-36.700000000000003</v>
       </c>
       <c r="E5" s="40">
-        <v>-24.3</v>
+        <v>-27.2</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="26">
-        <v>22</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="46" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>50</v>
       </c>
       <c r="D6" s="39">
-        <v>-31.3</v>
+        <v>-34.9</v>
       </c>
       <c r="E6" s="40">
-        <v>-19.8</v>
+        <v>-19.3</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="26">
-        <v>14</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>2</v>
+        <v>11</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>47</v>
       </c>
       <c r="D7" s="39">
-        <v>-30.7</v>
+        <v>-34</v>
       </c>
       <c r="E7" s="40">
-        <v>-20.9</v>
+        <v>-24.7</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="26">
-        <v>21</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="C8" s="46" t="s">
-        <v>66</v>
+        <v>8</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>12</v>
       </c>
       <c r="D8" s="39">
-        <v>-30.7</v>
+        <v>-31.9</v>
       </c>
       <c r="E8" s="40">
-        <v>-20.6</v>
+        <v>-24</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>132</v>
+        <v>120</v>
       </c>
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="26">
-        <v>12</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>50</v>
+        <v>22</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>9</v>
       </c>
       <c r="D9" s="39">
-        <v>-29.4</v>
+        <v>-31.1</v>
       </c>
       <c r="E9" s="40">
-        <v>-17.399999999999999</v>
+        <v>-15.7</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="26">
-        <v>24</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="46" t="s">
-        <v>63</v>
+        <v>5</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>5</v>
       </c>
       <c r="D10" s="39">
-        <v>-28.5</v>
+        <v>-30.7</v>
       </c>
       <c r="E10" s="40">
-        <v>-20.9</v>
+        <v>-19.899999999999999</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>115</v>
+        <v>98</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>135</v>
+        <v>117</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="26">
-        <v>2</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>1</v>
+        <v>10</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>44</v>
       </c>
       <c r="D11" s="39">
-        <v>-27.8</v>
+        <v>-28.6</v>
       </c>
       <c r="E11" s="40">
-        <v>-17.7</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>92</v>
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="F11" s="37" t="s">
+        <v>102</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="26">
-        <v>3</v>
-      </c>
-      <c r="B12" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>8</v>
+        <v>23</v>
+      </c>
+      <c r="B12" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>57</v>
       </c>
       <c r="D12" s="39">
-        <v>-26.6</v>
+        <v>-25.1</v>
       </c>
       <c r="E12" s="40">
-        <v>-15.3</v>
-      </c>
-      <c r="F12" s="36" t="s">
-        <v>93</v>
+        <v>-11.5</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>114</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>95</v>
+        <v>134</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="26">
-        <v>5</v>
-      </c>
-      <c r="B13" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>1</v>
       </c>
       <c r="D13" s="39">
-        <v>-26.2</v>
+        <v>-25</v>
       </c>
       <c r="E13" s="40">
-        <v>-18.5</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>98</v>
+        <v>-12.1</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>92</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="26">
-        <v>13</v>
-      </c>
-      <c r="B14" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>54</v>
+        <v>1</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>0</v>
       </c>
       <c r="D14" s="39">
-        <v>-25.7</v>
+        <v>-25</v>
       </c>
       <c r="E14" s="40">
-        <v>-18.100000000000001</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>105</v>
+        <v>-11.7</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>90</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>125</v>
+        <v>91</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="26">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="C15" s="46" t="s">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="D15" s="39">
-        <v>-24.9</v>
+        <v>-24.8</v>
       </c>
       <c r="E15" s="40">
-        <v>-17.5</v>
+        <v>-15.9</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="26">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B16" s="45" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="D16" s="39">
-        <v>-24.6</v>
+        <v>-23.7</v>
       </c>
       <c r="E16" s="40">
-        <v>-15.3</v>
+        <v>-11.4</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="26">
+        <v>20</v>
+      </c>
+      <c r="B17" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="45" t="s">
-        <v>22</v>
-      </c>
       <c r="C17" s="46" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D17" s="39">
-        <v>-23</v>
+        <v>-23.6</v>
       </c>
       <c r="E17" s="40">
-        <v>-12.3</v>
+        <v>-8.1999999999999993</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="26">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B18" s="43" t="s">
-        <v>18</v>
+        <v>150</v>
       </c>
       <c r="C18" s="42" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D18" s="39">
-        <v>-21.9</v>
+        <v>-19.2</v>
       </c>
       <c r="E18" s="40">
-        <v>-9.6</v>
+        <v>-10</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="26">
-        <v>17</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="46" t="s">
-        <v>14</v>
+        <v>7</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>7</v>
       </c>
       <c r="D19" s="39">
-        <v>-21.6</v>
+        <v>-18</v>
       </c>
       <c r="E19" s="40">
-        <v>-9.1</v>
+        <v>-9.4</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="26">
-        <v>1</v>
-      </c>
-      <c r="B20" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C20" s="38" t="s">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>14</v>
       </c>
       <c r="D20" s="39">
-        <v>-21.5</v>
+        <v>-17.5</v>
       </c>
       <c r="E20" s="40">
-        <v>-13.9</v>
-      </c>
-      <c r="F20" s="36" t="s">
-        <v>90</v>
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="F20" s="37" t="s">
+        <v>109</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>91</v>
+        <v>129</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="26">
-        <v>8</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="C21" s="42" t="s">
-        <v>12</v>
+        <v>14</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>2</v>
       </c>
       <c r="D21" s="39">
-        <v>-21.4</v>
+        <v>-17.5</v>
       </c>
       <c r="E21" s="40">
-        <v>-12.9</v>
+        <v>-9</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -3153,10 +3153,10 @@
         <v>4</v>
       </c>
       <c r="D22" s="39">
-        <v>-21.3</v>
+        <v>-17.3</v>
       </c>
       <c r="E22" s="40">
-        <v>-13.8</v>
+        <v>-10.7</v>
       </c>
       <c r="F22" s="37" t="s">
         <v>108</v>
@@ -3167,71 +3167,71 @@
     </row>
     <row r="23" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="26">
-        <v>9</v>
-      </c>
-      <c r="B23" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="C23" s="42" t="s">
-        <v>11</v>
+        <v>24</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>63</v>
       </c>
       <c r="D23" s="39">
-        <v>-17.5</v>
+        <v>-16.399999999999999</v>
       </c>
       <c r="E23" s="40">
-        <v>-12</v>
+        <v>-11.8</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="26">
+        <v>6</v>
+      </c>
+      <c r="B24" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="46" t="s">
-        <v>10</v>
+      <c r="C24" s="42" t="s">
+        <v>6</v>
       </c>
       <c r="D24" s="39">
-        <v>-17.3</v>
+        <v>-15.5</v>
       </c>
       <c r="E24" s="40">
-        <v>-11.1</v>
+        <v>-7.7</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="26">
-        <v>6</v>
-      </c>
-      <c r="B25" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="42" t="s">
-        <v>6</v>
+      <c r="B25" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>10</v>
       </c>
       <c r="D25" s="39">
-        <v>-15.9</v>
+        <v>-14.6</v>
       </c>
       <c r="E25" s="40">
-        <v>-11.1</v>
+        <v>-10.9</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -3245,10 +3245,10 @@
         <v>3</v>
       </c>
       <c r="D26" s="39">
-        <v>-12</v>
+        <v>-11.8</v>
       </c>
       <c r="E26" s="40">
-        <v>-7.7</v>
+        <v>-9.4</v>
       </c>
       <c r="F26" s="37" t="s">
         <v>107</v>
@@ -3268,10 +3268,10 @@
         <v>13</v>
       </c>
       <c r="D27" s="39">
-        <v>-3.2</v>
+        <v>-2.6</v>
       </c>
       <c r="E27" s="40">
-        <v>9.6999999999999993</v>
+        <v>7.3</v>
       </c>
       <c r="F27" s="37" t="s">
         <v>96</v>
@@ -3400,7 +3400,7 @@
   <dimension ref="A1:Y109"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -5029,15 +5029,231 @@
       <c r="A22" s="9">
         <v>45630</v>
       </c>
+      <c r="B22">
+        <v>-16.5</v>
+      </c>
+      <c r="C22">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="D22">
+        <v>-29.8</v>
+      </c>
+      <c r="E22">
+        <v>-3.7</v>
+      </c>
+      <c r="F22">
+        <v>-29.5</v>
+      </c>
+      <c r="G22">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="H22">
+        <v>-20.2</v>
+      </c>
+      <c r="I22">
+        <v>-28.5</v>
+      </c>
+      <c r="J22">
+        <v>-12.9</v>
+      </c>
+      <c r="K22">
+        <v>-30.6</v>
+      </c>
+      <c r="L22">
+        <v>-27.9</v>
+      </c>
+      <c r="M22">
+        <v>-30.2</v>
+      </c>
+      <c r="N22">
+        <v>-30.3</v>
+      </c>
+      <c r="O22">
+        <v>-28.4</v>
+      </c>
+      <c r="P22">
+        <v>-11.5</v>
+      </c>
+      <c r="Q22">
+        <v>-25.9</v>
+      </c>
+      <c r="R22">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="S22">
+        <v>-12.8</v>
+      </c>
+      <c r="T22">
+        <v>-24.1</v>
+      </c>
+      <c r="U22">
+        <v>-27.2</v>
+      </c>
+      <c r="V22">
+        <v>-26.2</v>
+      </c>
+      <c r="W22">
+        <v>-35.200000000000003</v>
+      </c>
+      <c r="X22">
+        <v>-23.3</v>
+      </c>
+      <c r="Y22">
+        <v>-25.2</v>
+      </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A23" s="9">
         <v>45631</v>
       </c>
+      <c r="B23">
+        <v>-24.2</v>
+      </c>
+      <c r="C23">
+        <v>-27.2</v>
+      </c>
+      <c r="D23">
+        <v>-34.799999999999997</v>
+      </c>
+      <c r="E23">
+        <v>-0.3</v>
+      </c>
+      <c r="F23">
+        <v>-27.3</v>
+      </c>
+      <c r="G23">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="H23">
+        <v>-15.1</v>
+      </c>
+      <c r="I23">
+        <v>-33.700000000000003</v>
+      </c>
+      <c r="J23">
+        <v>-13.2</v>
+      </c>
+      <c r="K23">
+        <v>-28.1</v>
+      </c>
+      <c r="L23">
+        <v>-30.5</v>
+      </c>
+      <c r="M23">
+        <v>-31.2</v>
+      </c>
+      <c r="N23">
+        <v>-35.6</v>
+      </c>
+      <c r="O23">
+        <v>-23.8</v>
+      </c>
+      <c r="P23">
+        <v>-11.1</v>
+      </c>
+      <c r="Q23">
+        <v>-24</v>
+      </c>
+      <c r="R23">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="S23">
+        <v>-14</v>
+      </c>
+      <c r="T23">
+        <v>-28</v>
+      </c>
+      <c r="U23">
+        <v>-28.4</v>
+      </c>
+      <c r="V23">
+        <v>-20.8</v>
+      </c>
+      <c r="W23">
+        <v>-34.799999999999997</v>
+      </c>
+      <c r="X23">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="Y23">
+        <v>-22.3</v>
+      </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A24" s="9">
         <v>45632</v>
+      </c>
+      <c r="B24">
+        <v>-25</v>
+      </c>
+      <c r="C24">
+        <v>-25</v>
+      </c>
+      <c r="D24">
+        <v>-39.299999999999997</v>
+      </c>
+      <c r="E24">
+        <v>-2.6</v>
+      </c>
+      <c r="F24">
+        <v>-30.7</v>
+      </c>
+      <c r="G24">
+        <v>-15.5</v>
+      </c>
+      <c r="H24">
+        <v>-18</v>
+      </c>
+      <c r="I24">
+        <v>-31.9</v>
+      </c>
+      <c r="J24">
+        <v>-19.2</v>
+      </c>
+      <c r="K24">
+        <v>-28.6</v>
+      </c>
+      <c r="L24">
+        <v>-34</v>
+      </c>
+      <c r="M24">
+        <v>-34.9</v>
+      </c>
+      <c r="N24">
+        <v>-36.700000000000003</v>
+      </c>
+      <c r="O24">
+        <v>-17.5</v>
+      </c>
+      <c r="P24">
+        <v>-11.8</v>
+      </c>
+      <c r="Q24">
+        <v>-17.3</v>
+      </c>
+      <c r="R24">
+        <v>-17.5</v>
+      </c>
+      <c r="S24">
+        <v>-14.6</v>
+      </c>
+      <c r="T24">
+        <v>-23.7</v>
+      </c>
+      <c r="U24">
+        <v>-23.6</v>
+      </c>
+      <c r="V24">
+        <v>-24.8</v>
+      </c>
+      <c r="W24">
+        <v>-31.1</v>
+      </c>
+      <c r="X24">
+        <v>-25.1</v>
+      </c>
+      <c r="Y24">
+        <v>-16.399999999999999</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.4">
@@ -5476,7 +5692,7 @@
   <dimension ref="A1:Y109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -7105,15 +7321,231 @@
       <c r="A22" s="9">
         <v>45630</v>
       </c>
+      <c r="B22">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="C22">
+        <v>-11.7</v>
+      </c>
+      <c r="D22">
+        <v>-21.7</v>
+      </c>
+      <c r="E22">
+        <v>8.6</v>
+      </c>
+      <c r="F22">
+        <v>-20.9</v>
+      </c>
+      <c r="G22">
+        <v>-12</v>
+      </c>
+      <c r="H22">
+        <v>-10.4</v>
+      </c>
+      <c r="I22">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="J22">
+        <v>-10.1</v>
+      </c>
+      <c r="K22">
+        <v>-20.7</v>
+      </c>
+      <c r="L22">
+        <v>-19.8</v>
+      </c>
+      <c r="M22">
+        <v>-17.8</v>
+      </c>
+      <c r="N22">
+        <v>-19.5</v>
+      </c>
+      <c r="O22">
+        <v>-18.5</v>
+      </c>
+      <c r="P22">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="Q22">
+        <v>-15.6</v>
+      </c>
+      <c r="R22">
+        <v>-8.1</v>
+      </c>
+      <c r="S22">
+        <v>-8.9</v>
+      </c>
+      <c r="T22">
+        <v>-14.8</v>
+      </c>
+      <c r="U22">
+        <v>-15.2</v>
+      </c>
+      <c r="V22">
+        <v>-15.9</v>
+      </c>
+      <c r="W22">
+        <v>-22</v>
+      </c>
+      <c r="X22">
+        <v>-7.6</v>
+      </c>
+      <c r="Y22">
+        <v>-18.5</v>
+      </c>
     </row>
     <row r="23" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A23" s="9">
         <v>45631</v>
       </c>
+      <c r="B23">
+        <v>-10</v>
+      </c>
+      <c r="C23">
+        <v>-11</v>
+      </c>
+      <c r="D23">
+        <v>-26.1</v>
+      </c>
+      <c r="E23">
+        <v>9.1</v>
+      </c>
+      <c r="F23">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="G23">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="H23">
+        <v>-10.3</v>
+      </c>
+      <c r="I23">
+        <v>-23</v>
+      </c>
+      <c r="J23">
+        <v>-10.7</v>
+      </c>
+      <c r="K23">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="L23">
+        <v>-21.3</v>
+      </c>
+      <c r="M23">
+        <v>-17.2</v>
+      </c>
+      <c r="N23">
+        <v>-25.9</v>
+      </c>
+      <c r="O23">
+        <v>-9.8000000000000007</v>
+      </c>
+      <c r="P23">
+        <v>-6.9</v>
+      </c>
+      <c r="Q23">
+        <v>-10.7</v>
+      </c>
+      <c r="R23">
+        <v>-7.7</v>
+      </c>
+      <c r="S23">
+        <v>-9.4</v>
+      </c>
+      <c r="T23">
+        <v>-15.6</v>
+      </c>
+      <c r="U23">
+        <v>-14</v>
+      </c>
+      <c r="V23">
+        <v>-13.4</v>
+      </c>
+      <c r="W23">
+        <v>-20.6</v>
+      </c>
+      <c r="X23">
+        <v>-9</v>
+      </c>
+      <c r="Y23">
+        <v>-7.3</v>
+      </c>
     </row>
     <row r="24" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A24" s="9">
         <v>45632</v>
+      </c>
+      <c r="B24">
+        <v>-11.7</v>
+      </c>
+      <c r="C24">
+        <v>-12.1</v>
+      </c>
+      <c r="D24">
+        <v>-28.4</v>
+      </c>
+      <c r="E24">
+        <v>7.3</v>
+      </c>
+      <c r="F24">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="G24">
+        <v>-7.7</v>
+      </c>
+      <c r="H24">
+        <v>-9.4</v>
+      </c>
+      <c r="I24">
+        <v>-24</v>
+      </c>
+      <c r="J24">
+        <v>-10</v>
+      </c>
+      <c r="K24">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="L24">
+        <v>-24.7</v>
+      </c>
+      <c r="M24">
+        <v>-19.3</v>
+      </c>
+      <c r="N24">
+        <v>-27.2</v>
+      </c>
+      <c r="O24">
+        <v>-9</v>
+      </c>
+      <c r="P24">
+        <v>-9.4</v>
+      </c>
+      <c r="Q24">
+        <v>-10.7</v>
+      </c>
+      <c r="R24">
+        <v>-10.199999999999999</v>
+      </c>
+      <c r="S24">
+        <v>-10.9</v>
+      </c>
+      <c r="T24">
+        <v>-11.4</v>
+      </c>
+      <c r="U24">
+        <v>-8.1999999999999993</v>
+      </c>
+      <c r="V24">
+        <v>-15.9</v>
+      </c>
+      <c r="W24">
+        <v>-15.7</v>
+      </c>
+      <c r="X24">
+        <v>-11.5</v>
+      </c>
+      <c r="Y24">
+        <v>-11.8</v>
       </c>
     </row>
     <row r="25" spans="1:25" x14ac:dyDescent="0.4">

--- a/气象/北境强冷站每日气温记录.xlsx
+++ b/气象/北境强冷站每日气温记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6436A688-F9F8-47F9-8792-E9C30A51EE36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE5012C-5701-4ECC-AFF5-D6F4A497749C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{21DDB67E-D335-466F-8652-CD2F68303142}"/>
   </bookViews>
@@ -1957,7 +1957,7 @@
   <dimension ref="A1:AE30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.4"/>
@@ -2012,10 +2012,10 @@
         <v>27</v>
       </c>
       <c r="B3" s="12">
-        <v>-25</v>
+        <v>-29.1</v>
       </c>
       <c r="C3" s="12">
-        <v>-11.7</v>
+        <v>-10.3</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="17"/>
@@ -2025,76 +2025,76 @@
       </c>
       <c r="H3" s="4" cm="1">
         <f t="array" ref="H3:AE3">TRANSPOSE(B3:B26)</f>
+        <v>-29.1</v>
+      </c>
+      <c r="I3" s="4">
+        <v>-26.8</v>
+      </c>
+      <c r="J3" s="4">
+        <v>-35.799999999999997</v>
+      </c>
+      <c r="K3" s="4">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="L3" s="4">
+        <v>-29.9</v>
+      </c>
+      <c r="M3" s="4">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="N3" s="4">
+        <v>-23.2</v>
+      </c>
+      <c r="O3" s="4">
+        <v>-30.6</v>
+      </c>
+      <c r="P3" s="4">
+        <v>-21.6</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>-19.2</v>
+      </c>
+      <c r="R3" s="4">
+        <v>-24.7</v>
+      </c>
+      <c r="S3" s="4">
+        <v>-29.6</v>
+      </c>
+      <c r="T3" s="4">
+        <v>-33</v>
+      </c>
+      <c r="U3" s="4">
+        <v>-19.8</v>
+      </c>
+      <c r="V3" s="4">
+        <v>-21.3</v>
+      </c>
+      <c r="W3" s="4">
+        <v>-21.7</v>
+      </c>
+      <c r="X3" s="4">
+        <v>-22.1</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>-15.9</v>
+      </c>
+      <c r="Z3" s="4">
         <v>-25</v>
       </c>
-      <c r="I3" s="4">
-        <v>-25</v>
-      </c>
-      <c r="J3" s="4">
-        <v>-39.299999999999997</v>
-      </c>
-      <c r="K3" s="4">
-        <v>-2.6</v>
-      </c>
-      <c r="L3" s="4">
-        <v>-30.7</v>
-      </c>
-      <c r="M3" s="4">
-        <v>-15.5</v>
-      </c>
-      <c r="N3" s="4">
-        <v>-18</v>
-      </c>
-      <c r="O3" s="4">
-        <v>-31.9</v>
-      </c>
-      <c r="P3" s="4">
-        <v>-19.2</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>-28.6</v>
-      </c>
-      <c r="R3" s="4">
-        <v>-34</v>
-      </c>
-      <c r="S3" s="4">
-        <v>-34.9</v>
-      </c>
-      <c r="T3" s="4">
-        <v>-36.700000000000003</v>
-      </c>
-      <c r="U3" s="4">
-        <v>-17.5</v>
-      </c>
-      <c r="V3" s="4">
-        <v>-11.8</v>
-      </c>
-      <c r="W3" s="4">
-        <v>-17.3</v>
-      </c>
-      <c r="X3" s="4">
-        <v>-17.5</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>-14.6</v>
-      </c>
-      <c r="Z3" s="4">
-        <v>-23.7</v>
-      </c>
       <c r="AA3" s="4">
-        <v>-23.6</v>
+        <v>-27</v>
       </c>
       <c r="AB3" s="4">
-        <v>-24.8</v>
+        <v>-27.1</v>
       </c>
       <c r="AC3" s="4">
-        <v>-31.1</v>
+        <v>-30.2</v>
       </c>
       <c r="AD3" s="4">
-        <v>-25.1</v>
+        <v>-24.3</v>
       </c>
       <c r="AE3" s="4">
-        <v>-16.399999999999999</v>
+        <v>-20.399999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -2102,10 +2102,10 @@
         <v>28</v>
       </c>
       <c r="B4" s="12">
-        <v>-25</v>
+        <v>-26.8</v>
       </c>
       <c r="C4" s="12">
-        <v>-12.1</v>
+        <v>-14.5</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="17"/>
@@ -2115,76 +2115,76 @@
       </c>
       <c r="H4" s="4" cm="1">
         <f t="array" ref="H4:AE4">TRANSPOSE(C3:C26)</f>
-        <v>-11.7</v>
+        <v>-10.3</v>
       </c>
       <c r="I4" s="4">
-        <v>-12.1</v>
+        <v>-14.5</v>
       </c>
       <c r="J4" s="4">
-        <v>-28.4</v>
+        <v>-26.2</v>
       </c>
       <c r="K4" s="4">
-        <v>7.3</v>
+        <v>4.2</v>
       </c>
       <c r="L4" s="4">
-        <v>-19.899999999999999</v>
+        <v>-20.2</v>
       </c>
       <c r="M4" s="4">
+        <v>-10.1</v>
+      </c>
+      <c r="N4" s="4">
+        <v>-13.7</v>
+      </c>
+      <c r="O4" s="4">
+        <v>-21.9</v>
+      </c>
+      <c r="P4" s="4">
+        <v>-11.3</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>-10.5</v>
+      </c>
+      <c r="R4" s="4">
+        <v>-17.3</v>
+      </c>
+      <c r="S4" s="4">
+        <v>-13.3</v>
+      </c>
+      <c r="T4" s="4">
+        <v>-23</v>
+      </c>
+      <c r="U4" s="4">
+        <v>-11.8</v>
+      </c>
+      <c r="V4" s="4">
         <v>-7.7</v>
       </c>
-      <c r="N4" s="4">
-        <v>-9.4</v>
-      </c>
-      <c r="O4" s="4">
-        <v>-24</v>
-      </c>
-      <c r="P4" s="4">
-        <v>-10</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>-16.899999999999999</v>
-      </c>
-      <c r="R4" s="4">
-        <v>-24.7</v>
-      </c>
-      <c r="S4" s="4">
-        <v>-19.3</v>
-      </c>
-      <c r="T4" s="4">
-        <v>-27.2</v>
-      </c>
-      <c r="U4" s="4">
-        <v>-9</v>
-      </c>
-      <c r="V4" s="4">
-        <v>-9.4</v>
-      </c>
       <c r="W4" s="4">
-        <v>-10.7</v>
+        <v>-12.2</v>
       </c>
       <c r="X4" s="4">
-        <v>-10.199999999999999</v>
+        <v>-7.3</v>
       </c>
       <c r="Y4" s="4">
-        <v>-10.9</v>
+        <v>-11</v>
       </c>
       <c r="Z4" s="4">
-        <v>-11.4</v>
+        <v>-13.4</v>
       </c>
       <c r="AA4" s="4">
-        <v>-8.1999999999999993</v>
+        <v>-14.6</v>
       </c>
       <c r="AB4" s="4">
-        <v>-15.9</v>
+        <v>-18</v>
       </c>
       <c r="AC4" s="4">
-        <v>-15.7</v>
+        <v>-19.7</v>
       </c>
       <c r="AD4" s="4">
-        <v>-11.5</v>
+        <v>-12.7</v>
       </c>
       <c r="AE4" s="4">
-        <v>-11.8</v>
+        <v>-12.2</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -2192,10 +2192,10 @@
         <v>29</v>
       </c>
       <c r="B5" s="12">
-        <v>-39.299999999999997</v>
+        <v>-35.799999999999997</v>
       </c>
       <c r="C5" s="12">
-        <v>-28.4</v>
+        <v>-26.2</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="17"/>
@@ -2209,10 +2209,10 @@
         <v>30</v>
       </c>
       <c r="B6" s="12">
-        <v>-2.6</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="C6" s="12">
-        <v>7.3</v>
+        <v>4.2</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
@@ -2226,10 +2226,10 @@
         <v>31</v>
       </c>
       <c r="B7" s="12">
-        <v>-30.7</v>
+        <v>-29.9</v>
       </c>
       <c r="C7" s="12">
-        <v>-19.899999999999999</v>
+        <v>-20.2</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="17"/>
@@ -2243,10 +2243,10 @@
         <v>32</v>
       </c>
       <c r="B8" s="12">
-        <v>-15.5</v>
+        <v>-16.899999999999999</v>
       </c>
       <c r="C8" s="12">
-        <v>-7.7</v>
+        <v>-10.1</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="17"/>
@@ -2260,10 +2260,10 @@
         <v>33</v>
       </c>
       <c r="B9" s="12">
-        <v>-18</v>
+        <v>-23.2</v>
       </c>
       <c r="C9" s="12">
-        <v>-9.4</v>
+        <v>-13.7</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
@@ -2277,10 +2277,10 @@
         <v>34</v>
       </c>
       <c r="B10" s="12">
-        <v>-31.9</v>
+        <v>-30.6</v>
       </c>
       <c r="C10" s="12">
-        <v>-24</v>
+        <v>-21.9</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
@@ -2294,10 +2294,10 @@
         <v>35</v>
       </c>
       <c r="B11" s="12">
-        <v>-19.2</v>
+        <v>-21.6</v>
       </c>
       <c r="C11" s="12">
-        <v>-10</v>
+        <v>-11.3</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
@@ -2311,10 +2311,10 @@
         <v>43</v>
       </c>
       <c r="B12" s="12">
-        <v>-28.6</v>
+        <v>-19.2</v>
       </c>
       <c r="C12" s="12">
-        <v>-16.899999999999999</v>
+        <v>-10.5</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
@@ -2328,10 +2328,10 @@
         <v>46</v>
       </c>
       <c r="B13" s="12">
-        <v>-34</v>
+        <v>-24.7</v>
       </c>
       <c r="C13" s="12">
-        <v>-24.7</v>
+        <v>-17.3</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="17"/>
@@ -2345,10 +2345,10 @@
         <v>49</v>
       </c>
       <c r="B14" s="12">
-        <v>-34.9</v>
+        <v>-29.6</v>
       </c>
       <c r="C14" s="12">
-        <v>-19.3</v>
+        <v>-13.3</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
@@ -2362,10 +2362,10 @@
         <v>53</v>
       </c>
       <c r="B15" s="12">
-        <v>-36.700000000000003</v>
+        <v>-33</v>
       </c>
       <c r="C15" s="12">
-        <v>-27.2</v>
+        <v>-23</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="17"/>
@@ -2379,10 +2379,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="12">
-        <v>-17.5</v>
+        <v>-19.8</v>
       </c>
       <c r="C16" s="12">
-        <v>-9</v>
+        <v>-11.8</v>
       </c>
       <c r="D16" s="16">
         <v>1</v>
@@ -2402,10 +2402,10 @@
         <v>38</v>
       </c>
       <c r="B17" s="12">
-        <v>-11.8</v>
+        <v>-21.3</v>
       </c>
       <c r="C17" s="12">
-        <v>-9.4</v>
+        <v>-7.7</v>
       </c>
       <c r="D17" s="16">
         <v>1</v>
@@ -2425,10 +2425,10 @@
         <v>39</v>
       </c>
       <c r="B18" s="12">
-        <v>-17.3</v>
+        <v>-21.7</v>
       </c>
       <c r="C18" s="12">
-        <v>-10.7</v>
+        <v>-12.2</v>
       </c>
       <c r="D18" s="16">
         <v>1</v>
@@ -2448,10 +2448,10 @@
         <v>36</v>
       </c>
       <c r="B19" s="12">
-        <v>-17.5</v>
+        <v>-22.1</v>
       </c>
       <c r="C19" s="12">
-        <v>-10.199999999999999</v>
+        <v>-7.3</v>
       </c>
       <c r="D19" s="16">
         <v>1</v>
@@ -2471,10 +2471,10 @@
         <v>41</v>
       </c>
       <c r="B20" s="12">
-        <v>-14.6</v>
+        <v>-15.9</v>
       </c>
       <c r="C20" s="12">
-        <v>-10.9</v>
+        <v>-11</v>
       </c>
       <c r="D20" s="16">
         <v>1</v>
@@ -2494,10 +2494,10 @@
         <v>141</v>
       </c>
       <c r="B21" s="12">
-        <v>-23.7</v>
+        <v>-25</v>
       </c>
       <c r="C21" s="25">
-        <v>-11.4</v>
+        <v>-13.4</v>
       </c>
       <c r="D21" s="16">
         <v>1</v>
@@ -2517,10 +2517,10 @@
         <v>60</v>
       </c>
       <c r="B22" s="12">
-        <v>-23.6</v>
+        <v>-27</v>
       </c>
       <c r="C22" s="25">
-        <v>-8.1999999999999993</v>
+        <v>-14.6</v>
       </c>
       <c r="D22" s="16">
         <v>1</v>
@@ -2540,10 +2540,10 @@
         <v>65</v>
       </c>
       <c r="B23" s="25">
-        <v>-24.8</v>
+        <v>-27.1</v>
       </c>
       <c r="C23" s="12">
-        <v>-15.9</v>
+        <v>-18</v>
       </c>
       <c r="D23" s="16">
         <v>1</v>
@@ -2563,10 +2563,10 @@
         <v>40</v>
       </c>
       <c r="B24" s="12">
-        <v>-31.1</v>
+        <v>-30.2</v>
       </c>
       <c r="C24" s="25">
-        <v>-15.7</v>
+        <v>-19.7</v>
       </c>
       <c r="D24" s="16">
         <v>1</v>
@@ -2586,10 +2586,10 @@
         <v>56</v>
       </c>
       <c r="B25" s="12">
-        <v>-25.1</v>
+        <v>-24.3</v>
       </c>
       <c r="C25" s="12">
-        <v>-11.5</v>
+        <v>-12.7</v>
       </c>
       <c r="D25" s="16">
         <v>3</v>
@@ -2609,10 +2609,10 @@
         <v>62</v>
       </c>
       <c r="B26" s="12">
-        <v>-16.399999999999999</v>
+        <v>-20.399999999999999</v>
       </c>
       <c r="C26" s="12">
-        <v>-11.8</v>
+        <v>-12.2</v>
       </c>
       <c r="D26" s="16">
         <v>4</v>
@@ -2666,7 +2666,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2696,7 +2696,7 @@
     <row r="2" spans="1:11" ht="29.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="50"/>
       <c r="B2" s="34">
-        <v>45632</v>
+        <v>45633</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -2738,10 +2738,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="39">
-        <v>-39.299999999999997</v>
+        <v>-35.799999999999997</v>
       </c>
       <c r="E4" s="40">
-        <v>-28.4</v>
+        <v>-26.2</v>
       </c>
       <c r="F4" s="36" t="s">
         <v>93</v>
@@ -2761,10 +2761,10 @@
         <v>54</v>
       </c>
       <c r="D5" s="39">
-        <v>-36.700000000000003</v>
+        <v>-33</v>
       </c>
       <c r="E5" s="40">
-        <v>-27.2</v>
+        <v>-23</v>
       </c>
       <c r="F5" s="37" t="s">
         <v>105</v>
@@ -2775,164 +2775,164 @@
     </row>
     <row r="6" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="26">
+        <v>8</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>50</v>
-      </c>
       <c r="D6" s="39">
-        <v>-34.9</v>
+        <v>-30.6</v>
       </c>
       <c r="E6" s="40">
-        <v>-19.3</v>
+        <v>-21.9</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="26">
-        <v>11</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>47</v>
+        <v>22</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>9</v>
       </c>
       <c r="D7" s="39">
-        <v>-34</v>
+        <v>-30.2</v>
       </c>
       <c r="E7" s="40">
-        <v>-24.7</v>
+        <v>-19.7</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="26">
-        <v>8</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>19</v>
+        <v>5</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>147</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="D8" s="39">
-        <v>-31.9</v>
+        <v>-29.9</v>
       </c>
       <c r="E8" s="40">
-        <v>-24</v>
+        <v>-20.2</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="26">
-        <v>22</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>50</v>
       </c>
       <c r="D9" s="39">
-        <v>-31.1</v>
+        <v>-29.6</v>
       </c>
       <c r="E9" s="40">
-        <v>-15.7</v>
+        <v>-13.3</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="26">
-        <v>5</v>
-      </c>
-      <c r="B10" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="B10" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C10" s="38" t="s">
+        <v>0</v>
       </c>
       <c r="D10" s="39">
-        <v>-30.7</v>
+        <v>-29.1</v>
       </c>
       <c r="E10" s="40">
-        <v>-19.899999999999999</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>98</v>
+        <v>-10.3</v>
+      </c>
+      <c r="F10" s="36" t="s">
+        <v>90</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>117</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="26">
-        <v>10</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>44</v>
+        <v>21</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>66</v>
       </c>
       <c r="D11" s="39">
-        <v>-28.6</v>
+        <v>-27.1</v>
       </c>
       <c r="E11" s="40">
-        <v>-16.899999999999999</v>
+        <v>-18</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="26">
+        <v>20</v>
+      </c>
+      <c r="B12" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="45" t="s">
-        <v>22</v>
-      </c>
       <c r="C12" s="46" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D12" s="39">
-        <v>-25.1</v>
+        <v>-27</v>
       </c>
       <c r="E12" s="40">
-        <v>-11.5</v>
+        <v>-14.6</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -2946,10 +2946,10 @@
         <v>1</v>
       </c>
       <c r="D13" s="39">
-        <v>-25</v>
+        <v>-26.8</v>
       </c>
       <c r="E13" s="40">
-        <v>-12.1</v>
+        <v>-14.5</v>
       </c>
       <c r="F13" s="36" t="s">
         <v>92</v>
@@ -2960,301 +2960,301 @@
     </row>
     <row r="14" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="26">
-        <v>1</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>141</v>
       </c>
       <c r="D14" s="39">
         <v>-25</v>
       </c>
       <c r="E14" s="40">
-        <v>-11.7</v>
-      </c>
-      <c r="F14" s="36" t="s">
-        <v>90</v>
+        <v>-13.4</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>142</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="26">
-        <v>21</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>66</v>
+        <v>11</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>47</v>
       </c>
       <c r="D15" s="39">
-        <v>-24.8</v>
+        <v>-24.7</v>
       </c>
       <c r="E15" s="40">
-        <v>-15.9</v>
+        <v>-17.3</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="26">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="46" t="s">
-        <v>141</v>
+        <v>57</v>
       </c>
       <c r="D16" s="39">
-        <v>-23.7</v>
+        <v>-24.3</v>
       </c>
       <c r="E16" s="40">
-        <v>-11.4</v>
+        <v>-12.7</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>142</v>
+        <v>114</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="26">
-        <v>20</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17" s="46" t="s">
-        <v>61</v>
+        <v>7</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>7</v>
       </c>
       <c r="D17" s="39">
-        <v>-23.6</v>
+        <v>-23.2</v>
       </c>
       <c r="E17" s="40">
-        <v>-8.1999999999999993</v>
+        <v>-13.7</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="26">
-        <v>9</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>11</v>
+        <v>17</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>14</v>
       </c>
       <c r="D18" s="39">
-        <v>-19.2</v>
+        <v>-22.1</v>
       </c>
       <c r="E18" s="40">
-        <v>-10</v>
+        <v>-7.3</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>121</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="26">
-        <v>7</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>7</v>
+        <v>16</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>4</v>
       </c>
       <c r="D19" s="39">
-        <v>-18</v>
+        <v>-21.7</v>
       </c>
       <c r="E19" s="40">
-        <v>-9.4</v>
+        <v>-12.2</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="26">
-        <v>17</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>11</v>
       </c>
       <c r="D20" s="39">
-        <v>-17.5</v>
+        <v>-21.6</v>
       </c>
       <c r="E20" s="40">
-        <v>-10.199999999999999</v>
+        <v>-11.3</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="26">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="39">
-        <v>-17.5</v>
+        <v>-21.3</v>
       </c>
       <c r="E21" s="40">
-        <v>-9</v>
+        <v>-7.7</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="26">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B22" s="45" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C22" s="46" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="D22" s="39">
-        <v>-17.3</v>
+        <v>-20.399999999999999</v>
       </c>
       <c r="E22" s="40">
-        <v>-10.7</v>
+        <v>-12.2</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="26">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B23" s="45" t="s">
         <v>21</v>
       </c>
       <c r="C23" s="46" t="s">
-        <v>63</v>
+        <v>2</v>
       </c>
       <c r="D23" s="39">
-        <v>-16.399999999999999</v>
+        <v>-19.8</v>
       </c>
       <c r="E23" s="40">
         <v>-11.8</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="26">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B24" s="43" t="s">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="C24" s="42" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D24" s="39">
-        <v>-15.5</v>
+        <v>-19.2</v>
       </c>
       <c r="E24" s="40">
-        <v>-7.7</v>
+        <v>-10.5</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="26">
+        <v>6</v>
+      </c>
+      <c r="B25" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="46" t="s">
-        <v>10</v>
+      <c r="C25" s="42" t="s">
+        <v>6</v>
       </c>
       <c r="D25" s="39">
-        <v>-14.6</v>
+        <v>-16.899999999999999</v>
       </c>
       <c r="E25" s="40">
-        <v>-10.9</v>
+        <v>-10.1</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>110</v>
+        <v>97</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="26">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B26" s="45" t="s">
         <v>22</v>
       </c>
       <c r="C26" s="46" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="D26" s="39">
-        <v>-11.8</v>
+        <v>-15.9</v>
       </c>
       <c r="E26" s="40">
-        <v>-9.4</v>
+        <v>-11</v>
       </c>
       <c r="F26" s="37" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -3268,10 +3268,10 @@
         <v>13</v>
       </c>
       <c r="D27" s="39">
-        <v>-2.6</v>
+        <v>-2.2000000000000002</v>
       </c>
       <c r="E27" s="40">
-        <v>7.3</v>
+        <v>4.2</v>
       </c>
       <c r="F27" s="37" t="s">
         <v>96</v>
@@ -3400,7 +3400,7 @@
   <dimension ref="A1:Y109"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -5259,6 +5259,78 @@
     <row r="25" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A25" s="9">
         <v>45633</v>
+      </c>
+      <c r="B25">
+        <v>-29.1</v>
+      </c>
+      <c r="C25">
+        <v>-26.8</v>
+      </c>
+      <c r="D25">
+        <v>-35.799999999999997</v>
+      </c>
+      <c r="E25">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="F25">
+        <v>-29.9</v>
+      </c>
+      <c r="G25">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="H25">
+        <v>-23.2</v>
+      </c>
+      <c r="I25">
+        <v>-30.6</v>
+      </c>
+      <c r="J25">
+        <v>-21.6</v>
+      </c>
+      <c r="K25">
+        <v>-19.2</v>
+      </c>
+      <c r="L25">
+        <v>-24.7</v>
+      </c>
+      <c r="M25">
+        <v>-29.6</v>
+      </c>
+      <c r="N25">
+        <v>-33</v>
+      </c>
+      <c r="O25">
+        <v>-19.8</v>
+      </c>
+      <c r="P25">
+        <v>-21.3</v>
+      </c>
+      <c r="Q25">
+        <v>-21.7</v>
+      </c>
+      <c r="R25">
+        <v>-22.1</v>
+      </c>
+      <c r="S25">
+        <v>-15.9</v>
+      </c>
+      <c r="T25">
+        <v>-25</v>
+      </c>
+      <c r="U25">
+        <v>-27</v>
+      </c>
+      <c r="V25">
+        <v>-27.1</v>
+      </c>
+      <c r="W25">
+        <v>-30.2</v>
+      </c>
+      <c r="X25">
+        <v>-24.3</v>
+      </c>
+      <c r="Y25">
+        <v>-20.399999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.4">
@@ -5692,7 +5764,7 @@
   <dimension ref="A1:Y109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -7552,6 +7624,78 @@
       <c r="A25" s="9">
         <v>45633</v>
       </c>
+      <c r="B25">
+        <v>-10.3</v>
+      </c>
+      <c r="C25">
+        <v>-14.5</v>
+      </c>
+      <c r="D25">
+        <v>-26.2</v>
+      </c>
+      <c r="E25">
+        <v>4.2</v>
+      </c>
+      <c r="F25">
+        <v>-20.2</v>
+      </c>
+      <c r="G25">
+        <v>-10.1</v>
+      </c>
+      <c r="H25">
+        <v>-13.7</v>
+      </c>
+      <c r="I25">
+        <v>-21.9</v>
+      </c>
+      <c r="J25">
+        <v>-11.3</v>
+      </c>
+      <c r="K25">
+        <v>-10.5</v>
+      </c>
+      <c r="L25">
+        <v>-17.3</v>
+      </c>
+      <c r="M25">
+        <v>-13.3</v>
+      </c>
+      <c r="N25">
+        <v>-23</v>
+      </c>
+      <c r="O25">
+        <v>-11.8</v>
+      </c>
+      <c r="P25">
+        <v>-7.7</v>
+      </c>
+      <c r="Q25">
+        <v>-12.2</v>
+      </c>
+      <c r="R25">
+        <v>-7.3</v>
+      </c>
+      <c r="S25">
+        <v>-11</v>
+      </c>
+      <c r="T25">
+        <v>-13.4</v>
+      </c>
+      <c r="U25">
+        <v>-14.6</v>
+      </c>
+      <c r="V25">
+        <v>-18</v>
+      </c>
+      <c r="W25">
+        <v>-19.7</v>
+      </c>
+      <c r="X25">
+        <v>-12.7</v>
+      </c>
+      <c r="Y25">
+        <v>-12.2</v>
+      </c>
     </row>
     <row r="26" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A26" s="9">

--- a/气象/北境强冷站每日气温记录.xlsx
+++ b/气象/北境强冷站每日气温记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCE5012C-5701-4ECC-AFF5-D6F4A497749C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8933D0B1-14E7-4C56-8D1C-FA1DDA3B5924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{21DDB67E-D335-466F-8652-CD2F68303142}"/>
   </bookViews>
@@ -2012,10 +2012,10 @@
         <v>27</v>
       </c>
       <c r="B3" s="12">
-        <v>-29.1</v>
+        <v>-24.6</v>
       </c>
       <c r="C3" s="12">
-        <v>-10.3</v>
+        <v>-8.8000000000000007</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="17"/>
@@ -2025,76 +2025,76 @@
       </c>
       <c r="H3" s="4" cm="1">
         <f t="array" ref="H3:AE3">TRANSPOSE(B3:B26)</f>
+        <v>-24.6</v>
+      </c>
+      <c r="I3" s="4">
+        <v>-29.9</v>
+      </c>
+      <c r="J3" s="4">
+        <v>-38.4</v>
+      </c>
+      <c r="K3" s="4">
+        <v>-6.7</v>
+      </c>
+      <c r="L3" s="4">
+        <v>-28.2</v>
+      </c>
+      <c r="M3" s="4">
+        <v>-15.2</v>
+      </c>
+      <c r="N3" s="4">
+        <v>-25</v>
+      </c>
+      <c r="O3" s="4">
+        <v>-32.700000000000003</v>
+      </c>
+      <c r="P3" s="4">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>-16.5</v>
+      </c>
+      <c r="R3" s="4">
+        <v>-17.3</v>
+      </c>
+      <c r="S3" s="4">
+        <v>-29</v>
+      </c>
+      <c r="T3" s="4">
+        <v>-33.700000000000003</v>
+      </c>
+      <c r="U3" s="4">
+        <v>-24</v>
+      </c>
+      <c r="V3" s="4">
+        <v>-15.9</v>
+      </c>
+      <c r="W3" s="4">
+        <v>-25.9</v>
+      </c>
+      <c r="X3" s="4">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>-14</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>-26.8</v>
+      </c>
+      <c r="AA3" s="4">
         <v>-29.1</v>
       </c>
-      <c r="I3" s="4">
-        <v>-26.8</v>
-      </c>
-      <c r="J3" s="4">
-        <v>-35.799999999999997</v>
-      </c>
-      <c r="K3" s="4">
-        <v>-2.2000000000000002</v>
-      </c>
-      <c r="L3" s="4">
-        <v>-29.9</v>
-      </c>
-      <c r="M3" s="4">
-        <v>-16.899999999999999</v>
-      </c>
-      <c r="N3" s="4">
-        <v>-23.2</v>
-      </c>
-      <c r="O3" s="4">
-        <v>-30.6</v>
-      </c>
-      <c r="P3" s="4">
-        <v>-21.6</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>-19.2</v>
-      </c>
-      <c r="R3" s="4">
-        <v>-24.7</v>
-      </c>
-      <c r="S3" s="4">
-        <v>-29.6</v>
-      </c>
-      <c r="T3" s="4">
-        <v>-33</v>
-      </c>
-      <c r="U3" s="4">
-        <v>-19.8</v>
-      </c>
-      <c r="V3" s="4">
-        <v>-21.3</v>
-      </c>
-      <c r="W3" s="4">
-        <v>-21.7</v>
-      </c>
-      <c r="X3" s="4">
-        <v>-22.1</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>-15.9</v>
-      </c>
-      <c r="Z3" s="4">
-        <v>-25</v>
-      </c>
-      <c r="AA3" s="4">
-        <v>-27</v>
-      </c>
       <c r="AB3" s="4">
-        <v>-27.1</v>
+        <v>-25.9</v>
       </c>
       <c r="AC3" s="4">
-        <v>-30.2</v>
+        <v>-33.799999999999997</v>
       </c>
       <c r="AD3" s="4">
-        <v>-24.3</v>
+        <v>-25.6</v>
       </c>
       <c r="AE3" s="4">
-        <v>-20.399999999999999</v>
+        <v>-20.8</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -2102,10 +2102,10 @@
         <v>28</v>
       </c>
       <c r="B4" s="12">
-        <v>-26.8</v>
+        <v>-29.9</v>
       </c>
       <c r="C4" s="12">
-        <v>-14.5</v>
+        <v>-14.1</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="17"/>
@@ -2115,76 +2115,76 @@
       </c>
       <c r="H4" s="4" cm="1">
         <f t="array" ref="H4:AE4">TRANSPOSE(C3:C26)</f>
-        <v>-10.3</v>
+        <v>-8.8000000000000007</v>
       </c>
       <c r="I4" s="4">
-        <v>-14.5</v>
+        <v>-14.1</v>
       </c>
       <c r="J4" s="4">
-        <v>-26.2</v>
+        <v>-27.7</v>
       </c>
       <c r="K4" s="4">
-        <v>4.2</v>
+        <v>6.4</v>
       </c>
       <c r="L4" s="4">
-        <v>-20.2</v>
+        <v>-17.600000000000001</v>
       </c>
       <c r="M4" s="4">
-        <v>-10.1</v>
+        <v>-10.6</v>
       </c>
       <c r="N4" s="4">
-        <v>-13.7</v>
+        <v>-16.2</v>
       </c>
       <c r="O4" s="4">
-        <v>-21.9</v>
+        <v>-24</v>
       </c>
       <c r="P4" s="4">
-        <v>-11.3</v>
+        <v>-9.3000000000000007</v>
       </c>
       <c r="Q4" s="4">
-        <v>-10.5</v>
+        <v>-7.9</v>
       </c>
       <c r="R4" s="4">
-        <v>-17.3</v>
+        <v>-13.1</v>
       </c>
       <c r="S4" s="4">
-        <v>-13.3</v>
+        <v>-11.1</v>
       </c>
       <c r="T4" s="4">
-        <v>-23</v>
+        <v>-23.3</v>
       </c>
       <c r="U4" s="4">
-        <v>-11.8</v>
+        <v>-14.7</v>
       </c>
       <c r="V4" s="4">
-        <v>-7.7</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="W4" s="4">
-        <v>-12.2</v>
+        <v>-20.6</v>
       </c>
       <c r="X4" s="4">
-        <v>-7.3</v>
+        <v>-6.6</v>
       </c>
       <c r="Y4" s="4">
-        <v>-11</v>
+        <v>-11.6</v>
       </c>
       <c r="Z4" s="4">
-        <v>-13.4</v>
+        <v>-22.7</v>
       </c>
       <c r="AA4" s="4">
-        <v>-14.6</v>
+        <v>-13.8</v>
       </c>
       <c r="AB4" s="4">
-        <v>-18</v>
+        <v>-15.7</v>
       </c>
       <c r="AC4" s="4">
-        <v>-19.7</v>
+        <v>-23.8</v>
       </c>
       <c r="AD4" s="4">
-        <v>-12.7</v>
+        <v>-13</v>
       </c>
       <c r="AE4" s="4">
-        <v>-12.2</v>
+        <v>-16.100000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -2192,10 +2192,10 @@
         <v>29</v>
       </c>
       <c r="B5" s="12">
-        <v>-35.799999999999997</v>
+        <v>-38.4</v>
       </c>
       <c r="C5" s="12">
-        <v>-26.2</v>
+        <v>-27.7</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="17"/>
@@ -2209,10 +2209,10 @@
         <v>30</v>
       </c>
       <c r="B6" s="12">
-        <v>-2.2000000000000002</v>
+        <v>-6.7</v>
       </c>
       <c r="C6" s="12">
-        <v>4.2</v>
+        <v>6.4</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
@@ -2226,10 +2226,10 @@
         <v>31</v>
       </c>
       <c r="B7" s="12">
-        <v>-29.9</v>
+        <v>-28.2</v>
       </c>
       <c r="C7" s="12">
-        <v>-20.2</v>
+        <v>-17.600000000000001</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="17"/>
@@ -2243,10 +2243,10 @@
         <v>32</v>
       </c>
       <c r="B8" s="12">
-        <v>-16.899999999999999</v>
+        <v>-15.2</v>
       </c>
       <c r="C8" s="12">
-        <v>-10.1</v>
+        <v>-10.6</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="17"/>
@@ -2260,10 +2260,10 @@
         <v>33</v>
       </c>
       <c r="B9" s="12">
-        <v>-23.2</v>
+        <v>-25</v>
       </c>
       <c r="C9" s="12">
-        <v>-13.7</v>
+        <v>-16.2</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
@@ -2277,10 +2277,10 @@
         <v>34</v>
       </c>
       <c r="B10" s="12">
-        <v>-30.6</v>
+        <v>-32.700000000000003</v>
       </c>
       <c r="C10" s="12">
-        <v>-21.9</v>
+        <v>-24</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
@@ -2294,10 +2294,10 @@
         <v>35</v>
       </c>
       <c r="B11" s="12">
-        <v>-21.6</v>
+        <v>-19.600000000000001</v>
       </c>
       <c r="C11" s="12">
-        <v>-11.3</v>
+        <v>-9.3000000000000007</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
@@ -2311,10 +2311,10 @@
         <v>43</v>
       </c>
       <c r="B12" s="12">
-        <v>-19.2</v>
+        <v>-16.5</v>
       </c>
       <c r="C12" s="12">
-        <v>-10.5</v>
+        <v>-7.9</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
@@ -2328,10 +2328,10 @@
         <v>46</v>
       </c>
       <c r="B13" s="12">
-        <v>-24.7</v>
+        <v>-17.3</v>
       </c>
       <c r="C13" s="12">
-        <v>-17.3</v>
+        <v>-13.1</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="17"/>
@@ -2345,10 +2345,10 @@
         <v>49</v>
       </c>
       <c r="B14" s="12">
-        <v>-29.6</v>
+        <v>-29</v>
       </c>
       <c r="C14" s="12">
-        <v>-13.3</v>
+        <v>-11.1</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
@@ -2362,10 +2362,10 @@
         <v>53</v>
       </c>
       <c r="B15" s="12">
-        <v>-33</v>
+        <v>-33.700000000000003</v>
       </c>
       <c r="C15" s="12">
-        <v>-23</v>
+        <v>-23.3</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="17"/>
@@ -2379,10 +2379,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="12">
-        <v>-19.8</v>
+        <v>-24</v>
       </c>
       <c r="C16" s="12">
-        <v>-11.8</v>
+        <v>-14.7</v>
       </c>
       <c r="D16" s="16">
         <v>1</v>
@@ -2402,10 +2402,10 @@
         <v>38</v>
       </c>
       <c r="B17" s="12">
-        <v>-21.3</v>
+        <v>-15.9</v>
       </c>
       <c r="C17" s="12">
-        <v>-7.7</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="D17" s="16">
         <v>1</v>
@@ -2425,10 +2425,10 @@
         <v>39</v>
       </c>
       <c r="B18" s="12">
-        <v>-21.7</v>
+        <v>-25.9</v>
       </c>
       <c r="C18" s="12">
-        <v>-12.2</v>
+        <v>-20.6</v>
       </c>
       <c r="D18" s="16">
         <v>1</v>
@@ -2448,10 +2448,10 @@
         <v>36</v>
       </c>
       <c r="B19" s="12">
-        <v>-22.1</v>
+        <v>-17.899999999999999</v>
       </c>
       <c r="C19" s="12">
-        <v>-7.3</v>
+        <v>-6.6</v>
       </c>
       <c r="D19" s="16">
         <v>1</v>
@@ -2471,10 +2471,10 @@
         <v>41</v>
       </c>
       <c r="B20" s="12">
-        <v>-15.9</v>
+        <v>-14</v>
       </c>
       <c r="C20" s="12">
-        <v>-11</v>
+        <v>-11.6</v>
       </c>
       <c r="D20" s="16">
         <v>1</v>
@@ -2494,10 +2494,10 @@
         <v>141</v>
       </c>
       <c r="B21" s="12">
-        <v>-25</v>
+        <v>-26.8</v>
       </c>
       <c r="C21" s="25">
-        <v>-13.4</v>
+        <v>-22.7</v>
       </c>
       <c r="D21" s="16">
         <v>1</v>
@@ -2517,10 +2517,10 @@
         <v>60</v>
       </c>
       <c r="B22" s="12">
-        <v>-27</v>
+        <v>-29.1</v>
       </c>
       <c r="C22" s="25">
-        <v>-14.6</v>
+        <v>-13.8</v>
       </c>
       <c r="D22" s="16">
         <v>1</v>
@@ -2540,10 +2540,10 @@
         <v>65</v>
       </c>
       <c r="B23" s="25">
-        <v>-27.1</v>
+        <v>-25.9</v>
       </c>
       <c r="C23" s="12">
-        <v>-18</v>
+        <v>-15.7</v>
       </c>
       <c r="D23" s="16">
         <v>1</v>
@@ -2563,10 +2563,10 @@
         <v>40</v>
       </c>
       <c r="B24" s="12">
-        <v>-30.2</v>
+        <v>-33.799999999999997</v>
       </c>
       <c r="C24" s="25">
-        <v>-19.7</v>
+        <v>-23.8</v>
       </c>
       <c r="D24" s="16">
         <v>1</v>
@@ -2586,10 +2586,10 @@
         <v>56</v>
       </c>
       <c r="B25" s="12">
-        <v>-24.3</v>
+        <v>-25.6</v>
       </c>
       <c r="C25" s="12">
-        <v>-12.7</v>
+        <v>-13</v>
       </c>
       <c r="D25" s="16">
         <v>3</v>
@@ -2609,10 +2609,10 @@
         <v>62</v>
       </c>
       <c r="B26" s="12">
-        <v>-20.399999999999999</v>
+        <v>-20.8</v>
       </c>
       <c r="C26" s="12">
-        <v>-12.2</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="D26" s="16">
         <v>4</v>
@@ -2666,7 +2666,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2696,7 +2696,7 @@
     <row r="2" spans="1:11" ht="29.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="50"/>
       <c r="B2" s="34">
-        <v>45633</v>
+        <v>45634</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -2738,10 +2738,10 @@
         <v>8</v>
       </c>
       <c r="D4" s="39">
-        <v>-35.799999999999997</v>
+        <v>-38.4</v>
       </c>
       <c r="E4" s="40">
-        <v>-26.2</v>
+        <v>-27.7</v>
       </c>
       <c r="F4" s="36" t="s">
         <v>93</v>
@@ -2752,348 +2752,348 @@
     </row>
     <row r="5" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="26">
-        <v>13</v>
-      </c>
-      <c r="B5" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>54</v>
+        <v>22</v>
+      </c>
+      <c r="B5" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="46" t="s">
+        <v>9</v>
       </c>
       <c r="D5" s="39">
-        <v>-33</v>
+        <v>-33.799999999999997</v>
       </c>
       <c r="E5" s="40">
-        <v>-23</v>
+        <v>-23.8</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="26">
-        <v>8</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>19</v>
+        <v>13</v>
+      </c>
+      <c r="B6" s="44" t="s">
+        <v>149</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>12</v>
+        <v>54</v>
       </c>
       <c r="D6" s="39">
-        <v>-30.6</v>
+        <v>-33.700000000000003</v>
       </c>
       <c r="E6" s="40">
-        <v>-21.9</v>
+        <v>-23.3</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="26">
-        <v>22</v>
-      </c>
-      <c r="B7" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="46" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>12</v>
       </c>
       <c r="D7" s="39">
-        <v>-30.2</v>
+        <v>-32.700000000000003</v>
       </c>
       <c r="E7" s="40">
-        <v>-19.7</v>
+        <v>-24</v>
       </c>
       <c r="F7" s="37" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="26">
-        <v>5</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="B8" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>1</v>
       </c>
       <c r="D8" s="39">
         <v>-29.9</v>
       </c>
       <c r="E8" s="40">
-        <v>-20.2</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>98</v>
+        <v>-14.1</v>
+      </c>
+      <c r="F8" s="36" t="s">
+        <v>92</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="26">
-        <v>12</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" s="42" t="s">
-        <v>50</v>
+        <v>20</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>61</v>
       </c>
       <c r="D9" s="39">
-        <v>-29.6</v>
+        <v>-29.1</v>
       </c>
       <c r="E9" s="40">
-        <v>-13.3</v>
+        <v>-13.8</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="26">
-        <v>1</v>
-      </c>
-      <c r="B10" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C10" s="38" t="s">
-        <v>0</v>
+        <v>12</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>50</v>
       </c>
       <c r="D10" s="39">
-        <v>-29.1</v>
+        <v>-29</v>
       </c>
       <c r="E10" s="40">
-        <v>-10.3</v>
-      </c>
-      <c r="F10" s="36" t="s">
-        <v>90</v>
+        <v>-11.1</v>
+      </c>
+      <c r="F10" s="37" t="s">
+        <v>104</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="26">
-        <v>21</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="46" t="s">
-        <v>66</v>
+        <v>5</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>5</v>
       </c>
       <c r="D11" s="39">
-        <v>-27.1</v>
+        <v>-28.2</v>
       </c>
       <c r="E11" s="40">
-        <v>-18</v>
+        <v>-17.600000000000001</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="26">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="45" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>61</v>
+        <v>141</v>
       </c>
       <c r="D12" s="39">
-        <v>-27</v>
+        <v>-26.8</v>
       </c>
       <c r="E12" s="40">
-        <v>-14.6</v>
+        <v>-22.7</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="26">
-        <v>2</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>1</v>
+        <v>16</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>4</v>
       </c>
       <c r="D13" s="39">
-        <v>-26.8</v>
+        <v>-25.9</v>
       </c>
       <c r="E13" s="40">
-        <v>-14.5</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>92</v>
+        <v>-20.6</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>108</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>94</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="26">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="C14" s="46" t="s">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="D14" s="39">
-        <v>-25</v>
+        <v>-25.9</v>
       </c>
       <c r="E14" s="40">
-        <v>-13.4</v>
+        <v>-15.7</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="26">
-        <v>11</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>47</v>
+        <v>23</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>57</v>
       </c>
       <c r="D15" s="39">
-        <v>-24.7</v>
+        <v>-25.6</v>
       </c>
       <c r="E15" s="40">
-        <v>-17.3</v>
+        <v>-13</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>123</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="26">
-        <v>23</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>57</v>
+        <v>7</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>7</v>
       </c>
       <c r="D16" s="39">
-        <v>-24.3</v>
+        <v>-25</v>
       </c>
       <c r="E16" s="40">
-        <v>-12.7</v>
+        <v>-16.2</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="26">
-        <v>7</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>7</v>
+        <v>1</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>0</v>
       </c>
       <c r="D17" s="39">
-        <v>-23.2</v>
+        <v>-24.6</v>
       </c>
       <c r="E17" s="40">
-        <v>-13.7</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>99</v>
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>90</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>119</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="26">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C18" s="46" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D18" s="39">
-        <v>-22.1</v>
+        <v>-24</v>
       </c>
       <c r="E18" s="40">
-        <v>-7.3</v>
+        <v>-14.7</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="26">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C19" s="46" t="s">
-        <v>4</v>
+        <v>63</v>
       </c>
       <c r="D19" s="39">
-        <v>-21.7</v>
+        <v>-20.8</v>
       </c>
       <c r="E19" s="40">
-        <v>-12.2</v>
+        <v>-16.100000000000001</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -3107,10 +3107,10 @@
         <v>11</v>
       </c>
       <c r="D20" s="39">
-        <v>-21.6</v>
+        <v>-19.600000000000001</v>
       </c>
       <c r="E20" s="40">
-        <v>-11.3</v>
+        <v>-9.3000000000000007</v>
       </c>
       <c r="F20" s="37" t="s">
         <v>101</v>
@@ -3121,94 +3121,94 @@
     </row>
     <row r="21" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="26">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D21" s="39">
-        <v>-21.3</v>
+        <v>-17.899999999999999</v>
       </c>
       <c r="E21" s="40">
-        <v>-7.7</v>
+        <v>-6.6</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="26">
-        <v>24</v>
-      </c>
-      <c r="B22" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>63</v>
+        <v>11</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C22" s="42" t="s">
+        <v>47</v>
       </c>
       <c r="D22" s="39">
-        <v>-20.399999999999999</v>
+        <v>-17.3</v>
       </c>
       <c r="E22" s="40">
-        <v>-12.2</v>
+        <v>-13.1</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="26">
-        <v>14</v>
-      </c>
-      <c r="B23" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="C23" s="46" t="s">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>44</v>
       </c>
       <c r="D23" s="39">
-        <v>-19.8</v>
+        <v>-16.5</v>
       </c>
       <c r="E23" s="40">
-        <v>-11.8</v>
+        <v>-7.9</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="26">
-        <v>10</v>
-      </c>
-      <c r="B24" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>44</v>
+        <v>15</v>
+      </c>
+      <c r="B24" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" s="46" t="s">
+        <v>3</v>
       </c>
       <c r="D24" s="39">
-        <v>-19.2</v>
+        <v>-15.9</v>
       </c>
       <c r="E24" s="40">
-        <v>-10.5</v>
+        <v>-9.1999999999999993</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -3222,10 +3222,10 @@
         <v>6</v>
       </c>
       <c r="D25" s="39">
-        <v>-16.899999999999999</v>
+        <v>-15.2</v>
       </c>
       <c r="E25" s="40">
-        <v>-10.1</v>
+        <v>-10.6</v>
       </c>
       <c r="F25" s="37" t="s">
         <v>97</v>
@@ -3245,10 +3245,10 @@
         <v>10</v>
       </c>
       <c r="D26" s="39">
-        <v>-15.9</v>
+        <v>-14</v>
       </c>
       <c r="E26" s="40">
-        <v>-11</v>
+        <v>-11.6</v>
       </c>
       <c r="F26" s="37" t="s">
         <v>110</v>
@@ -3268,10 +3268,10 @@
         <v>13</v>
       </c>
       <c r="D27" s="39">
-        <v>-2.2000000000000002</v>
+        <v>-6.7</v>
       </c>
       <c r="E27" s="40">
-        <v>4.2</v>
+        <v>6.4</v>
       </c>
       <c r="F27" s="37" t="s">
         <v>96</v>
@@ -3399,8 +3399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D81969E-A078-4EA2-89F6-5F7791D6A569}">
   <dimension ref="A1:Y109"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -5336,6 +5336,78 @@
     <row r="26" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A26" s="9">
         <v>45634</v>
+      </c>
+      <c r="B26">
+        <v>-24.6</v>
+      </c>
+      <c r="C26">
+        <v>-29.9</v>
+      </c>
+      <c r="D26">
+        <v>-38.4</v>
+      </c>
+      <c r="E26">
+        <v>-6.7</v>
+      </c>
+      <c r="F26">
+        <v>-28.2</v>
+      </c>
+      <c r="G26">
+        <v>-15.2</v>
+      </c>
+      <c r="H26">
+        <v>-25</v>
+      </c>
+      <c r="I26">
+        <v>-32.700000000000003</v>
+      </c>
+      <c r="J26">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="K26">
+        <v>-16.5</v>
+      </c>
+      <c r="L26">
+        <v>-17.3</v>
+      </c>
+      <c r="M26">
+        <v>-29</v>
+      </c>
+      <c r="N26">
+        <v>-33.700000000000003</v>
+      </c>
+      <c r="O26">
+        <v>-24</v>
+      </c>
+      <c r="P26">
+        <v>-15.9</v>
+      </c>
+      <c r="Q26">
+        <v>-25.9</v>
+      </c>
+      <c r="R26">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="S26">
+        <v>-14</v>
+      </c>
+      <c r="T26">
+        <v>-26.8</v>
+      </c>
+      <c r="U26">
+        <v>-29.1</v>
+      </c>
+      <c r="V26">
+        <v>-25.9</v>
+      </c>
+      <c r="W26">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="X26">
+        <v>-25.6</v>
+      </c>
+      <c r="Y26">
+        <v>-20.8</v>
       </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.4">
@@ -7701,6 +7773,78 @@
       <c r="A26" s="9">
         <v>45634</v>
       </c>
+      <c r="B26">
+        <v>-8.8000000000000007</v>
+      </c>
+      <c r="C26">
+        <v>-14.1</v>
+      </c>
+      <c r="D26">
+        <v>-27.7</v>
+      </c>
+      <c r="E26">
+        <v>6.4</v>
+      </c>
+      <c r="F26">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="G26">
+        <v>-10.6</v>
+      </c>
+      <c r="H26">
+        <v>-16.2</v>
+      </c>
+      <c r="I26">
+        <v>-24</v>
+      </c>
+      <c r="J26">
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="K26">
+        <v>-7.9</v>
+      </c>
+      <c r="L26">
+        <v>-13.1</v>
+      </c>
+      <c r="M26">
+        <v>-11.1</v>
+      </c>
+      <c r="N26">
+        <v>-23.3</v>
+      </c>
+      <c r="O26">
+        <v>-14.7</v>
+      </c>
+      <c r="P26">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="Q26">
+        <v>-20.6</v>
+      </c>
+      <c r="R26">
+        <v>-6.6</v>
+      </c>
+      <c r="S26">
+        <v>-11.6</v>
+      </c>
+      <c r="T26">
+        <v>-22.7</v>
+      </c>
+      <c r="U26">
+        <v>-13.8</v>
+      </c>
+      <c r="V26">
+        <v>-15.7</v>
+      </c>
+      <c r="W26">
+        <v>-23.8</v>
+      </c>
+      <c r="X26">
+        <v>-13</v>
+      </c>
+      <c r="Y26">
+        <v>-16.100000000000001</v>
+      </c>
     </row>
     <row r="27" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A27" s="9">

--- a/气象/北境强冷站每日气温记录.xlsx
+++ b/气象/北境强冷站每日气温记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8933D0B1-14E7-4C56-8D1C-FA1DDA3B5924}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FE16BF-723C-4F71-9BC3-BFE712D2547A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{21DDB67E-D335-466F-8652-CD2F68303142}"/>
   </bookViews>
@@ -1957,7 +1957,7 @@
   <dimension ref="A1:AE30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.4"/>
@@ -2012,10 +2012,10 @@
         <v>27</v>
       </c>
       <c r="B3" s="12">
-        <v>-24.6</v>
+        <v>-29.6</v>
       </c>
       <c r="C3" s="12">
-        <v>-8.8000000000000007</v>
+        <v>-10</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="17"/>
@@ -2025,76 +2025,76 @@
       </c>
       <c r="H3" s="4" cm="1">
         <f t="array" ref="H3:AE3">TRANSPOSE(B3:B26)</f>
-        <v>-24.6</v>
+        <v>-29.6</v>
       </c>
       <c r="I3" s="4">
-        <v>-29.9</v>
+        <v>-28.3</v>
       </c>
       <c r="J3" s="4">
-        <v>-38.4</v>
+        <v>-32.799999999999997</v>
       </c>
       <c r="K3" s="4">
-        <v>-6.7</v>
+        <v>-5.5</v>
       </c>
       <c r="L3" s="4">
-        <v>-28.2</v>
+        <v>-30.4</v>
       </c>
       <c r="M3" s="4">
-        <v>-15.2</v>
+        <v>-28</v>
       </c>
       <c r="N3" s="4">
-        <v>-25</v>
+        <v>-26.5</v>
       </c>
       <c r="O3" s="4">
-        <v>-32.700000000000003</v>
+        <v>-33.299999999999997</v>
       </c>
       <c r="P3" s="4">
-        <v>-19.600000000000001</v>
+        <v>-22.5</v>
       </c>
       <c r="Q3" s="4">
-        <v>-16.5</v>
+        <v>-26.3</v>
       </c>
       <c r="R3" s="4">
-        <v>-17.3</v>
+        <v>-12.7</v>
       </c>
       <c r="S3" s="4">
-        <v>-29</v>
+        <v>-23.7</v>
       </c>
       <c r="T3" s="4">
-        <v>-33.700000000000003</v>
+        <v>-31.8</v>
       </c>
       <c r="U3" s="4">
-        <v>-24</v>
+        <v>-31.4</v>
       </c>
       <c r="V3" s="4">
-        <v>-15.9</v>
+        <v>-21.4</v>
       </c>
       <c r="W3" s="4">
+        <v>-31.2</v>
+      </c>
+      <c r="X3" s="4">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="Y3" s="4">
+        <v>-25.5</v>
+      </c>
+      <c r="Z3" s="4">
+        <v>-28.1</v>
+      </c>
+      <c r="AA3" s="4">
         <v>-25.9</v>
       </c>
-      <c r="X3" s="4">
-        <v>-17.899999999999999</v>
-      </c>
-      <c r="Y3" s="4">
-        <v>-14</v>
-      </c>
-      <c r="Z3" s="4">
-        <v>-26.8</v>
-      </c>
-      <c r="AA3" s="4">
-        <v>-29.1</v>
-      </c>
       <c r="AB3" s="4">
-        <v>-25.9</v>
+        <v>-29.6</v>
       </c>
       <c r="AC3" s="4">
-        <v>-33.799999999999997</v>
+        <v>-35.9</v>
       </c>
       <c r="AD3" s="4">
-        <v>-25.6</v>
+        <v>-28</v>
       </c>
       <c r="AE3" s="4">
-        <v>-20.8</v>
+        <v>-34</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -2102,10 +2102,10 @@
         <v>28</v>
       </c>
       <c r="B4" s="12">
-        <v>-29.9</v>
+        <v>-28.3</v>
       </c>
       <c r="C4" s="12">
-        <v>-14.1</v>
+        <v>-12.5</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="17"/>
@@ -2115,76 +2115,76 @@
       </c>
       <c r="H4" s="4" cm="1">
         <f t="array" ref="H4:AE4">TRANSPOSE(C3:C26)</f>
-        <v>-8.8000000000000007</v>
+        <v>-10</v>
       </c>
       <c r="I4" s="4">
-        <v>-14.1</v>
+        <v>-12.5</v>
       </c>
       <c r="J4" s="4">
-        <v>-27.7</v>
+        <v>-22.5</v>
       </c>
       <c r="K4" s="4">
         <v>6.4</v>
       </c>
       <c r="L4" s="4">
-        <v>-17.600000000000001</v>
+        <v>-18</v>
       </c>
       <c r="M4" s="4">
-        <v>-10.6</v>
+        <v>-20.5</v>
       </c>
       <c r="N4" s="4">
-        <v>-16.2</v>
+        <v>-17.5</v>
       </c>
       <c r="O4" s="4">
-        <v>-24</v>
+        <v>-25.8</v>
       </c>
       <c r="P4" s="4">
-        <v>-9.3000000000000007</v>
+        <v>-11</v>
       </c>
       <c r="Q4" s="4">
-        <v>-7.9</v>
+        <v>-16</v>
       </c>
       <c r="R4" s="4">
-        <v>-13.1</v>
+        <v>-7</v>
       </c>
       <c r="S4" s="4">
-        <v>-11.1</v>
+        <v>-11</v>
       </c>
       <c r="T4" s="4">
-        <v>-23.3</v>
+        <v>-23.2</v>
       </c>
       <c r="U4" s="4">
-        <v>-14.7</v>
+        <v>-24.1</v>
       </c>
       <c r="V4" s="4">
-        <v>-9.1999999999999993</v>
+        <v>-12.1</v>
       </c>
       <c r="W4" s="4">
-        <v>-20.6</v>
+        <v>-23.2</v>
       </c>
       <c r="X4" s="4">
-        <v>-6.6</v>
+        <v>-12.1</v>
       </c>
       <c r="Y4" s="4">
-        <v>-11.6</v>
+        <v>-16.7</v>
       </c>
       <c r="Z4" s="4">
-        <v>-22.7</v>
+        <v>-19.899999999999999</v>
       </c>
       <c r="AA4" s="4">
-        <v>-13.8</v>
+        <v>-14.5</v>
       </c>
       <c r="AB4" s="4">
-        <v>-15.7</v>
+        <v>-21.9</v>
       </c>
       <c r="AC4" s="4">
-        <v>-23.8</v>
+        <v>-23</v>
       </c>
       <c r="AD4" s="4">
-        <v>-13</v>
+        <v>-16.8</v>
       </c>
       <c r="AE4" s="4">
-        <v>-16.100000000000001</v>
+        <v>-24.9</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -2192,10 +2192,10 @@
         <v>29</v>
       </c>
       <c r="B5" s="12">
-        <v>-38.4</v>
+        <v>-32.799999999999997</v>
       </c>
       <c r="C5" s="12">
-        <v>-27.7</v>
+        <v>-22.5</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="17"/>
@@ -2209,7 +2209,7 @@
         <v>30</v>
       </c>
       <c r="B6" s="12">
-        <v>-6.7</v>
+        <v>-5.5</v>
       </c>
       <c r="C6" s="12">
         <v>6.4</v>
@@ -2226,10 +2226,10 @@
         <v>31</v>
       </c>
       <c r="B7" s="12">
-        <v>-28.2</v>
+        <v>-30.4</v>
       </c>
       <c r="C7" s="12">
-        <v>-17.600000000000001</v>
+        <v>-18</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="17"/>
@@ -2243,10 +2243,10 @@
         <v>32</v>
       </c>
       <c r="B8" s="12">
-        <v>-15.2</v>
+        <v>-28</v>
       </c>
       <c r="C8" s="12">
-        <v>-10.6</v>
+        <v>-20.5</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="17"/>
@@ -2260,10 +2260,10 @@
         <v>33</v>
       </c>
       <c r="B9" s="12">
-        <v>-25</v>
+        <v>-26.5</v>
       </c>
       <c r="C9" s="12">
-        <v>-16.2</v>
+        <v>-17.5</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
@@ -2277,10 +2277,10 @@
         <v>34</v>
       </c>
       <c r="B10" s="12">
-        <v>-32.700000000000003</v>
+        <v>-33.299999999999997</v>
       </c>
       <c r="C10" s="12">
-        <v>-24</v>
+        <v>-25.8</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
@@ -2294,10 +2294,10 @@
         <v>35</v>
       </c>
       <c r="B11" s="12">
-        <v>-19.600000000000001</v>
+        <v>-22.5</v>
       </c>
       <c r="C11" s="12">
-        <v>-9.3000000000000007</v>
+        <v>-11</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
@@ -2311,10 +2311,10 @@
         <v>43</v>
       </c>
       <c r="B12" s="12">
-        <v>-16.5</v>
+        <v>-26.3</v>
       </c>
       <c r="C12" s="12">
-        <v>-7.9</v>
+        <v>-16</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
@@ -2328,10 +2328,10 @@
         <v>46</v>
       </c>
       <c r="B13" s="12">
-        <v>-17.3</v>
+        <v>-12.7</v>
       </c>
       <c r="C13" s="12">
-        <v>-13.1</v>
+        <v>-7</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="17"/>
@@ -2345,10 +2345,10 @@
         <v>49</v>
       </c>
       <c r="B14" s="12">
-        <v>-29</v>
+        <v>-23.7</v>
       </c>
       <c r="C14" s="12">
-        <v>-11.1</v>
+        <v>-11</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
@@ -2362,10 +2362,10 @@
         <v>53</v>
       </c>
       <c r="B15" s="12">
-        <v>-33.700000000000003</v>
+        <v>-31.8</v>
       </c>
       <c r="C15" s="12">
-        <v>-23.3</v>
+        <v>-23.2</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="17"/>
@@ -2379,10 +2379,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="12">
-        <v>-24</v>
+        <v>-31.4</v>
       </c>
       <c r="C16" s="12">
-        <v>-14.7</v>
+        <v>-24.1</v>
       </c>
       <c r="D16" s="16">
         <v>1</v>
@@ -2402,10 +2402,10 @@
         <v>38</v>
       </c>
       <c r="B17" s="12">
-        <v>-15.9</v>
+        <v>-21.4</v>
       </c>
       <c r="C17" s="12">
-        <v>-9.1999999999999993</v>
+        <v>-12.1</v>
       </c>
       <c r="D17" s="16">
         <v>1</v>
@@ -2425,10 +2425,10 @@
         <v>39</v>
       </c>
       <c r="B18" s="12">
-        <v>-25.9</v>
+        <v>-31.2</v>
       </c>
       <c r="C18" s="12">
-        <v>-20.6</v>
+        <v>-23.2</v>
       </c>
       <c r="D18" s="16">
         <v>1</v>
@@ -2448,10 +2448,10 @@
         <v>36</v>
       </c>
       <c r="B19" s="12">
-        <v>-17.899999999999999</v>
+        <v>-18.600000000000001</v>
       </c>
       <c r="C19" s="12">
-        <v>-6.6</v>
+        <v>-12.1</v>
       </c>
       <c r="D19" s="16">
         <v>1</v>
@@ -2471,10 +2471,10 @@
         <v>41</v>
       </c>
       <c r="B20" s="12">
-        <v>-14</v>
+        <v>-25.5</v>
       </c>
       <c r="C20" s="12">
-        <v>-11.6</v>
+        <v>-16.7</v>
       </c>
       <c r="D20" s="16">
         <v>1</v>
@@ -2494,10 +2494,10 @@
         <v>141</v>
       </c>
       <c r="B21" s="12">
-        <v>-26.8</v>
+        <v>-28.1</v>
       </c>
       <c r="C21" s="25">
-        <v>-22.7</v>
+        <v>-19.899999999999999</v>
       </c>
       <c r="D21" s="16">
         <v>1</v>
@@ -2517,10 +2517,10 @@
         <v>60</v>
       </c>
       <c r="B22" s="12">
-        <v>-29.1</v>
+        <v>-25.9</v>
       </c>
       <c r="C22" s="25">
-        <v>-13.8</v>
+        <v>-14.5</v>
       </c>
       <c r="D22" s="16">
         <v>1</v>
@@ -2540,10 +2540,10 @@
         <v>65</v>
       </c>
       <c r="B23" s="25">
-        <v>-25.9</v>
+        <v>-29.6</v>
       </c>
       <c r="C23" s="12">
-        <v>-15.7</v>
+        <v>-21.9</v>
       </c>
       <c r="D23" s="16">
         <v>1</v>
@@ -2563,10 +2563,10 @@
         <v>40</v>
       </c>
       <c r="B24" s="12">
-        <v>-33.799999999999997</v>
+        <v>-35.9</v>
       </c>
       <c r="C24" s="25">
-        <v>-23.8</v>
+        <v>-23</v>
       </c>
       <c r="D24" s="16">
         <v>1</v>
@@ -2586,10 +2586,10 @@
         <v>56</v>
       </c>
       <c r="B25" s="12">
-        <v>-25.6</v>
+        <v>-28</v>
       </c>
       <c r="C25" s="12">
-        <v>-13</v>
+        <v>-16.8</v>
       </c>
       <c r="D25" s="16">
         <v>3</v>
@@ -2609,10 +2609,10 @@
         <v>62</v>
       </c>
       <c r="B26" s="12">
-        <v>-20.8</v>
+        <v>-34</v>
       </c>
       <c r="C26" s="12">
-        <v>-16.100000000000001</v>
+        <v>-24.9</v>
       </c>
       <c r="D26" s="16">
         <v>4</v>
@@ -2665,8 +2665,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF0FA41-85CC-443B-8D70-8487574C7D86}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2696,7 +2696,7 @@
     <row r="2" spans="1:11" ht="29.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="50"/>
       <c r="B2" s="34">
-        <v>45634</v>
+        <v>45636</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -2729,164 +2729,164 @@
     </row>
     <row r="4" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="26">
-        <v>3</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="46" t="s">
+        <v>9</v>
       </c>
       <c r="D4" s="39">
-        <v>-38.4</v>
+        <v>-35.9</v>
       </c>
       <c r="E4" s="40">
-        <v>-27.7</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>93</v>
+        <v>-23</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>113</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>95</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="26">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="D5" s="39">
-        <v>-33.799999999999997</v>
+        <v>-34</v>
       </c>
       <c r="E5" s="40">
-        <v>-23.8</v>
+        <v>-24.9</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="26">
-        <v>13</v>
-      </c>
-      <c r="B6" s="44" t="s">
-        <v>149</v>
+        <v>8</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>19</v>
       </c>
       <c r="C6" s="42" t="s">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="D6" s="39">
-        <v>-33.700000000000003</v>
+        <v>-33.299999999999997</v>
       </c>
       <c r="E6" s="40">
-        <v>-23.3</v>
+        <v>-25.8</v>
       </c>
       <c r="F6" s="37" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="26">
+        <v>3</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C7" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>12</v>
-      </c>
       <c r="D7" s="39">
-        <v>-32.700000000000003</v>
+        <v>-32.799999999999997</v>
       </c>
       <c r="E7" s="40">
-        <v>-24</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>100</v>
+        <v>-22.5</v>
+      </c>
+      <c r="F7" s="36" t="s">
+        <v>93</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="26">
-        <v>2</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="C8" s="38" t="s">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="B8" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>54</v>
       </c>
       <c r="D8" s="39">
-        <v>-29.9</v>
+        <v>-31.8</v>
       </c>
       <c r="E8" s="40">
-        <v>-14.1</v>
-      </c>
-      <c r="F8" s="36" t="s">
-        <v>92</v>
+        <v>-23.2</v>
+      </c>
+      <c r="F8" s="37" t="s">
+        <v>105</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="26">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="D9" s="39">
-        <v>-29.1</v>
+        <v>-31.4</v>
       </c>
       <c r="E9" s="40">
-        <v>-13.8</v>
+        <v>-24.1</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="26">
-        <v>12</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>50</v>
+        <v>16</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>4</v>
       </c>
       <c r="D10" s="39">
-        <v>-29</v>
+        <v>-31.2</v>
       </c>
       <c r="E10" s="40">
-        <v>-11.1</v>
+        <v>-23.2</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -2900,10 +2900,10 @@
         <v>5</v>
       </c>
       <c r="D11" s="39">
-        <v>-28.2</v>
+        <v>-30.4</v>
       </c>
       <c r="E11" s="40">
-        <v>-17.600000000000001</v>
+        <v>-18</v>
       </c>
       <c r="F11" s="37" t="s">
         <v>98</v>
@@ -2914,278 +2914,278 @@
     </row>
     <row r="12" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="26">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>23</v>
+        <v>68</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>141</v>
+        <v>66</v>
       </c>
       <c r="D12" s="39">
-        <v>-26.8</v>
+        <v>-29.6</v>
       </c>
       <c r="E12" s="40">
-        <v>-22.7</v>
+        <v>-21.9</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="26">
-        <v>16</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="46" t="s">
-        <v>4</v>
+        <v>1</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>0</v>
       </c>
       <c r="D13" s="39">
-        <v>-25.9</v>
+        <v>-29.6</v>
       </c>
       <c r="E13" s="40">
-        <v>-20.6</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>108</v>
+        <v>-10</v>
+      </c>
+      <c r="F13" s="36" t="s">
+        <v>90</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>128</v>
+        <v>91</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="26">
-        <v>21</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>66</v>
+        <v>2</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>1</v>
       </c>
       <c r="D14" s="39">
-        <v>-25.9</v>
+        <v>-28.3</v>
       </c>
       <c r="E14" s="40">
-        <v>-15.7</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>112</v>
+        <v>-12.5</v>
+      </c>
+      <c r="F14" s="36" t="s">
+        <v>92</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="26">
+        <v>19</v>
+      </c>
+      <c r="B15" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="45" t="s">
-        <v>22</v>
-      </c>
       <c r="C15" s="46" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="D15" s="39">
-        <v>-25.6</v>
+        <v>-28.1</v>
       </c>
       <c r="E15" s="40">
-        <v>-13</v>
+        <v>-19.899999999999999</v>
       </c>
       <c r="F15" s="37" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="26">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B16" s="43" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="42" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D16" s="39">
-        <v>-25</v>
+        <v>-28</v>
       </c>
       <c r="E16" s="40">
-        <v>-16.2</v>
+        <v>-20.5</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="26">
-        <v>1</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>0</v>
+        <v>23</v>
+      </c>
+      <c r="B17" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="46" t="s">
+        <v>57</v>
       </c>
       <c r="D17" s="39">
-        <v>-24.6</v>
+        <v>-28</v>
       </c>
       <c r="E17" s="40">
-        <v>-8.8000000000000007</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>90</v>
+        <v>-16.8</v>
+      </c>
+      <c r="F17" s="37" t="s">
+        <v>114</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>91</v>
+        <v>134</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="26">
-        <v>14</v>
-      </c>
-      <c r="B18" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="46" t="s">
-        <v>2</v>
+        <v>7</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>7</v>
       </c>
       <c r="D18" s="39">
-        <v>-24</v>
+        <v>-26.5</v>
       </c>
       <c r="E18" s="40">
-        <v>-14.7</v>
+        <v>-17.5</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="26">
-        <v>24</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="46" t="s">
-        <v>63</v>
+        <v>10</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>44</v>
       </c>
       <c r="D19" s="39">
-        <v>-20.8</v>
+        <v>-26.3</v>
       </c>
       <c r="E19" s="40">
-        <v>-16.100000000000001</v>
+        <v>-16</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="26">
-        <v>9</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>11</v>
+        <v>20</v>
+      </c>
+      <c r="B20" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" s="46" t="s">
+        <v>61</v>
       </c>
       <c r="D20" s="39">
-        <v>-19.600000000000001</v>
+        <v>-25.9</v>
       </c>
       <c r="E20" s="40">
-        <v>-9.3000000000000007</v>
+        <v>-14.5</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="26">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="C21" s="46" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D21" s="39">
-        <v>-17.899999999999999</v>
+        <v>-25.5</v>
       </c>
       <c r="E21" s="40">
-        <v>-6.6</v>
+        <v>-16.7</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="26">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>148</v>
+        <v>52</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D22" s="39">
-        <v>-17.3</v>
+        <v>-23.7</v>
       </c>
       <c r="E22" s="40">
-        <v>-13.1</v>
+        <v>-11</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="26">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B23" s="43" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C23" s="42" t="s">
-        <v>44</v>
+        <v>11</v>
       </c>
       <c r="D23" s="39">
-        <v>-16.5</v>
+        <v>-22.5</v>
       </c>
       <c r="E23" s="40">
-        <v>-7.9</v>
+        <v>-11</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -3199,10 +3199,10 @@
         <v>3</v>
       </c>
       <c r="D24" s="39">
-        <v>-15.9</v>
+        <v>-21.4</v>
       </c>
       <c r="E24" s="40">
-        <v>-9.1999999999999993</v>
+        <v>-12.1</v>
       </c>
       <c r="F24" s="37" t="s">
         <v>107</v>
@@ -3213,48 +3213,48 @@
     </row>
     <row r="25" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="26">
-        <v>6</v>
-      </c>
-      <c r="B25" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>6</v>
+        <v>17</v>
+      </c>
+      <c r="B25" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25" s="46" t="s">
+        <v>14</v>
       </c>
       <c r="D25" s="39">
-        <v>-15.2</v>
+        <v>-18.600000000000001</v>
       </c>
       <c r="E25" s="40">
-        <v>-10.6</v>
+        <v>-12.1</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="26">
-        <v>18</v>
-      </c>
-      <c r="B26" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C26" s="46" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" s="42" t="s">
+        <v>47</v>
       </c>
       <c r="D26" s="39">
-        <v>-14</v>
+        <v>-12.7</v>
       </c>
       <c r="E26" s="40">
-        <v>-11.6</v>
+        <v>-7</v>
       </c>
       <c r="F26" s="37" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -3268,7 +3268,7 @@
         <v>13</v>
       </c>
       <c r="D27" s="39">
-        <v>-6.7</v>
+        <v>-5.5</v>
       </c>
       <c r="E27" s="40">
         <v>6.4</v>
@@ -3400,7 +3400,7 @@
   <dimension ref="A1:Y109"/>
   <sheetViews>
     <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -5414,10 +5414,154 @@
       <c r="A27" s="9">
         <v>45635</v>
       </c>
+      <c r="B27">
+        <v>-28.2</v>
+      </c>
+      <c r="C27">
+        <v>-29.9</v>
+      </c>
+      <c r="D27">
+        <v>-34</v>
+      </c>
+      <c r="E27">
+        <v>-7.7</v>
+      </c>
+      <c r="F27">
+        <v>-29.2</v>
+      </c>
+      <c r="G27">
+        <v>-21.2</v>
+      </c>
+      <c r="H27">
+        <v>-20.2</v>
+      </c>
+      <c r="I27">
+        <v>-31.7</v>
+      </c>
+      <c r="J27">
+        <v>-22.4</v>
+      </c>
+      <c r="K27">
+        <v>-24.1</v>
+      </c>
+      <c r="L27">
+        <v>-16.3</v>
+      </c>
+      <c r="M27">
+        <v>-27.8</v>
+      </c>
+      <c r="N27">
+        <v>-34.4</v>
+      </c>
+      <c r="O27">
+        <v>-28.8</v>
+      </c>
+      <c r="P27">
+        <v>-14.3</v>
+      </c>
+      <c r="Q27">
+        <v>-29.5</v>
+      </c>
+      <c r="R27">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="S27">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="T27">
+        <v>-27.9</v>
+      </c>
+      <c r="U27">
+        <v>-27.2</v>
+      </c>
+      <c r="V27">
+        <v>-25.7</v>
+      </c>
+      <c r="W27">
+        <v>-36.9</v>
+      </c>
+      <c r="X27">
+        <v>-23.1</v>
+      </c>
+      <c r="Y27">
+        <v>-26.4</v>
+      </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A28" s="9">
         <v>45636</v>
+      </c>
+      <c r="B28">
+        <v>-29.6</v>
+      </c>
+      <c r="C28">
+        <v>-28.3</v>
+      </c>
+      <c r="D28">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="E28">
+        <v>-5.5</v>
+      </c>
+      <c r="F28">
+        <v>-30.4</v>
+      </c>
+      <c r="G28">
+        <v>-28</v>
+      </c>
+      <c r="H28">
+        <v>-26.5</v>
+      </c>
+      <c r="I28">
+        <v>-33.299999999999997</v>
+      </c>
+      <c r="J28">
+        <v>-22.5</v>
+      </c>
+      <c r="K28">
+        <v>-26.3</v>
+      </c>
+      <c r="L28">
+        <v>-12.7</v>
+      </c>
+      <c r="M28">
+        <v>-23.7</v>
+      </c>
+      <c r="N28">
+        <v>-31.8</v>
+      </c>
+      <c r="O28">
+        <v>-31.4</v>
+      </c>
+      <c r="P28">
+        <v>-21.4</v>
+      </c>
+      <c r="Q28">
+        <v>-31.2</v>
+      </c>
+      <c r="R28">
+        <v>-18.600000000000001</v>
+      </c>
+      <c r="S28">
+        <v>-25.5</v>
+      </c>
+      <c r="T28">
+        <v>-28.1</v>
+      </c>
+      <c r="U28">
+        <v>-25.9</v>
+      </c>
+      <c r="V28">
+        <v>-29.6</v>
+      </c>
+      <c r="W28">
+        <v>-35.9</v>
+      </c>
+      <c r="X28">
+        <v>-28</v>
+      </c>
+      <c r="Y28">
+        <v>-34</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.4">
@@ -5835,8 +5979,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4603A40C-9136-4681-B4C7-1EB22060A809}">
   <dimension ref="A1:Y109"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -7850,10 +7994,154 @@
       <c r="A27" s="9">
         <v>45635</v>
       </c>
+      <c r="B27">
+        <v>-16</v>
+      </c>
+      <c r="C27">
+        <v>-12.4</v>
+      </c>
+      <c r="D27">
+        <v>-17.7</v>
+      </c>
+      <c r="E27">
+        <v>6.9</v>
+      </c>
+      <c r="F27">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="G27">
+        <v>-13.9</v>
+      </c>
+      <c r="H27">
+        <v>-13</v>
+      </c>
+      <c r="I27">
+        <v>-24.2</v>
+      </c>
+      <c r="J27">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="K27">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="L27">
+        <v>-4.5</v>
+      </c>
+      <c r="M27">
+        <v>-10.4</v>
+      </c>
+      <c r="N27">
+        <v>-23.6</v>
+      </c>
+      <c r="O27">
+        <v>-12.7</v>
+      </c>
+      <c r="P27">
+        <v>-10.4</v>
+      </c>
+      <c r="Q27">
+        <v>-22.5</v>
+      </c>
+      <c r="R27">
+        <v>-8.4</v>
+      </c>
+      <c r="S27">
+        <v>-11.8</v>
+      </c>
+      <c r="T27">
+        <v>-18.2</v>
+      </c>
+      <c r="U27">
+        <v>-14.1</v>
+      </c>
+      <c r="V27">
+        <v>-15.2</v>
+      </c>
+      <c r="W27">
+        <v>-22.6</v>
+      </c>
+      <c r="X27">
+        <v>-10.4</v>
+      </c>
+      <c r="Y27">
+        <v>-19.3</v>
+      </c>
     </row>
     <row r="28" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A28" s="9">
         <v>45636</v>
+      </c>
+      <c r="B28">
+        <v>-10</v>
+      </c>
+      <c r="C28">
+        <v>-12.5</v>
+      </c>
+      <c r="D28">
+        <v>-22.5</v>
+      </c>
+      <c r="E28">
+        <v>6.4</v>
+      </c>
+      <c r="F28">
+        <v>-18</v>
+      </c>
+      <c r="G28">
+        <v>-20.5</v>
+      </c>
+      <c r="H28">
+        <v>-17.5</v>
+      </c>
+      <c r="I28">
+        <v>-25.8</v>
+      </c>
+      <c r="J28">
+        <v>-11</v>
+      </c>
+      <c r="K28">
+        <v>-16</v>
+      </c>
+      <c r="L28">
+        <v>-7</v>
+      </c>
+      <c r="M28">
+        <v>-11</v>
+      </c>
+      <c r="N28">
+        <v>-23.2</v>
+      </c>
+      <c r="O28">
+        <v>-24.1</v>
+      </c>
+      <c r="P28">
+        <v>-12.1</v>
+      </c>
+      <c r="Q28">
+        <v>-23.2</v>
+      </c>
+      <c r="R28">
+        <v>-12.1</v>
+      </c>
+      <c r="S28">
+        <v>-16.7</v>
+      </c>
+      <c r="T28">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="U28">
+        <v>-14.5</v>
+      </c>
+      <c r="V28">
+        <v>-21.9</v>
+      </c>
+      <c r="W28">
+        <v>-23</v>
+      </c>
+      <c r="X28">
+        <v>-16.8</v>
+      </c>
+      <c r="Y28">
+        <v>-24.9</v>
       </c>
     </row>
     <row r="29" spans="1:25" x14ac:dyDescent="0.4">

--- a/气象/北境强冷站每日气温记录.xlsx
+++ b/气象/北境强冷站每日气温记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46FE16BF-723C-4F71-9BC3-BFE712D2547A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C2A972-D870-45EA-9DDA-AEBE2F5D7283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{21DDB67E-D335-466F-8652-CD2F68303142}"/>
   </bookViews>
@@ -1957,7 +1957,7 @@
   <dimension ref="A1:AE30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.4"/>
@@ -2012,10 +2012,10 @@
         <v>27</v>
       </c>
       <c r="B3" s="12">
-        <v>-29.6</v>
+        <v>-36.1</v>
       </c>
       <c r="C3" s="12">
-        <v>-10</v>
+        <v>-19.600000000000001</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="17"/>
@@ -2025,76 +2025,76 @@
       </c>
       <c r="H3" s="4" cm="1">
         <f t="array" ref="H3:AE3">TRANSPOSE(B3:B26)</f>
-        <v>-29.6</v>
+        <v>-36.1</v>
       </c>
       <c r="I3" s="4">
-        <v>-28.3</v>
+        <v>-38.1</v>
       </c>
       <c r="J3" s="4">
-        <v>-32.799999999999997</v>
+        <v>-42.5</v>
       </c>
       <c r="K3" s="4">
-        <v>-5.5</v>
+        <v>-1</v>
       </c>
       <c r="L3" s="4">
-        <v>-30.4</v>
+        <v>-37.5</v>
       </c>
       <c r="M3" s="4">
-        <v>-28</v>
+        <v>-30.5</v>
       </c>
       <c r="N3" s="4">
-        <v>-26.5</v>
+        <v>-30.2</v>
       </c>
       <c r="O3" s="4">
-        <v>-33.299999999999997</v>
+        <v>-39.1</v>
       </c>
       <c r="P3" s="4">
-        <v>-22.5</v>
+        <v>-30.2</v>
       </c>
       <c r="Q3" s="4">
-        <v>-26.3</v>
+        <v>-37.200000000000003</v>
       </c>
       <c r="R3" s="4">
-        <v>-12.7</v>
+        <v>-23.4</v>
       </c>
       <c r="S3" s="4">
-        <v>-23.7</v>
+        <v>-31.9</v>
       </c>
       <c r="T3" s="4">
-        <v>-31.8</v>
+        <v>-36.299999999999997</v>
       </c>
       <c r="U3" s="4">
-        <v>-31.4</v>
+        <v>-37</v>
       </c>
       <c r="V3" s="4">
-        <v>-21.4</v>
+        <v>-27.7</v>
       </c>
       <c r="W3" s="4">
-        <v>-31.2</v>
+        <v>-36.4</v>
       </c>
       <c r="X3" s="4">
-        <v>-18.600000000000001</v>
+        <v>-22.1</v>
       </c>
       <c r="Y3" s="4">
-        <v>-25.5</v>
+        <v>-28.2</v>
       </c>
       <c r="Z3" s="4">
-        <v>-28.1</v>
+        <v>-36.299999999999997</v>
       </c>
       <c r="AA3" s="4">
-        <v>-25.9</v>
+        <v>-37.299999999999997</v>
       </c>
       <c r="AB3" s="4">
-        <v>-29.6</v>
+        <v>-34.1</v>
       </c>
       <c r="AC3" s="4">
-        <v>-35.9</v>
+        <v>-42.3</v>
       </c>
       <c r="AD3" s="4">
-        <v>-28</v>
+        <v>-33.9</v>
       </c>
       <c r="AE3" s="4">
-        <v>-34</v>
+        <v>-35.1</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -2102,10 +2102,10 @@
         <v>28</v>
       </c>
       <c r="B4" s="12">
-        <v>-28.3</v>
+        <v>-38.1</v>
       </c>
       <c r="C4" s="12">
-        <v>-12.5</v>
+        <v>-18.899999999999999</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="17"/>
@@ -2115,76 +2115,76 @@
       </c>
       <c r="H4" s="4" cm="1">
         <f t="array" ref="H4:AE4">TRANSPOSE(C3:C26)</f>
-        <v>-10</v>
+        <v>-19.600000000000001</v>
       </c>
       <c r="I4" s="4">
-        <v>-12.5</v>
+        <v>-18.899999999999999</v>
       </c>
       <c r="J4" s="4">
+        <v>-32</v>
+      </c>
+      <c r="K4" s="4">
+        <v>3.7</v>
+      </c>
+      <c r="L4" s="4">
+        <v>-26.9</v>
+      </c>
+      <c r="M4" s="4">
         <v>-22.5</v>
       </c>
-      <c r="K4" s="4">
-        <v>6.4</v>
-      </c>
-      <c r="L4" s="4">
-        <v>-18</v>
-      </c>
-      <c r="M4" s="4">
+      <c r="N4" s="4">
+        <v>-19.3</v>
+      </c>
+      <c r="O4" s="4">
+        <v>-29.5</v>
+      </c>
+      <c r="P4" s="4">
+        <v>-13.5</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>-23.4</v>
+      </c>
+      <c r="R4" s="4">
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="S4" s="4">
+        <v>-15.8</v>
+      </c>
+      <c r="T4" s="4">
+        <v>-25.6</v>
+      </c>
+      <c r="U4" s="4">
+        <v>-26.2</v>
+      </c>
+      <c r="V4" s="4">
+        <v>-15.8</v>
+      </c>
+      <c r="W4" s="4">
+        <v>-27.7</v>
+      </c>
+      <c r="X4" s="4">
+        <v>-16.399999999999999</v>
+      </c>
+      <c r="Y4" s="4">
         <v>-20.5</v>
       </c>
-      <c r="N4" s="4">
-        <v>-17.5</v>
-      </c>
-      <c r="O4" s="4">
-        <v>-25.8</v>
-      </c>
-      <c r="P4" s="4">
-        <v>-11</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>-16</v>
-      </c>
-      <c r="R4" s="4">
-        <v>-7</v>
-      </c>
-      <c r="S4" s="4">
-        <v>-11</v>
-      </c>
-      <c r="T4" s="4">
-        <v>-23.2</v>
-      </c>
-      <c r="U4" s="4">
-        <v>-24.1</v>
-      </c>
-      <c r="V4" s="4">
-        <v>-12.1</v>
-      </c>
-      <c r="W4" s="4">
-        <v>-23.2</v>
-      </c>
-      <c r="X4" s="4">
-        <v>-12.1</v>
-      </c>
-      <c r="Y4" s="4">
-        <v>-16.7</v>
-      </c>
       <c r="Z4" s="4">
-        <v>-19.899999999999999</v>
+        <v>-26.5</v>
       </c>
       <c r="AA4" s="4">
-        <v>-14.5</v>
+        <v>-20.100000000000001</v>
       </c>
       <c r="AB4" s="4">
-        <v>-21.9</v>
+        <v>-24.8</v>
       </c>
       <c r="AC4" s="4">
-        <v>-23</v>
+        <v>-30.7</v>
       </c>
       <c r="AD4" s="4">
-        <v>-16.8</v>
+        <v>-24</v>
       </c>
       <c r="AE4" s="4">
-        <v>-24.9</v>
+        <v>-26.9</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -2192,10 +2192,10 @@
         <v>29</v>
       </c>
       <c r="B5" s="12">
-        <v>-32.799999999999997</v>
+        <v>-42.5</v>
       </c>
       <c r="C5" s="12">
-        <v>-22.5</v>
+        <v>-32</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="17"/>
@@ -2209,10 +2209,10 @@
         <v>30</v>
       </c>
       <c r="B6" s="12">
-        <v>-5.5</v>
+        <v>-1</v>
       </c>
       <c r="C6" s="12">
-        <v>6.4</v>
+        <v>3.7</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
@@ -2226,10 +2226,10 @@
         <v>31</v>
       </c>
       <c r="B7" s="12">
-        <v>-30.4</v>
+        <v>-37.5</v>
       </c>
       <c r="C7" s="12">
-        <v>-18</v>
+        <v>-26.9</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="17"/>
@@ -2243,10 +2243,10 @@
         <v>32</v>
       </c>
       <c r="B8" s="12">
-        <v>-28</v>
+        <v>-30.5</v>
       </c>
       <c r="C8" s="12">
-        <v>-20.5</v>
+        <v>-22.5</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="17"/>
@@ -2260,10 +2260,10 @@
         <v>33</v>
       </c>
       <c r="B9" s="12">
-        <v>-26.5</v>
+        <v>-30.2</v>
       </c>
       <c r="C9" s="12">
-        <v>-17.5</v>
+        <v>-19.3</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
@@ -2277,10 +2277,10 @@
         <v>34</v>
       </c>
       <c r="B10" s="12">
-        <v>-33.299999999999997</v>
+        <v>-39.1</v>
       </c>
       <c r="C10" s="12">
-        <v>-25.8</v>
+        <v>-29.5</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
@@ -2294,10 +2294,10 @@
         <v>35</v>
       </c>
       <c r="B11" s="12">
-        <v>-22.5</v>
+        <v>-30.2</v>
       </c>
       <c r="C11" s="12">
-        <v>-11</v>
+        <v>-13.5</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
@@ -2311,10 +2311,10 @@
         <v>43</v>
       </c>
       <c r="B12" s="12">
-        <v>-26.3</v>
+        <v>-37.200000000000003</v>
       </c>
       <c r="C12" s="12">
-        <v>-16</v>
+        <v>-23.4</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
@@ -2328,10 +2328,10 @@
         <v>46</v>
       </c>
       <c r="B13" s="12">
-        <v>-12.7</v>
+        <v>-23.4</v>
       </c>
       <c r="C13" s="12">
-        <v>-7</v>
+        <v>-9.3000000000000007</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="17"/>
@@ -2345,10 +2345,10 @@
         <v>49</v>
       </c>
       <c r="B14" s="12">
-        <v>-23.7</v>
+        <v>-31.9</v>
       </c>
       <c r="C14" s="12">
-        <v>-11</v>
+        <v>-15.8</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
@@ -2362,10 +2362,10 @@
         <v>53</v>
       </c>
       <c r="B15" s="12">
-        <v>-31.8</v>
+        <v>-36.299999999999997</v>
       </c>
       <c r="C15" s="12">
-        <v>-23.2</v>
+        <v>-25.6</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="17"/>
@@ -2379,10 +2379,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="12">
-        <v>-31.4</v>
+        <v>-37</v>
       </c>
       <c r="C16" s="12">
-        <v>-24.1</v>
+        <v>-26.2</v>
       </c>
       <c r="D16" s="16">
         <v>1</v>
@@ -2402,10 +2402,10 @@
         <v>38</v>
       </c>
       <c r="B17" s="12">
-        <v>-21.4</v>
+        <v>-27.7</v>
       </c>
       <c r="C17" s="12">
-        <v>-12.1</v>
+        <v>-15.8</v>
       </c>
       <c r="D17" s="16">
         <v>1</v>
@@ -2425,10 +2425,10 @@
         <v>39</v>
       </c>
       <c r="B18" s="12">
-        <v>-31.2</v>
+        <v>-36.4</v>
       </c>
       <c r="C18" s="12">
-        <v>-23.2</v>
+        <v>-27.7</v>
       </c>
       <c r="D18" s="16">
         <v>1</v>
@@ -2448,10 +2448,10 @@
         <v>36</v>
       </c>
       <c r="B19" s="12">
-        <v>-18.600000000000001</v>
+        <v>-22.1</v>
       </c>
       <c r="C19" s="12">
-        <v>-12.1</v>
+        <v>-16.399999999999999</v>
       </c>
       <c r="D19" s="16">
         <v>1</v>
@@ -2471,10 +2471,10 @@
         <v>41</v>
       </c>
       <c r="B20" s="12">
-        <v>-25.5</v>
+        <v>-28.2</v>
       </c>
       <c r="C20" s="12">
-        <v>-16.7</v>
+        <v>-20.5</v>
       </c>
       <c r="D20" s="16">
         <v>1</v>
@@ -2494,10 +2494,10 @@
         <v>141</v>
       </c>
       <c r="B21" s="12">
-        <v>-28.1</v>
+        <v>-36.299999999999997</v>
       </c>
       <c r="C21" s="25">
-        <v>-19.899999999999999</v>
+        <v>-26.5</v>
       </c>
       <c r="D21" s="16">
         <v>1</v>
@@ -2517,10 +2517,10 @@
         <v>60</v>
       </c>
       <c r="B22" s="12">
-        <v>-25.9</v>
+        <v>-37.299999999999997</v>
       </c>
       <c r="C22" s="25">
-        <v>-14.5</v>
+        <v>-20.100000000000001</v>
       </c>
       <c r="D22" s="16">
         <v>1</v>
@@ -2540,10 +2540,10 @@
         <v>65</v>
       </c>
       <c r="B23" s="25">
-        <v>-29.6</v>
+        <v>-34.1</v>
       </c>
       <c r="C23" s="12">
-        <v>-21.9</v>
+        <v>-24.8</v>
       </c>
       <c r="D23" s="16">
         <v>1</v>
@@ -2563,10 +2563,10 @@
         <v>40</v>
       </c>
       <c r="B24" s="12">
-        <v>-35.9</v>
+        <v>-42.3</v>
       </c>
       <c r="C24" s="25">
-        <v>-23</v>
+        <v>-30.7</v>
       </c>
       <c r="D24" s="16">
         <v>1</v>
@@ -2586,10 +2586,10 @@
         <v>56</v>
       </c>
       <c r="B25" s="12">
-        <v>-28</v>
+        <v>-33.9</v>
       </c>
       <c r="C25" s="12">
-        <v>-16.8</v>
+        <v>-24</v>
       </c>
       <c r="D25" s="16">
         <v>3</v>
@@ -2609,10 +2609,10 @@
         <v>62</v>
       </c>
       <c r="B26" s="12">
-        <v>-34</v>
+        <v>-35.1</v>
       </c>
       <c r="C26" s="12">
-        <v>-24.9</v>
+        <v>-26.9</v>
       </c>
       <c r="D26" s="16">
         <v>4</v>
@@ -2696,7 +2696,7 @@
     <row r="2" spans="1:11" ht="29.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="50"/>
       <c r="B2" s="34">
-        <v>45636</v>
+        <v>45639</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -2729,48 +2729,48 @@
     </row>
     <row r="4" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="26">
-        <v>22</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="46" t="s">
-        <v>9</v>
+        <v>3</v>
+      </c>
+      <c r="B4" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C4" s="38" t="s">
+        <v>8</v>
       </c>
       <c r="D4" s="39">
-        <v>-35.9</v>
+        <v>-42.5</v>
       </c>
       <c r="E4" s="40">
-        <v>-23</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>113</v>
+        <v>-32</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>93</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>133</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="26">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="D5" s="39">
-        <v>-34</v>
+        <v>-42.3</v>
       </c>
       <c r="E5" s="40">
-        <v>-24.9</v>
+        <v>-30.7</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -2784,10 +2784,10 @@
         <v>12</v>
       </c>
       <c r="D6" s="39">
-        <v>-33.299999999999997</v>
+        <v>-39.1</v>
       </c>
       <c r="E6" s="40">
-        <v>-25.8</v>
+        <v>-29.5</v>
       </c>
       <c r="F6" s="37" t="s">
         <v>100</v>
@@ -2798,394 +2798,394 @@
     </row>
     <row r="7" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C7" s="38" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D7" s="39">
-        <v>-32.799999999999997</v>
+        <v>-38.1</v>
       </c>
       <c r="E7" s="40">
-        <v>-22.5</v>
+        <v>-18.899999999999999</v>
       </c>
       <c r="F7" s="36" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="26">
-        <v>13</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>149</v>
+        <v>5</v>
+      </c>
+      <c r="B8" s="41" t="s">
+        <v>147</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="D8" s="39">
-        <v>-31.8</v>
+        <v>-37.5</v>
       </c>
       <c r="E8" s="40">
-        <v>-23.2</v>
+        <v>-26.9</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="26">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>2</v>
+        <v>61</v>
       </c>
       <c r="D9" s="39">
-        <v>-31.4</v>
+        <v>-37.299999999999997</v>
       </c>
       <c r="E9" s="40">
-        <v>-24.1</v>
+        <v>-20.100000000000001</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="26">
-        <v>16</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" s="46" t="s">
-        <v>4</v>
+        <v>10</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>151</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>44</v>
       </c>
       <c r="D10" s="39">
-        <v>-31.2</v>
+        <v>-37.200000000000003</v>
       </c>
       <c r="E10" s="40">
-        <v>-23.2</v>
+        <v>-23.4</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="26">
-        <v>5</v>
-      </c>
-      <c r="B11" s="41" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>5</v>
+        <v>14</v>
+      </c>
+      <c r="B11" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>2</v>
       </c>
       <c r="D11" s="39">
-        <v>-30.4</v>
+        <v>-37</v>
       </c>
       <c r="E11" s="40">
-        <v>-18</v>
+        <v>-26.2</v>
       </c>
       <c r="F11" s="37" t="s">
-        <v>98</v>
+        <v>106</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="26">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>66</v>
+        <v>4</v>
       </c>
       <c r="D12" s="39">
-        <v>-29.6</v>
+        <v>-36.4</v>
       </c>
       <c r="E12" s="40">
-        <v>-21.9</v>
+        <v>-27.7</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="26">
-        <v>1</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C13" s="38" t="s">
-        <v>0</v>
+        <v>19</v>
+      </c>
+      <c r="B13" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>141</v>
       </c>
       <c r="D13" s="39">
-        <v>-29.6</v>
+        <v>-36.299999999999997</v>
       </c>
       <c r="E13" s="40">
-        <v>-10</v>
-      </c>
-      <c r="F13" s="36" t="s">
-        <v>90</v>
+        <v>-26.5</v>
+      </c>
+      <c r="F13" s="37" t="s">
+        <v>142</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>91</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="26">
-        <v>2</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="C14" s="38" t="s">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="B14" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>54</v>
       </c>
       <c r="D14" s="39">
-        <v>-28.3</v>
+        <v>-36.299999999999997</v>
       </c>
       <c r="E14" s="40">
-        <v>-12.5</v>
-      </c>
-      <c r="F14" s="36" t="s">
-        <v>92</v>
+        <v>-25.6</v>
+      </c>
+      <c r="F14" s="37" t="s">
+        <v>105</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="26">
-        <v>19</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>141</v>
+        <v>1</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>0</v>
       </c>
       <c r="D15" s="39">
-        <v>-28.1</v>
+        <v>-36.1</v>
       </c>
       <c r="E15" s="40">
-        <v>-19.899999999999999</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>142</v>
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="F15" s="36" t="s">
+        <v>90</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>143</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="26">
-        <v>6</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>6</v>
+        <v>24</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>63</v>
       </c>
       <c r="D16" s="39">
-        <v>-28</v>
+        <v>-35.1</v>
       </c>
       <c r="E16" s="40">
-        <v>-20.5</v>
+        <v>-26.9</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="26">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>22</v>
+        <v>68</v>
       </c>
       <c r="C17" s="46" t="s">
-        <v>57</v>
+        <v>66</v>
       </c>
       <c r="D17" s="39">
-        <v>-28</v>
+        <v>-34.1</v>
       </c>
       <c r="E17" s="40">
-        <v>-16.8</v>
+        <v>-24.8</v>
       </c>
       <c r="F17" s="37" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="26">
-        <v>7</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>7</v>
+        <v>23</v>
+      </c>
+      <c r="B18" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C18" s="46" t="s">
+        <v>57</v>
       </c>
       <c r="D18" s="39">
-        <v>-26.5</v>
+        <v>-33.9</v>
       </c>
       <c r="E18" s="40">
-        <v>-17.5</v>
+        <v>-24</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>119</v>
+        <v>134</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="26">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B19" s="43" t="s">
-        <v>151</v>
+        <v>52</v>
       </c>
       <c r="C19" s="42" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="D19" s="39">
-        <v>-26.3</v>
+        <v>-31.9</v>
       </c>
       <c r="E19" s="40">
-        <v>-16</v>
+        <v>-15.8</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="26">
-        <v>20</v>
-      </c>
-      <c r="B20" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C20" s="46" t="s">
-        <v>61</v>
+        <v>6</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="42" t="s">
+        <v>6</v>
       </c>
       <c r="D20" s="39">
-        <v>-25.9</v>
+        <v>-30.5</v>
       </c>
       <c r="E20" s="40">
-        <v>-14.5</v>
+        <v>-22.5</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="26">
+        <v>7</v>
+      </c>
+      <c r="B21" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B21" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="46" t="s">
-        <v>10</v>
+      <c r="C21" s="42" t="s">
+        <v>7</v>
       </c>
       <c r="D21" s="39">
-        <v>-25.5</v>
+        <v>-30.2</v>
       </c>
       <c r="E21" s="40">
-        <v>-16.7</v>
+        <v>-19.3</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>130</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="26">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>52</v>
+        <v>150</v>
       </c>
       <c r="C22" s="42" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="D22" s="39">
-        <v>-23.7</v>
+        <v>-30.2</v>
       </c>
       <c r="E22" s="40">
-        <v>-11</v>
+        <v>-13.5</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="26">
-        <v>9</v>
-      </c>
-      <c r="B23" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="C23" s="42" t="s">
-        <v>11</v>
+        <v>18</v>
+      </c>
+      <c r="B23" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" s="46" t="s">
+        <v>10</v>
       </c>
       <c r="D23" s="39">
-        <v>-22.5</v>
+        <v>-28.2</v>
       </c>
       <c r="E23" s="40">
-        <v>-11</v>
+        <v>-20.5</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -3199,10 +3199,10 @@
         <v>3</v>
       </c>
       <c r="D24" s="39">
-        <v>-21.4</v>
+        <v>-27.7</v>
       </c>
       <c r="E24" s="40">
-        <v>-12.1</v>
+        <v>-15.8</v>
       </c>
       <c r="F24" s="37" t="s">
         <v>107</v>
@@ -3213,48 +3213,48 @@
     </row>
     <row r="25" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="26">
-        <v>17</v>
-      </c>
-      <c r="B25" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="46" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C25" s="42" t="s">
+        <v>47</v>
       </c>
       <c r="D25" s="39">
-        <v>-18.600000000000001</v>
+        <v>-23.4</v>
       </c>
       <c r="E25" s="40">
-        <v>-12.1</v>
+        <v>-9.3000000000000007</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="26">
-        <v>11</v>
-      </c>
-      <c r="B26" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="C26" s="42" t="s">
-        <v>47</v>
+        <v>17</v>
+      </c>
+      <c r="B26" s="45" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="46" t="s">
+        <v>14</v>
       </c>
       <c r="D26" s="39">
-        <v>-12.7</v>
+        <v>-22.1</v>
       </c>
       <c r="E26" s="40">
-        <v>-7</v>
+        <v>-16.399999999999999</v>
       </c>
       <c r="F26" s="37" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G26" s="36" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
     </row>
     <row r="27" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -3268,10 +3268,10 @@
         <v>13</v>
       </c>
       <c r="D27" s="39">
-        <v>-5.5</v>
+        <v>-1</v>
       </c>
       <c r="E27" s="40">
-        <v>6.4</v>
+        <v>3.7</v>
       </c>
       <c r="F27" s="37" t="s">
         <v>96</v>
@@ -3399,8 +3399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D81969E-A078-4EA2-89F6-5F7791D6A569}">
   <dimension ref="A1:Y109"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -5568,15 +5568,231 @@
       <c r="A29" s="9">
         <v>45637</v>
       </c>
+      <c r="B29">
+        <v>-34.4</v>
+      </c>
+      <c r="C29">
+        <v>-33.4</v>
+      </c>
+      <c r="D29">
+        <v>-36.9</v>
+      </c>
+      <c r="E29">
+        <v>-1.5</v>
+      </c>
+      <c r="F29">
+        <v>-36.9</v>
+      </c>
+      <c r="G29">
+        <v>-26.8</v>
+      </c>
+      <c r="H29">
+        <v>-23</v>
+      </c>
+      <c r="I29">
+        <v>-34.799999999999997</v>
+      </c>
+      <c r="J29">
+        <v>-25.3</v>
+      </c>
+      <c r="K29">
+        <v>-33.9</v>
+      </c>
+      <c r="L29">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="M29">
+        <v>-28.9</v>
+      </c>
+      <c r="N29">
+        <v>-34</v>
+      </c>
+      <c r="O29">
+        <v>-32.700000000000003</v>
+      </c>
+      <c r="P29">
+        <v>-27.8</v>
+      </c>
+      <c r="Q29">
+        <v>-27.4</v>
+      </c>
+      <c r="R29">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="S29">
+        <v>-25.9</v>
+      </c>
+      <c r="T29">
+        <v>-23</v>
+      </c>
+      <c r="U29">
+        <v>-21.5</v>
+      </c>
+      <c r="V29">
+        <v>-32.1</v>
+      </c>
+      <c r="W29">
+        <v>-23</v>
+      </c>
+      <c r="X29">
+        <v>-27.3</v>
+      </c>
+      <c r="Y29">
+        <v>-33.6</v>
+      </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A30" s="9">
         <v>45638</v>
       </c>
+      <c r="B30">
+        <v>-34.4</v>
+      </c>
+      <c r="C30">
+        <v>-35.4</v>
+      </c>
+      <c r="D30">
+        <v>-40.799999999999997</v>
+      </c>
+      <c r="E30">
+        <v>-4.7</v>
+      </c>
+      <c r="F30">
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="G30">
+        <v>-30.8</v>
+      </c>
+      <c r="H30">
+        <v>-28.4</v>
+      </c>
+      <c r="I30">
+        <v>-35.5</v>
+      </c>
+      <c r="J30">
+        <v>-28.4</v>
+      </c>
+      <c r="K30">
+        <v>-37</v>
+      </c>
+      <c r="L30">
+        <v>-21.8</v>
+      </c>
+      <c r="M30">
+        <v>-31.4</v>
+      </c>
+      <c r="N30">
+        <v>-32.299999999999997</v>
+      </c>
+      <c r="O30">
+        <v>-35.1</v>
+      </c>
+      <c r="P30">
+        <v>-26.4</v>
+      </c>
+      <c r="Q30">
+        <v>-31.2</v>
+      </c>
+      <c r="R30">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="S30">
+        <v>-27.7</v>
+      </c>
+      <c r="T30">
+        <v>-36</v>
+      </c>
+      <c r="U30">
+        <v>-37.9</v>
+      </c>
+      <c r="V30">
+        <v>-30.4</v>
+      </c>
+      <c r="W30">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="X30">
+        <v>-31.2</v>
+      </c>
+      <c r="Y30">
+        <v>-34.6</v>
+      </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A31" s="9">
         <v>45639</v>
+      </c>
+      <c r="B31">
+        <v>-36.1</v>
+      </c>
+      <c r="C31">
+        <v>-38.1</v>
+      </c>
+      <c r="D31">
+        <v>-42.5</v>
+      </c>
+      <c r="E31">
+        <v>-1</v>
+      </c>
+      <c r="F31">
+        <v>-37.5</v>
+      </c>
+      <c r="G31">
+        <v>-30.5</v>
+      </c>
+      <c r="H31">
+        <v>-30.2</v>
+      </c>
+      <c r="I31">
+        <v>-39.1</v>
+      </c>
+      <c r="J31">
+        <v>-30.2</v>
+      </c>
+      <c r="K31">
+        <v>-37.200000000000003</v>
+      </c>
+      <c r="L31">
+        <v>-23.4</v>
+      </c>
+      <c r="M31">
+        <v>-31.9</v>
+      </c>
+      <c r="N31">
+        <v>-36.299999999999997</v>
+      </c>
+      <c r="O31">
+        <v>-37</v>
+      </c>
+      <c r="P31">
+        <v>-27.7</v>
+      </c>
+      <c r="Q31">
+        <v>-36.4</v>
+      </c>
+      <c r="R31">
+        <v>-22.1</v>
+      </c>
+      <c r="S31">
+        <v>-28.2</v>
+      </c>
+      <c r="T31">
+        <v>-36.299999999999997</v>
+      </c>
+      <c r="U31">
+        <v>-37.299999999999997</v>
+      </c>
+      <c r="V31">
+        <v>-34.1</v>
+      </c>
+      <c r="W31">
+        <v>-42.3</v>
+      </c>
+      <c r="X31">
+        <v>-33.9</v>
+      </c>
+      <c r="Y31">
+        <v>-35.1</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.4">
@@ -5979,8 +6195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4603A40C-9136-4681-B4C7-1EB22060A809}">
   <dimension ref="A1:Y109"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -8148,15 +8364,231 @@
       <c r="A29" s="9">
         <v>45637</v>
       </c>
+      <c r="B29">
+        <v>-16.2</v>
+      </c>
+      <c r="C29">
+        <v>-15.6</v>
+      </c>
+      <c r="D29">
+        <v>-25.3</v>
+      </c>
+      <c r="E29">
+        <v>5.8</v>
+      </c>
+      <c r="F29">
+        <v>-26.4</v>
+      </c>
+      <c r="G29">
+        <v>-21.7</v>
+      </c>
+      <c r="H29">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="I29">
+        <v>-25.4</v>
+      </c>
+      <c r="J29">
+        <v>-11.9</v>
+      </c>
+      <c r="K29">
+        <v>-25.2</v>
+      </c>
+      <c r="L29">
+        <v>-8.9</v>
+      </c>
+      <c r="M29">
+        <v>-15.3</v>
+      </c>
+      <c r="N29">
+        <v>-23.5</v>
+      </c>
+      <c r="O29">
+        <v>-26.4</v>
+      </c>
+      <c r="P29">
+        <v>-14.6</v>
+      </c>
+      <c r="Q29">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="R29">
+        <v>-11.5</v>
+      </c>
+      <c r="S29">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="T29">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="U29">
+        <v>-16.399999999999999</v>
+      </c>
+      <c r="V29">
+        <v>-22.6</v>
+      </c>
+      <c r="W29">
+        <v>-15.7</v>
+      </c>
+      <c r="X29">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="Y29">
+        <v>-27</v>
+      </c>
     </row>
     <row r="30" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A30" s="9">
         <v>45638</v>
       </c>
+      <c r="B30">
+        <v>-16.8</v>
+      </c>
+      <c r="C30">
+        <v>-17.7</v>
+      </c>
+      <c r="D30">
+        <v>-30.7</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>-27.1</v>
+      </c>
+      <c r="G30">
+        <v>-23</v>
+      </c>
+      <c r="H30">
+        <v>-17.7</v>
+      </c>
+      <c r="I30">
+        <v>-28</v>
+      </c>
+      <c r="J30">
+        <v>-14.5</v>
+      </c>
+      <c r="K30">
+        <v>-27.9</v>
+      </c>
+      <c r="L30">
+        <v>-15</v>
+      </c>
+      <c r="M30">
+        <v>-15.2</v>
+      </c>
+      <c r="N30">
+        <v>-21.8</v>
+      </c>
+      <c r="O30">
+        <v>-25.3</v>
+      </c>
+      <c r="P30">
+        <v>-13.8</v>
+      </c>
+      <c r="Q30">
+        <v>-18.7</v>
+      </c>
+      <c r="R30">
+        <v>-11.5</v>
+      </c>
+      <c r="S30">
+        <v>-19.399999999999999</v>
+      </c>
+      <c r="T30">
+        <v>-23</v>
+      </c>
+      <c r="U30">
+        <v>-21.5</v>
+      </c>
+      <c r="V30">
+        <v>-20.5</v>
+      </c>
+      <c r="W30">
+        <v>-20.9</v>
+      </c>
+      <c r="X30">
+        <v>-20.6</v>
+      </c>
+      <c r="Y30">
+        <v>-26.7</v>
+      </c>
     </row>
     <row r="31" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A31" s="9">
         <v>45639</v>
+      </c>
+      <c r="B31">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="C31">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="D31">
+        <v>-32</v>
+      </c>
+      <c r="E31">
+        <v>3.7</v>
+      </c>
+      <c r="F31">
+        <v>-26.9</v>
+      </c>
+      <c r="G31">
+        <v>-22.5</v>
+      </c>
+      <c r="H31">
+        <v>-19.3</v>
+      </c>
+      <c r="I31">
+        <v>-29.5</v>
+      </c>
+      <c r="J31">
+        <v>-13.5</v>
+      </c>
+      <c r="K31">
+        <v>-23.4</v>
+      </c>
+      <c r="L31">
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="M31">
+        <v>-15.8</v>
+      </c>
+      <c r="N31">
+        <v>-25.6</v>
+      </c>
+      <c r="O31">
+        <v>-26.2</v>
+      </c>
+      <c r="P31">
+        <v>-15.8</v>
+      </c>
+      <c r="Q31">
+        <v>-27.7</v>
+      </c>
+      <c r="R31">
+        <v>-16.399999999999999</v>
+      </c>
+      <c r="S31">
+        <v>-20.5</v>
+      </c>
+      <c r="T31">
+        <v>-26.5</v>
+      </c>
+      <c r="U31">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="V31">
+        <v>-24.8</v>
+      </c>
+      <c r="W31">
+        <v>-30.7</v>
+      </c>
+      <c r="X31">
+        <v>-24</v>
+      </c>
+      <c r="Y31">
+        <v>-26.9</v>
       </c>
     </row>
     <row r="32" spans="1:25" x14ac:dyDescent="0.4">

--- a/气象/北境强冷站每日气温记录.xlsx
+++ b/气象/北境强冷站每日气温记录.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7C2A972-D870-45EA-9DDA-AEBE2F5D7283}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545534D1-B7B6-498F-A56D-2C4C281B4E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{21DDB67E-D335-466F-8652-CD2F68303142}"/>
   </bookViews>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="154">
   <si>
     <t>漠河</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -966,6 +966,12 @@
       <t>伊尔库茨克州</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>≤ -29.6</t>
+  </si>
+  <si>
+    <t>无</t>
   </si>
 </sst>
 </file>
@@ -1957,7 +1963,7 @@
   <dimension ref="A1:AE30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.4"/>
@@ -2012,10 +2018,10 @@
         <v>27</v>
       </c>
       <c r="B3" s="12">
-        <v>-36.1</v>
+        <v>-26.3</v>
       </c>
       <c r="C3" s="12">
-        <v>-19.600000000000001</v>
+        <v>-13.2</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="17"/>
@@ -2025,76 +2031,76 @@
       </c>
       <c r="H3" s="4" cm="1">
         <f t="array" ref="H3:AE3">TRANSPOSE(B3:B26)</f>
+        <v>-26.3</v>
+      </c>
+      <c r="I3" s="4">
+        <v>-30.5</v>
+      </c>
+      <c r="J3" s="4">
+        <v>-35.9</v>
+      </c>
+      <c r="K3" s="4">
+        <v>-4.5</v>
+      </c>
+      <c r="L3" s="4">
+        <v>-36.4</v>
+      </c>
+      <c r="M3" s="4">
+        <v>-26.9</v>
+      </c>
+      <c r="N3" s="4">
+        <v>-24.4</v>
+      </c>
+      <c r="O3" s="4">
         <v>-36.1</v>
       </c>
-      <c r="I3" s="4">
-        <v>-38.1</v>
-      </c>
-      <c r="J3" s="4">
-        <v>-42.5</v>
-      </c>
-      <c r="K3" s="4">
-        <v>-1</v>
-      </c>
-      <c r="L3" s="4">
-        <v>-37.5</v>
-      </c>
-      <c r="M3" s="4">
-        <v>-30.5</v>
-      </c>
-      <c r="N3" s="4">
-        <v>-30.2</v>
-      </c>
-      <c r="O3" s="4">
-        <v>-39.1</v>
-      </c>
       <c r="P3" s="4">
-        <v>-30.2</v>
+        <v>-22.4</v>
       </c>
       <c r="Q3" s="4">
-        <v>-37.200000000000003</v>
+        <v>-19.8</v>
       </c>
       <c r="R3" s="4">
-        <v>-23.4</v>
+        <v>-21.4</v>
       </c>
       <c r="S3" s="4">
-        <v>-31.9</v>
+        <v>-33.5</v>
       </c>
       <c r="T3" s="4">
-        <v>-36.299999999999997</v>
+        <v>-35.4</v>
       </c>
       <c r="U3" s="4">
-        <v>-37</v>
+        <v>-24.3</v>
       </c>
       <c r="V3" s="4">
-        <v>-27.7</v>
+        <v>-30.6</v>
       </c>
       <c r="W3" s="4">
-        <v>-36.4</v>
+        <v>-28.5</v>
       </c>
       <c r="X3" s="4">
-        <v>-22.1</v>
+        <v>-17.7</v>
       </c>
       <c r="Y3" s="4">
-        <v>-28.2</v>
+        <v>-29.3</v>
       </c>
       <c r="Z3" s="4">
-        <v>-36.299999999999997</v>
+        <v>-26.1</v>
       </c>
       <c r="AA3" s="4">
-        <v>-37.299999999999997</v>
+        <v>-29.5</v>
       </c>
       <c r="AB3" s="4">
-        <v>-34.1</v>
+        <v>-26</v>
       </c>
       <c r="AC3" s="4">
-        <v>-42.3</v>
+        <v>-30.3</v>
       </c>
       <c r="AD3" s="4">
-        <v>-33.9</v>
+        <v>-31.7</v>
       </c>
       <c r="AE3" s="4">
-        <v>-35.1</v>
+        <v>-23.7</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -2102,10 +2108,10 @@
         <v>28</v>
       </c>
       <c r="B4" s="12">
-        <v>-38.1</v>
+        <v>-30.5</v>
       </c>
       <c r="C4" s="12">
-        <v>-18.899999999999999</v>
+        <v>-14.4</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="17"/>
@@ -2115,76 +2121,76 @@
       </c>
       <c r="H4" s="4" cm="1">
         <f t="array" ref="H4:AE4">TRANSPOSE(C3:C26)</f>
+        <v>-13.2</v>
+      </c>
+      <c r="I4" s="4">
+        <v>-14.4</v>
+      </c>
+      <c r="J4" s="4">
+        <v>-28.7</v>
+      </c>
+      <c r="K4" s="4">
+        <v>4.5</v>
+      </c>
+      <c r="L4" s="4">
+        <v>-27.2</v>
+      </c>
+      <c r="M4" s="4">
+        <v>-18.3</v>
+      </c>
+      <c r="N4" s="4">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="O4" s="4">
+        <v>-25.2</v>
+      </c>
+      <c r="P4" s="4">
+        <v>-12.5</v>
+      </c>
+      <c r="Q4" s="4">
+        <v>-12.9</v>
+      </c>
+      <c r="R4" s="4">
+        <v>-18.2</v>
+      </c>
+      <c r="S4" s="4">
+        <v>-19.5</v>
+      </c>
+      <c r="T4" s="4">
+        <v>-26.6</v>
+      </c>
+      <c r="U4" s="4">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="V4" s="4">
+        <v>-20.5</v>
+      </c>
+      <c r="W4" s="4">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="X4" s="4">
+        <v>-9.1</v>
+      </c>
+      <c r="Y4" s="4">
         <v>-19.600000000000001</v>
       </c>
-      <c r="I4" s="4">
-        <v>-18.899999999999999</v>
-      </c>
-      <c r="J4" s="4">
-        <v>-32</v>
-      </c>
-      <c r="K4" s="4">
-        <v>3.7</v>
-      </c>
-      <c r="L4" s="4">
-        <v>-26.9</v>
-      </c>
-      <c r="M4" s="4">
-        <v>-22.5</v>
-      </c>
-      <c r="N4" s="4">
-        <v>-19.3</v>
-      </c>
-      <c r="O4" s="4">
-        <v>-29.5</v>
-      </c>
-      <c r="P4" s="4">
-        <v>-13.5</v>
-      </c>
-      <c r="Q4" s="4">
-        <v>-23.4</v>
-      </c>
-      <c r="R4" s="4">
-        <v>-9.3000000000000007</v>
-      </c>
-      <c r="S4" s="4">
-        <v>-15.8</v>
-      </c>
-      <c r="T4" s="4">
-        <v>-25.6</v>
-      </c>
-      <c r="U4" s="4">
-        <v>-26.2</v>
-      </c>
-      <c r="V4" s="4">
-        <v>-15.8</v>
-      </c>
-      <c r="W4" s="4">
-        <v>-27.7</v>
-      </c>
-      <c r="X4" s="4">
-        <v>-16.399999999999999</v>
-      </c>
-      <c r="Y4" s="4">
-        <v>-20.5</v>
-      </c>
       <c r="Z4" s="4">
-        <v>-26.5</v>
+        <v>-20.100000000000001</v>
       </c>
       <c r="AA4" s="4">
-        <v>-20.100000000000001</v>
+        <v>-18.8</v>
       </c>
       <c r="AB4" s="4">
-        <v>-24.8</v>
+        <v>-17</v>
       </c>
       <c r="AC4" s="4">
-        <v>-30.7</v>
+        <v>-18.5</v>
       </c>
       <c r="AD4" s="4">
-        <v>-24</v>
+        <v>-20.6</v>
       </c>
       <c r="AE4" s="4">
-        <v>-26.9</v>
+        <v>-19.8</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -2192,10 +2198,10 @@
         <v>29</v>
       </c>
       <c r="B5" s="12">
-        <v>-42.5</v>
+        <v>-35.9</v>
       </c>
       <c r="C5" s="12">
-        <v>-32</v>
+        <v>-28.7</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="17"/>
@@ -2209,10 +2215,10 @@
         <v>30</v>
       </c>
       <c r="B6" s="12">
-        <v>-1</v>
+        <v>-4.5</v>
       </c>
       <c r="C6" s="12">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
@@ -2226,10 +2232,10 @@
         <v>31</v>
       </c>
       <c r="B7" s="12">
-        <v>-37.5</v>
+        <v>-36.4</v>
       </c>
       <c r="C7" s="12">
-        <v>-26.9</v>
+        <v>-27.2</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="17"/>
@@ -2243,10 +2249,10 @@
         <v>32</v>
       </c>
       <c r="B8" s="12">
-        <v>-30.5</v>
+        <v>-26.9</v>
       </c>
       <c r="C8" s="12">
-        <v>-22.5</v>
+        <v>-18.3</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="17"/>
@@ -2260,10 +2266,10 @@
         <v>33</v>
       </c>
       <c r="B9" s="12">
-        <v>-30.2</v>
+        <v>-24.4</v>
       </c>
       <c r="C9" s="12">
-        <v>-19.3</v>
+        <v>-17.899999999999999</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
@@ -2277,10 +2283,10 @@
         <v>34</v>
       </c>
       <c r="B10" s="12">
-        <v>-39.1</v>
+        <v>-36.1</v>
       </c>
       <c r="C10" s="12">
-        <v>-29.5</v>
+        <v>-25.2</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
@@ -2294,10 +2300,10 @@
         <v>35</v>
       </c>
       <c r="B11" s="12">
-        <v>-30.2</v>
+        <v>-22.4</v>
       </c>
       <c r="C11" s="12">
-        <v>-13.5</v>
+        <v>-12.5</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
@@ -2311,10 +2317,10 @@
         <v>43</v>
       </c>
       <c r="B12" s="12">
-        <v>-37.200000000000003</v>
+        <v>-19.8</v>
       </c>
       <c r="C12" s="12">
-        <v>-23.4</v>
+        <v>-12.9</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
@@ -2328,10 +2334,10 @@
         <v>46</v>
       </c>
       <c r="B13" s="12">
-        <v>-23.4</v>
+        <v>-21.4</v>
       </c>
       <c r="C13" s="12">
-        <v>-9.3000000000000007</v>
+        <v>-18.2</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="17"/>
@@ -2345,10 +2351,10 @@
         <v>49</v>
       </c>
       <c r="B14" s="12">
-        <v>-31.9</v>
+        <v>-33.5</v>
       </c>
       <c r="C14" s="12">
-        <v>-15.8</v>
+        <v>-19.5</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
@@ -2362,10 +2368,10 @@
         <v>53</v>
       </c>
       <c r="B15" s="12">
-        <v>-36.299999999999997</v>
+        <v>-35.4</v>
       </c>
       <c r="C15" s="12">
-        <v>-25.6</v>
+        <v>-26.6</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="17"/>
@@ -2379,10 +2385,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="12">
-        <v>-37</v>
+        <v>-24.3</v>
       </c>
       <c r="C16" s="12">
-        <v>-26.2</v>
+        <v>-17.100000000000001</v>
       </c>
       <c r="D16" s="16">
         <v>1</v>
@@ -2402,10 +2408,10 @@
         <v>38</v>
       </c>
       <c r="B17" s="12">
-        <v>-27.7</v>
+        <v>-30.6</v>
       </c>
       <c r="C17" s="12">
-        <v>-15.8</v>
+        <v>-20.5</v>
       </c>
       <c r="D17" s="16">
         <v>1</v>
@@ -2425,10 +2431,10 @@
         <v>39</v>
       </c>
       <c r="B18" s="12">
-        <v>-36.4</v>
+        <v>-28.5</v>
       </c>
       <c r="C18" s="12">
-        <v>-27.7</v>
+        <v>-18.100000000000001</v>
       </c>
       <c r="D18" s="16">
         <v>1</v>
@@ -2448,10 +2454,10 @@
         <v>36</v>
       </c>
       <c r="B19" s="12">
-        <v>-22.1</v>
+        <v>-17.7</v>
       </c>
       <c r="C19" s="12">
-        <v>-16.399999999999999</v>
+        <v>-9.1</v>
       </c>
       <c r="D19" s="16">
         <v>1</v>
@@ -2471,10 +2477,10 @@
         <v>41</v>
       </c>
       <c r="B20" s="12">
-        <v>-28.2</v>
+        <v>-29.3</v>
       </c>
       <c r="C20" s="12">
-        <v>-20.5</v>
+        <v>-19.600000000000001</v>
       </c>
       <c r="D20" s="16">
         <v>1</v>
@@ -2494,10 +2500,10 @@
         <v>141</v>
       </c>
       <c r="B21" s="12">
-        <v>-36.299999999999997</v>
+        <v>-26.1</v>
       </c>
       <c r="C21" s="25">
-        <v>-26.5</v>
+        <v>-20.100000000000001</v>
       </c>
       <c r="D21" s="16">
         <v>1</v>
@@ -2517,10 +2523,10 @@
         <v>60</v>
       </c>
       <c r="B22" s="12">
-        <v>-37.299999999999997</v>
+        <v>-29.5</v>
       </c>
       <c r="C22" s="25">
-        <v>-20.100000000000001</v>
+        <v>-18.8</v>
       </c>
       <c r="D22" s="16">
         <v>1</v>
@@ -2540,10 +2546,10 @@
         <v>65</v>
       </c>
       <c r="B23" s="25">
-        <v>-34.1</v>
+        <v>-26</v>
       </c>
       <c r="C23" s="12">
-        <v>-24.8</v>
+        <v>-17</v>
       </c>
       <c r="D23" s="16">
         <v>1</v>
@@ -2563,10 +2569,10 @@
         <v>40</v>
       </c>
       <c r="B24" s="12">
-        <v>-42.3</v>
+        <v>-30.3</v>
       </c>
       <c r="C24" s="25">
-        <v>-30.7</v>
+        <v>-18.5</v>
       </c>
       <c r="D24" s="16">
         <v>1</v>
@@ -2586,10 +2592,10 @@
         <v>56</v>
       </c>
       <c r="B25" s="12">
-        <v>-33.9</v>
+        <v>-31.7</v>
       </c>
       <c r="C25" s="12">
-        <v>-24</v>
+        <v>-20.6</v>
       </c>
       <c r="D25" s="16">
         <v>3</v>
@@ -2609,10 +2615,10 @@
         <v>62</v>
       </c>
       <c r="B26" s="12">
-        <v>-35.1</v>
+        <v>-23.7</v>
       </c>
       <c r="C26" s="12">
-        <v>-26.9</v>
+        <v>-19.8</v>
       </c>
       <c r="D26" s="16">
         <v>4</v>
@@ -2666,7 +2672,7 @@
   <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2696,7 +2702,7 @@
     <row r="2" spans="1:11" ht="29.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="50"/>
       <c r="B2" s="34">
-        <v>45639</v>
+        <v>45644</v>
       </c>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -2729,509 +2735,509 @@
     </row>
     <row r="4" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="26">
-        <v>3</v>
-      </c>
-      <c r="B4" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="C4" s="38" t="s">
-        <v>8</v>
+        <v>5</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>5</v>
       </c>
       <c r="D4" s="39">
-        <v>-42.5</v>
+        <v>-36.4</v>
       </c>
       <c r="E4" s="40">
-        <v>-32</v>
-      </c>
-      <c r="F4" s="36" t="s">
-        <v>93</v>
+        <v>-27.2</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>98</v>
       </c>
       <c r="G4" s="36" t="s">
-        <v>95</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="26">
-        <v>22</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="46" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>12</v>
       </c>
       <c r="D5" s="39">
-        <v>-42.3</v>
+        <v>-36.1</v>
       </c>
       <c r="E5" s="40">
-        <v>-30.7</v>
+        <v>-25.2</v>
       </c>
       <c r="F5" s="37" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="G5" s="36" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="26">
+        <v>3</v>
+      </c>
+      <c r="B6" s="35" t="s">
+        <v>146</v>
+      </c>
+      <c r="C6" s="38" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="42" t="s">
-        <v>12</v>
-      </c>
       <c r="D6" s="39">
-        <v>-39.1</v>
+        <v>-35.9</v>
       </c>
       <c r="E6" s="40">
-        <v>-29.5</v>
-      </c>
-      <c r="F6" s="37" t="s">
-        <v>100</v>
+        <v>-28.7</v>
+      </c>
+      <c r="F6" s="36" t="s">
+        <v>93</v>
       </c>
       <c r="G6" s="36" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A7" s="26">
-        <v>2</v>
-      </c>
-      <c r="B7" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="C7" s="38" t="s">
-        <v>1</v>
+        <v>13</v>
+      </c>
+      <c r="B7" s="44" t="s">
+        <v>149</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>54</v>
       </c>
       <c r="D7" s="39">
-        <v>-38.1</v>
+        <v>-35.4</v>
       </c>
       <c r="E7" s="40">
-        <v>-18.899999999999999</v>
-      </c>
-      <c r="F7" s="36" t="s">
-        <v>92</v>
+        <v>-26.6</v>
+      </c>
+      <c r="F7" s="37" t="s">
+        <v>105</v>
       </c>
       <c r="G7" s="36" t="s">
-        <v>94</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="26">
-        <v>5</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>147</v>
+        <v>12</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>52</v>
       </c>
       <c r="C8" s="42" t="s">
-        <v>5</v>
+        <v>50</v>
       </c>
       <c r="D8" s="39">
-        <v>-37.5</v>
+        <v>-33.5</v>
       </c>
       <c r="E8" s="40">
-        <v>-26.9</v>
+        <v>-19.5</v>
       </c>
       <c r="F8" s="37" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="G8" s="36" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="K8" s="28"/>
     </row>
     <row r="9" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A9" s="26">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D9" s="39">
-        <v>-37.299999999999997</v>
+        <v>-31.7</v>
       </c>
       <c r="E9" s="40">
-        <v>-20.100000000000001</v>
+        <v>-20.6</v>
       </c>
       <c r="F9" s="37" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="G9" s="36" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="26">
-        <v>10</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>44</v>
+        <v>15</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10" s="46" t="s">
+        <v>3</v>
       </c>
       <c r="D10" s="39">
-        <v>-37.200000000000003</v>
+        <v>-30.6</v>
       </c>
       <c r="E10" s="40">
-        <v>-23.4</v>
+        <v>-20.5</v>
       </c>
       <c r="F10" s="37" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="G10" s="36" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="26">
-        <v>14</v>
-      </c>
-      <c r="B11" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="46" t="s">
         <v>2</v>
       </c>
+      <c r="B11" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>1</v>
+      </c>
       <c r="D11" s="39">
-        <v>-37</v>
+        <v>-30.5</v>
       </c>
       <c r="E11" s="40">
-        <v>-26.2</v>
-      </c>
-      <c r="F11" s="37" t="s">
-        <v>106</v>
+        <v>-14.4</v>
+      </c>
+      <c r="F11" s="36" t="s">
+        <v>92</v>
       </c>
       <c r="G11" s="36" t="s">
-        <v>126</v>
+        <v>94</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="26">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B12" s="45" t="s">
         <v>23</v>
       </c>
       <c r="C12" s="46" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D12" s="39">
-        <v>-36.4</v>
+        <v>-30.3</v>
       </c>
       <c r="E12" s="40">
-        <v>-27.7</v>
+        <v>-18.5</v>
       </c>
       <c r="F12" s="37" t="s">
-        <v>108</v>
+        <v>113</v>
       </c>
       <c r="G12" s="36" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="26">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="45" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="46" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="D13" s="39">
-        <v>-36.299999999999997</v>
+        <v>-29.5</v>
       </c>
       <c r="E13" s="40">
-        <v>-26.5</v>
+        <v>-18.8</v>
       </c>
       <c r="F13" s="37" t="s">
-        <v>142</v>
+        <v>111</v>
       </c>
       <c r="G13" s="36" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="26">
-        <v>13</v>
-      </c>
-      <c r="B14" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>54</v>
+        <v>18</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>10</v>
       </c>
       <c r="D14" s="39">
-        <v>-36.299999999999997</v>
+        <v>-29.3</v>
       </c>
       <c r="E14" s="40">
-        <v>-25.6</v>
+        <v>-19.600000000000001</v>
       </c>
       <c r="F14" s="37" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="G14" s="36" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="26">
-        <v>1</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C15" s="38" t="s">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>4</v>
       </c>
       <c r="D15" s="39">
-        <v>-36.1</v>
+        <v>-28.5</v>
       </c>
       <c r="E15" s="40">
-        <v>-19.600000000000001</v>
-      </c>
-      <c r="F15" s="36" t="s">
-        <v>90</v>
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="F15" s="37" t="s">
+        <v>108</v>
       </c>
       <c r="G15" s="36" t="s">
-        <v>91</v>
+        <v>128</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="26">
-        <v>24</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>63</v>
+        <v>6</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>6</v>
       </c>
       <c r="D16" s="39">
-        <v>-35.1</v>
+        <v>-26.9</v>
       </c>
       <c r="E16" s="40">
-        <v>-26.9</v>
+        <v>-18.3</v>
       </c>
       <c r="F16" s="37" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="G16" s="36" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="26">
-        <v>21</v>
-      </c>
-      <c r="B17" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="46" t="s">
-        <v>66</v>
+        <v>1</v>
+      </c>
+      <c r="B17" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>0</v>
       </c>
       <c r="D17" s="39">
-        <v>-34.1</v>
+        <v>-26.3</v>
       </c>
       <c r="E17" s="40">
-        <v>-24.8</v>
-      </c>
-      <c r="F17" s="37" t="s">
-        <v>112</v>
+        <v>-13.2</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>90</v>
       </c>
       <c r="G17" s="36" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="26">
+        <v>19</v>
+      </c>
+      <c r="B18" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B18" s="45" t="s">
-        <v>22</v>
-      </c>
       <c r="C18" s="46" t="s">
-        <v>57</v>
+        <v>141</v>
       </c>
       <c r="D18" s="39">
-        <v>-33.9</v>
+        <v>-26.1</v>
       </c>
       <c r="E18" s="40">
-        <v>-24</v>
+        <v>-20.100000000000001</v>
       </c>
       <c r="F18" s="37" t="s">
-        <v>114</v>
+        <v>142</v>
       </c>
       <c r="G18" s="36" t="s">
-        <v>134</v>
+        <v>143</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="26">
-        <v>12</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>50</v>
+        <v>21</v>
+      </c>
+      <c r="B19" s="45" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="46" t="s">
+        <v>66</v>
       </c>
       <c r="D19" s="39">
-        <v>-31.9</v>
+        <v>-26</v>
       </c>
       <c r="E19" s="40">
-        <v>-15.8</v>
+        <v>-17</v>
       </c>
       <c r="F19" s="37" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="G19" s="36" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="26">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B20" s="43" t="s">
         <v>18</v>
       </c>
       <c r="C20" s="42" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D20" s="39">
-        <v>-30.5</v>
+        <v>-24.4</v>
       </c>
       <c r="E20" s="40">
-        <v>-22.5</v>
+        <v>-17.899999999999999</v>
       </c>
       <c r="F20" s="37" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G20" s="36" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="26">
-        <v>7</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="42" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="B21" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="46" t="s">
+        <v>2</v>
       </c>
       <c r="D21" s="39">
-        <v>-30.2</v>
+        <v>-24.3</v>
       </c>
       <c r="E21" s="40">
-        <v>-19.3</v>
+        <v>-17.100000000000001</v>
       </c>
       <c r="F21" s="37" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="G21" s="36" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="26">
-        <v>9</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="C22" s="42" t="s">
-        <v>11</v>
+        <v>24</v>
+      </c>
+      <c r="B22" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" s="46" t="s">
+        <v>63</v>
       </c>
       <c r="D22" s="39">
-        <v>-30.2</v>
+        <v>-23.7</v>
       </c>
       <c r="E22" s="40">
-        <v>-13.5</v>
+        <v>-19.8</v>
       </c>
       <c r="F22" s="37" t="s">
-        <v>101</v>
+        <v>115</v>
       </c>
       <c r="G22" s="36" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="26">
-        <v>18</v>
-      </c>
-      <c r="B23" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C23" s="46" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>150</v>
+      </c>
+      <c r="C23" s="42" t="s">
+        <v>11</v>
       </c>
       <c r="D23" s="39">
-        <v>-28.2</v>
+        <v>-22.4</v>
       </c>
       <c r="E23" s="40">
-        <v>-20.5</v>
+        <v>-12.5</v>
       </c>
       <c r="F23" s="37" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
       <c r="G23" s="36" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="26">
-        <v>15</v>
-      </c>
-      <c r="B24" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C24" s="46" t="s">
-        <v>3</v>
+        <v>11</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>148</v>
+      </c>
+      <c r="C24" s="42" t="s">
+        <v>47</v>
       </c>
       <c r="D24" s="39">
-        <v>-27.7</v>
+        <v>-21.4</v>
       </c>
       <c r="E24" s="40">
-        <v>-15.8</v>
+        <v>-18.2</v>
       </c>
       <c r="F24" s="37" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="G24" s="36" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="26">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B25" s="43" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C25" s="42" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D25" s="39">
-        <v>-23.4</v>
+        <v>-19.8</v>
       </c>
       <c r="E25" s="40">
-        <v>-9.3000000000000007</v>
+        <v>-12.9</v>
       </c>
       <c r="F25" s="37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G25" s="36" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
@@ -3245,10 +3251,10 @@
         <v>14</v>
       </c>
       <c r="D26" s="39">
-        <v>-22.1</v>
+        <v>-17.7</v>
       </c>
       <c r="E26" s="40">
-        <v>-16.399999999999999</v>
+        <v>-9.1</v>
       </c>
       <c r="F26" s="37" t="s">
         <v>109</v>
@@ -3268,10 +3274,10 @@
         <v>13</v>
       </c>
       <c r="D27" s="39">
-        <v>-1</v>
+        <v>-4.5</v>
       </c>
       <c r="E27" s="40">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="F27" s="37" t="s">
         <v>96</v>
@@ -3400,7 +3406,7 @@
   <dimension ref="A1:Y109"/>
   <sheetViews>
     <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -5799,83 +5805,443 @@
       <c r="A32" s="9">
         <v>45640</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B32">
+        <v>-34.299999999999997</v>
+      </c>
+      <c r="C32">
+        <v>-35.1</v>
+      </c>
+      <c r="D32">
+        <v>-42.1</v>
+      </c>
+      <c r="E32">
+        <v>-6.6</v>
+      </c>
+      <c r="F32">
+        <v>-38.200000000000003</v>
+      </c>
+      <c r="G32">
+        <v>-28.2</v>
+      </c>
+      <c r="H32">
+        <v>-30.5</v>
+      </c>
+      <c r="I32">
+        <v>-37.1</v>
+      </c>
+      <c r="J32">
+        <v>-23.2</v>
+      </c>
+      <c r="K32">
+        <v>-23.4</v>
+      </c>
+      <c r="L32">
+        <v>-9.3000000000000007</v>
+      </c>
+      <c r="M32">
+        <v>-31.6</v>
+      </c>
+      <c r="N32">
+        <v>-36.299999999999997</v>
+      </c>
+      <c r="O32">
+        <v>-31</v>
+      </c>
+      <c r="P32">
+        <v>-28</v>
+      </c>
+      <c r="Q32">
+        <v>-35.200000000000003</v>
+      </c>
+      <c r="R32">
+        <v>-23.5</v>
+      </c>
+      <c r="S32">
+        <v>-29.3</v>
+      </c>
+      <c r="T32">
+        <v>-34.700000000000003</v>
+      </c>
+      <c r="U32">
+        <v>-34.799999999999997</v>
+      </c>
+      <c r="V32">
+        <v>-30.4</v>
+      </c>
+      <c r="W32">
+        <v>-41.9</v>
+      </c>
+      <c r="X32">
+        <v>-33.1</v>
+      </c>
+      <c r="Y32">
+        <v>-30.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A33" s="9">
         <v>45641</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B33">
+        <v>-26.3</v>
+      </c>
+      <c r="C33">
+        <v>-35.799999999999997</v>
+      </c>
+      <c r="D33">
+        <v>-35.4</v>
+      </c>
+      <c r="E33">
+        <v>-4.2</v>
+      </c>
+      <c r="F33">
+        <v>-32.799999999999997</v>
+      </c>
+      <c r="G33">
+        <v>-29.5</v>
+      </c>
+      <c r="H33">
+        <v>-29.9</v>
+      </c>
+      <c r="I33">
+        <v>-38.200000000000003</v>
+      </c>
+      <c r="J33">
+        <v>-22.9</v>
+      </c>
+      <c r="K33">
+        <v>-20.3</v>
+      </c>
+      <c r="L33">
+        <v>-22.9</v>
+      </c>
+      <c r="M33">
+        <v>-26.6</v>
+      </c>
+      <c r="N33">
+        <v>-34.5</v>
+      </c>
+      <c r="O33">
+        <v>-31.9</v>
+      </c>
+      <c r="P33">
+        <v>-28.3</v>
+      </c>
+      <c r="Q33">
+        <v>-37.299999999999997</v>
+      </c>
+      <c r="R33">
+        <v>-21.3</v>
+      </c>
+      <c r="S33">
+        <v>-30.6</v>
+      </c>
+      <c r="T33">
+        <v>-35.299999999999997</v>
+      </c>
+      <c r="U33">
+        <v>-35.5</v>
+      </c>
+      <c r="V33">
+        <v>-21</v>
+      </c>
+      <c r="W33">
+        <v>-43</v>
+      </c>
+      <c r="X33">
+        <v>-33.9</v>
+      </c>
+      <c r="Y33">
+        <v>-31.9</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A34" s="9">
         <v>45642</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B34">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="C34">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="D34">
+        <v>-31.4</v>
+      </c>
+      <c r="E34">
+        <v>-2.4</v>
+      </c>
+      <c r="F34">
+        <v>-29.6</v>
+      </c>
+      <c r="G34">
+        <v>-30</v>
+      </c>
+      <c r="H34">
+        <v>-30.1</v>
+      </c>
+      <c r="I34">
+        <v>-41.1</v>
+      </c>
+      <c r="J34">
+        <v>-19.5</v>
+      </c>
+      <c r="K34">
+        <v>-23.9</v>
+      </c>
+      <c r="L34">
+        <v>-30</v>
+      </c>
+      <c r="M34">
+        <v>-32.6</v>
+      </c>
+      <c r="N34">
+        <v>-38.200000000000003</v>
+      </c>
+      <c r="O34">
+        <v>-33.1</v>
+      </c>
+      <c r="P34">
+        <v>-27.6</v>
+      </c>
+      <c r="Q34">
+        <v>-31.3</v>
+      </c>
+      <c r="R34">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="S34">
+        <v>-29.4</v>
+      </c>
+      <c r="T34">
+        <v>-33.1</v>
+      </c>
+      <c r="U34">
+        <v>-28.4</v>
+      </c>
+      <c r="V34">
+        <v>-27.4</v>
+      </c>
+      <c r="W34">
+        <v>-35.9</v>
+      </c>
+      <c r="X34">
+        <v>-32.4</v>
+      </c>
+      <c r="Y34">
+        <v>-32.9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A35" s="9">
         <v>45643</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B35">
+        <v>-26.4</v>
+      </c>
+      <c r="C35">
+        <v>-33.299999999999997</v>
+      </c>
+      <c r="D35">
+        <v>-34.200000000000003</v>
+      </c>
+      <c r="E35">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="F35">
+        <v>-31.2</v>
+      </c>
+      <c r="G35">
+        <v>-24.6</v>
+      </c>
+      <c r="H35">
+        <v>-27.2</v>
+      </c>
+      <c r="I35">
+        <v>-37.9</v>
+      </c>
+      <c r="J35">
+        <v>-20.399999999999999</v>
+      </c>
+      <c r="K35">
+        <v>-28.6</v>
+      </c>
+      <c r="L35">
+        <v>-32.200000000000003</v>
+      </c>
+      <c r="M35">
+        <v>-33.4</v>
+      </c>
+      <c r="N35">
+        <v>-38.1</v>
+      </c>
+      <c r="O35">
+        <v>-31.4</v>
+      </c>
+      <c r="P35">
+        <v>-22.8</v>
+      </c>
+      <c r="Q35">
+        <v>-31</v>
+      </c>
+      <c r="R35">
+        <v>-21.4</v>
+      </c>
+      <c r="S35">
+        <v>-22.8</v>
+      </c>
+      <c r="T35">
+        <v>-30.2</v>
+      </c>
+      <c r="U35">
+        <v>-25.2</v>
+      </c>
+      <c r="V35" t="s">
+        <v>152</v>
+      </c>
+      <c r="W35">
+        <v>-35.200000000000003</v>
+      </c>
+      <c r="X35">
+        <v>-28.2</v>
+      </c>
+      <c r="Y35">
+        <v>-31.3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A36" s="9">
         <v>45644</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B36">
+        <v>-26.3</v>
+      </c>
+      <c r="C36">
+        <v>-30.5</v>
+      </c>
+      <c r="D36">
+        <v>-35.9</v>
+      </c>
+      <c r="E36">
+        <v>-4.5</v>
+      </c>
+      <c r="F36">
+        <v>-36.4</v>
+      </c>
+      <c r="G36">
+        <v>-26.9</v>
+      </c>
+      <c r="H36">
+        <v>-24.4</v>
+      </c>
+      <c r="I36">
+        <v>-36.1</v>
+      </c>
+      <c r="J36">
+        <v>-22.4</v>
+      </c>
+      <c r="K36">
+        <v>-19.8</v>
+      </c>
+      <c r="L36">
+        <v>-21.4</v>
+      </c>
+      <c r="M36">
+        <v>-33.5</v>
+      </c>
+      <c r="N36">
+        <v>-35.4</v>
+      </c>
+      <c r="O36">
+        <v>-24.3</v>
+      </c>
+      <c r="P36">
+        <v>-30.6</v>
+      </c>
+      <c r="Q36">
+        <v>-28.5</v>
+      </c>
+      <c r="R36">
+        <v>-17.7</v>
+      </c>
+      <c r="S36">
+        <v>-29.3</v>
+      </c>
+      <c r="T36">
+        <v>-26.1</v>
+      </c>
+      <c r="U36">
+        <v>-29.5</v>
+      </c>
+      <c r="V36">
+        <v>-26</v>
+      </c>
+      <c r="W36">
+        <v>-30.3</v>
+      </c>
+      <c r="X36">
+        <v>-31.7</v>
+      </c>
+      <c r="Y36">
+        <v>-23.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A37" s="9">
         <v>45645</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A38" s="9">
         <v>45646</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A39" s="9">
         <v>45647</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A40" s="9">
         <v>45648</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A41" s="9">
         <v>45649</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A42" s="9">
         <v>45650</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A43" s="9">
         <v>45651</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A44" s="9">
         <v>45652</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A45" s="9">
         <v>45653</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A46" s="9">
         <v>45654</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A47" s="9">
         <v>45655</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A48" s="9">
         <v>45656</v>
       </c>
@@ -6195,8 +6561,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4603A40C-9136-4681-B4C7-1EB22060A809}">
   <dimension ref="A1:Y109"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+    <sheetView topLeftCell="A23" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -8595,83 +8961,443 @@
       <c r="A32" s="9">
         <v>45640</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B32">
+        <v>-13</v>
+      </c>
+      <c r="C32">
+        <v>-15.6</v>
+      </c>
+      <c r="D32">
+        <v>-31.5</v>
+      </c>
+      <c r="E32">
+        <v>5.6</v>
+      </c>
+      <c r="F32">
+        <v>-27.8</v>
+      </c>
+      <c r="G32">
+        <v>-21.3</v>
+      </c>
+      <c r="H32">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="I32">
+        <v>-29.6</v>
+      </c>
+      <c r="J32">
+        <v>-12.5</v>
+      </c>
+      <c r="K32">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="L32">
+        <v>-3.4</v>
+      </c>
+      <c r="M32">
+        <v>-14.7</v>
+      </c>
+      <c r="N32">
+        <v>-26.9</v>
+      </c>
+      <c r="O32">
+        <v>-18.899999999999999</v>
+      </c>
+      <c r="P32">
+        <v>-17</v>
+      </c>
+      <c r="Q32">
+        <v>-26.7</v>
+      </c>
+      <c r="R32">
+        <v>-12.3</v>
+      </c>
+      <c r="S32">
+        <v>-21.4</v>
+      </c>
+      <c r="T32">
+        <v>-24.6</v>
+      </c>
+      <c r="U32">
+        <v>-19.100000000000001</v>
+      </c>
+      <c r="V32">
+        <v>-17</v>
+      </c>
+      <c r="W32">
+        <v>-31.1</v>
+      </c>
+      <c r="X32">
+        <v>-22.4</v>
+      </c>
+      <c r="Y32">
+        <v>-21.2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A33" s="9">
         <v>45641</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B33">
+        <v>-12.7</v>
+      </c>
+      <c r="C33">
+        <v>-14.2</v>
+      </c>
+      <c r="D33">
+        <v>-25</v>
+      </c>
+      <c r="E33">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="F33">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="G33">
+        <v>-23.1</v>
+      </c>
+      <c r="H33">
+        <v>-21.6</v>
+      </c>
+      <c r="I33">
+        <v>-29.5</v>
+      </c>
+      <c r="J33">
+        <v>-11.7</v>
+      </c>
+      <c r="K33">
+        <v>-11.2</v>
+      </c>
+      <c r="L33">
+        <v>-5.8</v>
+      </c>
+      <c r="M33">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="N33">
+        <v>-25.2</v>
+      </c>
+      <c r="O33">
+        <v>-22.9</v>
+      </c>
+      <c r="P33">
+        <v>-15.6</v>
+      </c>
+      <c r="Q33">
+        <v>-25.5</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>-21</v>
+      </c>
+      <c r="T33">
+        <v>-26.4</v>
+      </c>
+      <c r="U33">
+        <v>-18</v>
+      </c>
+      <c r="V33">
+        <v>-14.6</v>
+      </c>
+      <c r="W33">
+        <v>-32</v>
+      </c>
+      <c r="X33">
+        <v>-24.8</v>
+      </c>
+      <c r="Y33">
+        <v>-25.6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A34" s="9">
         <v>45642</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B34">
+        <v>-11.2</v>
+      </c>
+      <c r="C34">
+        <v>-13.2</v>
+      </c>
+      <c r="D34">
+        <v>-14.3</v>
+      </c>
+      <c r="E34">
+        <v>9.1</v>
+      </c>
+      <c r="F34">
+        <v>-17.2</v>
+      </c>
+      <c r="G34">
+        <v>-23.5</v>
+      </c>
+      <c r="H34">
+        <v>-20.7</v>
+      </c>
+      <c r="I34">
+        <v>-30.4</v>
+      </c>
+      <c r="J34">
+        <v>-9.6</v>
+      </c>
+      <c r="K34">
+        <v>-13.6</v>
+      </c>
+      <c r="L34">
+        <v>-20.7</v>
+      </c>
+      <c r="M34">
+        <v>-19.5</v>
+      </c>
+      <c r="N34">
+        <v>-27.7</v>
+      </c>
+      <c r="O34">
+        <v>-23</v>
+      </c>
+      <c r="P34">
+        <v>-18.7</v>
+      </c>
+      <c r="Q34">
+        <v>-22.1</v>
+      </c>
+      <c r="R34">
+        <v>-8.4</v>
+      </c>
+      <c r="S34">
+        <v>-22.6</v>
+      </c>
+      <c r="T34">
+        <v>-23.5</v>
+      </c>
+      <c r="U34">
+        <v>-13.8</v>
+      </c>
+      <c r="V34">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="W34">
+        <v>-26.2</v>
+      </c>
+      <c r="X34">
+        <v>-22.5</v>
+      </c>
+      <c r="Y34">
+        <v>-24.6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A35" s="9">
         <v>45643</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B35">
+        <v>-7.9</v>
+      </c>
+      <c r="C35">
+        <v>-11.9</v>
+      </c>
+      <c r="D35">
+        <v>-17.600000000000001</v>
+      </c>
+      <c r="E35">
+        <v>5.5</v>
+      </c>
+      <c r="F35">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="G35">
+        <v>-16.899999999999999</v>
+      </c>
+      <c r="H35">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="I35">
+        <v>-27</v>
+      </c>
+      <c r="J35">
+        <v>-9.5</v>
+      </c>
+      <c r="K35">
+        <v>-16.8</v>
+      </c>
+      <c r="L35">
+        <v>-20.5</v>
+      </c>
+      <c r="M35">
+        <v>-20.2</v>
+      </c>
+      <c r="N35">
+        <v>-28.5</v>
+      </c>
+      <c r="O35">
+        <v>-22</v>
+      </c>
+      <c r="P35">
+        <v>-17.399999999999999</v>
+      </c>
+      <c r="Q35">
+        <v>-21.1</v>
+      </c>
+      <c r="R35">
+        <v>-9.1999999999999993</v>
+      </c>
+      <c r="S35">
+        <v>-18</v>
+      </c>
+      <c r="T35">
+        <v>-19.5</v>
+      </c>
+      <c r="U35">
+        <v>-16</v>
+      </c>
+      <c r="V35">
+        <v>-18</v>
+      </c>
+      <c r="W35">
+        <v>-22</v>
+      </c>
+      <c r="X35" t="s">
+        <v>153</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="36" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A36" s="9">
         <v>45644</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="B36">
+        <v>-13.2</v>
+      </c>
+      <c r="C36">
+        <v>-14.4</v>
+      </c>
+      <c r="D36">
+        <v>-28.7</v>
+      </c>
+      <c r="E36">
+        <v>4.5</v>
+      </c>
+      <c r="F36">
+        <v>-27.2</v>
+      </c>
+      <c r="G36">
+        <v>-18.3</v>
+      </c>
+      <c r="H36">
+        <v>-17.899999999999999</v>
+      </c>
+      <c r="I36">
+        <v>-25.2</v>
+      </c>
+      <c r="J36">
+        <v>-12.5</v>
+      </c>
+      <c r="K36">
+        <v>-12.9</v>
+      </c>
+      <c r="L36">
+        <v>-18.2</v>
+      </c>
+      <c r="M36">
+        <v>-19.5</v>
+      </c>
+      <c r="N36">
+        <v>-26.6</v>
+      </c>
+      <c r="O36">
+        <v>-17.100000000000001</v>
+      </c>
+      <c r="P36">
+        <v>-20.5</v>
+      </c>
+      <c r="Q36">
+        <v>-18.100000000000001</v>
+      </c>
+      <c r="R36">
+        <v>-9.1</v>
+      </c>
+      <c r="S36">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="T36">
+        <v>-20.100000000000001</v>
+      </c>
+      <c r="U36">
+        <v>-18.8</v>
+      </c>
+      <c r="V36">
+        <v>-17</v>
+      </c>
+      <c r="W36">
+        <v>-18.5</v>
+      </c>
+      <c r="X36">
+        <v>-20.6</v>
+      </c>
+      <c r="Y36">
+        <v>-19.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A37" s="9">
         <v>45645</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A38" s="9">
         <v>45646</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A39" s="9">
         <v>45647</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A40" s="9">
         <v>45648</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A41" s="9">
         <v>45649</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A42" s="9">
         <v>45650</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A43" s="9">
         <v>45651</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A44" s="9">
         <v>45652</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A45" s="9">
         <v>45653</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A46" s="9">
         <v>45654</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A47" s="9">
         <v>45655</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A48" s="9">
         <v>45656</v>
       </c>

--- a/气象/北境强冷站每日气温记录.xlsx
+++ b/气象/北境强冷站每日气温记录.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{545534D1-B7B6-498F-A56D-2C4C281B4E0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D2FC3C-02EA-4F95-B7A9-B311FF471FF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{21DDB67E-D335-466F-8652-CD2F68303142}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" activeTab="1" xr2:uid="{21DDB67E-D335-466F-8652-CD2F68303142}"/>
   </bookViews>
   <sheets>
     <sheet name="无格式草稿" sheetId="2" r:id="rId1"/>
     <sheet name="彩色表格" sheetId="1" r:id="rId2"/>
     <sheet name="低温存档" sheetId="3" r:id="rId3"/>
     <sheet name="高温存档" sheetId="4" r:id="rId4"/>
+    <sheet name="国内冷极" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="175">
   <si>
     <t>漠河</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -408,19 +409,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>巴音郭楞乡</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>尧勒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三河马场五队</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>三道海子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -973,6 +962,157 @@
   <si>
     <t>无</t>
   </si>
+  <si>
+    <t>哈尔滨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿尔山</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>根河</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纬度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>康保</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右玉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桦甸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>西丰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿勒泰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑龙江</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>内蒙古</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>河北</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山西</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新疆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>吉林</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辽宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原始
+序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>呼伦贝尔气象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tcfa.top/real/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pogodaiklimat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北方寒冷PK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">今日
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最低</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>气温</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">今日
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color theme="0"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>最高</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="18"/>
+        <color rgb="FFFFC000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>气温</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -981,7 +1121,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="44" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1252,6 +1392,110 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="32"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="32"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="20"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color rgb="FFFFC000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FFFFC000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color rgb="FFFFC000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -1309,7 +1553,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1382,15 +1626,6 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -1469,13 +1704,54 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color theme="0"/>
+      </right>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color theme="0"/>
+      </top>
+      <bottom style="medium">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1539,15 +1815,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1557,7 +1824,7 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1569,10 +1836,10 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1581,7 +1848,7 @@
     <xf numFmtId="58" fontId="19" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1596,22 +1863,22 @@
     <xf numFmtId="176" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="6"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="2" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" indent="6"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="28" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -1620,10 +1887,10 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1631,6 +1898,48 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="40" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="58" fontId="33" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="41" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="42" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="37" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="34" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1640,16 +1949,16 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
-      <color rgb="FF84E6F8"/>
-      <color rgb="FFFAE0E4"/>
-      <color rgb="FF6FFFE9"/>
-      <color rgb="FF06BEE1"/>
+      <color rgb="FF4361EE"/>
+      <color rgb="FF480CA8"/>
+      <color rgb="FF7209B7"/>
+      <color rgb="FFF72585"/>
       <color rgb="FF4CC9F0"/>
-      <color rgb="FF1DD3B0"/>
-      <color rgb="FF38B000"/>
-      <color rgb="FF008000"/>
-      <color rgb="FF006400"/>
-      <color rgb="FF8CFFDA"/>
+      <color rgb="FF3A0CA3"/>
+      <color rgb="FFFF7B00"/>
+      <color rgb="FFA4133C"/>
+      <color rgb="FF800F2F"/>
+      <color rgb="FFFF00FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -1962,8 +2271,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93E72AAA-3912-4684-8CF1-D56A9EC12E76}">
   <dimension ref="A1:AE30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.4"/>
@@ -1977,15 +2286,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:31" ht="60" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="47" t="s">
-        <v>88</v>
-      </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="49"/>
+      <c r="A1" s="44" t="s">
+        <v>85</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="45"/>
+      <c r="D1" s="45"/>
+      <c r="E1" s="45"/>
+      <c r="F1" s="45"/>
+      <c r="G1" s="46"/>
     </row>
     <row r="2" spans="1:31" s="7" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="18" t="s">
@@ -2018,10 +2327,10 @@
         <v>27</v>
       </c>
       <c r="B3" s="12">
-        <v>-26.3</v>
+        <v>-22.3</v>
       </c>
       <c r="C3" s="12">
-        <v>-13.2</v>
+        <v>-6.9</v>
       </c>
       <c r="D3" s="16"/>
       <c r="E3" s="17"/>
@@ -2031,76 +2340,76 @@
       </c>
       <c r="H3" s="4" cm="1">
         <f t="array" ref="H3:AE3">TRANSPOSE(B3:B26)</f>
-        <v>-26.3</v>
+        <v>-22.3</v>
       </c>
       <c r="I3" s="4">
-        <v>-30.5</v>
+        <v>-34.1</v>
       </c>
       <c r="J3" s="4">
-        <v>-35.9</v>
+        <v>-32.4</v>
       </c>
       <c r="K3" s="4">
-        <v>-4.5</v>
+        <v>-3.8</v>
       </c>
       <c r="L3" s="4">
         <v>-36.4</v>
       </c>
       <c r="M3" s="4">
-        <v>-26.9</v>
+        <v>-34.700000000000003</v>
       </c>
       <c r="N3" s="4">
-        <v>-24.4</v>
+        <v>-35.799999999999997</v>
       </c>
       <c r="O3" s="4">
-        <v>-36.1</v>
+        <v>-38.5</v>
       </c>
       <c r="P3" s="4">
-        <v>-22.4</v>
+        <v>-22.6</v>
       </c>
       <c r="Q3" s="4">
-        <v>-19.8</v>
+        <v>-33.700000000000003</v>
       </c>
       <c r="R3" s="4">
-        <v>-21.4</v>
+        <v>-30</v>
       </c>
       <c r="S3" s="4">
-        <v>-33.5</v>
+        <v>-31</v>
       </c>
       <c r="T3" s="4">
-        <v>-35.4</v>
+        <v>-36.799999999999997</v>
       </c>
       <c r="U3" s="4">
-        <v>-24.3</v>
+        <v>-35.5</v>
       </c>
       <c r="V3" s="4">
-        <v>-30.6</v>
+        <v>-34</v>
       </c>
       <c r="W3" s="4">
-        <v>-28.5</v>
+        <v>-38.4</v>
       </c>
       <c r="X3" s="4">
-        <v>-17.7</v>
+        <v>-24.1</v>
       </c>
       <c r="Y3" s="4">
-        <v>-29.3</v>
+        <v>-37</v>
       </c>
       <c r="Z3" s="4">
-        <v>-26.1</v>
+        <v>-36.9</v>
       </c>
       <c r="AA3" s="4">
-        <v>-29.5</v>
+        <v>-35.799999999999997</v>
       </c>
       <c r="AB3" s="4">
-        <v>-26</v>
+        <v>-34.4</v>
       </c>
       <c r="AC3" s="4">
-        <v>-30.3</v>
+        <v>-42</v>
       </c>
       <c r="AD3" s="4">
-        <v>-31.7</v>
+        <v>-38.700000000000003</v>
       </c>
       <c r="AE3" s="4">
-        <v>-23.7</v>
+        <v>-35.5</v>
       </c>
     </row>
     <row r="4" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -2108,10 +2417,10 @@
         <v>28</v>
       </c>
       <c r="B4" s="12">
-        <v>-30.5</v>
+        <v>-34.1</v>
       </c>
       <c r="C4" s="12">
-        <v>-14.4</v>
+        <v>-10.1</v>
       </c>
       <c r="D4" s="16"/>
       <c r="E4" s="17"/>
@@ -2121,76 +2430,76 @@
       </c>
       <c r="H4" s="4" cm="1">
         <f t="array" ref="H4:AE4">TRANSPOSE(C3:C26)</f>
-        <v>-13.2</v>
+        <v>-6.9</v>
       </c>
       <c r="I4" s="4">
-        <v>-14.4</v>
+        <v>-10.1</v>
       </c>
       <c r="J4" s="4">
-        <v>-28.7</v>
+        <v>-23.1</v>
       </c>
       <c r="K4" s="4">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="L4" s="4">
-        <v>-27.2</v>
+        <v>-21.5</v>
       </c>
       <c r="M4" s="4">
-        <v>-18.3</v>
+        <v>-29.3</v>
       </c>
       <c r="N4" s="4">
-        <v>-17.899999999999999</v>
+        <v>-25.7</v>
       </c>
       <c r="O4" s="4">
-        <v>-25.2</v>
+        <v>-29.2</v>
       </c>
       <c r="P4" s="4">
-        <v>-12.5</v>
+        <v>-12.7</v>
       </c>
       <c r="Q4" s="4">
-        <v>-12.9</v>
+        <v>-26.4</v>
       </c>
       <c r="R4" s="4">
-        <v>-18.2</v>
+        <v>-21.7</v>
       </c>
       <c r="S4" s="4">
-        <v>-19.5</v>
+        <v>-17.5</v>
       </c>
       <c r="T4" s="4">
-        <v>-26.6</v>
+        <v>-28.4</v>
       </c>
       <c r="U4" s="4">
-        <v>-17.100000000000001</v>
+        <v>-29.8</v>
       </c>
       <c r="V4" s="4">
-        <v>-20.5</v>
+        <v>-24.3</v>
       </c>
       <c r="W4" s="4">
-        <v>-18.100000000000001</v>
+        <v>-29.8</v>
       </c>
       <c r="X4" s="4">
-        <v>-9.1</v>
+        <v>-13.3</v>
       </c>
       <c r="Y4" s="4">
-        <v>-19.600000000000001</v>
+        <v>-28.3</v>
       </c>
       <c r="Z4" s="4">
-        <v>-20.100000000000001</v>
+        <v>-25.6</v>
       </c>
       <c r="AA4" s="4">
-        <v>-18.8</v>
+        <v>-22.3</v>
       </c>
       <c r="AB4" s="4">
-        <v>-17</v>
+        <v>-24</v>
       </c>
       <c r="AC4" s="4">
-        <v>-18.5</v>
+        <v>-31.1</v>
       </c>
       <c r="AD4" s="4">
-        <v>-20.6</v>
+        <v>-27.9</v>
       </c>
       <c r="AE4" s="4">
-        <v>-19.8</v>
+        <v>-28.4</v>
       </c>
     </row>
     <row r="5" spans="1:31" ht="32" customHeight="1" x14ac:dyDescent="0.4">
@@ -2198,10 +2507,10 @@
         <v>29</v>
       </c>
       <c r="B5" s="12">
-        <v>-35.9</v>
+        <v>-32.4</v>
       </c>
       <c r="C5" s="12">
-        <v>-28.7</v>
+        <v>-23.1</v>
       </c>
       <c r="D5" s="16"/>
       <c r="E5" s="17"/>
@@ -2215,10 +2524,10 @@
         <v>30</v>
       </c>
       <c r="B6" s="12">
-        <v>-4.5</v>
+        <v>-3.8</v>
       </c>
       <c r="C6" s="12">
-        <v>4.5</v>
+        <v>3</v>
       </c>
       <c r="D6" s="16"/>
       <c r="E6" s="17"/>
@@ -2235,7 +2544,7 @@
         <v>-36.4</v>
       </c>
       <c r="C7" s="12">
-        <v>-27.2</v>
+        <v>-21.5</v>
       </c>
       <c r="D7" s="16"/>
       <c r="E7" s="17"/>
@@ -2249,10 +2558,10 @@
         <v>32</v>
       </c>
       <c r="B8" s="12">
-        <v>-26.9</v>
+        <v>-34.700000000000003</v>
       </c>
       <c r="C8" s="12">
-        <v>-18.3</v>
+        <v>-29.3</v>
       </c>
       <c r="D8" s="16"/>
       <c r="E8" s="17"/>
@@ -2266,10 +2575,10 @@
         <v>33</v>
       </c>
       <c r="B9" s="12">
-        <v>-24.4</v>
+        <v>-35.799999999999997</v>
       </c>
       <c r="C9" s="12">
-        <v>-17.899999999999999</v>
+        <v>-25.7</v>
       </c>
       <c r="D9" s="16"/>
       <c r="E9" s="17"/>
@@ -2283,10 +2592,10 @@
         <v>34</v>
       </c>
       <c r="B10" s="12">
-        <v>-36.1</v>
+        <v>-38.5</v>
       </c>
       <c r="C10" s="12">
-        <v>-25.2</v>
+        <v>-29.2</v>
       </c>
       <c r="D10" s="16"/>
       <c r="E10" s="17"/>
@@ -2300,10 +2609,10 @@
         <v>35</v>
       </c>
       <c r="B11" s="12">
-        <v>-22.4</v>
+        <v>-22.6</v>
       </c>
       <c r="C11" s="12">
-        <v>-12.5</v>
+        <v>-12.7</v>
       </c>
       <c r="D11" s="16"/>
       <c r="E11" s="17"/>
@@ -2317,10 +2626,10 @@
         <v>43</v>
       </c>
       <c r="B12" s="12">
-        <v>-19.8</v>
+        <v>-33.700000000000003</v>
       </c>
       <c r="C12" s="12">
-        <v>-12.9</v>
+        <v>-26.4</v>
       </c>
       <c r="D12" s="16"/>
       <c r="E12" s="17"/>
@@ -2334,10 +2643,10 @@
         <v>46</v>
       </c>
       <c r="B13" s="12">
-        <v>-21.4</v>
+        <v>-30</v>
       </c>
       <c r="C13" s="12">
-        <v>-18.2</v>
+        <v>-21.7</v>
       </c>
       <c r="D13" s="16"/>
       <c r="E13" s="17"/>
@@ -2351,10 +2660,10 @@
         <v>49</v>
       </c>
       <c r="B14" s="12">
-        <v>-33.5</v>
+        <v>-31</v>
       </c>
       <c r="C14" s="12">
-        <v>-19.5</v>
+        <v>-17.5</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>
@@ -2368,10 +2677,10 @@
         <v>53</v>
       </c>
       <c r="B15" s="12">
-        <v>-35.4</v>
+        <v>-36.799999999999997</v>
       </c>
       <c r="C15" s="12">
-        <v>-26.6</v>
+        <v>-28.4</v>
       </c>
       <c r="D15" s="16"/>
       <c r="E15" s="17"/>
@@ -2385,10 +2694,10 @@
         <v>37</v>
       </c>
       <c r="B16" s="12">
-        <v>-24.3</v>
+        <v>-35.5</v>
       </c>
       <c r="C16" s="12">
-        <v>-17.100000000000001</v>
+        <v>-29.8</v>
       </c>
       <c r="D16" s="16">
         <v>1</v>
@@ -2408,10 +2717,10 @@
         <v>38</v>
       </c>
       <c r="B17" s="12">
-        <v>-30.6</v>
+        <v>-34</v>
       </c>
       <c r="C17" s="12">
-        <v>-20.5</v>
+        <v>-24.3</v>
       </c>
       <c r="D17" s="16">
         <v>1</v>
@@ -2431,10 +2740,10 @@
         <v>39</v>
       </c>
       <c r="B18" s="12">
-        <v>-28.5</v>
+        <v>-38.4</v>
       </c>
       <c r="C18" s="12">
-        <v>-18.100000000000001</v>
+        <v>-29.8</v>
       </c>
       <c r="D18" s="16">
         <v>1</v>
@@ -2454,10 +2763,10 @@
         <v>36</v>
       </c>
       <c r="B19" s="12">
-        <v>-17.7</v>
+        <v>-24.1</v>
       </c>
       <c r="C19" s="12">
-        <v>-9.1</v>
+        <v>-13.3</v>
       </c>
       <c r="D19" s="16">
         <v>1</v>
@@ -2473,14 +2782,14 @@
       </c>
     </row>
     <row r="20" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="24" t="s">
+      <c r="A20" s="21" t="s">
         <v>41</v>
       </c>
       <c r="B20" s="12">
-        <v>-29.3</v>
+        <v>-37</v>
       </c>
       <c r="C20" s="12">
-        <v>-19.600000000000001</v>
+        <v>-28.3</v>
       </c>
       <c r="D20" s="16">
         <v>1</v>
@@ -2496,14 +2805,14 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="24" t="s">
-        <v>141</v>
+      <c r="A21" s="21" t="s">
+        <v>138</v>
       </c>
       <c r="B21" s="12">
-        <v>-26.1</v>
-      </c>
-      <c r="C21" s="25">
-        <v>-20.100000000000001</v>
+        <v>-36.9</v>
+      </c>
+      <c r="C21" s="22">
+        <v>-25.6</v>
       </c>
       <c r="D21" s="16">
         <v>1</v>
@@ -2519,14 +2828,14 @@
       </c>
     </row>
     <row r="22" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="24" t="s">
+      <c r="A22" s="21" t="s">
         <v>60</v>
       </c>
       <c r="B22" s="12">
-        <v>-29.5</v>
-      </c>
-      <c r="C22" s="25">
-        <v>-18.8</v>
+        <v>-35.799999999999997</v>
+      </c>
+      <c r="C22" s="22">
+        <v>-22.3</v>
       </c>
       <c r="D22" s="16">
         <v>1</v>
@@ -2542,14 +2851,14 @@
       </c>
     </row>
     <row r="23" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="24" t="s">
+      <c r="A23" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="B23" s="25">
-        <v>-26</v>
+      <c r="B23" s="22">
+        <v>-34.4</v>
       </c>
       <c r="C23" s="12">
-        <v>-17</v>
+        <v>-24</v>
       </c>
       <c r="D23" s="16">
         <v>1</v>
@@ -2565,14 +2874,14 @@
       </c>
     </row>
     <row r="24" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="21" t="s">
         <v>40</v>
       </c>
       <c r="B24" s="12">
-        <v>-30.3</v>
-      </c>
-      <c r="C24" s="25">
-        <v>-18.5</v>
+        <v>-42</v>
+      </c>
+      <c r="C24" s="22">
+        <v>-31.1</v>
       </c>
       <c r="D24" s="16">
         <v>1</v>
@@ -2588,14 +2897,14 @@
       </c>
     </row>
     <row r="25" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="24" t="s">
+      <c r="A25" s="21" t="s">
         <v>56</v>
       </c>
       <c r="B25" s="12">
-        <v>-31.7</v>
+        <v>-38.700000000000003</v>
       </c>
       <c r="C25" s="12">
-        <v>-20.6</v>
+        <v>-27.9</v>
       </c>
       <c r="D25" s="16">
         <v>3</v>
@@ -2611,14 +2920,14 @@
       </c>
     </row>
     <row r="26" spans="1:7" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="21" t="s">
         <v>62</v>
       </c>
       <c r="B26" s="12">
-        <v>-23.7</v>
+        <v>-35.5</v>
       </c>
       <c r="C26" s="12">
-        <v>-19.8</v>
+        <v>-28.4</v>
       </c>
       <c r="D26" s="16">
         <v>4</v>
@@ -2634,25 +2943,13 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A28" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="22"/>
+      <c r="B28" s="4"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A29" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="23"/>
-      <c r="C29" s="22"/>
+      <c r="B29" s="4"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.4">
-      <c r="A30" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="B30" s="23"/>
-      <c r="C30" s="22"/>
+      <c r="B30" s="4"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A20:G26">
@@ -2671,8 +2968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4EF0FA41-85CC-443B-8D70-8487574C7D86}">
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2687,603 +2984,603 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="50"/>
-      <c r="B1" s="33" t="s">
+      <c r="A1" s="47"/>
+      <c r="B1" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="51" t="s">
+      <c r="C1" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+    </row>
+    <row r="2" spans="1:11" ht="29.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="47"/>
+      <c r="B2" s="31">
+        <v>45647</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+    </row>
+    <row r="3" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A3" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>136</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>135</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A4" s="23">
+        <v>22</v>
+      </c>
+      <c r="B4" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="43" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="36">
+        <v>-42</v>
+      </c>
+      <c r="E4" s="37">
+        <v>-31.1</v>
+      </c>
+      <c r="F4" s="34" t="s">
+        <v>110</v>
+      </c>
+      <c r="G4" s="33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A5" s="23">
+        <v>23</v>
+      </c>
+      <c r="B5" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="43" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="36">
+        <v>-38.700000000000003</v>
+      </c>
+      <c r="E5" s="37">
+        <v>-27.9</v>
+      </c>
+      <c r="F5" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="G5" s="33" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A6" s="23">
+        <v>8</v>
+      </c>
+      <c r="B6" s="40" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="36">
+        <v>-38.5</v>
+      </c>
+      <c r="E6" s="37">
+        <v>-29.2</v>
+      </c>
+      <c r="F6" s="34" t="s">
+        <v>97</v>
+      </c>
+      <c r="G6" s="33" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A7" s="23">
+        <v>16</v>
+      </c>
+      <c r="B7" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="36">
+        <v>-38.4</v>
+      </c>
+      <c r="E7" s="37">
+        <v>-29.8</v>
+      </c>
+      <c r="F7" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="G7" s="33" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="23">
+        <v>18</v>
+      </c>
+      <c r="B8" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="36">
+        <v>-37</v>
+      </c>
+      <c r="E8" s="37">
+        <v>-28.3</v>
+      </c>
+      <c r="F8" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" s="33" t="s">
+        <v>127</v>
+      </c>
+      <c r="K8" s="25"/>
+    </row>
+    <row r="9" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="23">
+        <v>19</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="36">
+        <v>-36.9</v>
+      </c>
+      <c r="E9" s="37">
+        <v>-25.6</v>
+      </c>
+      <c r="F9" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="G9" s="33" t="s">
         <v>140</v>
       </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-    </row>
-    <row r="2" spans="1:11" ht="29.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="50"/>
-      <c r="B2" s="34">
-        <v>45644</v>
-      </c>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-    </row>
-    <row r="3" spans="1:11" ht="32" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="B3" s="32" t="s">
+    </row>
+    <row r="10" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="23">
+        <v>13</v>
+      </c>
+      <c r="B10" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D10" s="36">
+        <v>-36.799999999999997</v>
+      </c>
+      <c r="E10" s="37">
+        <v>-28.4</v>
+      </c>
+      <c r="F10" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" s="33" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A11" s="23">
+        <v>5</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C11" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="36">
+        <v>-36.4</v>
+      </c>
+      <c r="E11" s="37">
+        <v>-21.5</v>
+      </c>
+      <c r="F11" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="23">
+        <v>7</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>7</v>
+      </c>
+      <c r="D12" s="36">
+        <v>-35.799999999999997</v>
+      </c>
+      <c r="E12" s="37">
+        <v>-25.7</v>
+      </c>
+      <c r="F12" s="34" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="23">
+        <v>20</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" s="36">
+        <v>-35.799999999999997</v>
+      </c>
+      <c r="E13" s="37">
+        <v>-22.3</v>
+      </c>
+      <c r="F13" s="34" t="s">
+        <v>108</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="23">
+        <v>14</v>
+      </c>
+      <c r="B14" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="D14" s="36">
+        <v>-35.5</v>
+      </c>
+      <c r="E14" s="37">
+        <v>-29.8</v>
+      </c>
+      <c r="F14" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="23">
+        <v>24</v>
+      </c>
+      <c r="B15" s="42" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" s="36">
+        <v>-35.5</v>
+      </c>
+      <c r="E15" s="37">
+        <v>-28.4</v>
+      </c>
+      <c r="F15" s="34" t="s">
+        <v>112</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="23">
+        <v>6</v>
+      </c>
+      <c r="B16" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="36">
+        <v>-34.700000000000003</v>
+      </c>
+      <c r="E16" s="37">
+        <v>-29.3</v>
+      </c>
+      <c r="F16" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="23">
+        <v>21</v>
+      </c>
+      <c r="B17" s="42" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="D17" s="36">
+        <v>-34.4</v>
+      </c>
+      <c r="E17" s="37">
+        <v>-24</v>
+      </c>
+      <c r="F17" s="34" t="s">
+        <v>109</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="23">
+        <v>2</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="36">
+        <v>-34.1</v>
+      </c>
+      <c r="E18" s="37">
+        <v>-10.1</v>
+      </c>
+      <c r="F18" s="33" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="G18" s="33" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="23">
         <v>15</v>
       </c>
-      <c r="D3" s="29" t="s">
-        <v>139</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>138</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>136</v>
-      </c>
-      <c r="G3" s="29" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="26">
-        <v>5</v>
-      </c>
-      <c r="B4" s="41" t="s">
+      <c r="B19" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19" s="43" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="36">
+        <v>-34</v>
+      </c>
+      <c r="E19" s="37">
+        <v>-24.3</v>
+      </c>
+      <c r="F19" s="34" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="23">
+        <v>10</v>
+      </c>
+      <c r="B20" s="40" t="s">
+        <v>148</v>
+      </c>
+      <c r="C20" s="39" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="36">
+        <v>-33.700000000000003</v>
+      </c>
+      <c r="E20" s="37">
+        <v>-26.4</v>
+      </c>
+      <c r="F20" s="34" t="s">
+        <v>99</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="23">
+        <v>3</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="C21" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="36">
+        <v>-32.4</v>
+      </c>
+      <c r="E21" s="37">
+        <v>-23.1</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="23">
+        <v>12</v>
+      </c>
+      <c r="B22" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="39" t="s">
+        <v>50</v>
+      </c>
+      <c r="D22" s="36">
+        <v>-31</v>
+      </c>
+      <c r="E22" s="37">
+        <v>-17.5</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="23">
+        <v>11</v>
+      </c>
+      <c r="B23" s="40" t="s">
+        <v>145</v>
+      </c>
+      <c r="C23" s="39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D23" s="36">
+        <v>-30</v>
+      </c>
+      <c r="E23" s="37">
+        <v>-21.7</v>
+      </c>
+      <c r="F23" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="G23" s="33" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="23">
+        <v>17</v>
+      </c>
+      <c r="B24" s="42" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24" s="43" t="s">
+        <v>14</v>
+      </c>
+      <c r="D24" s="36">
+        <v>-24.1</v>
+      </c>
+      <c r="E24" s="37">
+        <v>-13.3</v>
+      </c>
+      <c r="F24" s="34" t="s">
+        <v>106</v>
+      </c>
+      <c r="G24" s="33" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="23">
+        <v>9</v>
+      </c>
+      <c r="B25" s="40" t="s">
         <v>147</v>
       </c>
-      <c r="C4" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="39">
-        <v>-36.4</v>
-      </c>
-      <c r="E4" s="40">
-        <v>-27.2</v>
-      </c>
-      <c r="F4" s="37" t="s">
+      <c r="C25" s="39" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="36">
+        <v>-22.6</v>
+      </c>
+      <c r="E25" s="37">
+        <v>-12.7</v>
+      </c>
+      <c r="F25" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="36" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="26">
-        <v>8</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="39">
-        <v>-36.1</v>
-      </c>
-      <c r="E5" s="40">
-        <v>-25.2</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="G5" s="36" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="26">
+      <c r="G25" s="33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="23">
+        <v>1</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="C26" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="36">
+        <v>-22.3</v>
+      </c>
+      <c r="E26" s="37">
+        <v>-6.9</v>
+      </c>
+      <c r="F26" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="G26" s="33" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="23">
+        <v>4</v>
+      </c>
+      <c r="B27" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="36">
+        <v>-3.8</v>
+      </c>
+      <c r="E27" s="37">
         <v>3</v>
       </c>
-      <c r="B6" s="35" t="s">
-        <v>146</v>
-      </c>
-      <c r="C6" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="39">
-        <v>-35.9</v>
-      </c>
-      <c r="E6" s="40">
-        <v>-28.7</v>
-      </c>
-      <c r="F6" s="36" t="s">
+      <c r="F27" s="34" t="s">
         <v>93</v>
       </c>
-      <c r="G6" s="36" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A7" s="26">
-        <v>13</v>
-      </c>
-      <c r="B7" s="44" t="s">
-        <v>149</v>
-      </c>
-      <c r="C7" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="D7" s="39">
-        <v>-35.4</v>
-      </c>
-      <c r="E7" s="40">
-        <v>-26.6</v>
-      </c>
-      <c r="F7" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="G7" s="36" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="26">
-        <v>12</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="D8" s="39">
-        <v>-33.5</v>
-      </c>
-      <c r="E8" s="40">
-        <v>-19.5</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="G8" s="36" t="s">
-        <v>124</v>
-      </c>
-      <c r="K8" s="28"/>
-    </row>
-    <row r="9" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="26">
-        <v>23</v>
-      </c>
-      <c r="B9" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" s="46" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="39">
-        <v>-31.7</v>
-      </c>
-      <c r="E9" s="40">
-        <v>-20.6</v>
-      </c>
-      <c r="F9" s="37" t="s">
-        <v>114</v>
-      </c>
-      <c r="G9" s="36" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="26">
-        <v>15</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C10" s="46" t="s">
-        <v>3</v>
-      </c>
-      <c r="D10" s="39">
-        <v>-30.6</v>
-      </c>
-      <c r="E10" s="40">
-        <v>-20.5</v>
-      </c>
-      <c r="F10" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="G10" s="36" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A11" s="26">
-        <v>2</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="C11" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="D11" s="39">
-        <v>-30.5</v>
-      </c>
-      <c r="E11" s="40">
-        <v>-14.4</v>
-      </c>
-      <c r="F11" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="G11" s="36" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="26">
-        <v>22</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="39">
-        <v>-30.3</v>
-      </c>
-      <c r="E12" s="40">
-        <v>-18.5</v>
-      </c>
-      <c r="F12" s="37" t="s">
+      <c r="G27" s="33" t="s">
         <v>113</v>
-      </c>
-      <c r="G12" s="36" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="26">
-        <v>20</v>
-      </c>
-      <c r="B13" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="46" t="s">
-        <v>61</v>
-      </c>
-      <c r="D13" s="39">
-        <v>-29.5</v>
-      </c>
-      <c r="E13" s="40">
-        <v>-18.8</v>
-      </c>
-      <c r="F13" s="37" t="s">
-        <v>111</v>
-      </c>
-      <c r="G13" s="36" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="26">
-        <v>18</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>22</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="39">
-        <v>-29.3</v>
-      </c>
-      <c r="E14" s="40">
-        <v>-19.600000000000001</v>
-      </c>
-      <c r="F14" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="G14" s="36" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="26">
-        <v>16</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="39">
-        <v>-28.5</v>
-      </c>
-      <c r="E15" s="40">
-        <v>-18.100000000000001</v>
-      </c>
-      <c r="F15" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="G15" s="36" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="37.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="26">
-        <v>6</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="D16" s="39">
-        <v>-26.9</v>
-      </c>
-      <c r="E16" s="40">
-        <v>-18.3</v>
-      </c>
-      <c r="F16" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" s="36" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="26">
-        <v>1</v>
-      </c>
-      <c r="B17" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="C17" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="D17" s="39">
-        <v>-26.3</v>
-      </c>
-      <c r="E17" s="40">
-        <v>-13.2</v>
-      </c>
-      <c r="F17" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="G17" s="36" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="26">
-        <v>19</v>
-      </c>
-      <c r="B18" s="45" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="D18" s="39">
-        <v>-26.1</v>
-      </c>
-      <c r="E18" s="40">
-        <v>-20.100000000000001</v>
-      </c>
-      <c r="F18" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="G18" s="36" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="26">
-        <v>21</v>
-      </c>
-      <c r="B19" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" s="46" t="s">
-        <v>66</v>
-      </c>
-      <c r="D19" s="39">
-        <v>-26</v>
-      </c>
-      <c r="E19" s="40">
-        <v>-17</v>
-      </c>
-      <c r="F19" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="G19" s="36" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="26">
-        <v>7</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" s="39">
-        <v>-24.4</v>
-      </c>
-      <c r="E20" s="40">
-        <v>-17.899999999999999</v>
-      </c>
-      <c r="F20" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="G20" s="36" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="26">
-        <v>14</v>
-      </c>
-      <c r="B21" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="46" t="s">
-        <v>2</v>
-      </c>
-      <c r="D21" s="39">
-        <v>-24.3</v>
-      </c>
-      <c r="E21" s="40">
-        <v>-17.100000000000001</v>
-      </c>
-      <c r="F21" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="G21" s="36" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="26">
-        <v>24</v>
-      </c>
-      <c r="B22" s="45" t="s">
-        <v>21</v>
-      </c>
-      <c r="C22" s="46" t="s">
-        <v>63</v>
-      </c>
-      <c r="D22" s="39">
-        <v>-23.7</v>
-      </c>
-      <c r="E22" s="40">
-        <v>-19.8</v>
-      </c>
-      <c r="F22" s="37" t="s">
-        <v>115</v>
-      </c>
-      <c r="G22" s="36" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="26">
-        <v>9</v>
-      </c>
-      <c r="B23" s="43" t="s">
-        <v>150</v>
-      </c>
-      <c r="C23" s="42" t="s">
-        <v>11</v>
-      </c>
-      <c r="D23" s="39">
-        <v>-22.4</v>
-      </c>
-      <c r="E23" s="40">
-        <v>-12.5</v>
-      </c>
-      <c r="F23" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="G23" s="36" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="26">
-        <v>11</v>
-      </c>
-      <c r="B24" s="43" t="s">
-        <v>148</v>
-      </c>
-      <c r="C24" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="D24" s="39">
-        <v>-21.4</v>
-      </c>
-      <c r="E24" s="40">
-        <v>-18.2</v>
-      </c>
-      <c r="F24" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="G24" s="36" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="26">
-        <v>10</v>
-      </c>
-      <c r="B25" s="43" t="s">
-        <v>151</v>
-      </c>
-      <c r="C25" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="D25" s="39">
-        <v>-19.8</v>
-      </c>
-      <c r="E25" s="40">
-        <v>-12.9</v>
-      </c>
-      <c r="F25" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="G25" s="36" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="26">
-        <v>17</v>
-      </c>
-      <c r="B26" s="45" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="46" t="s">
-        <v>14</v>
-      </c>
-      <c r="D26" s="39">
-        <v>-17.7</v>
-      </c>
-      <c r="E26" s="40">
-        <v>-9.1</v>
-      </c>
-      <c r="F26" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="G26" s="36" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" ht="34.049999999999997" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="26">
-        <v>4</v>
-      </c>
-      <c r="B27" s="27" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="38" t="s">
-        <v>13</v>
-      </c>
-      <c r="D27" s="39">
-        <v>-4.5</v>
-      </c>
-      <c r="E27" s="40">
-        <v>4.5</v>
-      </c>
-      <c r="F27" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="G27" s="36" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.4">
@@ -3406,7 +3703,7 @@
   <dimension ref="A1:Y109"/>
   <sheetViews>
     <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3473,7 +3770,7 @@
         <v>41</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="U1" s="8" t="s">
         <v>60</v>
@@ -6097,7 +6394,7 @@
         <v>-25.2</v>
       </c>
       <c r="V35" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="W35">
         <v>-35.200000000000003</v>
@@ -6190,15 +6487,231 @@
       <c r="A37" s="9">
         <v>45645</v>
       </c>
+      <c r="B37">
+        <v>-33.200000000000003</v>
+      </c>
+      <c r="C37">
+        <v>-34.4</v>
+      </c>
+      <c r="D37">
+        <v>-37.6</v>
+      </c>
+      <c r="E37">
+        <v>-7.5</v>
+      </c>
+      <c r="F37">
+        <v>-42.1</v>
+      </c>
+      <c r="G37">
+        <v>-30.9</v>
+      </c>
+      <c r="H37">
+        <v>-30.9</v>
+      </c>
+      <c r="I37">
+        <v>-37.799999999999997</v>
+      </c>
+      <c r="J37">
+        <v>-27.9</v>
+      </c>
+      <c r="K37">
+        <v>-26.8</v>
+      </c>
+      <c r="L37">
+        <v>-25.5</v>
+      </c>
+      <c r="M37">
+        <v>-32.4</v>
+      </c>
+      <c r="N37">
+        <v>-35.200000000000003</v>
+      </c>
+      <c r="O37">
+        <v>-30.6</v>
+      </c>
+      <c r="P37">
+        <v>-32.700000000000003</v>
+      </c>
+      <c r="Q37">
+        <v>-31.8</v>
+      </c>
+      <c r="R37">
+        <v>-18.399999999999999</v>
+      </c>
+      <c r="S37">
+        <v>-33.4</v>
+      </c>
+      <c r="T37">
+        <v>-36.4</v>
+      </c>
+      <c r="U37">
+        <v>-36.799999999999997</v>
+      </c>
+      <c r="V37">
+        <v>-31</v>
+      </c>
+      <c r="W37">
+        <v>-38.5</v>
+      </c>
+      <c r="X37">
+        <v>-36.700000000000003</v>
+      </c>
+      <c r="Y37">
+        <v>-29.6</v>
+      </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A38" s="9">
         <v>45646</v>
       </c>
+      <c r="B38">
+        <v>-31.2</v>
+      </c>
+      <c r="C38">
+        <v>-36.700000000000003</v>
+      </c>
+      <c r="D38">
+        <v>-37</v>
+      </c>
+      <c r="E38">
+        <v>-7.5</v>
+      </c>
+      <c r="F38">
+        <v>-40.6</v>
+      </c>
+      <c r="G38">
+        <v>-34</v>
+      </c>
+      <c r="H38">
+        <v>-35.1</v>
+      </c>
+      <c r="I38">
+        <v>-39.5</v>
+      </c>
+      <c r="J38">
+        <v>-24.2</v>
+      </c>
+      <c r="K38">
+        <v>-33.799999999999997</v>
+      </c>
+      <c r="L38">
+        <v>-30.2</v>
+      </c>
+      <c r="M38">
+        <v>-34.1</v>
+      </c>
+      <c r="N38">
+        <v>-37.799999999999997</v>
+      </c>
+      <c r="O38">
+        <v>-35.200000000000003</v>
+      </c>
+      <c r="P38">
+        <v>-32.6</v>
+      </c>
+      <c r="Q38">
+        <v>-36</v>
+      </c>
+      <c r="R38">
+        <v>-23.5</v>
+      </c>
+      <c r="S38">
+        <v>-35.700000000000003</v>
+      </c>
+      <c r="T38">
+        <v>-38.9</v>
+      </c>
+      <c r="U38">
+        <v>-36.5</v>
+      </c>
+      <c r="V38">
+        <v>-30.5</v>
+      </c>
+      <c r="W38">
+        <v>-40.6</v>
+      </c>
+      <c r="X38">
+        <v>-36.299999999999997</v>
+      </c>
+      <c r="Y38">
+        <v>-32.5</v>
+      </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A39" s="9">
         <v>45647</v>
+      </c>
+      <c r="B39">
+        <v>-22.3</v>
+      </c>
+      <c r="C39">
+        <v>-34.1</v>
+      </c>
+      <c r="D39">
+        <v>-32.4</v>
+      </c>
+      <c r="E39">
+        <v>-3.8</v>
+      </c>
+      <c r="F39">
+        <v>-36.4</v>
+      </c>
+      <c r="G39">
+        <v>-34.700000000000003</v>
+      </c>
+      <c r="H39">
+        <v>-35.799999999999997</v>
+      </c>
+      <c r="I39">
+        <v>-38.5</v>
+      </c>
+      <c r="J39">
+        <v>-22.6</v>
+      </c>
+      <c r="K39">
+        <v>-33.700000000000003</v>
+      </c>
+      <c r="L39">
+        <v>-30</v>
+      </c>
+      <c r="M39">
+        <v>-31</v>
+      </c>
+      <c r="N39">
+        <v>-36.799999999999997</v>
+      </c>
+      <c r="O39">
+        <v>-35.5</v>
+      </c>
+      <c r="P39">
+        <v>-34</v>
+      </c>
+      <c r="Q39">
+        <v>-38.4</v>
+      </c>
+      <c r="R39">
+        <v>-24.1</v>
+      </c>
+      <c r="S39">
+        <v>-37</v>
+      </c>
+      <c r="T39">
+        <v>-36.9</v>
+      </c>
+      <c r="U39">
+        <v>-35.799999999999997</v>
+      </c>
+      <c r="V39">
+        <v>-34.4</v>
+      </c>
+      <c r="W39">
+        <v>-42</v>
+      </c>
+      <c r="X39">
+        <v>-38.700000000000003</v>
+      </c>
+      <c r="Y39">
+        <v>-35.5</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.4">
@@ -6562,7 +7075,7 @@
   <dimension ref="A1:Y109"/>
   <sheetViews>
     <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -6629,13 +7142,13 @@
         <v>41</v>
       </c>
       <c r="T1" s="8" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="U1" s="8" t="s">
         <v>60</v>
       </c>
       <c r="V1" s="8" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="W1" s="8" t="s">
         <v>40</v>
@@ -9259,10 +9772,10 @@
         <v>-22</v>
       </c>
       <c r="X35" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="Y35" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:25" x14ac:dyDescent="0.4">
@@ -9346,15 +9859,231 @@
       <c r="A37" s="9">
         <v>45645</v>
       </c>
+      <c r="B37">
+        <v>-19</v>
+      </c>
+      <c r="C37">
+        <v>-16.100000000000001</v>
+      </c>
+      <c r="D37">
+        <v>-27.6</v>
+      </c>
+      <c r="E37">
+        <v>2.1</v>
+      </c>
+      <c r="F37">
+        <v>-30.2</v>
+      </c>
+      <c r="G37">
+        <v>-25.2</v>
+      </c>
+      <c r="H37">
+        <v>-19.3</v>
+      </c>
+      <c r="I37">
+        <v>-28.3</v>
+      </c>
+      <c r="J37">
+        <v>-17.3</v>
+      </c>
+      <c r="K37">
+        <v>-14.5</v>
+      </c>
+      <c r="L37">
+        <v>-19.600000000000001</v>
+      </c>
+      <c r="M37">
+        <v>-15.3</v>
+      </c>
+      <c r="N37">
+        <v>-26.2</v>
+      </c>
+      <c r="O37">
+        <v>-19.3</v>
+      </c>
+      <c r="P37">
+        <v>-19.899999999999999</v>
+      </c>
+      <c r="Q37">
+        <v>-23.1</v>
+      </c>
+      <c r="R37">
+        <v>-12.9</v>
+      </c>
+      <c r="S37">
+        <v>-24.8</v>
+      </c>
+      <c r="T37">
+        <v>-26.6</v>
+      </c>
+      <c r="U37">
+        <v>-21.4</v>
+      </c>
+      <c r="V37">
+        <v>-16.2</v>
+      </c>
+      <c r="W37">
+        <v>-26.4</v>
+      </c>
+      <c r="X37">
+        <v>-27.4</v>
+      </c>
+      <c r="Y37">
+        <v>-23.7</v>
+      </c>
     </row>
     <row r="38" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A38" s="9">
         <v>45646</v>
       </c>
+      <c r="B38">
+        <v>-8.6</v>
+      </c>
+      <c r="C38">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="D38">
+        <v>-26.5</v>
+      </c>
+      <c r="E38">
+        <v>3.4</v>
+      </c>
+      <c r="F38">
+        <v>-29.5</v>
+      </c>
+      <c r="G38">
+        <v>-27.6</v>
+      </c>
+      <c r="H38">
+        <v>-24</v>
+      </c>
+      <c r="I38">
+        <v>-29.3</v>
+      </c>
+      <c r="J38">
+        <v>-9.1</v>
+      </c>
+      <c r="K38">
+        <v>-26.4</v>
+      </c>
+      <c r="L38">
+        <v>-22.8</v>
+      </c>
+      <c r="M38">
+        <v>-16.399999999999999</v>
+      </c>
+      <c r="N38">
+        <v>-27.9</v>
+      </c>
+      <c r="O38">
+        <v>-24.1</v>
+      </c>
+      <c r="P38">
+        <v>-21</v>
+      </c>
+      <c r="Q38">
+        <v>-27.2</v>
+      </c>
+      <c r="R38">
+        <v>-16.600000000000001</v>
+      </c>
+      <c r="S38">
+        <v>-28.5</v>
+      </c>
+      <c r="T38">
+        <v>-23.8</v>
+      </c>
+      <c r="U38">
+        <v>-20.6</v>
+      </c>
+      <c r="V38">
+        <v>-21</v>
+      </c>
+      <c r="W38">
+        <v>-30.8</v>
+      </c>
+      <c r="X38">
+        <v>-29.2</v>
+      </c>
+      <c r="Y38">
+        <v>-27.3</v>
+      </c>
     </row>
     <row r="39" spans="1:25" x14ac:dyDescent="0.4">
       <c r="A39" s="9">
         <v>45647</v>
+      </c>
+      <c r="B39">
+        <v>-6.9</v>
+      </c>
+      <c r="C39">
+        <v>-10.1</v>
+      </c>
+      <c r="D39">
+        <v>-23.1</v>
+      </c>
+      <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="F39">
+        <v>-21.5</v>
+      </c>
+      <c r="G39">
+        <v>-29.3</v>
+      </c>
+      <c r="H39">
+        <v>-25.7</v>
+      </c>
+      <c r="I39">
+        <v>-29.2</v>
+      </c>
+      <c r="J39">
+        <v>-12.7</v>
+      </c>
+      <c r="K39">
+        <v>-26.4</v>
+      </c>
+      <c r="L39">
+        <v>-21.7</v>
+      </c>
+      <c r="M39">
+        <v>-17.5</v>
+      </c>
+      <c r="N39">
+        <v>-28.4</v>
+      </c>
+      <c r="O39">
+        <v>-29.8</v>
+      </c>
+      <c r="P39">
+        <v>-24.3</v>
+      </c>
+      <c r="Q39">
+        <v>-29.8</v>
+      </c>
+      <c r="R39">
+        <v>-13.3</v>
+      </c>
+      <c r="S39">
+        <v>-28.3</v>
+      </c>
+      <c r="T39">
+        <v>-25.6</v>
+      </c>
+      <c r="U39">
+        <v>-22.3</v>
+      </c>
+      <c r="V39">
+        <v>-24</v>
+      </c>
+      <c r="W39">
+        <v>-31.1</v>
+      </c>
+      <c r="X39">
+        <v>-27.9</v>
+      </c>
+      <c r="Y39">
+        <v>-28.4</v>
       </c>
     </row>
     <row r="40" spans="1:25" x14ac:dyDescent="0.4">
@@ -9711,4 +10440,321 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57481BA3-E07C-4849-B51E-8F9E72AFB012}">
+  <dimension ref="A1:H12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="16.59765625" customWidth="1"/>
+    <col min="3" max="3" width="9.59765625" style="25" customWidth="1"/>
+    <col min="4" max="4" width="18.59765625" customWidth="1"/>
+    <col min="5" max="6" width="14.59765625" customWidth="1"/>
+    <col min="7" max="7" width="16.59765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C1" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="53">
+        <v>45648</v>
+      </c>
+      <c r="E1" s="52" t="s">
+        <v>172</v>
+      </c>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="49"/>
+    </row>
+    <row r="2" spans="1:8" ht="48" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="51" t="s">
+        <v>167</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="56"/>
+      <c r="E2" s="57" t="s">
+        <v>173</v>
+      </c>
+      <c r="F2" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="G2" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="H2" s="62"/>
+    </row>
+    <row r="3" spans="1:8" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A3" s="50">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>171</v>
+      </c>
+      <c r="C3" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="54" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" s="61">
+        <v>-31</v>
+      </c>
+      <c r="F3" s="61">
+        <v>-17.5</v>
+      </c>
+      <c r="G3" s="59">
+        <v>52.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A4" s="50">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="61">
+        <v>-36.799999999999997</v>
+      </c>
+      <c r="F4" s="61">
+        <v>-28.4</v>
+      </c>
+      <c r="G4" s="59">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A5" s="50">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C5" s="55" t="s">
+        <v>164</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>159</v>
+      </c>
+      <c r="E5" s="61">
+        <v>-35.5</v>
+      </c>
+      <c r="F5" s="61">
+        <v>-29.8</v>
+      </c>
+      <c r="G5" s="59">
+        <v>47.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A6" s="50">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>170</v>
+      </c>
+      <c r="C6" s="55" t="s">
+        <v>160</v>
+      </c>
+      <c r="D6" s="54" t="s">
+        <v>151</v>
+      </c>
+      <c r="E6" s="61">
+        <v>-34</v>
+      </c>
+      <c r="F6" s="61">
+        <v>-24.3</v>
+      </c>
+      <c r="G6" s="59">
+        <v>45.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A7" s="50">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>170</v>
+      </c>
+      <c r="C7" s="55" t="s">
+        <v>165</v>
+      </c>
+      <c r="D7" s="54" t="s">
+        <v>157</v>
+      </c>
+      <c r="E7" s="61">
+        <v>-38.4</v>
+      </c>
+      <c r="F7" s="61">
+        <v>-29.8</v>
+      </c>
+      <c r="G7" s="59">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="50">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" s="61">
+        <v>-24.1</v>
+      </c>
+      <c r="F8" s="61">
+        <v>-13.3</v>
+      </c>
+      <c r="G8" s="59">
+        <v>42.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A9" s="50">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>170</v>
+      </c>
+      <c r="C9" s="55" t="s">
+        <v>162</v>
+      </c>
+      <c r="D9" s="54" t="s">
+        <v>155</v>
+      </c>
+      <c r="E9" s="61">
+        <v>-37</v>
+      </c>
+      <c r="F9" s="61">
+        <v>-28.3</v>
+      </c>
+      <c r="G9" s="59">
+        <v>41.9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A10" s="50">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>170</v>
+      </c>
+      <c r="C10" s="55" t="s">
+        <v>163</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>156</v>
+      </c>
+      <c r="E10" s="61">
+        <v>-36.9</v>
+      </c>
+      <c r="F10" s="61">
+        <v>-25.6</v>
+      </c>
+      <c r="G10" s="59">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A11" s="50">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="D11" s="54" t="s">
+        <v>152</v>
+      </c>
+      <c r="E11" s="61">
+        <v>-35.799999999999997</v>
+      </c>
+      <c r="F11" s="61">
+        <v>-22.3</v>
+      </c>
+      <c r="G11" s="59">
+        <v>47.2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A12" s="50">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>169</v>
+      </c>
+      <c r="C12" s="55" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="54" t="s">
+        <v>153</v>
+      </c>
+      <c r="E12" s="61">
+        <v>-34.4</v>
+      </c>
+      <c r="F12" s="61">
+        <v>-24</v>
+      </c>
+      <c r="G12" s="59">
+        <v>50.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E1:G1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="E3:E12">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF72585"/>
+        <color rgb="FF7209B7"/>
+        <color rgb="FF480CA8"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F3:F12">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF3A0CA3"/>
+        <color rgb="FF4361EE"/>
+        <color rgb="FF4CC9F0"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>